--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="5"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="572">
   <si>
     <t>人民币</t>
   </si>
@@ -364,6 +364,9 @@
     <t>程昱</t>
   </si>
   <si>
+    <t>周瑜</t>
+  </si>
+  <si>
     <t>马良</t>
   </si>
   <si>
@@ -373,6 +376,12 @@
     <t>程普</t>
   </si>
   <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
     <t>王平</t>
   </si>
   <si>
@@ -385,6 +394,12 @@
     <t>蒋钦</t>
   </si>
   <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
     <t>马云禄</t>
   </si>
   <si>
@@ -394,12 +409,6 @@
     <t>陆逊</t>
   </si>
   <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>周瑜</t>
-  </si>
-  <si>
     <t>初始</t>
   </si>
   <si>
@@ -412,9 +421,6 @@
     <t>吕布</t>
   </si>
   <si>
-    <t>关羽</t>
-  </si>
-  <si>
     <t>轩辕台</t>
   </si>
   <si>
@@ -631,6 +637,27 @@
     <t>抛石台</t>
   </si>
   <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>司马师、司马昭、张春华</t>
+  </si>
+  <si>
+    <t>郭淮、杜预、辛宪英、司马攸</t>
+  </si>
+  <si>
+    <t>邓忠、王元姬、杨济、成济、裴秀</t>
+  </si>
+  <si>
+    <t>孙秀、杨欣、王谈、文虎</t>
+  </si>
+  <si>
+    <t>卫瓘</t>
+  </si>
+  <si>
+    <t>马隆</t>
+  </si>
+  <si>
     <t>霸业</t>
   </si>
   <si>
@@ -697,9 +724,6 @@
     <t>司马懿</t>
   </si>
   <si>
-    <t>邓艾</t>
-  </si>
-  <si>
     <t>诸葛亮</t>
   </si>
   <si>
@@ -797,12 +821,6 @@
   </si>
   <si>
     <t>徐庶</t>
-  </si>
-  <si>
-    <t>庞统</t>
-  </si>
-  <si>
-    <t>魏延</t>
   </si>
   <si>
     <t>法正</t>
@@ -1729,9 +1747,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1780,8 +1798,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1801,22 +1880,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1830,37 +1910,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1869,9 +1918,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1890,37 +1939,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1975,13 +1993,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,7 +2041,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2011,49 +2137,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2071,91 +2167,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2198,6 +2216,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2213,15 +2246,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2233,6 +2257,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2254,15 +2296,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2276,22 +2309,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2303,10 +2321,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2315,137 +2333,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2497,6 +2515,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2516,6 +2537,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2621,8 +2648,8 @@
       <color rgb="00FFFF00"/>
       <color rgb="00FA26DF"/>
       <color rgb="0092D050"/>
+      <color rgb="00FF0000"/>
       <color rgb="00000000"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2925,471 +2952,471 @@
   <dimension ref="B1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J20" sqref="J20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="32"/>
-    <col min="10" max="10" width="13.7777777777778" style="32" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="32" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="32"/>
+    <col min="1" max="9" width="9" style="35"/>
+    <col min="10" max="10" width="13.7777777777778" style="35" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="35" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="M1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="32">
+      <c r="J2" s="35">
         <v>100</v>
       </c>
-      <c r="K2" s="32">
+      <c r="K2" s="35">
         <v>3000</v>
       </c>
-      <c r="L2" s="32">
+      <c r="L2" s="35">
         <v>10</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="35">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="35">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="35">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="35">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="36" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="35" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="35" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="35" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="32" t="s">
+      <c r="J11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="32" t="s">
+      <c r="K11" s="35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="32">
+      <c r="B12" s="35">
         <v>1</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="35">
         <v>5</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="37" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="32">
+      <c r="B13" s="35">
         <v>2</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C13" s="35">
         <v>5</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="32">
+      <c r="B14" s="35">
         <v>3</v>
       </c>
-      <c r="C14" s="32">
+      <c r="C14" s="35">
         <v>10</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="35" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="32">
+      <c r="B15" s="35">
         <v>4</v>
       </c>
-      <c r="C15" s="32">
+      <c r="C15" s="35">
         <v>20</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="32">
+      <c r="B16" s="35">
         <v>5</v>
       </c>
-      <c r="C16" s="32">
+      <c r="C16" s="35">
         <v>40</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="32">
+      <c r="B17" s="35">
         <v>6</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="35">
         <v>80</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="35" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="32">
+      <c r="B18" s="35">
         <v>7</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="35">
         <v>100</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="35" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:9">
-      <c r="B19" s="32">
+      <c r="B19" s="35">
         <v>8</v>
       </c>
-      <c r="C19" s="32">
+      <c r="C19" s="35">
         <v>150</v>
       </c>
-      <c r="I19" s="33" t="s">
+      <c r="I19" s="36" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="32">
+      <c r="B20" s="35">
         <v>9</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="35">
         <v>200</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="35" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="32">
+      <c r="B21" s="35">
         <v>10</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="35">
         <v>300</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="32" t="s">
+      <c r="K21" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="32">
+      <c r="B22" s="35">
         <v>11</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="35">
         <v>500</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="9:11">
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="32" t="s">
+      <c r="K23" s="35" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="32">
+      <c r="C24" s="35">
         <f>SUM(C12:C22)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="35" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" ht="16.2" spans="9:9">
-      <c r="I27" s="33" t="s">
+      <c r="I27" s="36" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:19">
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="36" t="s">
+      <c r="K28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="36" t="s">
+      <c r="L28" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="36" t="s">
+      <c r="M28" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="37" t="s">
+      <c r="O28" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="37" t="s">
+      <c r="P28" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
     </row>
     <row r="29" spans="10:19">
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="36" t="s">
+      <c r="K29" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L29" s="36" t="s">
+      <c r="L29" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="M29" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="N29" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="O29" s="36" t="s">
+      <c r="O29" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="P29" s="37" t="s">
+      <c r="P29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="Q29" s="37" t="s">
+      <c r="Q29" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
     </row>
     <row r="30" spans="10:19">
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="36" t="s">
+      <c r="K30" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="M30" s="36" t="s">
+      <c r="M30" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N30" s="36" t="s">
+      <c r="N30" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="O30" s="37" t="s">
+      <c r="O30" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="37" t="s">
+      <c r="P30" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="Q30" s="37" t="s">
+      <c r="Q30" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="R30" s="37" t="s">
+      <c r="R30" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="S30" s="37" t="s">
+      <c r="S30" s="40" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="31" spans="10:19">
-      <c r="J31" s="32" t="s">
+      <c r="J31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="K31" s="37" t="s">
+      <c r="K31" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="L31" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="M31" s="37" t="s">
+      <c r="M31" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="38"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
     </row>
     <row r="32" spans="10:19">
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="36" t="s">
+      <c r="K32" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="36" t="s">
+      <c r="L32" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="M32" s="37" t="s">
+      <c r="M32" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="N32" s="37" t="s">
+      <c r="N32" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
     </row>
     <row r="33" spans="10:15">
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="36" t="s">
+      <c r="K33" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="L33" s="36" t="s">
+      <c r="L33" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="M33" s="37" t="s">
+      <c r="M33" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="37" t="s">
+      <c r="N33" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="O33" s="37" t="s">
+      <c r="O33" s="40" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="35" spans="10:10">
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="35" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="32" t="s">
+      <c r="J36" s="35" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="32" t="s">
+      <c r="J37" s="35" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="32" t="s">
+      <c r="J39" s="35" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3412,7 +3439,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -3420,7 +3447,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -3436,7 +3463,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -3444,7 +3471,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -3452,7 +3479,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -3476,7 +3503,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -3500,7 +3527,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -3508,7 +3535,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -3532,7 +3559,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -3540,7 +3567,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -3556,7 +3583,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -3564,7 +3591,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -3572,7 +3599,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -3580,7 +3607,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -3588,7 +3615,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -3596,7 +3623,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -3604,7 +3631,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -3612,7 +3639,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -3628,7 +3655,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -3636,7 +3663,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -3644,7 +3671,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -3652,7 +3679,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -3660,7 +3687,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -3668,7 +3695,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -3676,7 +3703,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -3684,7 +3711,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -3692,7 +3719,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -3700,7 +3727,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -3708,7 +3735,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -3716,7 +3743,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -3732,7 +3759,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -3740,7 +3767,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -3748,7 +3775,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -3764,7 +3791,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -3772,7 +3799,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -3780,7 +3807,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -3788,7 +3815,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -3796,7 +3823,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -3804,7 +3831,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -3812,7 +3839,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
@@ -3820,7 +3847,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -3828,7 +3855,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -3836,7 +3863,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
@@ -3844,7 +3871,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
@@ -3852,7 +3879,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -3868,7 +3895,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
@@ -3876,7 +3903,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -3892,7 +3919,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
@@ -3900,7 +3927,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
@@ -3908,7 +3935,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>258</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1">
         <v>62</v>
@@ -3916,7 +3943,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -3924,7 +3951,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -3932,7 +3959,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
@@ -3948,7 +3975,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
@@ -3956,7 +3983,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
@@ -3964,7 +3991,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
@@ -3972,7 +3999,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
@@ -3980,7 +4007,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
@@ -3988,7 +4015,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
@@ -3996,7 +4023,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
@@ -4004,7 +4031,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
@@ -4012,7 +4039,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
@@ -4020,7 +4047,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
@@ -4028,7 +4055,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
@@ -4036,7 +4063,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
@@ -4044,7 +4071,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
@@ -4052,7 +4079,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B81" s="1">
         <v>80</v>
@@ -4060,7 +4087,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
@@ -4068,7 +4095,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" s="1">
         <v>82</v>
@@ -4084,7 +4111,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
@@ -4092,7 +4119,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
@@ -4100,7 +4127,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B87" s="1">
         <v>86</v>
@@ -4108,7 +4135,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B88" s="1">
         <v>87</v>
@@ -4116,7 +4143,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
@@ -4124,7 +4151,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
@@ -4132,7 +4159,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B91" s="1">
         <v>90</v>
@@ -4140,7 +4167,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B92" s="1">
         <v>91</v>
@@ -4148,7 +4175,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
@@ -4156,7 +4183,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
@@ -4164,7 +4191,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
@@ -4172,7 +4199,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
@@ -4180,7 +4207,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B97" s="1">
         <v>96</v>
@@ -4188,7 +4215,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B98" s="1">
         <v>97</v>
@@ -4196,7 +4223,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B99" s="1">
         <v>98</v>
@@ -4204,7 +4231,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B100" s="1">
         <v>99</v>
@@ -4212,7 +4239,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B101" s="1">
         <v>100</v>
@@ -4228,7 +4255,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
@@ -4236,7 +4263,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
@@ -4244,7 +4271,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
@@ -4252,7 +4279,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B106" s="1">
         <v>105</v>
@@ -4260,7 +4287,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -4268,7 +4295,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B108" s="1">
         <v>107</v>
@@ -4276,7 +4303,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B109" s="1">
         <v>108</v>
@@ -4284,7 +4311,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B110" s="1">
         <v>109</v>
@@ -4292,7 +4319,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B111" s="1">
         <v>110</v>
@@ -4300,7 +4327,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B112" s="1">
         <v>111</v>
@@ -4308,7 +4335,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B113" s="1">
         <v>112</v>
@@ -4316,7 +4343,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B114" s="1">
         <v>113</v>
@@ -4324,7 +4351,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1">
         <v>114</v>
@@ -4332,7 +4359,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B116" s="1">
         <v>115</v>
@@ -4340,7 +4367,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B117" s="1">
         <v>116</v>
@@ -4348,7 +4375,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B118" s="1">
         <v>117</v>
@@ -4356,7 +4383,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B119" s="1">
         <v>118</v>
@@ -4364,7 +4391,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B120" s="1">
         <v>119</v>
@@ -4372,7 +4399,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B121" s="1">
         <v>120</v>
@@ -4380,7 +4407,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1">
         <v>121</v>
@@ -4388,7 +4415,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B123" s="1">
         <v>122</v>
@@ -4396,7 +4423,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
@@ -4404,7 +4431,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B125" s="1">
         <v>124</v>
@@ -4412,7 +4439,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B126" s="1">
         <v>125</v>
@@ -4420,7 +4447,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B127" s="1">
         <v>126</v>
@@ -4428,7 +4455,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B128" s="1">
         <v>127</v>
@@ -4436,7 +4463,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B129" s="1">
         <v>128</v>
@@ -4444,7 +4471,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B130" s="1">
         <v>129</v>
@@ -4452,7 +4479,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B131" s="1">
         <v>130</v>
@@ -4460,7 +4487,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B132" s="1">
         <v>131</v>
@@ -4468,7 +4495,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B133" s="1">
         <v>132</v>
@@ -4476,7 +4503,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B134" s="1">
         <v>133</v>
@@ -4484,7 +4511,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B135" s="1">
         <v>134</v>
@@ -4492,7 +4519,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B136" s="1">
         <v>135</v>
@@ -4508,7 +4535,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B138" s="1">
         <v>137</v>
@@ -4516,7 +4543,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B139" s="1">
         <v>138</v>
@@ -4524,7 +4551,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B140" s="1">
         <v>139</v>
@@ -4532,7 +4559,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B141" s="1">
         <v>140</v>
@@ -4540,7 +4567,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B142" s="1">
         <v>141</v>
@@ -4548,7 +4575,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B143" s="1">
         <v>142</v>
@@ -4556,7 +4583,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B144" s="1">
         <v>143</v>
@@ -4564,7 +4591,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B145" s="1">
         <v>144</v>
@@ -4572,7 +4599,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B146" s="1">
         <v>145</v>
@@ -4580,7 +4607,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B147" s="1">
         <v>146</v>
@@ -4596,7 +4623,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B149" s="1">
         <v>148</v>
@@ -4604,7 +4631,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B150" s="1">
         <v>149</v>
@@ -4612,7 +4639,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B151" s="1">
         <v>150</v>
@@ -4620,7 +4647,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B152" s="1">
         <v>151</v>
@@ -4628,7 +4655,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B153" s="1">
         <v>152</v>
@@ -4636,7 +4663,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B154" s="1">
         <v>153</v>
@@ -4644,7 +4671,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B155" s="1">
         <v>154</v>
@@ -4652,7 +4679,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B156" s="1">
         <v>155</v>
@@ -4660,7 +4687,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B157" s="1">
         <v>156</v>
@@ -4668,7 +4695,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B158" s="1">
         <v>157</v>
@@ -4676,7 +4703,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B159" s="1">
         <v>158</v>
@@ -4684,7 +4711,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B160" s="1">
         <v>159</v>
@@ -4692,7 +4719,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B161" s="1">
         <v>160</v>
@@ -4700,7 +4727,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
@@ -4708,7 +4735,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B163" s="1">
         <v>162</v>
@@ -4716,7 +4743,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B164" s="1">
         <v>163</v>
@@ -4724,7 +4751,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
@@ -4732,7 +4759,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B166" s="1">
         <v>165</v>
@@ -4740,7 +4767,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
@@ -4748,7 +4775,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B168" s="1">
         <v>167</v>
@@ -4756,7 +4783,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B169" s="1">
         <v>168</v>
@@ -4764,7 +4791,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B170" s="1">
         <v>169</v>
@@ -4772,7 +4799,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B171" s="1">
         <v>170</v>
@@ -4780,7 +4807,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
@@ -4788,7 +4815,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B173" s="1">
         <v>172</v>
@@ -4796,7 +4823,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B174" s="1">
         <v>173</v>
@@ -4804,7 +4831,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B175" s="1">
         <v>174</v>
@@ -4812,7 +4839,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
@@ -4820,7 +4847,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B177" s="1">
         <v>176</v>
@@ -4828,7 +4855,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B178" s="1">
         <v>177</v>
@@ -4836,7 +4863,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B179" s="1">
         <v>178</v>
@@ -4844,7 +4871,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B180" s="1">
         <v>179</v>
@@ -4852,7 +4879,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B181" s="1">
         <v>180</v>
@@ -4860,7 +4887,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B182" s="1">
         <v>181</v>
@@ -4868,7 +4895,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B183" s="1">
         <v>182</v>
@@ -4876,7 +4903,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B184" s="1">
         <v>183</v>
@@ -4884,7 +4911,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B185" s="1">
         <v>184</v>
@@ -4892,7 +4919,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B186" s="1">
         <v>185</v>
@@ -4900,7 +4927,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B187" s="1">
         <v>186</v>
@@ -4908,7 +4935,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B188" s="1">
         <v>187</v>
@@ -4916,7 +4943,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B189" s="1">
         <v>188</v>
@@ -4924,7 +4951,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
@@ -4932,7 +4959,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B191" s="1">
         <v>190</v>
@@ -4940,7 +4967,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B192" s="1">
         <v>191</v>
@@ -4956,7 +4983,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B194" s="1">
         <v>193</v>
@@ -4964,7 +4991,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
@@ -4972,7 +4999,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
@@ -4980,7 +5007,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
@@ -4988,7 +5015,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B198" s="1">
         <v>197</v>
@@ -4996,7 +5023,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B199" s="1">
         <v>198</v>
@@ -5004,7 +5031,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B200" s="1">
         <v>199</v>
@@ -5012,7 +5039,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
@@ -5020,7 +5047,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
@@ -5028,7 +5055,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
@@ -5036,7 +5063,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B204" s="1">
         <v>203</v>
@@ -5044,7 +5071,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B205" s="1">
         <v>204</v>
@@ -5052,7 +5079,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B206" s="1">
         <v>205</v>
@@ -5060,7 +5087,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B207" s="1">
         <v>206</v>
@@ -5068,7 +5095,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B208" s="1">
         <v>207</v>
@@ -5076,7 +5103,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B209" s="1">
         <v>208</v>
@@ -5084,7 +5111,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B210" s="1">
         <v>209</v>
@@ -5092,7 +5119,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
@@ -5100,7 +5127,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B212" s="1">
         <v>211</v>
@@ -5108,7 +5135,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
@@ -5116,7 +5143,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
@@ -5124,7 +5151,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B215" s="1">
         <v>214</v>
@@ -5132,7 +5159,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B216" s="1">
         <v>215</v>
@@ -5140,7 +5167,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B217" s="1">
         <v>216</v>
@@ -5148,7 +5175,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B218" s="1">
         <v>217</v>
@@ -5156,7 +5183,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B219" s="1">
         <v>218</v>
@@ -5164,7 +5191,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B220" s="1">
         <v>219</v>
@@ -5172,7 +5199,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
@@ -5180,7 +5207,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B222" s="1">
         <v>221</v>
@@ -5188,7 +5215,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B223" s="1">
         <v>222</v>
@@ -5196,7 +5223,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B224" s="1">
         <v>223</v>
@@ -5204,7 +5231,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B225" s="1">
         <v>224</v>
@@ -5212,7 +5239,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B226" s="1">
         <v>225</v>
@@ -5220,7 +5247,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B227" s="1">
         <v>226</v>
@@ -5228,7 +5255,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B228" s="1">
         <v>227</v>
@@ -5236,7 +5263,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B229" s="1">
         <v>228</v>
@@ -5244,7 +5271,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B230" s="1">
         <v>229</v>
@@ -5252,7 +5279,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B231" s="1">
         <v>230</v>
@@ -5260,7 +5287,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B232" s="1">
         <v>231</v>
@@ -5268,7 +5295,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B233" s="1">
         <v>232</v>
@@ -5276,7 +5303,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B234" s="1">
         <v>233</v>
@@ -5284,7 +5311,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B235" s="1">
         <v>234</v>
@@ -5292,7 +5319,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B236" s="1">
         <v>235</v>
@@ -5300,7 +5327,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B237" s="1">
         <v>236</v>
@@ -5308,7 +5335,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B238" s="1">
         <v>237</v>
@@ -5316,7 +5343,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B239" s="1">
         <v>238</v>
@@ -5324,7 +5351,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B240" s="1">
         <v>239</v>
@@ -5332,7 +5359,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B241" s="1">
         <v>240</v>
@@ -5340,7 +5367,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B242" s="1">
         <v>241</v>
@@ -5348,7 +5375,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B243" s="1">
         <v>242</v>
@@ -5356,7 +5383,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B244" s="1">
         <v>243</v>
@@ -5364,7 +5391,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B245" s="1">
         <v>244</v>
@@ -5372,7 +5399,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B246" s="1">
         <v>245</v>
@@ -5380,7 +5407,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B247" s="1">
         <v>246</v>
@@ -5388,7 +5415,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B248" s="1">
         <v>247</v>
@@ -5396,7 +5423,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B249" s="1">
         <v>248</v>
@@ -5404,7 +5431,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B250" s="1">
         <v>249</v>
@@ -5412,7 +5439,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B251" s="1">
         <v>250</v>
@@ -5420,7 +5447,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B252" s="1">
         <v>251</v>
@@ -5428,7 +5455,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B253" s="1">
         <v>252</v>
@@ -5436,7 +5463,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B254" s="1">
         <v>253</v>
@@ -5444,7 +5471,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B255" s="1">
         <v>254</v>
@@ -5452,7 +5479,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B256" s="1">
         <v>255</v>
@@ -5468,7 +5495,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B258" s="1">
         <v>257</v>
@@ -5476,7 +5503,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B259" s="1">
         <v>258</v>
@@ -5484,7 +5511,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B260" s="1">
         <v>259</v>
@@ -5492,7 +5519,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B261" s="1">
         <v>260</v>
@@ -5500,7 +5527,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B262" s="1">
         <v>261</v>
@@ -5508,7 +5535,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B263" s="1">
         <v>262</v>
@@ -5516,7 +5543,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B264" s="1">
         <v>263</v>
@@ -5524,7 +5551,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B265" s="1">
         <v>264</v>
@@ -5532,7 +5559,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B266" s="1">
         <v>265</v>
@@ -5540,7 +5567,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B267" s="1">
         <v>266</v>
@@ -5548,7 +5575,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B268" s="1">
         <v>267</v>
@@ -5556,7 +5583,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B269" s="1">
         <v>268</v>
@@ -5564,7 +5591,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B270" s="1">
         <v>269</v>
@@ -5572,7 +5599,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
@@ -5580,7 +5607,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B272" s="1">
         <v>271</v>
@@ -5588,7 +5615,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B273" s="1">
         <v>272</v>
@@ -5596,7 +5623,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B274" s="1">
         <v>273</v>
@@ -5604,7 +5631,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B275" s="1">
         <v>274</v>
@@ -5612,7 +5639,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B276" s="1">
         <v>275</v>
@@ -5620,7 +5647,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B277" s="1">
         <v>276</v>
@@ -5628,7 +5655,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B278" s="1">
         <v>277</v>
@@ -5636,7 +5663,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B279" s="1">
         <v>278</v>
@@ -5644,7 +5671,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
@@ -5652,7 +5679,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
@@ -5660,7 +5687,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B282" s="1">
         <v>281</v>
@@ -5668,7 +5695,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B283" s="1">
         <v>282</v>
@@ -5676,7 +5703,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B284" s="1">
         <v>283</v>
@@ -5684,7 +5711,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B285" s="1">
         <v>284</v>
@@ -5692,7 +5719,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B286" s="1">
         <v>285</v>
@@ -5700,7 +5727,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B287" s="1">
         <v>286</v>
@@ -5708,7 +5735,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
@@ -5716,7 +5743,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B289" s="1">
         <v>288</v>
@@ -5724,7 +5751,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B290" s="1">
         <v>289</v>
@@ -5732,7 +5759,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B291" s="1">
         <v>290</v>
@@ -5740,7 +5767,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B292" s="1">
         <v>291</v>
@@ -5748,7 +5775,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B293" s="1">
         <v>292</v>
@@ -5756,7 +5783,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B294" s="1">
         <v>293</v>
@@ -5764,7 +5791,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B295" s="1">
         <v>294</v>
@@ -5772,7 +5799,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B296" s="1">
         <v>295</v>
@@ -5780,7 +5807,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B297" s="1">
         <v>296</v>
@@ -5788,7 +5815,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B298" s="1">
         <v>297</v>
@@ -5796,7 +5823,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B299" s="1">
         <v>298</v>
@@ -5804,7 +5831,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B300" s="1">
         <v>299</v>
@@ -5812,7 +5839,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B301" s="1">
         <v>300</v>
@@ -5820,7 +5847,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B302" s="1">
         <v>301</v>
@@ -5828,7 +5855,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B303" s="1">
         <v>302</v>
@@ -5836,7 +5863,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B304" s="1">
         <v>303</v>
@@ -5844,7 +5871,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B305" s="1">
         <v>304</v>
@@ -5852,7 +5879,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B306" s="1">
         <v>305</v>
@@ -5860,7 +5887,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B307" s="1">
         <v>306</v>
@@ -5868,7 +5895,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B308" s="1">
         <v>307</v>
@@ -5876,7 +5903,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B309" s="1">
         <v>308</v>
@@ -5884,7 +5911,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B310" s="1">
         <v>309</v>
@@ -5892,7 +5919,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B311" s="1">
         <v>310</v>
@@ -5900,7 +5927,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B312" s="1">
         <v>311</v>
@@ -5908,7 +5935,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B313" s="1">
         <v>312</v>
@@ -5916,7 +5943,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B314" s="1">
         <v>313</v>
@@ -5924,7 +5951,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B315" s="1">
         <v>314</v>
@@ -5932,7 +5959,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B316" s="1">
         <v>315</v>
@@ -5948,7 +5975,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B318" s="1">
         <v>317</v>
@@ -5956,7 +5983,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B319" s="1">
         <v>318</v>
@@ -5964,7 +5991,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B320" s="1">
         <v>319</v>
@@ -5972,7 +5999,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B321" s="1">
         <v>320</v>
@@ -5980,7 +6007,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B322" s="1">
         <v>321</v>
@@ -5988,7 +6015,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B323" s="1">
         <v>322</v>
@@ -5996,7 +6023,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B324" s="1">
         <v>323</v>
@@ -6004,7 +6031,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B325" s="1">
         <v>324</v>
@@ -6012,7 +6039,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B326" s="1">
         <v>325</v>
@@ -6020,7 +6047,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B327" s="1">
         <v>326</v>
@@ -6028,7 +6055,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B328" s="1">
         <v>327</v>
@@ -6036,7 +6063,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B329" s="1">
         <v>328</v>
@@ -6044,7 +6071,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B330" s="1">
         <v>329</v>
@@ -6052,7 +6079,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B331" s="1">
         <v>330</v>
@@ -6060,7 +6087,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B332" s="1">
         <v>331</v>
@@ -6068,7 +6095,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B333" s="1">
         <v>332</v>
@@ -6076,7 +6103,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B334" s="1">
         <v>333</v>
@@ -6084,7 +6111,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B335" s="1">
         <v>334</v>
@@ -6092,7 +6119,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B336" s="1">
         <v>335</v>
@@ -6100,7 +6127,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B337" s="1">
         <v>336</v>
@@ -6108,7 +6135,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B338" s="1">
         <v>337</v>
@@ -6116,7 +6143,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B339" s="1">
         <v>338</v>
@@ -6124,7 +6151,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B340" s="1">
         <v>339</v>
@@ -6132,7 +6159,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B341" s="1">
         <v>340</v>
@@ -6140,7 +6167,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B342" s="1">
         <v>341</v>
@@ -6148,7 +6175,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B343" s="1">
         <v>342</v>
@@ -6156,7 +6183,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B344" s="1">
         <v>343</v>
@@ -6164,7 +6191,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B345" s="1">
         <v>344</v>
@@ -6172,7 +6199,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B346" s="1">
         <v>345</v>
@@ -6180,7 +6207,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B347" s="1">
         <v>346</v>
@@ -6188,7 +6215,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B348" s="1">
         <v>347</v>
@@ -6196,7 +6223,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B349" s="1">
         <v>348</v>
@@ -6204,7 +6231,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B350" s="1">
         <v>349</v>
@@ -6212,7 +6239,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B351" s="1">
         <v>350</v>
@@ -6220,7 +6247,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B352" s="1">
         <v>351</v>
@@ -6228,7 +6255,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B353" s="1">
         <v>352</v>
@@ -6236,7 +6263,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B354" s="1">
         <v>353</v>
@@ -6244,7 +6271,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B355" s="1">
         <v>354</v>
@@ -6252,7 +6279,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B356" s="1">
         <v>355</v>
@@ -6260,7 +6287,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B357" s="1">
         <v>356</v>
@@ -6268,7 +6295,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B358" s="1">
         <v>357</v>
@@ -6276,7 +6303,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B359" s="1">
         <v>358</v>
@@ -6284,7 +6311,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B360" s="1">
         <v>359</v>
@@ -6292,7 +6319,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B361" s="1">
         <v>360</v>
@@ -6300,7 +6327,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B362" s="1">
         <v>361</v>
@@ -6308,7 +6335,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B363" s="1">
         <v>362</v>
@@ -6316,7 +6343,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B364" s="1">
         <v>363</v>
@@ -6324,7 +6351,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B365" s="1">
         <v>364</v>
@@ -6332,7 +6359,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B366" s="1">
         <v>365</v>
@@ -6340,7 +6367,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B367" s="1">
         <v>366</v>
@@ -6348,7 +6375,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B368" s="1">
         <v>367</v>
@@ -6356,7 +6383,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B369" s="1">
         <v>368</v>
@@ -6364,7 +6391,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B370" s="1">
         <v>369</v>
@@ -6372,7 +6399,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B371" s="1">
         <v>370</v>
@@ -6380,7 +6407,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B372" s="1">
         <v>371</v>
@@ -6388,7 +6415,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B373" s="1">
         <v>372</v>
@@ -6396,7 +6423,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B374" s="1">
         <v>373</v>
@@ -6404,7 +6431,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B375" s="1">
         <v>374</v>
@@ -6412,7 +6439,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B376" s="1">
         <v>375</v>
@@ -6420,7 +6447,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B377" s="1">
         <v>376</v>
@@ -6428,7 +6455,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B378" s="1">
         <v>377</v>
@@ -6436,7 +6463,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B379" s="1">
         <v>378</v>
@@ -6444,7 +6471,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B380" s="1">
         <v>379</v>
@@ -6452,7 +6479,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B381" s="1">
         <v>380</v>
@@ -6460,7 +6487,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B382" s="1">
         <v>381</v>
@@ -6468,7 +6495,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B383" s="1">
         <v>382</v>
@@ -6476,7 +6503,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B384" s="1">
         <v>383</v>
@@ -6484,7 +6511,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B385" s="1">
         <v>384</v>
@@ -6492,7 +6519,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B386" s="1">
         <v>385</v>
@@ -6500,7 +6527,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B387" s="1">
         <v>386</v>
@@ -6508,7 +6535,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B388" s="1">
         <v>387</v>
@@ -6516,7 +6543,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B389" s="1">
         <v>388</v>
@@ -6524,7 +6551,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B390" s="1">
         <v>389</v>
@@ -6532,7 +6559,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B391" s="1">
         <v>390</v>
@@ -6540,7 +6567,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B392" s="1">
         <v>391</v>
@@ -6548,7 +6575,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B393" s="1">
         <v>392</v>
@@ -6556,7 +6583,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B394" s="1">
         <v>393</v>
@@ -6564,7 +6591,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B395" s="1">
         <v>394</v>
@@ -6572,7 +6599,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B396" s="1">
         <v>395</v>
@@ -6580,7 +6607,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B397" s="1">
         <v>396</v>
@@ -6588,7 +6615,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="B398" s="1">
         <v>397</v>
@@ -6596,7 +6623,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B399" s="1">
         <v>398</v>
@@ -6604,7 +6631,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B400" s="1">
         <v>399</v>
@@ -6612,7 +6639,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B401" s="1">
         <v>400</v>
@@ -6629,8 +6656,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -6639,41 +6666,41 @@
     <col min="2" max="2" width="3.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="24"/>
+    <col min="6" max="6" width="9" style="27"/>
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9" style="24"/>
+    <col min="9" max="9" width="9" style="27"/>
     <col min="10" max="10" width="9" style="2"/>
     <col min="11" max="11" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9" style="24"/>
+    <col min="12" max="12" width="9" style="27"/>
     <col min="13" max="13" width="9" style="2"/>
     <col min="14" max="14" width="9.88888888888889" style="2" customWidth="1"/>
-    <col min="15" max="15" width="9" style="24"/>
+    <col min="15" max="15" width="9" style="27"/>
     <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25" t="s">
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28" t="s">
         <v>89</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="28" t="s">
         <v>90</v>
       </c>
       <c r="P2" s="3"/>
@@ -6682,33 +6709,33 @@
       </c>
     </row>
     <row r="3" spans="3:19">
-      <c r="C3" s="24">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="24">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="27">
         <v>1</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="24">
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="27">
         <v>1</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="27">
         <v>1</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" s="26" t="str">
+      <c r="Q3" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,14,5</v>
       </c>
@@ -6717,33 +6744,33 @@
       </c>
     </row>
     <row r="4" spans="3:19">
-      <c r="C4" s="24">
+      <c r="C4" s="27">
         <v>2</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24">
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="27">
         <v>2</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="24">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="27">
         <v>2</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="24">
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="27">
         <v>2</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="24">
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="27">
         <v>2</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="Q4" s="26" t="str">
+      <c r="Q4" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,13,5</v>
       </c>
@@ -6752,53 +6779,53 @@
       </c>
     </row>
     <row r="5" ht="16.2" spans="3:19">
-      <c r="C5" s="25">
+      <c r="C5" s="28">
         <v>3</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="26" t="str">
+      <c r="E5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="28">
         <v>3</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="26" t="str">
+      <c r="H5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
         <v>0,316,10</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="28">
         <v>3</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="26" t="str">
+      <c r="K5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
         <v>0,256,10</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="28">
         <v>3</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="N5" s="26" t="str">
+      <c r="N5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
         <v>0,192,10</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="27">
         <v>3</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="Q5" s="26" t="str">
+      <c r="Q5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,10,5</v>
       </c>
@@ -6807,697 +6834,727 @@
       </c>
     </row>
     <row r="6" spans="3:19">
-      <c r="C6" s="24">
+      <c r="C6" s="27">
         <v>4</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="27">
         <v>4</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="24">
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="27">
         <v>4</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="24">
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="27">
         <v>4</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="24">
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="27">
         <v>4</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="Q6" s="26" t="str">
+      <c r="Q6" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,43,5</v>
       </c>
-      <c r="R6" s="26"/>
+      <c r="R6" s="29"/>
       <c r="S6" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="3:19">
-      <c r="C7" s="24">
+      <c r="C7" s="27">
         <v>5</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="24">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="27">
         <v>5</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="24">
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="27">
         <v>5</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="24">
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="27">
         <v>5</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24">
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="27">
         <v>5</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="Q7" s="26" t="str">
+      <c r="Q7" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,17,5</v>
       </c>
-      <c r="R7" s="26"/>
+      <c r="R7" s="29"/>
       <c r="S7" s="2">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="16.2" spans="3:19">
-      <c r="C8" s="25">
+      <c r="C8" s="28">
         <v>6</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="26" t="str">
+      <c r="E8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="28">
         <v>6</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="26" t="str">
+      <c r="H8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,136,5</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="28">
         <v>6</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="K8" s="26" t="str">
+      <c r="K8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,101,5</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="28">
         <v>6</v>
       </c>
-      <c r="M8" s="28" t="s">
+      <c r="M8" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="N8" s="26" t="str">
+      <c r="N8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,83,5</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="27">
         <v>6</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="Q8" s="26" t="str">
+      <c r="Q8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,9,5</v>
       </c>
-      <c r="R8" s="26"/>
+      <c r="R8" s="29"/>
       <c r="S8" s="2">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="3:19">
-      <c r="C9" s="24">
+      <c r="C9" s="27">
         <v>7</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="24">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="27">
         <v>7</v>
       </c>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="24">
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="27">
         <v>7</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="24">
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="27">
         <v>7</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24">
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="27">
         <v>7</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="Q9" s="26" t="str">
+      <c r="Q9" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,7,5</v>
       </c>
-      <c r="R9" s="26"/>
+      <c r="R9" s="29"/>
       <c r="S9" s="2">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:19">
-      <c r="C10" s="24">
+      <c r="C10" s="27">
         <v>8</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="24">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27">
         <v>8</v>
       </c>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="24">
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27">
         <v>8</v>
       </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="24">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="27">
         <v>8</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="24">
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="27">
         <v>8</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="Q10" s="26" t="str">
+      <c r="Q10" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,6,5</v>
       </c>
-      <c r="R10" s="26"/>
+      <c r="R10" s="29"/>
       <c r="S10" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="11" ht="16.2" spans="3:19">
-      <c r="C11" s="25">
+      <c r="C11" s="28">
         <v>9</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="26" t="str">
+      <c r="E11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="28">
         <v>9</v>
       </c>
-      <c r="G11" s="29" t="s">
+      <c r="G11" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="H11" s="26" t="str">
+      <c r="H11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,66,5</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="28">
         <v>9</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="K11" s="26" t="str">
+      <c r="K11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,39,5</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="28">
         <v>9</v>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="M11" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="26" t="str">
+      <c r="N11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,26,5</v>
       </c>
-      <c r="O11" s="24">
+      <c r="O11" s="27">
         <v>9</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="Q11" s="26" t="str">
+      <c r="Q11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,2,5</v>
       </c>
-      <c r="R11" s="26"/>
+      <c r="R11" s="29"/>
       <c r="S11" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="3:19">
-      <c r="C12" s="24">
+      <c r="C12" s="27">
         <v>10</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="27">
         <v>10</v>
       </c>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="24">
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27">
         <v>10</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="24">
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="27">
         <v>10</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="24">
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="27">
         <v>10</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="Q12" s="26" t="str">
+      <c r="Q12" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,56,5</v>
       </c>
-      <c r="R12" s="26"/>
+      <c r="R12" s="29"/>
       <c r="S12" s="2">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="3:19">
-      <c r="C13" s="24">
+      <c r="C13" s="27">
         <v>11</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="24">
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27">
         <v>11</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="24">
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27">
         <v>11</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="24">
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="27">
         <v>11</v>
       </c>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="24">
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="27">
         <v>11</v>
       </c>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
+      <c r="P13" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P13,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,0,5</v>
+      </c>
+      <c r="R13" s="29"/>
       <c r="S13" s="2">
         <v>11</v>
       </c>
     </row>
     <row r="14" ht="16.2" spans="3:19">
-      <c r="C14" s="25">
+      <c r="C14" s="28">
         <v>12</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="26" t="str">
+      <c r="E14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,147,5</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="28">
         <v>12</v>
       </c>
-      <c r="G14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="26" t="str">
+      <c r="G14" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,133,5</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="28">
         <v>12</v>
       </c>
-      <c r="J14" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="26" t="str">
+      <c r="J14" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,114,5</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="28">
         <v>12</v>
       </c>
-      <c r="M14" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="N14" s="26" t="str">
+      <c r="M14" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,82,5</v>
       </c>
-      <c r="O14" s="24">
+      <c r="O14" s="27">
         <v>12</v>
       </c>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
+      <c r="P14" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q14" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P14,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,11,5</v>
+      </c>
+      <c r="R14" s="29"/>
       <c r="S14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="3:19">
-      <c r="C15" s="24">
+      <c r="C15" s="27">
         <v>13</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="24">
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27">
         <v>13</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="24">
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27">
         <v>13</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="24">
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="27">
         <v>13</v>
       </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="24">
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="27">
         <v>13</v>
       </c>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="P15" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q15" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P15,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,6,5</v>
+      </c>
+      <c r="R15" s="29"/>
       <c r="S15" s="2">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="3:19">
-      <c r="C16" s="24">
+      <c r="C16" s="27">
         <v>14</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="24">
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27">
         <v>14</v>
       </c>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="24">
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27">
         <v>14</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="24">
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="27">
         <v>14</v>
       </c>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="24">
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="27">
         <v>14</v>
       </c>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="P16" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P16,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,62,5</v>
+      </c>
+      <c r="R16" s="29"/>
       <c r="S16" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="16.2" spans="3:19">
-      <c r="C17" s="25">
+      <c r="C17" s="28">
         <v>15</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="26" t="str">
+      <c r="D17" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,149,5</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="28">
         <v>15</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="26" t="str">
+      <c r="G17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,311,5</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="28">
         <v>15</v>
       </c>
-      <c r="J17" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="K17" s="26" t="str">
+      <c r="J17" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,121,5</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="28">
         <v>15</v>
       </c>
-      <c r="M17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="N17" s="26" t="str">
+      <c r="M17" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,86,5</v>
       </c>
-      <c r="O17" s="24">
+      <c r="O17" s="27">
         <v>15</v>
       </c>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="P17" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q17" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P17,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,63,5</v>
+      </c>
+      <c r="R17" s="29"/>
       <c r="S17" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:19">
-      <c r="C18" s="24">
+      <c r="C18" s="27">
         <v>16</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="24">
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27">
         <v>16</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="24">
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27">
         <v>16</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="24">
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="27">
         <v>16</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="24">
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="27">
         <v>16</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="P18" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q18" s="29" t="str">
+        <f>CONCATENATE("0,",VLOOKUP(P18,武将表!$A:$B,2,FALSE),",5")</f>
+        <v>0,16,5</v>
+      </c>
+      <c r="R18" s="29"/>
       <c r="S18" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="3:19">
-      <c r="C19" s="24">
+      <c r="C19" s="27">
         <v>17</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="24">
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27">
         <v>17</v>
       </c>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="24">
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27">
         <v>17</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="24">
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="27">
         <v>17</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="24">
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="27">
         <v>17</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
       <c r="S19" s="2">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="3:19">
-      <c r="C20" s="25">
+      <c r="C20" s="28">
         <v>18</v>
       </c>
-      <c r="D20" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="E20" s="26" t="str">
+      <c r="D20" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,139,5</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="28">
         <v>18</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="26" t="str">
+      <c r="H20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,59,5</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="28">
         <v>18</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="26" t="str">
+      <c r="J20" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,50,5</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="28">
         <v>18</v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="26" t="str">
+      <c r="M20" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="N20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,27,5</v>
       </c>
-      <c r="O20" s="24">
+      <c r="O20" s="27">
         <v>18</v>
       </c>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
       <c r="S20" s="2">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="3:19">
-      <c r="C21" s="24">
+      <c r="C21" s="27">
         <v>19</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="24">
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27">
         <v>19</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24">
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="27">
         <v>19</v>
       </c>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="24">
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="27">
         <v>19</v>
       </c>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="24">
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="27">
         <v>19</v>
       </c>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
       <c r="S21" s="2">
         <v>19</v>
       </c>
     </row>
     <row r="22" ht="16.2" spans="3:19">
-      <c r="C22" s="25">
+      <c r="C22" s="28">
         <v>20</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="26" t="str">
+      <c r="E22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,17,5</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="28">
         <v>20</v>
       </c>
-      <c r="G22" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="26" t="str">
+      <c r="G22" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,16,5</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="28">
         <v>20</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="J22" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="26" t="str">
+      <c r="K22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,6,5</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="28">
         <v>20</v>
       </c>
-      <c r="M22" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="26" t="str">
+      <c r="M22" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="N22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
         <v>0,0,5</v>
       </c>
-      <c r="O22" s="24">
+      <c r="O22" s="27">
         <v>20</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
       <c r="S22" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="17:18">
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L30" s="25" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="L30" s="28" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="3:14">
@@ -7510,20 +7567,20 @@
       <c r="E31" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="24" t="s">
+      <c r="F31" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="N31" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="L31" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="N31" s="24" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="32" spans="3:14">
@@ -7534,59 +7591,59 @@
         <v>102</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>133</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="L32" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="N32" s="24"/>
+      <c r="M32" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="N32" s="27"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="27" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" spans="12:13">
-      <c r="L34" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="M34" s="24"/>
+      <c r="L34" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="27"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F36" s="24" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -7611,68 +7668,68 @@
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="3" width="16" style="17" customWidth="1"/>
-    <col min="4" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="3" width="16" style="18" customWidth="1"/>
+    <col min="4" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16384" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="18">
+      <c r="G2" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
@@ -7680,7 +7737,7 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
@@ -7688,10 +7745,10 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="18">
+      <c r="B4" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
@@ -7699,7 +7756,7 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
@@ -7707,16 +7764,16 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="18">
+      <c r="C6" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
@@ -7724,7 +7781,7 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
@@ -7732,13 +7789,13 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="B8" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
@@ -7746,7 +7803,7 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
@@ -7754,13 +7811,13 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="18">
+      <c r="B10" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
@@ -7768,7 +7825,7 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
@@ -7776,7 +7833,7 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
@@ -7784,16 +7841,16 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="18">
+      <c r="E13" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
@@ -7801,7 +7858,7 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
@@ -7809,7 +7866,7 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
@@ -7817,10 +7874,10 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="D16" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
@@ -7828,7 +7885,7 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="19">
         <v>17</v>
       </c>
     </row>
@@ -7836,7 +7893,7 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -7844,7 +7901,7 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -7852,7 +7909,7 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -7860,7 +7917,7 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -7868,7 +7925,7 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -7876,7 +7933,7 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -7898,100 +7955,100 @@
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="16" style="17" customWidth="1"/>
-    <col min="3" max="4" width="29" style="17" customWidth="1"/>
-    <col min="5" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="4" width="29" style="18" customWidth="1"/>
+    <col min="5" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16384" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
@@ -7999,28 +8056,28 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="D6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="E6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="I6" s="18">
+      <c r="G6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
@@ -8028,16 +8085,16 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
@@ -8045,16 +8102,16 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
@@ -8062,16 +8119,16 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
@@ -8079,16 +8136,16 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="B10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
@@ -8096,14 +8153,14 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8111,14 +8168,14 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
@@ -8126,17 +8183,17 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="B13" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
@@ -8144,14 +8201,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
@@ -8159,14 +8216,14 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
@@ -8174,14 +8231,14 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8189,14 +8246,14 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19">
         <v>17</v>
       </c>
     </row>
@@ -8204,14 +8261,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -8219,16 +8276,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -8236,14 +8293,14 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -8251,14 +8308,14 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8266,14 +8323,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8281,14 +8338,14 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8310,160 +8367,160 @@
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="16" style="17" customWidth="1"/>
-    <col min="3" max="4" width="31.1111111111111" style="17" customWidth="1"/>
-    <col min="5" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="4" width="31.1111111111111" style="18" customWidth="1"/>
+    <col min="5" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16383" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
@@ -8471,28 +8528,28 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="C10" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="D10" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="I10" s="18">
+      <c r="G10" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
@@ -8500,14 +8557,14 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
@@ -8515,14 +8572,14 @@
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
@@ -8530,20 +8587,20 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="E13" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
@@ -8551,14 +8608,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
@@ -8566,18 +8623,18 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
@@ -8585,14 +8642,14 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
@@ -8600,18 +8657,18 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19">
         <v>17</v>
       </c>
     </row>
@@ -8619,14 +8676,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -8634,14 +8691,14 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -8649,14 +8706,14 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -8664,14 +8721,14 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8679,14 +8736,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8694,14 +8751,14 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -8716,212 +8773,212 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="16" style="17" customWidth="1"/>
-    <col min="3" max="3" width="30.4444444444444" style="17" customWidth="1"/>
-    <col min="4" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="3" width="30.4444444444444" style="18" customWidth="1"/>
+    <col min="4" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16384" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
@@ -8929,24 +8986,24 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="D13" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="E13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
@@ -8954,14 +9011,14 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
@@ -8969,20 +9026,20 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="D15" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
@@ -8990,13 +9047,13 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9004,15 +9061,15 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="B17" s="18"/>
+      <c r="D17" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19">
         <v>17</v>
       </c>
     </row>
@@ -9020,13 +9077,13 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18">
+      <c r="B18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -9034,15 +9091,15 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18">
+      <c r="B19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -9050,14 +9107,14 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -9065,16 +9122,16 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9082,14 +9139,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9097,14 +9154,14 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9126,235 +9183,235 @@
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="16" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="17" customWidth="1"/>
-    <col min="4" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="18" customWidth="1"/>
+    <col min="4" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16384" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="21">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
@@ -9362,26 +9419,26 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="C15" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="D15" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="E15" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="F15" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
@@ -9389,14 +9446,14 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
@@ -9404,16 +9461,16 @@
       <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19">
         <v>17</v>
       </c>
     </row>
@@ -9421,14 +9478,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -9436,16 +9493,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -9453,14 +9510,14 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -9468,14 +9525,14 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9483,14 +9540,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9498,14 +9555,14 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9520,287 +9577,297 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="8.73148148148148" style="3"/>
-    <col min="2" max="2" width="16" style="17" customWidth="1"/>
-    <col min="3" max="3" width="26.3333333333333" style="17" customWidth="1"/>
-    <col min="4" max="6" width="30.6666666666667" style="17" customWidth="1"/>
-    <col min="7" max="8" width="18.2222222222222" style="17" customWidth="1"/>
-    <col min="9" max="9" width="4.77777777777778" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16" style="18" customWidth="1"/>
+    <col min="3" max="3" width="26.3333333333333" style="18" customWidth="1"/>
+    <col min="4" max="6" width="30.6666666666667" style="18" customWidth="1"/>
+    <col min="7" max="8" width="18.2222222222222" style="18" customWidth="1"/>
+    <col min="9" max="9" width="4.77777777777778" style="19" customWidth="1"/>
     <col min="10" max="16384" width="8.73148148148148" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
-      <c r="A1" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B1" s="20">
+      <c r="A1" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="21">
         <v>6</v>
       </c>
-      <c r="C1" s="20">
+      <c r="C1" s="21">
         <v>5</v>
       </c>
-      <c r="D1" s="20">
+      <c r="D1" s="21">
         <v>4</v>
       </c>
-      <c r="E1" s="20">
+      <c r="E1" s="21">
         <v>3</v>
       </c>
-      <c r="F1" s="20">
+      <c r="F1" s="21">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>144</v>
       </c>
+      <c r="H1" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="18">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="19">
         <v>2</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="21">
+      <c r="A3" s="22">
         <v>2</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="18">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19">
         <v>3</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:9">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18">
+      <c r="B4" s="23"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19">
         <v>4</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:9">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:9">
-      <c r="A6" s="21">
+      <c r="A6" s="22">
         <v>5</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:9">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>6</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:9">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="19">
         <v>8</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:9">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="18">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <v>9</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:9">
-      <c r="A10" s="21">
+      <c r="A10" s="22">
         <v>9</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="19">
         <v>10</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="21">
+      <c r="A11" s="22">
         <v>10</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19">
         <v>11</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:9">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>11</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19">
         <v>12</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="21">
+      <c r="A13" s="22">
         <v>12</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="19">
         <v>13</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" spans="1:9">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="19">
         <v>14</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" spans="1:9">
-      <c r="A15" s="21">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18">
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="19">
         <v>15</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" spans="1:9">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>15</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="18">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="19">
         <v>16</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" s="17" customFormat="1" ht="31.2" spans="1:9">
+      <c r="A17" s="25">
         <v>16</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="18">
+      <c r="B17" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="26">
         <v>17</v>
       </c>
     </row>
@@ -9808,14 +9875,14 @@
       <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="18">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="19">
         <v>18</v>
       </c>
     </row>
@@ -9823,14 +9890,16 @@
       <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="18">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="19">
         <v>19</v>
       </c>
     </row>
@@ -9838,14 +9907,14 @@
       <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="18">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="19">
         <v>20</v>
       </c>
     </row>
@@ -9853,14 +9922,16 @@
       <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="18">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9868,14 +9939,14 @@
       <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9883,14 +9954,14 @@
       <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18">
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="19">
         <v>21</v>
       </c>
     </row>
@@ -9918,12 +9989,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -9943,7 +10014,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -9963,7 +10034,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -9983,7 +10054,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -10003,7 +10074,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -10023,7 +10094,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -10043,7 +10114,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -10063,7 +10134,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -10083,7 +10154,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -10103,7 +10174,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -10123,7 +10194,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -10143,7 +10214,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -10163,7 +10234,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -10183,7 +10254,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -10203,7 +10274,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -10223,7 +10294,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -10243,7 +10314,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -10263,7 +10334,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -10283,7 +10354,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -10303,7 +10374,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -331,843 +331,846 @@
     <t>马超</t>
   </si>
   <si>
+    <t>刘封</t>
+  </si>
+  <si>
     <t>李严</t>
   </si>
   <si>
     <t>曹昂</t>
   </si>
   <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>荀彧</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张苞</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>袁_张郃</t>
+  </si>
+  <si>
+    <t>郭嘉</t>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>华佗</t>
+  </si>
+  <si>
+    <t>曹操</t>
+  </si>
+  <si>
+    <t>孙权</t>
+  </si>
+  <si>
+    <t>孙坚</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>周瑜</t>
+  </si>
+  <si>
+    <t>马良</t>
+  </si>
+  <si>
+    <t>曹纯</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>曹_张辽</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>陈到</t>
+  </si>
+  <si>
+    <t>马岱</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>曹_张郃</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>马云禄</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>陆逊</t>
+  </si>
+  <si>
+    <t>初始</t>
+  </si>
+  <si>
+    <t>兑换码</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>司马师</t>
+  </si>
+  <si>
+    <t>轩辕台</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>辛宪英</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>黄月英</t>
+  </si>
+  <si>
+    <t>蜀汉旗</t>
+  </si>
+  <si>
+    <t>曹魏旗</t>
+  </si>
+  <si>
+    <t>东吴旗</t>
+  </si>
+  <si>
+    <t>奏乐台</t>
+  </si>
+  <si>
+    <t>风神台</t>
+  </si>
+  <si>
+    <t>营寨</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>建筑</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>出战数</t>
+  </si>
+  <si>
+    <t>严颜、张苞、王平</t>
+  </si>
+  <si>
+    <t>李严、马休</t>
+  </si>
+  <si>
+    <t>孟达、马铁、吴兰</t>
+  </si>
+  <si>
+    <t>奏乐台、蜀汉旗</t>
+  </si>
+  <si>
+    <t>八阵图、拒马</t>
+  </si>
+  <si>
+    <t>黄月英（稀有）</t>
+  </si>
+  <si>
+    <t>黄忠（稀有）</t>
+  </si>
+  <si>
+    <t>华佗（稀有）</t>
+  </si>
+  <si>
+    <t>弓弩营</t>
+  </si>
+  <si>
+    <t>姜维</t>
+  </si>
+  <si>
+    <t>马谡</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>张辽（稀有）、张郃（稀有）、夏侯惇</t>
+  </si>
+  <si>
+    <t>曹操、曹仁</t>
+  </si>
+  <si>
+    <t>曹纯、戏志才（稀有）</t>
+  </si>
+  <si>
+    <t>曹冲、曹昂</t>
+  </si>
+  <si>
+    <t>夏侯恩、车冑、王忠、蒋干、卞喜</t>
+  </si>
+  <si>
+    <t>曹魏旗、轩辕台</t>
+  </si>
+  <si>
+    <t>金锁阵</t>
+  </si>
+  <si>
+    <t>骑兵营</t>
+  </si>
+  <si>
+    <t>徐晃（稀有）、乐进、于禁</t>
+  </si>
+  <si>
+    <t>曹彰（稀有）、曹真</t>
+  </si>
+  <si>
+    <t>杨修</t>
+  </si>
+  <si>
+    <t>荀彧（稀有）</t>
+  </si>
+  <si>
+    <t>曹休</t>
+  </si>
+  <si>
+    <t>曹植</t>
+  </si>
+  <si>
+    <t>吕蒙、甘宁</t>
+  </si>
+  <si>
+    <t>孙权、陆逊（稀有）、鲁肃（稀有）、朱然、凌统</t>
+  </si>
+  <si>
+    <t>程普、黄盖、蒋钦</t>
+  </si>
+  <si>
+    <t>孙翊、张承</t>
+  </si>
+  <si>
+    <t>苏飞、左奕、全祎</t>
+  </si>
+  <si>
+    <t>东吴旗、战船营</t>
+  </si>
+  <si>
+    <t>石墙</t>
+  </si>
+  <si>
+    <t>朱治</t>
+  </si>
+  <si>
+    <t>祖茂</t>
+  </si>
+  <si>
+    <t>战鼓台</t>
+  </si>
+  <si>
+    <t>陈武</t>
+  </si>
+  <si>
+    <t>周鲂</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>淳于琼、高览、牵招、纪灵</t>
+  </si>
+  <si>
+    <t>审配、蒋义渠、韩猛、袁术</t>
+  </si>
+  <si>
+    <t>吕旷、高干、周昂、王门、郭援、郭图</t>
+  </si>
+  <si>
+    <t>张郃（稀有）</t>
+  </si>
+  <si>
+    <t>长持营</t>
+  </si>
+  <si>
+    <t>吕布（稀有）、董卓、陈宫、张辽（稀有）</t>
+  </si>
+  <si>
+    <t>吕玲绮（稀有）</t>
+  </si>
+  <si>
+    <t>徐荣、曹性、成廉、蔡邕、臧霸</t>
+  </si>
+  <si>
+    <t>侯成、郝萌、华雄</t>
+  </si>
+  <si>
+    <t>曹豹、刘何</t>
+  </si>
+  <si>
+    <t>营寨、四方鼎</t>
+  </si>
+  <si>
+    <t>箭楼</t>
+  </si>
+  <si>
+    <t>抛石台</t>
+  </si>
+  <si>
+    <t>邓艾</t>
+  </si>
+  <si>
+    <t>司马师、司马昭、张春华</t>
+  </si>
+  <si>
+    <t>郭淮、杜预、辛宪英、司马攸</t>
+  </si>
+  <si>
+    <t>邓忠、王元姬、杨济、成济、裴秀</t>
+  </si>
+  <si>
+    <t>孙秀、杨欣、王谈、文虎</t>
+  </si>
+  <si>
+    <t>卫瓘</t>
+  </si>
+  <si>
+    <t>马隆</t>
+  </si>
+  <si>
+    <t>霸业</t>
+  </si>
+  <si>
+    <t>【1,1】</t>
+  </si>
+  <si>
+    <t>【1,2】</t>
+  </si>
+  <si>
+    <t>【1,3】</t>
+  </si>
+  <si>
+    <t>【1,4】</t>
+  </si>
+  <si>
+    <t>【2,5】</t>
+  </si>
+  <si>
+    <t>【3,6】</t>
+  </si>
+  <si>
+    <t>【4,7】</t>
+  </si>
+  <si>
+    <t>【5,8】</t>
+  </si>
+  <si>
+    <t>【6,9】</t>
+  </si>
+  <si>
+    <t>【7,10】</t>
+  </si>
+  <si>
+    <t>【2,4】</t>
+  </si>
+  <si>
+    <t>【3,5】</t>
+  </si>
+  <si>
+    <t>【4,6】</t>
+  </si>
+  <si>
+    <t>【5,7】</t>
+  </si>
+  <si>
+    <t>【6,8】</t>
+  </si>
+  <si>
+    <t>【7,9】</t>
+  </si>
+  <si>
+    <t>【8,10】</t>
+  </si>
+  <si>
+    <t>孙策</t>
+  </si>
+  <si>
+    <t>吕蒙</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>曹_司马懿</t>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+  </si>
+  <si>
+    <t>南华</t>
+  </si>
+  <si>
+    <t>貂蝉</t>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>麴义</t>
+  </si>
+  <si>
+    <t>小乔</t>
+  </si>
+  <si>
+    <t>鲁肃</t>
+  </si>
+  <si>
+    <t>孙尚香</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>朱然</t>
+  </si>
+  <si>
+    <t>凌统</t>
+  </si>
+  <si>
+    <t>周泰</t>
+  </si>
+  <si>
+    <t>诸葛恪</t>
+  </si>
+  <si>
+    <t>张纮</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>陆抗</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>甄姬</t>
+  </si>
+  <si>
+    <t>蔡文姬</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>文聘</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>庞德</t>
+  </si>
+  <si>
+    <t>刘晔</t>
+  </si>
+  <si>
+    <t>张绣</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>钟会</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
+    <t>魏延</t>
+  </si>
+  <si>
+    <t>法正</t>
+  </si>
+  <si>
+    <t>左慈</t>
+  </si>
+  <si>
+    <t>祝融</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>吕玲绮</t>
+  </si>
+  <si>
+    <t>羊祜</t>
+  </si>
+  <si>
+    <t>文鸯</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>刘协</t>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>大乔</t>
+  </si>
+  <si>
+    <t>诸葛瑾</t>
+  </si>
+  <si>
+    <t>孙登</t>
+  </si>
+  <si>
+    <t>孙桓</t>
+  </si>
+  <si>
+    <t>徐盛</t>
+  </si>
+  <si>
+    <t>步骘</t>
+  </si>
+  <si>
+    <t>张温</t>
+  </si>
+  <si>
+    <t>全琮</t>
+  </si>
+  <si>
+    <t>朱桓</t>
+  </si>
+  <si>
+    <t>丁奉</t>
+  </si>
+  <si>
+    <t>虞翻</t>
+  </si>
+  <si>
+    <t>潘璋</t>
+  </si>
+  <si>
+    <t>董昭</t>
+  </si>
+  <si>
+    <t>蒋济</t>
+  </si>
+  <si>
+    <t>李典</t>
+  </si>
+  <si>
+    <t>曹真</t>
+  </si>
+  <si>
+    <t>刘馥</t>
+  </si>
+  <si>
+    <t>曹丕</t>
+  </si>
+  <si>
+    <t>钟繇</t>
+  </si>
+  <si>
+    <t>郭淮</t>
+  </si>
+  <si>
+    <t>陈泰</t>
+  </si>
+  <si>
+    <t>曹彰</t>
+  </si>
+  <si>
+    <t>贾逵</t>
+  </si>
+  <si>
+    <t>王昶</t>
+  </si>
+  <si>
+    <t>田畴</t>
+  </si>
+  <si>
+    <t>王异</t>
+  </si>
+  <si>
+    <t>陈群</t>
+  </si>
+  <si>
+    <t>郝昭</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>傅嘏</t>
+  </si>
+  <si>
+    <t>高堂隆</t>
+  </si>
+  <si>
+    <t>桓阶</t>
+  </si>
+  <si>
+    <t>毌丘俭</t>
+  </si>
+  <si>
+    <t>曹爽</t>
+  </si>
+  <si>
+    <t>马钧</t>
+  </si>
+  <si>
+    <t>郭女王</t>
+  </si>
+  <si>
+    <t>田豫</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>毛玠</t>
+  </si>
+  <si>
+    <t>杜袭</t>
+  </si>
+  <si>
+    <t>赵俨</t>
+  </si>
+  <si>
+    <t>枣祗</t>
+  </si>
+  <si>
+    <t>费祎</t>
+  </si>
+  <si>
+    <t>蒋琬</t>
+  </si>
+  <si>
+    <t>董允</t>
+  </si>
+  <si>
+    <t>秦宓</t>
+  </si>
+  <si>
+    <t>关兴</t>
+  </si>
+  <si>
+    <t>鲍三娘</t>
+  </si>
+  <si>
+    <t>罗宪</t>
+  </si>
+  <si>
+    <t>霍峻</t>
+  </si>
+  <si>
+    <t>关银屏</t>
+  </si>
+  <si>
+    <t>霍弋</t>
+  </si>
+  <si>
+    <t>王平</t>
+  </si>
+  <si>
+    <t>司马徽</t>
+  </si>
+  <si>
+    <t>黄承彦</t>
+  </si>
+  <si>
+    <t>张机</t>
+  </si>
+  <si>
+    <t>孟获</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+  </si>
+  <si>
+    <t>胡奋</t>
+  </si>
+  <si>
+    <t>陈骞</t>
+  </si>
+  <si>
+    <t>贾充</t>
+  </si>
+  <si>
+    <t>司马攸</t>
+  </si>
+  <si>
+    <t>杜预</t>
+  </si>
+  <si>
+    <t>司马昭</t>
+  </si>
+  <si>
+    <t>王濬</t>
+  </si>
+  <si>
+    <t>王基</t>
+  </si>
+  <si>
+    <t>司马炎</t>
+  </si>
+  <si>
+    <t>张春华</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>何进</t>
+  </si>
+  <si>
+    <t>管辂</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>张杨</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>袁谭</t>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+  </si>
+  <si>
+    <t>韩猛</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>杨秋</t>
+  </si>
+  <si>
+    <t>马腾</t>
+  </si>
+  <si>
+    <t>韩遂</t>
+  </si>
+  <si>
+    <t>成公英</t>
+  </si>
+  <si>
+    <t>北宫伯玉</t>
+  </si>
+  <si>
     <t>孙翊</t>
   </si>
   <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>荀彧</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>张苞</t>
-  </si>
-  <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>曹洪</t>
-  </si>
-  <si>
-    <t>黄盖</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>袁_张郃</t>
-  </si>
-  <si>
-    <t>郭嘉</t>
-  </si>
-  <si>
-    <t>刘备</t>
-  </si>
-  <si>
-    <t>华佗</t>
-  </si>
-  <si>
-    <t>曹操</t>
-  </si>
-  <si>
-    <t>孙权</t>
-  </si>
-  <si>
-    <t>孙坚</t>
-  </si>
-  <si>
-    <t>程昱</t>
-  </si>
-  <si>
-    <t>周瑜</t>
-  </si>
-  <si>
-    <t>马良</t>
-  </si>
-  <si>
-    <t>曹纯</t>
-  </si>
-  <si>
-    <t>程普</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>曹_张辽</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>陈到</t>
-  </si>
-  <si>
-    <t>马岱</t>
-  </si>
-  <si>
-    <t>戏志才</t>
-  </si>
-  <si>
-    <t>蒋钦</t>
-  </si>
-  <si>
-    <t>曹_张郃</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>马云禄</t>
-  </si>
-  <si>
-    <t>乐进</t>
-  </si>
-  <si>
-    <t>陆逊</t>
-  </si>
-  <si>
-    <t>初始</t>
-  </si>
-  <si>
-    <t>兑换码</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>司马师</t>
-  </si>
-  <si>
-    <t>轩辕台</t>
-  </si>
-  <si>
-    <t>颜良</t>
-  </si>
-  <si>
-    <t>陈宫</t>
-  </si>
-  <si>
-    <t>辛宪英</t>
-  </si>
-  <si>
-    <t>陈登</t>
-  </si>
-  <si>
-    <t>黄月英</t>
-  </si>
-  <si>
-    <t>蜀汉旗</t>
-  </si>
-  <si>
-    <t>曹魏旗</t>
-  </si>
-  <si>
-    <t>东吴旗</t>
-  </si>
-  <si>
-    <t>奏乐台</t>
-  </si>
-  <si>
-    <t>风神台</t>
-  </si>
-  <si>
-    <t>营寨</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>建筑</t>
-  </si>
-  <si>
-    <t>陷阱</t>
-  </si>
-  <si>
-    <t>出战数</t>
-  </si>
-  <si>
-    <t>严颜、张苞、王平</t>
-  </si>
-  <si>
-    <t>李严、马休</t>
-  </si>
-  <si>
-    <t>孟达、马铁、吴兰</t>
-  </si>
-  <si>
-    <t>奏乐台、蜀汉旗</t>
-  </si>
-  <si>
-    <t>八阵图、拒马</t>
-  </si>
-  <si>
-    <t>黄月英（稀有）</t>
-  </si>
-  <si>
-    <t>黄忠（稀有）</t>
-  </si>
-  <si>
-    <t>华佗（稀有）</t>
-  </si>
-  <si>
-    <t>弓弩营</t>
-  </si>
-  <si>
-    <t>姜维</t>
-  </si>
-  <si>
-    <t>马谡</t>
-  </si>
-  <si>
-    <t>黄权</t>
-  </si>
-  <si>
-    <t>张辽（稀有）、张郃（稀有）、夏侯惇</t>
-  </si>
-  <si>
-    <t>曹操、曹仁</t>
-  </si>
-  <si>
-    <t>曹纯、戏志才（稀有）</t>
-  </si>
-  <si>
-    <t>曹冲、曹昂</t>
-  </si>
-  <si>
-    <t>夏侯恩、车冑、王忠、蒋干、卞喜</t>
-  </si>
-  <si>
-    <t>曹魏旗、轩辕台</t>
-  </si>
-  <si>
-    <t>金锁阵</t>
-  </si>
-  <si>
-    <t>骑兵营</t>
-  </si>
-  <si>
-    <t>徐晃（稀有）、乐进、于禁</t>
-  </si>
-  <si>
-    <t>曹彰（稀有）、曹真</t>
-  </si>
-  <si>
-    <t>杨修</t>
-  </si>
-  <si>
-    <t>荀彧（稀有）</t>
-  </si>
-  <si>
-    <t>曹休</t>
-  </si>
-  <si>
-    <t>曹植</t>
-  </si>
-  <si>
-    <t>吕蒙、甘宁</t>
-  </si>
-  <si>
-    <t>孙权、陆逊（稀有）、鲁肃（稀有）、朱然、凌统</t>
-  </si>
-  <si>
-    <t>程普、黄盖、蒋钦</t>
-  </si>
-  <si>
-    <t>孙翊、张承</t>
-  </si>
-  <si>
-    <t>苏飞、左奕、全祎</t>
-  </si>
-  <si>
-    <t>东吴旗、战船营</t>
-  </si>
-  <si>
-    <t>石墙</t>
-  </si>
-  <si>
-    <t>朱治</t>
-  </si>
-  <si>
-    <t>祖茂</t>
-  </si>
-  <si>
-    <t>战鼓台</t>
-  </si>
-  <si>
-    <t>陈武</t>
-  </si>
-  <si>
-    <t>周鲂</t>
-  </si>
-  <si>
-    <t>董袭</t>
-  </si>
-  <si>
-    <t>凌操</t>
-  </si>
-  <si>
-    <t>淳于琼、高览、牵招、纪灵</t>
-  </si>
-  <si>
-    <t>审配、蒋义渠、韩猛、袁术</t>
-  </si>
-  <si>
-    <t>吕旷、高干、周昂、王门、郭援、郭图</t>
-  </si>
-  <si>
-    <t>张郃（稀有）</t>
-  </si>
-  <si>
-    <t>长持营</t>
-  </si>
-  <si>
-    <t>吕布（稀有）、董卓、陈宫、张辽（稀有）</t>
-  </si>
-  <si>
-    <t>吕玲绮（稀有）</t>
-  </si>
-  <si>
-    <t>徐荣、曹性、成廉、蔡邕、臧霸</t>
-  </si>
-  <si>
-    <t>侯成、郝萌、华雄</t>
-  </si>
-  <si>
-    <t>曹豹、刘何</t>
-  </si>
-  <si>
-    <t>营寨、四方鼎</t>
-  </si>
-  <si>
-    <t>箭楼</t>
-  </si>
-  <si>
-    <t>抛石台</t>
-  </si>
-  <si>
-    <t>邓艾</t>
-  </si>
-  <si>
-    <t>司马师、司马昭、张春华</t>
-  </si>
-  <si>
-    <t>郭淮、杜预、辛宪英、司马攸</t>
-  </si>
-  <si>
-    <t>邓忠、王元姬、杨济、成济、裴秀</t>
-  </si>
-  <si>
-    <t>孙秀、杨欣、王谈、文虎</t>
-  </si>
-  <si>
-    <t>卫瓘</t>
-  </si>
-  <si>
-    <t>马隆</t>
-  </si>
-  <si>
-    <t>霸业</t>
-  </si>
-  <si>
-    <t>【1,1】</t>
-  </si>
-  <si>
-    <t>【1,2】</t>
-  </si>
-  <si>
-    <t>【1,3】</t>
-  </si>
-  <si>
-    <t>【1,4】</t>
-  </si>
-  <si>
-    <t>【2,5】</t>
-  </si>
-  <si>
-    <t>【3,6】</t>
-  </si>
-  <si>
-    <t>【4,7】</t>
-  </si>
-  <si>
-    <t>【5,8】</t>
-  </si>
-  <si>
-    <t>【6,9】</t>
-  </si>
-  <si>
-    <t>【7,10】</t>
-  </si>
-  <si>
-    <t>【2,4】</t>
-  </si>
-  <si>
-    <t>【3,5】</t>
-  </si>
-  <si>
-    <t>【4,6】</t>
-  </si>
-  <si>
-    <t>【5,7】</t>
-  </si>
-  <si>
-    <t>【6,8】</t>
-  </si>
-  <si>
-    <t>【7,9】</t>
-  </si>
-  <si>
-    <t>【8,10】</t>
-  </si>
-  <si>
-    <t>孙策</t>
-  </si>
-  <si>
-    <t>吕蒙</t>
-  </si>
-  <si>
-    <t>甘宁</t>
-  </si>
-  <si>
-    <t>曹_司马懿</t>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-  </si>
-  <si>
-    <t>南华</t>
-  </si>
-  <si>
-    <t>貂蝉</t>
-  </si>
-  <si>
-    <t>董卓</t>
-  </si>
-  <si>
-    <t>文丑</t>
-  </si>
-  <si>
-    <t>麴义</t>
-  </si>
-  <si>
-    <t>小乔</t>
-  </si>
-  <si>
-    <t>鲁肃</t>
-  </si>
-  <si>
-    <t>孙尚香</t>
-  </si>
-  <si>
-    <t>太史慈</t>
-  </si>
-  <si>
-    <t>朱然</t>
-  </si>
-  <si>
-    <t>凌统</t>
-  </si>
-  <si>
-    <t>周泰</t>
-  </si>
-  <si>
-    <t>诸葛恪</t>
-  </si>
-  <si>
-    <t>张纮</t>
-  </si>
-  <si>
-    <t>张昭</t>
-  </si>
-  <si>
-    <t>陆抗</t>
-  </si>
-  <si>
-    <t>贾诩</t>
-  </si>
-  <si>
-    <t>甄姬</t>
-  </si>
-  <si>
-    <t>蔡文姬</t>
-  </si>
-  <si>
-    <t>荀攸</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>曹仁</t>
-  </si>
-  <si>
-    <t>文聘</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>庞德</t>
-  </si>
-  <si>
-    <t>刘晔</t>
-  </si>
-  <si>
-    <t>张绣</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>钟会</t>
-  </si>
-  <si>
-    <t>徐庶</t>
-  </si>
-  <si>
-    <t>庞统</t>
-  </si>
-  <si>
-    <t>魏延</t>
-  </si>
-  <si>
-    <t>法正</t>
-  </si>
-  <si>
-    <t>左慈</t>
-  </si>
-  <si>
-    <t>祝融</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>吕玲绮</t>
-  </si>
-  <si>
-    <t>羊祜</t>
-  </si>
-  <si>
-    <t>文鸯</t>
-  </si>
-  <si>
-    <t>张角</t>
-  </si>
-  <si>
-    <t>刘协</t>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-  </si>
-  <si>
-    <t>沮授</t>
-  </si>
-  <si>
-    <t>田丰</t>
-  </si>
-  <si>
-    <t>大乔</t>
-  </si>
-  <si>
-    <t>诸葛瑾</t>
-  </si>
-  <si>
-    <t>孙登</t>
-  </si>
-  <si>
-    <t>孙桓</t>
-  </si>
-  <si>
-    <t>徐盛</t>
-  </si>
-  <si>
-    <t>步骘</t>
-  </si>
-  <si>
-    <t>张温</t>
-  </si>
-  <si>
-    <t>韩当</t>
-  </si>
-  <si>
-    <t>全琮</t>
-  </si>
-  <si>
-    <t>朱桓</t>
-  </si>
-  <si>
-    <t>丁奉</t>
-  </si>
-  <si>
-    <t>虞翻</t>
-  </si>
-  <si>
-    <t>潘璋</t>
-  </si>
-  <si>
-    <t>董昭</t>
-  </si>
-  <si>
-    <t>蒋济</t>
-  </si>
-  <si>
-    <t>李典</t>
-  </si>
-  <si>
-    <t>曹真</t>
-  </si>
-  <si>
-    <t>刘馥</t>
-  </si>
-  <si>
-    <t>曹丕</t>
-  </si>
-  <si>
-    <t>钟繇</t>
-  </si>
-  <si>
-    <t>郭淮</t>
-  </si>
-  <si>
-    <t>陈泰</t>
-  </si>
-  <si>
-    <t>曹彰</t>
-  </si>
-  <si>
-    <t>贾逵</t>
-  </si>
-  <si>
-    <t>王昶</t>
-  </si>
-  <si>
-    <t>田畴</t>
-  </si>
-  <si>
-    <t>王异</t>
-  </si>
-  <si>
-    <t>陈群</t>
-  </si>
-  <si>
-    <t>郝昭</t>
-  </si>
-  <si>
-    <t>陈琳</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>傅嘏</t>
-  </si>
-  <si>
-    <t>高堂隆</t>
-  </si>
-  <si>
-    <t>桓阶</t>
-  </si>
-  <si>
-    <t>毌丘俭</t>
-  </si>
-  <si>
-    <t>曹爽</t>
-  </si>
-  <si>
-    <t>马钧</t>
-  </si>
-  <si>
-    <t>郭女王</t>
-  </si>
-  <si>
-    <t>田豫</t>
-  </si>
-  <si>
-    <t>辛毗</t>
-  </si>
-  <si>
-    <t>毛玠</t>
-  </si>
-  <si>
-    <t>杜袭</t>
-  </si>
-  <si>
-    <t>赵俨</t>
-  </si>
-  <si>
-    <t>枣祗</t>
-  </si>
-  <si>
-    <t>费祎</t>
-  </si>
-  <si>
-    <t>蒋琬</t>
-  </si>
-  <si>
-    <t>董允</t>
-  </si>
-  <si>
-    <t>秦宓</t>
-  </si>
-  <si>
-    <t>关兴</t>
-  </si>
-  <si>
-    <t>鲍三娘</t>
-  </si>
-  <si>
-    <t>罗宪</t>
-  </si>
-  <si>
-    <t>霍峻</t>
-  </si>
-  <si>
-    <t>关银屏</t>
-  </si>
-  <si>
-    <t>霍弋</t>
-  </si>
-  <si>
-    <t>王平</t>
-  </si>
-  <si>
-    <t>司马徽</t>
-  </si>
-  <si>
-    <t>黄承彦</t>
-  </si>
-  <si>
-    <t>张机</t>
-  </si>
-  <si>
-    <t>孟获</t>
-  </si>
-  <si>
-    <t>张任</t>
-  </si>
-  <si>
-    <t>刘焉</t>
-  </si>
-  <si>
-    <t>胡奋</t>
-  </si>
-  <si>
-    <t>陈骞</t>
-  </si>
-  <si>
-    <t>贾充</t>
-  </si>
-  <si>
-    <t>司马攸</t>
-  </si>
-  <si>
-    <t>杜预</t>
-  </si>
-  <si>
-    <t>司马昭</t>
-  </si>
-  <si>
-    <t>王濬</t>
-  </si>
-  <si>
-    <t>王基</t>
-  </si>
-  <si>
-    <t>司马炎</t>
-  </si>
-  <si>
-    <t>张春华</t>
-  </si>
-  <si>
-    <t>卢植</t>
-  </si>
-  <si>
-    <t>王允</t>
-  </si>
-  <si>
-    <t>朱儁</t>
-  </si>
-  <si>
-    <t>皇甫嵩</t>
-  </si>
-  <si>
-    <t>何进</t>
-  </si>
-  <si>
-    <t>管辂</t>
-  </si>
-  <si>
-    <t>徐荣</t>
-  </si>
-  <si>
-    <t>李儒</t>
-  </si>
-  <si>
-    <t>张杨</t>
-  </si>
-  <si>
-    <t>纪灵</t>
-  </si>
-  <si>
-    <t>袁术</t>
-  </si>
-  <si>
-    <t>审配</t>
-  </si>
-  <si>
-    <t>高览</t>
-  </si>
-  <si>
-    <t>王修</t>
-  </si>
-  <si>
-    <t>许攸</t>
-  </si>
-  <si>
-    <t>袁谭</t>
-  </si>
-  <si>
-    <t>蒋义渠</t>
-  </si>
-  <si>
-    <t>韩猛</t>
-  </si>
-  <si>
-    <t>逢纪</t>
-  </si>
-  <si>
-    <t>淳于琼</t>
-  </si>
-  <si>
-    <t>杨秋</t>
-  </si>
-  <si>
-    <t>马腾</t>
-  </si>
-  <si>
-    <t>韩遂</t>
-  </si>
-  <si>
-    <t>成公英</t>
-  </si>
-  <si>
-    <t>北宫伯玉</t>
-  </si>
-  <si>
     <t>滕修</t>
   </si>
   <si>
@@ -1520,9 +1523,6 @@
   </si>
   <si>
     <t>关平</t>
-  </si>
-  <si>
-    <t>刘封</t>
   </si>
   <si>
     <t>董和</t>
@@ -2964,10 +2964,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3021,8 +3021,75 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3037,22 +3104,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3066,10 +3119,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3080,25 +3134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3112,17 +3149,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3131,35 +3160,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,31 +3216,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,31 +3252,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3300,7 +3312,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3312,31 +3324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,25 +3372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3378,25 +3390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3449,21 +3449,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3480,35 +3465,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3528,11 +3498,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3544,10 +3544,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3556,133 +3556,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3895,8 +3895,8 @@
       <color rgb="0092D050"/>
       <color rgb="00FFFF00"/>
       <color rgb="00000000"/>
+      <color rgb="00FF0000"/>
       <color rgb="00FA26DF"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4198,7 +4198,7 @@
   </sheetPr>
   <dimension ref="B1:T40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4697,7 +4697,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -4705,7 +4705,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4737,29 +4737,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -4791,7 +4791,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -4823,7 +4823,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -4855,7 +4855,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -4879,7 +4879,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -4951,7 +4951,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -4975,7 +4975,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -4999,7 +4999,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -5031,7 +5031,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -5103,18 +5103,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -5130,7 +5130,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
@@ -5138,7 +5138,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
@@ -5162,7 +5162,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
@@ -5186,7 +5186,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
@@ -5202,7 +5202,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B63" s="1">
         <v>62</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
@@ -5234,7 +5234,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67" s="1">
         <v>66</v>
@@ -5242,7 +5242,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
@@ -5250,7 +5250,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
@@ -5290,7 +5290,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
@@ -5298,7 +5298,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
@@ -5314,7 +5314,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
@@ -5338,7 +5338,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B81" s="1">
         <v>80</v>
@@ -5354,7 +5354,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
@@ -5362,7 +5362,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1">
         <v>82</v>
@@ -5370,7 +5370,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
@@ -5378,7 +5378,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B87" s="1">
         <v>86</v>
@@ -5402,7 +5402,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B88" s="1">
         <v>87</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
@@ -5418,7 +5418,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>292</v>
+        <v>112</v>
       </c>
       <c r="B91" s="1">
         <v>90</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
@@ -5450,7 +5450,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B115" s="1">
         <v>114</v>
@@ -5666,7 +5666,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B121" s="1">
         <v>120</v>
@@ -5674,7 +5674,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B122" s="1">
         <v>121</v>
@@ -5682,7 +5682,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B123" s="1">
         <v>122</v>
@@ -5770,7 +5770,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B134" s="1">
         <v>133</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B137" s="1">
         <v>136</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B139" s="1">
         <v>138</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B140" s="1">
         <v>139</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B147" s="1">
         <v>146</v>
@@ -5882,7 +5882,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B148" s="1">
         <v>147</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
@@ -6242,7 +6242,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>104</v>
+        <v>381</v>
       </c>
       <c r="B193" s="1">
         <v>192</v>
@@ -6250,7 +6250,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B194" s="1">
         <v>193</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
@@ -6274,7 +6274,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B198" s="1">
         <v>197</v>
@@ -6290,7 +6290,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B199" s="1">
         <v>198</v>
@@ -6298,7 +6298,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B200" s="1">
         <v>199</v>
@@ -6306,7 +6306,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
@@ -6330,7 +6330,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B204" s="1">
         <v>203</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B205" s="1">
         <v>204</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B206" s="1">
         <v>205</v>
@@ -6354,7 +6354,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B207" s="1">
         <v>206</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B208" s="1">
         <v>207</v>
@@ -6370,7 +6370,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B209" s="1">
         <v>208</v>
@@ -6378,7 +6378,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B210" s="1">
         <v>209</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B212" s="1">
         <v>211</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
@@ -6410,7 +6410,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
@@ -6418,7 +6418,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B215" s="1">
         <v>214</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B216" s="1">
         <v>215</v>
@@ -6434,7 +6434,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B217" s="1">
         <v>216</v>
@@ -6442,7 +6442,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B218" s="1">
         <v>217</v>
@@ -6450,7 +6450,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B219" s="1">
         <v>218</v>
@@ -6458,7 +6458,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B220" s="1">
         <v>219</v>
@@ -6466,7 +6466,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B222" s="1">
         <v>221</v>
@@ -6482,7 +6482,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B223" s="1">
         <v>222</v>
@@ -6490,7 +6490,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B224" s="1">
         <v>223</v>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B225" s="1">
         <v>224</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B226" s="1">
         <v>225</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B227" s="1">
         <v>226</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B228" s="1">
         <v>227</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B229" s="1">
         <v>228</v>
@@ -6538,7 +6538,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B230" s="1">
         <v>229</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B231" s="1">
         <v>230</v>
@@ -6554,7 +6554,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B232" s="1">
         <v>231</v>
@@ -6562,7 +6562,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B233" s="1">
         <v>232</v>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B234" s="1">
         <v>233</v>
@@ -6578,7 +6578,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B235" s="1">
         <v>234</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B236" s="1">
         <v>235</v>
@@ -6594,7 +6594,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B237" s="1">
         <v>236</v>
@@ -6602,7 +6602,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B238" s="1">
         <v>237</v>
@@ -6610,7 +6610,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B239" s="1">
         <v>238</v>
@@ -6618,7 +6618,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B240" s="1">
         <v>239</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B241" s="1">
         <v>240</v>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B242" s="1">
         <v>241</v>
@@ -6642,7 +6642,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B243" s="1">
         <v>242</v>
@@ -6650,7 +6650,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B244" s="1">
         <v>243</v>
@@ -6658,7 +6658,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B245" s="1">
         <v>244</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B246" s="1">
         <v>245</v>
@@ -6674,7 +6674,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B247" s="1">
         <v>246</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B248" s="1">
         <v>247</v>
@@ -6690,7 +6690,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B249" s="1">
         <v>248</v>
@@ -6698,7 +6698,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B250" s="1">
         <v>249</v>
@@ -6706,7 +6706,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B251" s="1">
         <v>250</v>
@@ -6714,7 +6714,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B252" s="1">
         <v>251</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B253" s="1">
         <v>252</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B254" s="1">
         <v>253</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B255" s="1">
         <v>254</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B256" s="1">
         <v>255</v>
@@ -6754,7 +6754,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B257" s="1">
         <v>256</v>
@@ -6762,7 +6762,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B258" s="1">
         <v>257</v>
@@ -6770,7 +6770,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B259" s="1">
         <v>258</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B260" s="1">
         <v>259</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B261" s="1">
         <v>260</v>
@@ -6794,7 +6794,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B262" s="1">
         <v>261</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B263" s="1">
         <v>262</v>
@@ -6810,7 +6810,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B264" s="1">
         <v>263</v>
@@ -6818,7 +6818,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B265" s="1">
         <v>264</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B266" s="1">
         <v>265</v>
@@ -6834,7 +6834,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B267" s="1">
         <v>266</v>
@@ -6842,7 +6842,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B268" s="1">
         <v>267</v>
@@ -6850,7 +6850,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B269" s="1">
         <v>268</v>
@@ -6858,7 +6858,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B270" s="1">
         <v>269</v>
@@ -6866,7 +6866,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
@@ -6874,7 +6874,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B272" s="1">
         <v>271</v>
@@ -6882,7 +6882,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B273" s="1">
         <v>272</v>
@@ -6890,7 +6890,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B274" s="1">
         <v>273</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B275" s="1">
         <v>274</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B276" s="1">
         <v>275</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B277" s="1">
         <v>276</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B278" s="1">
         <v>277</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B279" s="1">
         <v>278</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
@@ -6946,7 +6946,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
@@ -6954,7 +6954,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B282" s="1">
         <v>281</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B283" s="1">
         <v>282</v>
@@ -6970,7 +6970,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B284" s="1">
         <v>283</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B285" s="1">
         <v>284</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B286" s="1">
         <v>285</v>
@@ -6994,7 +6994,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B287" s="1">
         <v>286</v>
@@ -7002,7 +7002,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B289" s="1">
         <v>288</v>
@@ -7018,7 +7018,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B290" s="1">
         <v>289</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B291" s="1">
         <v>290</v>
@@ -7034,7 +7034,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B292" s="1">
         <v>291</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B293" s="1">
         <v>292</v>
@@ -7050,7 +7050,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B294" s="1">
         <v>293</v>
@@ -7058,7 +7058,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B295" s="1">
         <v>294</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B296" s="1">
         <v>295</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B297" s="1">
         <v>296</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B298" s="1">
         <v>297</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B299" s="1">
         <v>298</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B300" s="1">
         <v>299</v>
@@ -7106,7 +7106,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B301" s="1">
         <v>300</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B302" s="1">
         <v>301</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B303" s="1">
         <v>302</v>
@@ -7130,7 +7130,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B304" s="1">
         <v>303</v>
@@ -7138,7 +7138,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B305" s="1">
         <v>304</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B306" s="1">
         <v>305</v>
@@ -7154,7 +7154,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B307" s="1">
         <v>306</v>
@@ -7162,7 +7162,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B308" s="1">
         <v>307</v>
@@ -7170,7 +7170,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B309" s="1">
         <v>308</v>
@@ -7178,7 +7178,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B310" s="1">
         <v>309</v>
@@ -7186,7 +7186,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B311" s="1">
         <v>310</v>
@@ -7194,7 +7194,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B312" s="1">
         <v>311</v>
@@ -7202,7 +7202,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B313" s="1">
         <v>312</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B314" s="1">
         <v>313</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B315" s="1">
         <v>314</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B316" s="1">
         <v>315</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B317" s="1">
         <v>316</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B318" s="1">
         <v>317</v>
@@ -7250,7 +7250,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B319" s="1">
         <v>318</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>499</v>
+        <v>102</v>
       </c>
       <c r="B320" s="1">
         <v>319</v>
@@ -7410,7 +7410,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B339" s="1">
         <v>338</v>
@@ -9490,7 +9490,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B599" s="1">
         <v>598</v>
@@ -10650,7 +10650,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B744" s="1">
         <v>743</v>
@@ -11114,18 +11114,18 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B802" s="1">
         <v>801</v>
       </c>
       <c r="C802" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B803" s="1">
         <v>802</v>
@@ -11133,7 +11133,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B804" s="1">
         <v>803</v>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B805" s="1">
         <v>804</v>
@@ -11195,7 +11195,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B811" s="1">
         <v>810</v>
@@ -11219,7 +11219,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B814" s="1">
         <v>813</v>
@@ -11255,8 +11255,8 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -11386,13 +11386,13 @@
       </c>
       <c r="E5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
-        <v>0,316,10</v>
+        <v>0,319,10</v>
       </c>
       <c r="F5" s="28">
         <v>3</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11401,8 +11401,8 @@
       <c r="I5" s="28">
         <v>3</v>
       </c>
-      <c r="J5" s="30" t="s">
-        <v>103</v>
+      <c r="J5" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="K5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11411,18 +11411,18 @@
       <c r="L5" s="28">
         <v>3</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>104</v>
+      <c r="M5" s="31" t="s">
+        <v>105</v>
       </c>
       <c r="N5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
-        <v>0,192,10</v>
+        <v>0,83,10</v>
       </c>
       <c r="O5" s="27">
         <v>3</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11457,7 +11457,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11493,7 +11493,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11509,7 +11509,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11519,7 +11519,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11529,7 +11529,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11539,17 +11539,17 @@
         <v>6</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,83,5</v>
+        <v>0,90,5</v>
       </c>
       <c r="O8" s="27">
         <v>6</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11585,7 +11585,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11621,7 +11621,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11637,7 +11637,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11647,7 +11647,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11657,7 +11657,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11667,7 +11667,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11677,7 +11677,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11713,7 +11713,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q12" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11749,7 +11749,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P13,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11765,7 +11765,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11775,7 +11775,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11785,7 +11785,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11795,7 +11795,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11805,7 +11805,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11841,7 +11841,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P15,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11877,7 +11877,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P16,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11893,7 +11893,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11903,7 +11903,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11913,7 +11913,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11923,7 +11923,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11933,7 +11933,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11969,7 +11969,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P18,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12016,7 +12016,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12026,7 +12026,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12036,7 +12036,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12046,7 +12046,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12098,7 +12098,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12108,7 +12108,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12118,7 +12118,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12128,7 +12128,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12150,105 +12150,105 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L32" s="27" t="s">
         <v>100</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -12282,7 +12282,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12300,13 +12300,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12314,25 +12314,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I2" s="19">
         <v>2</v>
@@ -12351,7 +12351,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I4" s="19">
         <v>4</v>
@@ -12373,10 +12373,10 @@
         <v>101</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12395,10 +12395,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I8" s="19">
         <v>8</v>
@@ -12417,13 +12417,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -12450,10 +12450,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I13" s="19">
         <v>13</v>
@@ -12480,7 +12480,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I16" s="19">
         <v>16</v>
@@ -12570,7 +12570,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12588,13 +12588,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -12662,25 +12662,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12696,7 +12696,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19">
@@ -12709,7 +12709,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -12726,7 +12726,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -12743,10 +12743,10 @@
       </c>
       <c r="B10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F10" s="18"/>
       <c r="H10" s="18"/>
@@ -12789,10 +12789,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -12885,7 +12885,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -12982,7 +12982,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13000,13 +13000,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13134,25 +13134,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -13195,14 +13195,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13231,10 +13231,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -13265,10 +13265,10 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -13395,7 +13395,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13413,13 +13413,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13592,22 +13592,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13635,13 +13635,13 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -13791,7 +13791,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13809,13 +13809,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14018,22 +14018,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -14065,7 +14065,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="19">
@@ -14097,7 +14097,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="19">
@@ -14192,7 +14192,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -14210,13 +14210,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14449,19 +14449,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -14491,7 +14491,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -14523,7 +14523,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -14587,12 +14587,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14612,7 +14612,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -14632,7 +14632,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -14652,7 +14652,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -14692,7 +14692,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -14712,7 +14712,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -14732,7 +14732,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -14752,7 +14752,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -14772,7 +14772,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -14792,7 +14792,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -14832,7 +14832,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -14872,7 +14872,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -14892,7 +14892,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -14912,7 +14912,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -14952,7 +14952,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -14972,7 +14972,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="981">
   <si>
     <t>人民币</t>
   </si>
@@ -130,7 +130,7 @@
     <t>武将套餐</t>
   </si>
   <si>
-    <t>橙色品质以上武将自选5个（可包含1至2个【稀有武将】），每个10碎片（2星）=100元</t>
+    <t>橙色品质以上武将自选5个（可包含2至3个【稀有武将】），每个10碎片（2星）=100元</t>
   </si>
   <si>
     <t>玉阙元宝套餐</t>
@@ -163,19 +163,28 @@
     <t>黄忠（大弓）</t>
   </si>
   <si>
+    <t>庞统（*）</t>
+  </si>
+  <si>
+    <t>姜维（*）</t>
+  </si>
+  <si>
+    <t>魏延（大弓）</t>
+  </si>
+  <si>
     <t>徐庶（大隐士）</t>
   </si>
   <si>
-    <t>魏延（大弓）</t>
-  </si>
-  <si>
     <t>法正（大军师）</t>
   </si>
   <si>
-    <t>黄月英（*）</t>
-  </si>
-  <si>
-    <t>庞统（*）</t>
+    <t>霍峻（强弩）</t>
+  </si>
+  <si>
+    <t>罗宪（*）</t>
+  </si>
+  <si>
+    <t>黄月英（器械）</t>
   </si>
   <si>
     <t>曹操军团</t>
@@ -202,6 +211,9 @@
     <t>刘晔（投石车）</t>
   </si>
   <si>
+    <t>曹真（虎豹骑）</t>
+  </si>
+  <si>
     <t>孙权军团</t>
   </si>
   <si>
@@ -226,10 +238,7 @@
     <t>诸葛瑾（内政）</t>
   </si>
   <si>
-    <t>小乔（大美人）</t>
-  </si>
-  <si>
-    <t>大乔（美人）</t>
+    <t>大小乔（美人）</t>
   </si>
   <si>
     <t>袁绍军团</t>
@@ -2965,9 +2974,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3021,20 +3030,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -3043,61 +3038,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3113,7 +3055,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,30 +3146,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3159,7 +3154,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3216,6 +3225,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3228,55 +3381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3288,97 +3393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,12 +3406,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3463,26 +3472,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3516,6 +3505,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -3536,6 +3534,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3544,10 +3553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3556,137 +3565,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3816,6 +3825,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3895,8 +3907,8 @@
       <color rgb="0092D050"/>
       <color rgb="00FFFF00"/>
       <color rgb="00000000"/>
+      <color rgb="00FA26DF"/>
       <color rgb="00FF0000"/>
-      <color rgb="00FA26DF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4196,10 +4208,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:T40"/>
+  <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4498,7 +4510,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="10:20">
+    <row r="28" spans="10:21">
       <c r="J28" s="37" t="s">
         <v>42</v>
       </c>
@@ -4517,165 +4529,172 @@
       <c r="O28" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="43" t="s">
+      <c r="P28" s="44" t="s">
         <v>48</v>
       </c>
       <c r="Q28" s="44" t="s">
         <v>49</v>
       </c>
+      <c r="R28" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="S28" s="44" t="s">
+        <v>51</v>
+      </c>
       <c r="T28" s="44" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
+        <v>52</v>
+      </c>
+      <c r="U28" s="45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="10:18">
       <c r="J29" s="37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K29" s="42" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L29" s="42" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M29" s="42" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N29" s="42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O29" s="42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="P29" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q29" s="43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="R29" s="44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="10:18">
       <c r="J30" s="37" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K30" s="42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L30" s="42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M30" s="42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N30" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="O30" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="P30" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q30" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="15:16">
-      <c r="O31" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="P31" s="43" t="s">
+      <c r="O30" s="44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="10:17">
+      <c r="P30" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="R30" s="44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="46"/>
+    </row>
+    <row r="32" spans="10:18">
       <c r="J32" s="37" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L32" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="O32" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="P32" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q32" s="45"/>
-    </row>
-    <row r="33" spans="10:18">
+        <v>81</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="N32" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="O32" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P32" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q32" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="R32" s="46"/>
+    </row>
+    <row r="33" spans="10:15">
       <c r="J33" s="37" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="N33" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q33" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="R33" s="45"/>
-    </row>
-    <row r="34" spans="10:15">
-      <c r="J34" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="L34" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="O34" s="43" t="s">
         <v>89</v>
+      </c>
+      <c r="M33" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="N33" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="O33" s="44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10">
+      <c r="J35" s="37" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" s="37" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="10:10">
-      <c r="J38" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="40" spans="10:10">
-      <c r="J40" s="37" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="37" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -4697,7 +4716,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -4705,7 +4724,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4713,7 +4732,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4721,7 +4740,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4729,7 +4748,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4737,29 +4756,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -4767,7 +4786,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -4775,7 +4794,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -4783,7 +4802,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -4791,7 +4810,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -4799,7 +4818,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -4807,7 +4826,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -4815,7 +4834,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -4823,7 +4842,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -4831,7 +4850,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -4839,7 +4858,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -4847,7 +4866,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -4855,7 +4874,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -4863,7 +4882,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -4871,7 +4890,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -4879,7 +4898,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -4887,7 +4906,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -4895,7 +4914,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -4903,7 +4922,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -4911,7 +4930,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -4919,7 +4938,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -4927,7 +4946,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -4935,7 +4954,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -4943,7 +4962,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -4951,7 +4970,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -4959,7 +4978,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -4967,7 +4986,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -4975,7 +4994,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -4983,7 +5002,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -4991,7 +5010,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -4999,7 +5018,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -5007,7 +5026,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -5015,7 +5034,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -5023,7 +5042,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -5031,7 +5050,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -5039,7 +5058,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -5047,7 +5066,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -5055,7 +5074,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -5063,7 +5082,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -5071,7 +5090,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -5079,7 +5098,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -5087,7 +5106,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -5095,7 +5114,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -5103,18 +5122,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -5122,7 +5141,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -5130,7 +5149,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
@@ -5138,7 +5157,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
@@ -5146,7 +5165,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -5154,7 +5173,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
@@ -5162,7 +5181,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
@@ -5170,7 +5189,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -5178,7 +5197,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
@@ -5186,7 +5205,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
@@ -5194,7 +5213,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
@@ -5202,7 +5221,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B63" s="1">
         <v>62</v>
@@ -5210,7 +5229,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -5218,7 +5237,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -5226,7 +5245,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
@@ -5234,7 +5253,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1">
         <v>66</v>
@@ -5242,7 +5261,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
@@ -5250,7 +5269,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
@@ -5258,7 +5277,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
@@ -5266,7 +5285,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
@@ -5274,7 +5293,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
@@ -5282,7 +5301,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
@@ -5290,7 +5309,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
@@ -5298,7 +5317,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
@@ -5306,7 +5325,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
@@ -5314,7 +5333,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
@@ -5322,7 +5341,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
@@ -5330,7 +5349,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
@@ -5338,7 +5357,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
@@ -5346,7 +5365,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B81" s="1">
         <v>80</v>
@@ -5354,7 +5373,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
@@ -5362,7 +5381,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B83" s="1">
         <v>82</v>
@@ -5370,7 +5389,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
@@ -5378,7 +5397,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
@@ -5386,7 +5405,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
@@ -5394,7 +5413,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B87" s="1">
         <v>86</v>
@@ -5402,7 +5421,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B88" s="1">
         <v>87</v>
@@ -5410,7 +5429,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
@@ -5418,7 +5437,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
@@ -5426,7 +5445,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B91" s="1">
         <v>90</v>
@@ -5434,7 +5453,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B92" s="1">
         <v>91</v>
@@ -5442,7 +5461,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
@@ -5450,7 +5469,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
@@ -5458,7 +5477,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
@@ -5466,7 +5485,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
@@ -5474,7 +5493,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B97" s="1">
         <v>96</v>
@@ -5482,7 +5501,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B98" s="1">
         <v>97</v>
@@ -5490,7 +5509,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B99" s="1">
         <v>98</v>
@@ -5498,7 +5517,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B100" s="1">
         <v>99</v>
@@ -5506,7 +5525,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B101" s="1">
         <v>100</v>
@@ -5514,7 +5533,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B102" s="1">
         <v>101</v>
@@ -5522,7 +5541,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
@@ -5530,7 +5549,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
@@ -5538,7 +5557,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
@@ -5546,7 +5565,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B106" s="1">
         <v>105</v>
@@ -5554,7 +5573,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -5562,7 +5581,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B108" s="1">
         <v>107</v>
@@ -5570,7 +5589,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B109" s="1">
         <v>108</v>
@@ -5578,7 +5597,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B110" s="1">
         <v>109</v>
@@ -5586,7 +5605,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B111" s="1">
         <v>110</v>
@@ -5594,7 +5613,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B112" s="1">
         <v>111</v>
@@ -5602,7 +5621,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B113" s="1">
         <v>112</v>
@@ -5610,7 +5629,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B114" s="1">
         <v>113</v>
@@ -5618,7 +5637,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B115" s="1">
         <v>114</v>
@@ -5626,7 +5645,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B116" s="1">
         <v>115</v>
@@ -5634,7 +5653,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B117" s="1">
         <v>116</v>
@@ -5642,7 +5661,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B118" s="1">
         <v>117</v>
@@ -5650,7 +5669,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B119" s="1">
         <v>118</v>
@@ -5658,7 +5677,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B120" s="1">
         <v>119</v>
@@ -5666,7 +5685,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B121" s="1">
         <v>120</v>
@@ -5674,7 +5693,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B122" s="1">
         <v>121</v>
@@ -5682,7 +5701,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B123" s="1">
         <v>122</v>
@@ -5690,7 +5709,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
@@ -5698,7 +5717,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B125" s="1">
         <v>124</v>
@@ -5706,7 +5725,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B126" s="1">
         <v>125</v>
@@ -5714,7 +5733,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B127" s="1">
         <v>126</v>
@@ -5722,7 +5741,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B128" s="1">
         <v>127</v>
@@ -5730,7 +5749,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B129" s="1">
         <v>128</v>
@@ -5738,7 +5757,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B130" s="1">
         <v>129</v>
@@ -5746,7 +5765,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B131" s="1">
         <v>130</v>
@@ -5754,7 +5773,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B132" s="1">
         <v>131</v>
@@ -5762,7 +5781,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B133" s="1">
         <v>132</v>
@@ -5770,7 +5789,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B134" s="1">
         <v>133</v>
@@ -5778,7 +5797,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B135" s="1">
         <v>134</v>
@@ -5786,7 +5805,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B136" s="1">
         <v>135</v>
@@ -5794,7 +5813,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B137" s="1">
         <v>136</v>
@@ -5802,7 +5821,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B138" s="1">
         <v>137</v>
@@ -5810,7 +5829,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B139" s="1">
         <v>138</v>
@@ -5818,7 +5837,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B140" s="1">
         <v>139</v>
@@ -5826,7 +5845,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B141" s="1">
         <v>140</v>
@@ -5834,7 +5853,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B142" s="1">
         <v>141</v>
@@ -5842,7 +5861,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B143" s="1">
         <v>142</v>
@@ -5850,7 +5869,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B144" s="1">
         <v>143</v>
@@ -5858,7 +5877,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B145" s="1">
         <v>144</v>
@@ -5866,7 +5885,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B146" s="1">
         <v>145</v>
@@ -5874,7 +5893,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B147" s="1">
         <v>146</v>
@@ -5882,7 +5901,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B148" s="1">
         <v>147</v>
@@ -5890,7 +5909,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B149" s="1">
         <v>148</v>
@@ -5898,7 +5917,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B150" s="1">
         <v>149</v>
@@ -5906,7 +5925,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B151" s="1">
         <v>150</v>
@@ -5914,7 +5933,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B152" s="1">
         <v>151</v>
@@ -5922,7 +5941,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B153" s="1">
         <v>152</v>
@@ -5930,7 +5949,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B154" s="1">
         <v>153</v>
@@ -5938,7 +5957,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B155" s="1">
         <v>154</v>
@@ -5946,7 +5965,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B156" s="1">
         <v>155</v>
@@ -5954,7 +5973,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B157" s="1">
         <v>156</v>
@@ -5962,7 +5981,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B158" s="1">
         <v>157</v>
@@ -5970,7 +5989,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B159" s="1">
         <v>158</v>
@@ -5978,7 +5997,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B160" s="1">
         <v>159</v>
@@ -5986,7 +6005,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B161" s="1">
         <v>160</v>
@@ -5994,7 +6013,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
@@ -6002,7 +6021,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B163" s="1">
         <v>162</v>
@@ -6010,7 +6029,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B164" s="1">
         <v>163</v>
@@ -6018,7 +6037,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
@@ -6026,7 +6045,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B166" s="1">
         <v>165</v>
@@ -6034,7 +6053,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
@@ -6042,7 +6061,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B168" s="1">
         <v>167</v>
@@ -6050,7 +6069,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B169" s="1">
         <v>168</v>
@@ -6058,7 +6077,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B170" s="1">
         <v>169</v>
@@ -6066,7 +6085,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B171" s="1">
         <v>170</v>
@@ -6074,7 +6093,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
@@ -6082,7 +6101,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B173" s="1">
         <v>172</v>
@@ -6090,7 +6109,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B174" s="1">
         <v>173</v>
@@ -6098,7 +6117,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B175" s="1">
         <v>174</v>
@@ -6106,7 +6125,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
@@ -6114,7 +6133,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B177" s="1">
         <v>176</v>
@@ -6122,7 +6141,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B178" s="1">
         <v>177</v>
@@ -6130,7 +6149,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B179" s="1">
         <v>178</v>
@@ -6138,7 +6157,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B180" s="1">
         <v>179</v>
@@ -6146,7 +6165,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B181" s="1">
         <v>180</v>
@@ -6154,7 +6173,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B182" s="1">
         <v>181</v>
@@ -6162,7 +6181,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B183" s="1">
         <v>182</v>
@@ -6170,7 +6189,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B184" s="1">
         <v>183</v>
@@ -6178,7 +6197,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B185" s="1">
         <v>184</v>
@@ -6186,7 +6205,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B186" s="1">
         <v>185</v>
@@ -6194,7 +6213,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B187" s="1">
         <v>186</v>
@@ -6202,7 +6221,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B188" s="1">
         <v>187</v>
@@ -6210,7 +6229,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B189" s="1">
         <v>188</v>
@@ -6218,7 +6237,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
@@ -6226,7 +6245,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B191" s="1">
         <v>190</v>
@@ -6234,7 +6253,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B192" s="1">
         <v>191</v>
@@ -6242,7 +6261,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B193" s="1">
         <v>192</v>
@@ -6250,7 +6269,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B194" s="1">
         <v>193</v>
@@ -6258,7 +6277,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
@@ -6266,7 +6285,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
@@ -6274,7 +6293,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
@@ -6282,7 +6301,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B198" s="1">
         <v>197</v>
@@ -6290,7 +6309,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B199" s="1">
         <v>198</v>
@@ -6298,7 +6317,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B200" s="1">
         <v>199</v>
@@ -6306,7 +6325,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
@@ -6314,7 +6333,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
@@ -6322,7 +6341,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
@@ -6330,7 +6349,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B204" s="1">
         <v>203</v>
@@ -6338,7 +6357,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B205" s="1">
         <v>204</v>
@@ -6346,7 +6365,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B206" s="1">
         <v>205</v>
@@ -6354,7 +6373,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B207" s="1">
         <v>206</v>
@@ -6362,7 +6381,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B208" s="1">
         <v>207</v>
@@ -6370,7 +6389,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B209" s="1">
         <v>208</v>
@@ -6378,7 +6397,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B210" s="1">
         <v>209</v>
@@ -6386,7 +6405,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
@@ -6394,7 +6413,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B212" s="1">
         <v>211</v>
@@ -6402,7 +6421,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
@@ -6410,7 +6429,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
@@ -6418,7 +6437,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B215" s="1">
         <v>214</v>
@@ -6426,7 +6445,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B216" s="1">
         <v>215</v>
@@ -6434,7 +6453,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B217" s="1">
         <v>216</v>
@@ -6442,7 +6461,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B218" s="1">
         <v>217</v>
@@ -6450,7 +6469,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B219" s="1">
         <v>218</v>
@@ -6458,7 +6477,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B220" s="1">
         <v>219</v>
@@ -6466,7 +6485,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
@@ -6474,7 +6493,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B222" s="1">
         <v>221</v>
@@ -6482,7 +6501,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B223" s="1">
         <v>222</v>
@@ -6490,7 +6509,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B224" s="1">
         <v>223</v>
@@ -6498,7 +6517,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B225" s="1">
         <v>224</v>
@@ -6506,7 +6525,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B226" s="1">
         <v>225</v>
@@ -6514,7 +6533,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B227" s="1">
         <v>226</v>
@@ -6522,7 +6541,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B228" s="1">
         <v>227</v>
@@ -6530,7 +6549,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B229" s="1">
         <v>228</v>
@@ -6538,7 +6557,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B230" s="1">
         <v>229</v>
@@ -6546,7 +6565,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B231" s="1">
         <v>230</v>
@@ -6554,7 +6573,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B232" s="1">
         <v>231</v>
@@ -6562,7 +6581,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B233" s="1">
         <v>232</v>
@@ -6570,7 +6589,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B234" s="1">
         <v>233</v>
@@ -6578,7 +6597,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B235" s="1">
         <v>234</v>
@@ -6586,7 +6605,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B236" s="1">
         <v>235</v>
@@ -6594,7 +6613,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B237" s="1">
         <v>236</v>
@@ -6602,7 +6621,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B238" s="1">
         <v>237</v>
@@ -6610,7 +6629,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B239" s="1">
         <v>238</v>
@@ -6618,7 +6637,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B240" s="1">
         <v>239</v>
@@ -6626,7 +6645,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B241" s="1">
         <v>240</v>
@@ -6634,7 +6653,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B242" s="1">
         <v>241</v>
@@ -6642,7 +6661,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B243" s="1">
         <v>242</v>
@@ -6650,7 +6669,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B244" s="1">
         <v>243</v>
@@ -6658,7 +6677,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B245" s="1">
         <v>244</v>
@@ -6666,7 +6685,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B246" s="1">
         <v>245</v>
@@ -6674,7 +6693,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B247" s="1">
         <v>246</v>
@@ -6682,7 +6701,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B248" s="1">
         <v>247</v>
@@ -6690,7 +6709,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B249" s="1">
         <v>248</v>
@@ -6698,7 +6717,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B250" s="1">
         <v>249</v>
@@ -6706,7 +6725,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B251" s="1">
         <v>250</v>
@@ -6714,7 +6733,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B252" s="1">
         <v>251</v>
@@ -6722,7 +6741,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B253" s="1">
         <v>252</v>
@@ -6730,7 +6749,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B254" s="1">
         <v>253</v>
@@ -6738,7 +6757,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B255" s="1">
         <v>254</v>
@@ -6746,7 +6765,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B256" s="1">
         <v>255</v>
@@ -6754,7 +6773,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B257" s="1">
         <v>256</v>
@@ -6762,7 +6781,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B258" s="1">
         <v>257</v>
@@ -6770,7 +6789,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B259" s="1">
         <v>258</v>
@@ -6778,7 +6797,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B260" s="1">
         <v>259</v>
@@ -6786,7 +6805,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B261" s="1">
         <v>260</v>
@@ -6794,7 +6813,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B262" s="1">
         <v>261</v>
@@ -6802,7 +6821,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B263" s="1">
         <v>262</v>
@@ -6810,7 +6829,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B264" s="1">
         <v>263</v>
@@ -6818,7 +6837,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B265" s="1">
         <v>264</v>
@@ -6826,7 +6845,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B266" s="1">
         <v>265</v>
@@ -6834,7 +6853,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B267" s="1">
         <v>266</v>
@@ -6842,7 +6861,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B268" s="1">
         <v>267</v>
@@ -6850,7 +6869,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B269" s="1">
         <v>268</v>
@@ -6858,7 +6877,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B270" s="1">
         <v>269</v>
@@ -6866,7 +6885,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
@@ -6874,7 +6893,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B272" s="1">
         <v>271</v>
@@ -6882,7 +6901,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B273" s="1">
         <v>272</v>
@@ -6890,7 +6909,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B274" s="1">
         <v>273</v>
@@ -6898,7 +6917,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B275" s="1">
         <v>274</v>
@@ -6906,7 +6925,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B276" s="1">
         <v>275</v>
@@ -6914,7 +6933,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B277" s="1">
         <v>276</v>
@@ -6922,7 +6941,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B278" s="1">
         <v>277</v>
@@ -6930,7 +6949,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B279" s="1">
         <v>278</v>
@@ -6938,7 +6957,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
@@ -6946,7 +6965,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
@@ -6954,7 +6973,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B282" s="1">
         <v>281</v>
@@ -6962,7 +6981,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B283" s="1">
         <v>282</v>
@@ -6970,7 +6989,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B284" s="1">
         <v>283</v>
@@ -6978,7 +6997,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B285" s="1">
         <v>284</v>
@@ -6986,7 +7005,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B286" s="1">
         <v>285</v>
@@ -6994,7 +7013,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B287" s="1">
         <v>286</v>
@@ -7002,7 +7021,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
@@ -7010,7 +7029,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B289" s="1">
         <v>288</v>
@@ -7018,7 +7037,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B290" s="1">
         <v>289</v>
@@ -7026,7 +7045,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B291" s="1">
         <v>290</v>
@@ -7034,7 +7053,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B292" s="1">
         <v>291</v>
@@ -7042,7 +7061,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B293" s="1">
         <v>292</v>
@@ -7050,7 +7069,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B294" s="1">
         <v>293</v>
@@ -7058,7 +7077,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B295" s="1">
         <v>294</v>
@@ -7066,7 +7085,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B296" s="1">
         <v>295</v>
@@ -7074,7 +7093,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B297" s="1">
         <v>296</v>
@@ -7082,7 +7101,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B298" s="1">
         <v>297</v>
@@ -7090,7 +7109,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B299" s="1">
         <v>298</v>
@@ -7098,7 +7117,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B300" s="1">
         <v>299</v>
@@ -7106,7 +7125,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B301" s="1">
         <v>300</v>
@@ -7114,7 +7133,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B302" s="1">
         <v>301</v>
@@ -7122,7 +7141,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B303" s="1">
         <v>302</v>
@@ -7130,7 +7149,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B304" s="1">
         <v>303</v>
@@ -7138,7 +7157,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B305" s="1">
         <v>304</v>
@@ -7146,7 +7165,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B306" s="1">
         <v>305</v>
@@ -7154,7 +7173,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B307" s="1">
         <v>306</v>
@@ -7162,7 +7181,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B308" s="1">
         <v>307</v>
@@ -7170,7 +7189,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B309" s="1">
         <v>308</v>
@@ -7178,7 +7197,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B310" s="1">
         <v>309</v>
@@ -7186,7 +7205,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B311" s="1">
         <v>310</v>
@@ -7194,7 +7213,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B312" s="1">
         <v>311</v>
@@ -7202,7 +7221,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B313" s="1">
         <v>312</v>
@@ -7210,7 +7229,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B314" s="1">
         <v>313</v>
@@ -7218,7 +7237,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B315" s="1">
         <v>314</v>
@@ -7226,7 +7245,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B316" s="1">
         <v>315</v>
@@ -7234,7 +7253,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B317" s="1">
         <v>316</v>
@@ -7242,7 +7261,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B318" s="1">
         <v>317</v>
@@ -7250,7 +7269,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B319" s="1">
         <v>318</v>
@@ -7258,7 +7277,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B320" s="1">
         <v>319</v>
@@ -7266,7 +7285,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B321" s="1">
         <v>320</v>
@@ -7274,7 +7293,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B322" s="1">
         <v>321</v>
@@ -7282,7 +7301,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B323" s="1">
         <v>322</v>
@@ -7290,7 +7309,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B324" s="1">
         <v>323</v>
@@ -7298,7 +7317,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B325" s="1">
         <v>324</v>
@@ -7306,7 +7325,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B326" s="1">
         <v>325</v>
@@ -7314,7 +7333,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B327" s="1">
         <v>326</v>
@@ -7322,7 +7341,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B328" s="1">
         <v>327</v>
@@ -7330,7 +7349,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B329" s="1">
         <v>328</v>
@@ -7338,7 +7357,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B330" s="1">
         <v>329</v>
@@ -7346,7 +7365,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B331" s="1">
         <v>330</v>
@@ -7354,7 +7373,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B332" s="1">
         <v>331</v>
@@ -7362,7 +7381,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B333" s="1">
         <v>332</v>
@@ -7370,7 +7389,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B334" s="1">
         <v>333</v>
@@ -7378,7 +7397,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B335" s="1">
         <v>334</v>
@@ -7386,7 +7405,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B336" s="1">
         <v>335</v>
@@ -7394,7 +7413,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B337" s="1">
         <v>336</v>
@@ -7402,7 +7421,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B338" s="1">
         <v>337</v>
@@ -7410,7 +7429,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B339" s="1">
         <v>338</v>
@@ -7418,7 +7437,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B340" s="1">
         <v>339</v>
@@ -7426,7 +7445,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B341" s="1">
         <v>340</v>
@@ -7434,7 +7453,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B342" s="1">
         <v>341</v>
@@ -7442,7 +7461,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B343" s="1">
         <v>342</v>
@@ -7450,7 +7469,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B344" s="1">
         <v>343</v>
@@ -7458,7 +7477,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B345" s="1">
         <v>344</v>
@@ -7466,7 +7485,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B346" s="1">
         <v>345</v>
@@ -7474,7 +7493,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B347" s="1">
         <v>346</v>
@@ -7482,7 +7501,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B348" s="1">
         <v>347</v>
@@ -7490,7 +7509,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B349" s="1">
         <v>348</v>
@@ -7498,7 +7517,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B350" s="1">
         <v>349</v>
@@ -7506,7 +7525,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B351" s="1">
         <v>350</v>
@@ -7514,7 +7533,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B352" s="1">
         <v>351</v>
@@ -7522,7 +7541,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B353" s="1">
         <v>352</v>
@@ -7530,7 +7549,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B354" s="1">
         <v>353</v>
@@ -7538,7 +7557,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B355" s="1">
         <v>354</v>
@@ -7546,7 +7565,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B356" s="1">
         <v>355</v>
@@ -7554,7 +7573,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B357" s="1">
         <v>356</v>
@@ -7562,7 +7581,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B358" s="1">
         <v>357</v>
@@ -7570,7 +7589,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B359" s="1">
         <v>358</v>
@@ -7578,7 +7597,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B360" s="1">
         <v>359</v>
@@ -7586,7 +7605,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B361" s="1">
         <v>360</v>
@@ -7594,7 +7613,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B362" s="1">
         <v>361</v>
@@ -7602,7 +7621,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B363" s="1">
         <v>362</v>
@@ -7610,7 +7629,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B364" s="1">
         <v>363</v>
@@ -7618,7 +7637,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B365" s="1">
         <v>364</v>
@@ -7626,7 +7645,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B366" s="1">
         <v>365</v>
@@ -7634,7 +7653,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B367" s="1">
         <v>366</v>
@@ -7642,7 +7661,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B368" s="1">
         <v>367</v>
@@ -7650,7 +7669,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B369" s="1">
         <v>368</v>
@@ -7658,7 +7677,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B370" s="1">
         <v>369</v>
@@ -7666,7 +7685,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B371" s="1">
         <v>370</v>
@@ -7674,7 +7693,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B372" s="1">
         <v>371</v>
@@ -7682,7 +7701,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B373" s="1">
         <v>372</v>
@@ -7690,7 +7709,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B374" s="1">
         <v>373</v>
@@ -7698,7 +7717,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B375" s="1">
         <v>374</v>
@@ -7706,7 +7725,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B376" s="1">
         <v>375</v>
@@ -7714,7 +7733,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B377" s="1">
         <v>376</v>
@@ -7722,7 +7741,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B378" s="1">
         <v>377</v>
@@ -7730,7 +7749,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B379" s="1">
         <v>378</v>
@@ -7738,7 +7757,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B380" s="1">
         <v>379</v>
@@ -7746,7 +7765,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B381" s="1">
         <v>380</v>
@@ -7754,7 +7773,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B382" s="1">
         <v>381</v>
@@ -7762,7 +7781,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B383" s="1">
         <v>382</v>
@@ -7770,7 +7789,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B384" s="1">
         <v>383</v>
@@ -7778,7 +7797,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B385" s="1">
         <v>384</v>
@@ -7786,7 +7805,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B386" s="1">
         <v>385</v>
@@ -7794,7 +7813,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B387" s="1">
         <v>386</v>
@@ -7802,7 +7821,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B388" s="1">
         <v>387</v>
@@ -7810,7 +7829,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B389" s="1">
         <v>388</v>
@@ -7818,7 +7837,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B390" s="1">
         <v>389</v>
@@ -7826,7 +7845,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B391" s="1">
         <v>390</v>
@@ -7834,7 +7853,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B392" s="1">
         <v>391</v>
@@ -7842,7 +7861,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B393" s="1">
         <v>392</v>
@@ -7850,7 +7869,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B394" s="1">
         <v>393</v>
@@ -7858,7 +7877,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B395" s="1">
         <v>394</v>
@@ -7866,7 +7885,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B396" s="1">
         <v>395</v>
@@ -7874,7 +7893,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B397" s="1">
         <v>396</v>
@@ -7882,7 +7901,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B398" s="1">
         <v>397</v>
@@ -7890,7 +7909,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B399" s="1">
         <v>398</v>
@@ -7898,7 +7917,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B400" s="1">
         <v>399</v>
@@ -7906,7 +7925,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B401" s="1">
         <v>400</v>
@@ -7914,7 +7933,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B402" s="1">
         <v>401</v>
@@ -7922,7 +7941,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B403" s="1">
         <v>402</v>
@@ -7930,7 +7949,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B404" s="1">
         <v>403</v>
@@ -7938,7 +7957,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B405" s="1">
         <v>404</v>
@@ -7946,7 +7965,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B406" s="1">
         <v>405</v>
@@ -7954,7 +7973,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B407" s="1">
         <v>406</v>
@@ -7962,7 +7981,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B408" s="1">
         <v>407</v>
@@ -7970,7 +7989,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B409" s="1">
         <v>408</v>
@@ -7978,7 +7997,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B410" s="1">
         <v>409</v>
@@ -7986,7 +8005,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B411" s="1">
         <v>410</v>
@@ -7994,7 +8013,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B412" s="1">
         <v>411</v>
@@ -8002,7 +8021,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B413" s="1">
         <v>412</v>
@@ -8010,7 +8029,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B414" s="1">
         <v>413</v>
@@ -8018,7 +8037,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B415" s="1">
         <v>414</v>
@@ -8026,7 +8045,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B416" s="1">
         <v>415</v>
@@ -8034,7 +8053,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B417" s="1">
         <v>416</v>
@@ -8042,7 +8061,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B418" s="1">
         <v>417</v>
@@ -8050,7 +8069,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B419" s="1">
         <v>418</v>
@@ -8058,7 +8077,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B420" s="1">
         <v>419</v>
@@ -8066,7 +8085,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B421" s="1">
         <v>420</v>
@@ -8074,7 +8093,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B422" s="1">
         <v>421</v>
@@ -8082,7 +8101,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B423" s="1">
         <v>422</v>
@@ -8090,7 +8109,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B424" s="1">
         <v>423</v>
@@ -8098,7 +8117,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B425" s="1">
         <v>424</v>
@@ -8106,7 +8125,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B426" s="1">
         <v>425</v>
@@ -8114,7 +8133,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B427" s="1">
         <v>426</v>
@@ -8122,7 +8141,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B428" s="1">
         <v>427</v>
@@ -8130,7 +8149,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B429" s="1">
         <v>428</v>
@@ -8138,7 +8157,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B430" s="1">
         <v>429</v>
@@ -8146,7 +8165,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B431" s="1">
         <v>430</v>
@@ -8154,7 +8173,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B432" s="1">
         <v>431</v>
@@ -8162,7 +8181,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B433" s="1">
         <v>432</v>
@@ -8170,7 +8189,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B434" s="1">
         <v>433</v>
@@ -8178,7 +8197,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B435" s="1">
         <v>434</v>
@@ -8186,7 +8205,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B436" s="1">
         <v>435</v>
@@ -8194,7 +8213,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B437" s="1">
         <v>436</v>
@@ -8202,7 +8221,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B438" s="1">
         <v>437</v>
@@ -8210,7 +8229,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B439" s="1">
         <v>438</v>
@@ -8218,7 +8237,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B440" s="1">
         <v>439</v>
@@ -8226,7 +8245,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B441" s="1">
         <v>440</v>
@@ -8234,7 +8253,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B442" s="1">
         <v>441</v>
@@ -8242,7 +8261,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B443" s="1">
         <v>442</v>
@@ -8250,7 +8269,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B444" s="1">
         <v>443</v>
@@ -8258,7 +8277,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B445" s="1">
         <v>444</v>
@@ -8266,7 +8285,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B446" s="1">
         <v>445</v>
@@ -8274,7 +8293,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B447" s="1">
         <v>446</v>
@@ -8282,7 +8301,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B448" s="1">
         <v>447</v>
@@ -8290,7 +8309,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B449" s="1">
         <v>448</v>
@@ -8298,7 +8317,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="B450" s="1">
         <v>449</v>
@@ -8306,7 +8325,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B451" s="1">
         <v>450</v>
@@ -8314,7 +8333,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B452" s="1">
         <v>451</v>
@@ -8322,7 +8341,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B453" s="1">
         <v>452</v>
@@ -8330,7 +8349,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B454" s="1">
         <v>453</v>
@@ -8338,7 +8357,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B455" s="1">
         <v>454</v>
@@ -8346,7 +8365,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B456" s="1">
         <v>455</v>
@@ -8354,7 +8373,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B457" s="1">
         <v>456</v>
@@ -8362,7 +8381,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B458" s="1">
         <v>457</v>
@@ -8370,7 +8389,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B459" s="1">
         <v>458</v>
@@ -8378,7 +8397,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B460" s="1">
         <v>459</v>
@@ -8386,7 +8405,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B461" s="1">
         <v>460</v>
@@ -8394,7 +8413,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B462" s="1">
         <v>461</v>
@@ -8402,7 +8421,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B463" s="1">
         <v>462</v>
@@ -8410,7 +8429,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B464" s="1">
         <v>463</v>
@@ -8418,7 +8437,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B465" s="1">
         <v>464</v>
@@ -8426,7 +8445,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B466" s="1">
         <v>465</v>
@@ -8434,7 +8453,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B467" s="1">
         <v>466</v>
@@ -8442,7 +8461,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B468" s="1">
         <v>467</v>
@@ -8450,7 +8469,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="B469" s="1">
         <v>468</v>
@@ -8458,7 +8477,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B470" s="1">
         <v>469</v>
@@ -8466,7 +8485,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="B471" s="1">
         <v>470</v>
@@ -8474,7 +8493,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B472" s="1">
         <v>471</v>
@@ -8482,7 +8501,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="B473" s="1">
         <v>472</v>
@@ -8490,7 +8509,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B474" s="1">
         <v>473</v>
@@ -8498,7 +8517,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="B475" s="1">
         <v>474</v>
@@ -8506,7 +8525,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B476" s="1">
         <v>475</v>
@@ -8514,7 +8533,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="B477" s="1">
         <v>476</v>
@@ -8522,7 +8541,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B478" s="1">
         <v>477</v>
@@ -8530,7 +8549,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="B479" s="1">
         <v>478</v>
@@ -8538,7 +8557,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B480" s="1">
         <v>479</v>
@@ -8546,7 +8565,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="B481" s="1">
         <v>480</v>
@@ -8554,7 +8573,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B482" s="1">
         <v>481</v>
@@ -8562,7 +8581,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B483" s="1">
         <v>482</v>
@@ -8570,7 +8589,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B484" s="1">
         <v>483</v>
@@ -8578,7 +8597,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B485" s="1">
         <v>484</v>
@@ -8586,7 +8605,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B486" s="1">
         <v>485</v>
@@ -8594,7 +8613,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B487" s="1">
         <v>486</v>
@@ -8602,7 +8621,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B488" s="1">
         <v>487</v>
@@ -8610,7 +8629,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B489" s="1">
         <v>488</v>
@@ -8618,7 +8637,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B490" s="1">
         <v>489</v>
@@ -8626,7 +8645,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B491" s="1">
         <v>490</v>
@@ -8634,7 +8653,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B492" s="1">
         <v>491</v>
@@ -8642,7 +8661,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B493" s="1">
         <v>492</v>
@@ -8650,7 +8669,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B494" s="1">
         <v>493</v>
@@ -8658,7 +8677,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B495" s="1">
         <v>494</v>
@@ -8666,7 +8685,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B496" s="1">
         <v>495</v>
@@ -8674,7 +8693,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="B497" s="1">
         <v>496</v>
@@ -8682,7 +8701,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B498" s="1">
         <v>497</v>
@@ -8690,7 +8709,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B499" s="1">
         <v>498</v>
@@ -8698,7 +8717,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B500" s="1">
         <v>499</v>
@@ -8706,7 +8725,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="B501" s="1">
         <v>500</v>
@@ -8714,7 +8733,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B502" s="1">
         <v>501</v>
@@ -8722,7 +8741,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B503" s="1">
         <v>502</v>
@@ -8730,7 +8749,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B504" s="1">
         <v>503</v>
@@ -8738,7 +8757,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="B505" s="1">
         <v>504</v>
@@ -8746,7 +8765,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B506" s="1">
         <v>505</v>
@@ -8754,7 +8773,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B507" s="1">
         <v>506</v>
@@ -8762,7 +8781,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B508" s="1">
         <v>507</v>
@@ -8770,7 +8789,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="B509" s="1">
         <v>508</v>
@@ -8778,7 +8797,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B510" s="1">
         <v>509</v>
@@ -8786,7 +8805,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B511" s="1">
         <v>510</v>
@@ -8794,7 +8813,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B512" s="1">
         <v>511</v>
@@ -8802,7 +8821,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="B513" s="1">
         <v>512</v>
@@ -8810,7 +8829,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B514" s="1">
         <v>513</v>
@@ -8818,7 +8837,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B515" s="1">
         <v>514</v>
@@ -8826,7 +8845,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B516" s="1">
         <v>515</v>
@@ -8834,7 +8853,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="B517" s="1">
         <v>516</v>
@@ -8842,7 +8861,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B518" s="1">
         <v>517</v>
@@ -8850,7 +8869,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B519" s="1">
         <v>518</v>
@@ -8858,7 +8877,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B520" s="1">
         <v>519</v>
@@ -8866,7 +8885,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B521" s="1">
         <v>520</v>
@@ -8874,7 +8893,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B522" s="1">
         <v>521</v>
@@ -8882,7 +8901,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B523" s="1">
         <v>522</v>
@@ -8890,7 +8909,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="B524" s="1">
         <v>523</v>
@@ -8898,7 +8917,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B525" s="1">
         <v>524</v>
@@ -8906,7 +8925,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B526" s="1">
         <v>525</v>
@@ -8914,7 +8933,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B527" s="1">
         <v>526</v>
@@ -8922,7 +8941,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B528" s="1">
         <v>527</v>
@@ -8930,7 +8949,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B529" s="1">
         <v>528</v>
@@ -8938,7 +8957,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B530" s="1">
         <v>529</v>
@@ -8946,7 +8965,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B531" s="1">
         <v>530</v>
@@ -8954,7 +8973,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B532" s="1">
         <v>531</v>
@@ -8962,7 +8981,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B533" s="1">
         <v>532</v>
@@ -8970,7 +8989,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B534" s="1">
         <v>533</v>
@@ -8978,7 +8997,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B535" s="1">
         <v>534</v>
@@ -8986,7 +9005,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B536" s="1">
         <v>535</v>
@@ -8994,7 +9013,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="B537" s="1">
         <v>536</v>
@@ -9002,7 +9021,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B538" s="1">
         <v>537</v>
@@ -9010,7 +9029,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B539" s="1">
         <v>538</v>
@@ -9018,7 +9037,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B540" s="1">
         <v>539</v>
@@ -9026,7 +9045,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B541" s="1">
         <v>540</v>
@@ -9034,7 +9053,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B542" s="1">
         <v>541</v>
@@ -9042,7 +9061,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B543" s="1">
         <v>542</v>
@@ -9050,7 +9069,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B544" s="1">
         <v>543</v>
@@ -9058,7 +9077,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B545" s="1">
         <v>544</v>
@@ -9066,7 +9085,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="B546" s="1">
         <v>545</v>
@@ -9074,7 +9093,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B547" s="1">
         <v>546</v>
@@ -9082,7 +9101,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B548" s="1">
         <v>547</v>
@@ -9090,7 +9109,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B549" s="1">
         <v>548</v>
@@ -9098,7 +9117,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B550" s="1">
         <v>549</v>
@@ -9106,7 +9125,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B551" s="1">
         <v>550</v>
@@ -9114,7 +9133,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B552" s="1">
         <v>551</v>
@@ -9122,7 +9141,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="B553" s="1">
         <v>552</v>
@@ -9130,7 +9149,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B554" s="1">
         <v>553</v>
@@ -9138,7 +9157,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B555" s="1">
         <v>554</v>
@@ -9146,7 +9165,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B556" s="1">
         <v>555</v>
@@ -9154,7 +9173,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="B557" s="1">
         <v>556</v>
@@ -9162,7 +9181,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B558" s="1">
         <v>557</v>
@@ -9170,7 +9189,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B559" s="1">
         <v>558</v>
@@ -9178,7 +9197,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B560" s="1">
         <v>559</v>
@@ -9186,7 +9205,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="B561" s="1">
         <v>560</v>
@@ -9194,7 +9213,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B562" s="1">
         <v>561</v>
@@ -9202,7 +9221,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B563" s="1">
         <v>562</v>
@@ -9210,7 +9229,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B564" s="1">
         <v>563</v>
@@ -9218,7 +9237,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B565" s="1">
         <v>564</v>
@@ -9226,7 +9245,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B566" s="1">
         <v>565</v>
@@ -9234,7 +9253,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B567" s="1">
         <v>566</v>
@@ -9242,7 +9261,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B568" s="1">
         <v>567</v>
@@ -9250,7 +9269,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B569" s="1">
         <v>568</v>
@@ -9258,7 +9277,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B570" s="1">
         <v>569</v>
@@ -9266,7 +9285,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B571" s="1">
         <v>570</v>
@@ -9274,7 +9293,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B572" s="1">
         <v>571</v>
@@ -9282,7 +9301,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B573" s="1">
         <v>572</v>
@@ -9290,7 +9309,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B574" s="1">
         <v>573</v>
@@ -9298,7 +9317,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B575" s="1">
         <v>574</v>
@@ -9306,7 +9325,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B576" s="1">
         <v>575</v>
@@ -9314,7 +9333,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B577" s="1">
         <v>576</v>
@@ -9322,7 +9341,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B578" s="1">
         <v>577</v>
@@ -9330,7 +9349,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B579" s="1">
         <v>578</v>
@@ -9338,7 +9357,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B580" s="1">
         <v>579</v>
@@ -9346,7 +9365,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B581" s="1">
         <v>580</v>
@@ -9354,7 +9373,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B582" s="1">
         <v>581</v>
@@ -9362,7 +9381,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B583" s="1">
         <v>582</v>
@@ -9370,7 +9389,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B584" s="1">
         <v>583</v>
@@ -9378,7 +9397,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B585" s="1">
         <v>584</v>
@@ -9386,7 +9405,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B586" s="1">
         <v>585</v>
@@ -9394,7 +9413,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B587" s="1">
         <v>586</v>
@@ -9402,7 +9421,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B588" s="1">
         <v>587</v>
@@ -9410,7 +9429,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B589" s="1">
         <v>588</v>
@@ -9418,7 +9437,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="B590" s="1">
         <v>589</v>
@@ -9426,7 +9445,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B591" s="1">
         <v>590</v>
@@ -9434,7 +9453,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="B592" s="1">
         <v>591</v>
@@ -9442,7 +9461,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B593" s="1">
         <v>592</v>
@@ -9450,7 +9469,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B594" s="1">
         <v>593</v>
@@ -9458,7 +9477,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B595" s="1">
         <v>594</v>
@@ -9466,7 +9485,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B596" s="1">
         <v>595</v>
@@ -9474,7 +9493,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B597" s="1">
         <v>596</v>
@@ -9482,7 +9501,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B598" s="1">
         <v>597</v>
@@ -9490,7 +9509,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B599" s="1">
         <v>598</v>
@@ -9498,7 +9517,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B600" s="1">
         <v>599</v>
@@ -9506,7 +9525,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B601" s="1">
         <v>600</v>
@@ -9514,7 +9533,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B602" s="1">
         <v>601</v>
@@ -9522,7 +9541,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B603" s="1">
         <v>602</v>
@@ -9530,7 +9549,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B604" s="1">
         <v>603</v>
@@ -9538,7 +9557,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B605" s="1">
         <v>604</v>
@@ -9546,7 +9565,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B606" s="1">
         <v>605</v>
@@ -9554,7 +9573,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B607" s="1">
         <v>606</v>
@@ -9562,7 +9581,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B608" s="1">
         <v>607</v>
@@ -9570,7 +9589,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B609" s="1">
         <v>608</v>
@@ -9578,7 +9597,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B610" s="1">
         <v>609</v>
@@ -9586,7 +9605,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B611" s="1">
         <v>610</v>
@@ -9594,7 +9613,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B612" s="1">
         <v>611</v>
@@ -9602,7 +9621,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B613" s="1">
         <v>612</v>
@@ -9610,7 +9629,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B614" s="1">
         <v>613</v>
@@ -9618,7 +9637,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B615" s="1">
         <v>614</v>
@@ -9626,7 +9645,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B616" s="1">
         <v>615</v>
@@ -9634,7 +9653,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B617" s="1">
         <v>616</v>
@@ -9642,7 +9661,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B618" s="1">
         <v>617</v>
@@ -9650,7 +9669,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B619" s="1">
         <v>618</v>
@@ -9658,7 +9677,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B620" s="1">
         <v>619</v>
@@ -9666,7 +9685,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B621" s="1">
         <v>620</v>
@@ -9674,7 +9693,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B622" s="1">
         <v>621</v>
@@ -9682,7 +9701,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B623" s="1">
         <v>622</v>
@@ -9690,7 +9709,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B624" s="1">
         <v>623</v>
@@ -9698,7 +9717,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B625" s="1">
         <v>624</v>
@@ -9706,7 +9725,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B626" s="1">
         <v>625</v>
@@ -9714,7 +9733,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B627" s="1">
         <v>626</v>
@@ -9722,7 +9741,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B628" s="1">
         <v>627</v>
@@ -9730,7 +9749,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B629" s="1">
         <v>628</v>
@@ -9738,7 +9757,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B630" s="1">
         <v>629</v>
@@ -9746,7 +9765,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B631" s="1">
         <v>630</v>
@@ -9754,7 +9773,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B632" s="1">
         <v>631</v>
@@ -9762,7 +9781,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B633" s="1">
         <v>632</v>
@@ -9770,7 +9789,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B634" s="1">
         <v>633</v>
@@ -9778,7 +9797,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B635" s="1">
         <v>634</v>
@@ -9786,7 +9805,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B636" s="1">
         <v>635</v>
@@ -9794,7 +9813,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B637" s="1">
         <v>636</v>
@@ -9802,7 +9821,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B638" s="1">
         <v>637</v>
@@ -9810,7 +9829,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="B639" s="1">
         <v>638</v>
@@ -9818,7 +9837,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B640" s="1">
         <v>639</v>
@@ -9826,7 +9845,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="B641" s="1">
         <v>640</v>
@@ -9834,7 +9853,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B642" s="1">
         <v>641</v>
@@ -9842,7 +9861,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B643" s="1">
         <v>642</v>
@@ -9850,7 +9869,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B644" s="1">
         <v>643</v>
@@ -9858,7 +9877,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B645" s="1">
         <v>644</v>
@@ -9866,7 +9885,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B646" s="1">
         <v>645</v>
@@ -9874,7 +9893,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B647" s="1">
         <v>646</v>
@@ -9882,7 +9901,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B648" s="1">
         <v>647</v>
@@ -9890,7 +9909,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B649" s="1">
         <v>648</v>
@@ -9898,7 +9917,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B650" s="1">
         <v>649</v>
@@ -9906,7 +9925,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B651" s="1">
         <v>650</v>
@@ -9914,7 +9933,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B652" s="1">
         <v>651</v>
@@ -9922,7 +9941,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B653" s="1">
         <v>652</v>
@@ -9930,7 +9949,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B654" s="1">
         <v>653</v>
@@ -9938,7 +9957,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B655" s="1">
         <v>654</v>
@@ -9946,7 +9965,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B656" s="1">
         <v>655</v>
@@ -9954,7 +9973,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B657" s="1">
         <v>656</v>
@@ -9962,7 +9981,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B658" s="1">
         <v>657</v>
@@ -9970,7 +9989,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B659" s="1">
         <v>658</v>
@@ -9978,7 +9997,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B660" s="1">
         <v>659</v>
@@ -9986,7 +10005,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B661" s="1">
         <v>660</v>
@@ -9994,7 +10013,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B662" s="1">
         <v>661</v>
@@ -10002,7 +10021,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B663" s="1">
         <v>662</v>
@@ -10010,7 +10029,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B664" s="1">
         <v>663</v>
@@ -10018,7 +10037,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B665" s="1">
         <v>664</v>
@@ -10026,7 +10045,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B666" s="1">
         <v>665</v>
@@ -10034,7 +10053,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B667" s="1">
         <v>666</v>
@@ -10042,7 +10061,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B668" s="1">
         <v>667</v>
@@ -10050,7 +10069,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B669" s="1">
         <v>668</v>
@@ -10058,7 +10077,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B670" s="1">
         <v>669</v>
@@ -10066,7 +10085,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B671" s="1">
         <v>670</v>
@@ -10074,7 +10093,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B672" s="1">
         <v>671</v>
@@ -10082,7 +10101,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B673" s="1">
         <v>672</v>
@@ -10090,7 +10109,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="B674" s="1">
         <v>673</v>
@@ -10098,7 +10117,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B675" s="1">
         <v>674</v>
@@ -10106,7 +10125,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B676" s="1">
         <v>675</v>
@@ -10114,7 +10133,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B677" s="1">
         <v>676</v>
@@ -10122,7 +10141,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="B678" s="1">
         <v>677</v>
@@ -10130,7 +10149,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B679" s="1">
         <v>678</v>
@@ -10138,7 +10157,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B680" s="1">
         <v>679</v>
@@ -10146,7 +10165,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B681" s="1">
         <v>680</v>
@@ -10154,7 +10173,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B682" s="1">
         <v>681</v>
@@ -10162,7 +10181,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B683" s="1">
         <v>682</v>
@@ -10170,7 +10189,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B684" s="1">
         <v>683</v>
@@ -10178,7 +10197,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B685" s="1">
         <v>684</v>
@@ -10186,7 +10205,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B686" s="1">
         <v>685</v>
@@ -10194,7 +10213,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B687" s="1">
         <v>686</v>
@@ -10202,7 +10221,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B688" s="1">
         <v>687</v>
@@ -10210,7 +10229,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B689" s="1">
         <v>688</v>
@@ -10218,7 +10237,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B690" s="1">
         <v>689</v>
@@ -10226,7 +10245,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B691" s="1">
         <v>690</v>
@@ -10234,7 +10253,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B692" s="1">
         <v>691</v>
@@ -10242,7 +10261,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B693" s="1">
         <v>692</v>
@@ -10250,7 +10269,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B694" s="1">
         <v>693</v>
@@ -10258,7 +10277,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B695" s="1">
         <v>694</v>
@@ -10266,7 +10285,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B696" s="1">
         <v>695</v>
@@ -10274,7 +10293,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B697" s="1">
         <v>696</v>
@@ -10282,7 +10301,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B698" s="1">
         <v>697</v>
@@ -10290,7 +10309,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B699" s="1">
         <v>698</v>
@@ -10298,7 +10317,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B700" s="1">
         <v>699</v>
@@ -10306,7 +10325,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B701" s="1">
         <v>700</v>
@@ -10314,7 +10333,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B702" s="1">
         <v>701</v>
@@ -10322,7 +10341,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B703" s="1">
         <v>702</v>
@@ -10330,7 +10349,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B704" s="1">
         <v>703</v>
@@ -10338,7 +10357,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="B705" s="1">
         <v>704</v>
@@ -10346,7 +10365,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B706" s="1">
         <v>705</v>
@@ -10354,7 +10373,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B707" s="1">
         <v>706</v>
@@ -10362,7 +10381,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B708" s="1">
         <v>707</v>
@@ -10370,7 +10389,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B709" s="1">
         <v>708</v>
@@ -10378,7 +10397,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B710" s="1">
         <v>709</v>
@@ -10386,7 +10405,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="B711" s="1">
         <v>710</v>
@@ -10394,7 +10413,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B712" s="1">
         <v>711</v>
@@ -10402,7 +10421,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B713" s="1">
         <v>712</v>
@@ -10410,7 +10429,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B714" s="1">
         <v>713</v>
@@ -10418,7 +10437,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B715" s="1">
         <v>714</v>
@@ -10426,7 +10445,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B716" s="1">
         <v>715</v>
@@ -10434,7 +10453,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B717" s="1">
         <v>716</v>
@@ -10442,7 +10461,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B718" s="1">
         <v>717</v>
@@ -10450,7 +10469,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B719" s="1">
         <v>718</v>
@@ -10458,7 +10477,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B720" s="1">
         <v>719</v>
@@ -10466,7 +10485,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B721" s="1">
         <v>720</v>
@@ -10474,7 +10493,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B722" s="1">
         <v>721</v>
@@ -10482,7 +10501,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B723" s="1">
         <v>722</v>
@@ -10490,7 +10509,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B724" s="1">
         <v>723</v>
@@ -10498,7 +10517,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B725" s="1">
         <v>724</v>
@@ -10506,7 +10525,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B726" s="1">
         <v>725</v>
@@ -10514,7 +10533,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B727" s="1">
         <v>726</v>
@@ -10522,7 +10541,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B728" s="1">
         <v>727</v>
@@ -10530,7 +10549,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B729" s="1">
         <v>728</v>
@@ -10538,7 +10557,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B730" s="1">
         <v>729</v>
@@ -10546,7 +10565,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B731" s="1">
         <v>730</v>
@@ -10554,7 +10573,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B732" s="1">
         <v>731</v>
@@ -10562,7 +10581,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B733" s="1">
         <v>732</v>
@@ -10570,7 +10589,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B734" s="1">
         <v>733</v>
@@ -10578,7 +10597,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B735" s="1">
         <v>734</v>
@@ -10586,7 +10605,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B736" s="1">
         <v>735</v>
@@ -10594,7 +10613,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B737" s="1">
         <v>736</v>
@@ -10602,7 +10621,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B738" s="1">
         <v>737</v>
@@ -10610,7 +10629,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B739" s="1">
         <v>738</v>
@@ -10618,7 +10637,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B740" s="1">
         <v>739</v>
@@ -10626,7 +10645,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B741" s="1">
         <v>740</v>
@@ -10634,7 +10653,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="B742" s="1">
         <v>741</v>
@@ -10642,7 +10661,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B743" s="1">
         <v>742</v>
@@ -10650,7 +10669,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B744" s="1">
         <v>743</v>
@@ -10658,7 +10677,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B745" s="1">
         <v>744</v>
@@ -10666,7 +10685,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B746" s="1">
         <v>745</v>
@@ -10674,7 +10693,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B747" s="1">
         <v>746</v>
@@ -10682,7 +10701,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B748" s="1">
         <v>747</v>
@@ -10690,7 +10709,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B749" s="1">
         <v>748</v>
@@ -10698,7 +10717,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B750" s="1">
         <v>749</v>
@@ -10706,7 +10725,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B751" s="1">
         <v>750</v>
@@ -10714,7 +10733,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B752" s="1">
         <v>751</v>
@@ -10722,7 +10741,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="B753" s="1">
         <v>752</v>
@@ -10730,7 +10749,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B754" s="1">
         <v>753</v>
@@ -10738,7 +10757,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B755" s="1">
         <v>754</v>
@@ -10746,7 +10765,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B756" s="1">
         <v>755</v>
@@ -10754,7 +10773,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B757" s="1">
         <v>756</v>
@@ -10762,7 +10781,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B758" s="1">
         <v>757</v>
@@ -10770,7 +10789,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B759" s="1">
         <v>758</v>
@@ -10778,7 +10797,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B760" s="1">
         <v>759</v>
@@ -10786,7 +10805,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B761" s="1">
         <v>760</v>
@@ -10794,7 +10813,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B762" s="1">
         <v>761</v>
@@ -10802,7 +10821,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B763" s="1">
         <v>762</v>
@@ -10810,7 +10829,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B764" s="1">
         <v>763</v>
@@ -10818,7 +10837,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B765" s="1">
         <v>764</v>
@@ -10826,7 +10845,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B766" s="1">
         <v>765</v>
@@ -10834,7 +10853,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B767" s="1">
         <v>766</v>
@@ -10842,7 +10861,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B768" s="1">
         <v>767</v>
@@ -10850,7 +10869,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B769" s="1">
         <v>768</v>
@@ -10858,7 +10877,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B770" s="1">
         <v>769</v>
@@ -10866,7 +10885,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B771" s="1">
         <v>770</v>
@@ -10874,7 +10893,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B772" s="1">
         <v>771</v>
@@ -10882,7 +10901,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B773" s="1">
         <v>772</v>
@@ -10890,7 +10909,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B774" s="1">
         <v>773</v>
@@ -10898,7 +10917,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B775" s="1">
         <v>774</v>
@@ -10906,7 +10925,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B776" s="1">
         <v>775</v>
@@ -10914,7 +10933,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B777" s="1">
         <v>776</v>
@@ -10922,7 +10941,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="B778" s="1">
         <v>777</v>
@@ -10930,7 +10949,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B779" s="1">
         <v>778</v>
@@ -10938,7 +10957,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="B780" s="1">
         <v>779</v>
@@ -10946,7 +10965,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B781" s="1">
         <v>780</v>
@@ -10954,7 +10973,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B782" s="1">
         <v>781</v>
@@ -10962,7 +10981,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B783" s="1">
         <v>782</v>
@@ -10970,7 +10989,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="B784" s="1">
         <v>783</v>
@@ -10978,7 +10997,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B785" s="1">
         <v>784</v>
@@ -10986,7 +11005,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B786" s="1">
         <v>785</v>
@@ -10994,7 +11013,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B787" s="1">
         <v>786</v>
@@ -11002,7 +11021,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="B788" s="1">
         <v>787</v>
@@ -11010,7 +11029,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B789" s="1">
         <v>788</v>
@@ -11018,7 +11037,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="B790" s="1">
         <v>789</v>
@@ -11026,7 +11045,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B791" s="1">
         <v>790</v>
@@ -11034,7 +11053,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="B792" s="1">
         <v>791</v>
@@ -11042,7 +11061,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B793" s="1">
         <v>792</v>
@@ -11050,7 +11069,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B794" s="1">
         <v>793</v>
@@ -11058,7 +11077,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B795" s="1">
         <v>794</v>
@@ -11066,7 +11085,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B796" s="1">
         <v>795</v>
@@ -11074,7 +11093,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="B797" s="1">
         <v>796</v>
@@ -11082,7 +11101,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B798" s="1">
         <v>797</v>
@@ -11090,7 +11109,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B799" s="1">
         <v>798</v>
@@ -11098,7 +11117,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B800" s="1">
         <v>799</v>
@@ -11106,7 +11125,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B801" s="1">
         <v>800</v>
@@ -11114,18 +11133,18 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B802" s="1">
         <v>801</v>
       </c>
       <c r="C802" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B803" s="1">
         <v>802</v>
@@ -11133,7 +11152,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B804" s="1">
         <v>803</v>
@@ -11141,7 +11160,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B805" s="1">
         <v>804</v>
@@ -11149,18 +11168,18 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="B806" s="1">
         <v>805</v>
       </c>
       <c r="C806" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B807" s="1">
         <v>806</v>
@@ -11168,18 +11187,18 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B808" s="1">
         <v>807</v>
       </c>
       <c r="C808" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="B809" s="1">
         <v>808</v>
@@ -11187,7 +11206,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B810" s="1">
         <v>809</v>
@@ -11195,7 +11214,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B811" s="1">
         <v>810</v>
@@ -11203,7 +11222,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B812" s="1">
         <v>811</v>
@@ -11211,7 +11230,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B813" s="1">
         <v>812</v>
@@ -11219,7 +11238,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B814" s="1">
         <v>813</v>
@@ -11227,7 +11246,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B815" s="1">
         <v>814</v>
@@ -11235,7 +11254,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B816" s="1">
         <v>815</v>
@@ -11255,7 +11274,7 @@
   <sheetPr/>
   <dimension ref="C2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:N22"/>
     </sheetView>
   </sheetViews>
@@ -11280,31 +11299,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="28" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="28" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -11332,7 +11351,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q3" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11367,7 +11386,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q4" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11382,7 +11401,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11392,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11402,7 +11421,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11412,7 +11431,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="N5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11422,7 +11441,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11457,7 +11476,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11493,7 +11512,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q7" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11509,7 +11528,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11519,7 +11538,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11529,7 +11548,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11539,7 +11558,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11549,7 +11568,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11585,7 +11604,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11621,7 +11640,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11637,7 +11656,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11647,7 +11666,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11657,7 +11676,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11667,7 +11686,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11677,7 +11696,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11713,7 +11732,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q12" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11749,7 +11768,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P13,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11765,7 +11784,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11775,7 +11794,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11785,7 +11804,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11795,7 +11814,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="N14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11805,7 +11824,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11841,7 +11860,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P15,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11877,7 +11896,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P16,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11893,7 +11912,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11903,7 +11922,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11913,7 +11932,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11923,7 +11942,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11933,7 +11952,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11969,7 +11988,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q18" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P18,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12016,7 +12035,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12026,7 +12045,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12036,7 +12055,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12046,7 +12065,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="N20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12098,7 +12117,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12108,7 +12127,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12118,7 +12137,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12128,7 +12147,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="N22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12150,105 +12169,105 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="32" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F31" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="L31" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="M31" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="N31" s="27" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="H31" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="L31" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="M31" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="N31" s="27" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="31" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="27" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -12282,7 +12301,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12300,13 +12319,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12314,25 +12333,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I2" s="19">
         <v>2</v>
@@ -12351,7 +12370,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I4" s="19">
         <v>4</v>
@@ -12370,13 +12389,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12395,10 +12414,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I8" s="19">
         <v>8</v>
@@ -12417,13 +12436,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -12450,10 +12469,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I13" s="19">
         <v>13</v>
@@ -12480,7 +12499,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I16" s="19">
         <v>16</v>
@@ -12570,7 +12589,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12588,13 +12607,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -12662,25 +12681,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12696,7 +12715,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19">
@@ -12709,7 +12728,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -12726,7 +12745,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -12743,10 +12762,10 @@
       </c>
       <c r="B10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F10" s="18"/>
       <c r="H10" s="18"/>
@@ -12789,10 +12808,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -12885,7 +12904,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -12982,7 +13001,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13000,13 +13019,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13134,25 +13153,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -13195,14 +13214,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13231,10 +13250,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -13265,10 +13284,10 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -13395,7 +13414,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13413,13 +13432,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13592,22 +13611,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13635,13 +13654,13 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -13791,7 +13810,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13809,13 +13828,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14018,22 +14037,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -14065,7 +14084,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="19">
@@ -14097,7 +14116,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="19">
@@ -14192,7 +14211,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -14210,13 +14229,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14449,19 +14468,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -14491,7 +14510,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -14523,7 +14542,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -14587,12 +14606,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14612,7 +14631,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -14632,7 +14651,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -14652,7 +14671,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -14672,7 +14691,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -14692,7 +14711,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -14712,7 +14731,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -14732,7 +14751,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -14752,7 +14771,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -14772,7 +14791,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -14792,7 +14811,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -14812,7 +14831,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -14832,7 +14851,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -14852,7 +14871,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -14872,7 +14891,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -14892,7 +14911,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -14912,7 +14931,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -14932,7 +14951,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -14952,7 +14971,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -14972,7 +14991,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -2973,10 +2973,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3030,24 +3030,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3061,6 +3045,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -3070,7 +3075,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3085,63 +3153,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3155,20 +3169,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3225,13 +3225,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3243,31 +3273,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3285,19 +3309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,13 +3327,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3327,61 +3363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3399,13 +3387,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3448,15 +3448,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3468,6 +3459,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3487,50 +3526,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3553,10 +3553,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3565,133 +3565,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4210,8 +4210,8 @@
   </sheetPr>
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="982">
   <si>
     <t>人民币</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>大小乔（美人）</t>
+  </si>
+  <si>
+    <t>周泰（*）</t>
   </si>
   <si>
     <t>袁绍军团</t>
@@ -2973,10 +2976,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3030,13 +3033,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -3046,7 +3042,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3059,8 +3077,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3069,21 +3088,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3128,9 +3132,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3144,8 +3147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,9 +3170,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3225,7 +3228,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3237,19 +3360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3261,7 +3378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3273,79 +3396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,55 +3408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3464,6 +3467,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3482,7 +3500,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3491,22 +3509,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3534,17 +3548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3553,10 +3556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3565,34 +3568,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3604,94 +3607,94 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4210,8 +4213,8 @@
   </sheetPr>
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4577,7 +4580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="10:18">
+    <row r="30" spans="10:19">
       <c r="J30" s="37" t="s">
         <v>63</v>
       </c>
@@ -4605,96 +4608,99 @@
       <c r="R30" s="44" t="s">
         <v>71</v>
       </c>
+      <c r="S30" s="44" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K31" s="42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L31" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M31" s="44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N31" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O31" s="44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P31" s="44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="46"/>
     </row>
     <row r="32" spans="10:18">
       <c r="J32" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K32" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L32" s="42" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N32" s="44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O32" s="44" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="47" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R32" s="46"/>
     </row>
     <row r="33" spans="10:15">
       <c r="J33" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K33" s="42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M33" s="44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N33" s="44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O33" s="44" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="10:10">
       <c r="J35" s="37" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="10:10">
       <c r="J36" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="10:10">
       <c r="J37" s="37" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:10">
       <c r="J39" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4716,7 +4722,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1">
         <v>0</v>
@@ -4724,7 +4730,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -4732,7 +4738,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -4740,7 +4746,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -4748,7 +4754,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -4756,29 +4762,29 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -4786,7 +4792,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -4794,7 +4800,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -4802,7 +4808,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1">
         <v>10</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B12" s="1">
         <v>11</v>
@@ -4818,7 +4824,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1">
         <v>12</v>
@@ -4826,7 +4832,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>13</v>
@@ -4834,7 +4840,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -4842,7 +4848,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="1">
         <v>15</v>
@@ -4850,7 +4856,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" s="1">
         <v>16</v>
@@ -4858,7 +4864,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B18" s="1">
         <v>17</v>
@@ -4866,7 +4872,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -4874,7 +4880,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -4882,7 +4888,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -4890,7 +4896,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -4898,7 +4904,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="1">
         <v>22</v>
@@ -4906,7 +4912,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1">
         <v>23</v>
@@ -4914,7 +4920,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B25" s="1">
         <v>24</v>
@@ -4922,7 +4928,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
@@ -4930,7 +4936,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
@@ -4938,7 +4944,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -4946,7 +4952,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -4954,7 +4960,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B30" s="1">
         <v>29</v>
@@ -4962,7 +4968,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
@@ -4970,7 +4976,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
@@ -4978,7 +4984,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
@@ -4986,7 +4992,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B34" s="1">
         <v>33</v>
@@ -4994,7 +5000,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B35" s="1">
         <v>34</v>
@@ -5002,7 +5008,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -5010,7 +5016,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
@@ -5018,7 +5024,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
@@ -5026,7 +5032,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B39" s="1">
         <v>38</v>
@@ -5034,7 +5040,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1">
         <v>39</v>
@@ -5042,7 +5048,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B41" s="1">
         <v>40</v>
@@ -5050,7 +5056,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B42" s="1">
         <v>41</v>
@@ -5058,7 +5064,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B43" s="1">
         <v>42</v>
@@ -5066,7 +5072,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1">
         <v>43</v>
@@ -5074,7 +5080,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B45" s="1">
         <v>44</v>
@@ -5082,7 +5088,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B46" s="1">
         <v>45</v>
@@ -5090,7 +5096,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B47" s="1">
         <v>46</v>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1">
         <v>47</v>
@@ -5106,7 +5112,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B49" s="1">
         <v>48</v>
@@ -5114,7 +5120,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -5122,18 +5128,18 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B52" s="1">
         <v>51</v>
@@ -5141,7 +5147,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B53" s="1">
         <v>52</v>
@@ -5149,7 +5155,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B54" s="1">
         <v>53</v>
@@ -5157,7 +5163,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B55" s="1">
         <v>54</v>
@@ -5165,7 +5171,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -5173,7 +5179,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B57" s="1">
         <v>56</v>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B58" s="1">
         <v>57</v>
@@ -5189,7 +5195,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -5197,7 +5203,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B60" s="1">
         <v>59</v>
@@ -5205,7 +5211,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B61" s="1">
         <v>60</v>
@@ -5213,7 +5219,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B62" s="1">
         <v>61</v>
@@ -5221,7 +5227,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B63" s="1">
         <v>62</v>
@@ -5229,7 +5235,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B64" s="1">
         <v>63</v>
@@ -5237,7 +5243,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B65" s="1">
         <v>64</v>
@@ -5245,7 +5251,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
@@ -5253,7 +5259,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1">
         <v>66</v>
@@ -5261,7 +5267,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
@@ -5269,7 +5275,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
@@ -5277,7 +5283,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
@@ -5285,7 +5291,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
@@ -5293,7 +5299,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
@@ -5301,7 +5307,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
@@ -5309,7 +5315,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
@@ -5317,7 +5323,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
@@ -5325,7 +5331,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
@@ -5333,7 +5339,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
@@ -5341,7 +5347,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
@@ -5349,7 +5355,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
@@ -5357,7 +5363,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
@@ -5365,7 +5371,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B81" s="1">
         <v>80</v>
@@ -5373,7 +5379,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
@@ -5381,7 +5387,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B83" s="1">
         <v>82</v>
@@ -5389,7 +5395,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
@@ -5397,7 +5403,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
@@ -5405,7 +5411,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
@@ -5413,7 +5419,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B87" s="1">
         <v>86</v>
@@ -5421,7 +5427,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B88" s="1">
         <v>87</v>
@@ -5429,7 +5435,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
@@ -5437,7 +5443,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
@@ -5445,7 +5451,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B91" s="1">
         <v>90</v>
@@ -5453,7 +5459,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B92" s="1">
         <v>91</v>
@@ -5461,7 +5467,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
@@ -5469,7 +5475,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
@@ -5477,7 +5483,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
@@ -5485,7 +5491,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
@@ -5493,7 +5499,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B97" s="1">
         <v>96</v>
@@ -5501,7 +5507,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B98" s="1">
         <v>97</v>
@@ -5509,7 +5515,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B99" s="1">
         <v>98</v>
@@ -5517,7 +5523,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B100" s="1">
         <v>99</v>
@@ -5525,7 +5531,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B101" s="1">
         <v>100</v>
@@ -5533,7 +5539,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B102" s="1">
         <v>101</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
@@ -5549,7 +5555,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
@@ -5557,7 +5563,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
@@ -5565,7 +5571,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B106" s="1">
         <v>105</v>
@@ -5573,7 +5579,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -5581,7 +5587,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B108" s="1">
         <v>107</v>
@@ -5589,7 +5595,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B109" s="1">
         <v>108</v>
@@ -5597,7 +5603,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B110" s="1">
         <v>109</v>
@@ -5605,7 +5611,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B111" s="1">
         <v>110</v>
@@ -5613,7 +5619,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B112" s="1">
         <v>111</v>
@@ -5621,7 +5627,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B113" s="1">
         <v>112</v>
@@ -5629,7 +5635,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B114" s="1">
         <v>113</v>
@@ -5637,7 +5643,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B115" s="1">
         <v>114</v>
@@ -5645,7 +5651,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B116" s="1">
         <v>115</v>
@@ -5653,7 +5659,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B117" s="1">
         <v>116</v>
@@ -5661,7 +5667,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B118" s="1">
         <v>117</v>
@@ -5669,7 +5675,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B119" s="1">
         <v>118</v>
@@ -5677,7 +5683,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B120" s="1">
         <v>119</v>
@@ -5685,7 +5691,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B121" s="1">
         <v>120</v>
@@ -5693,7 +5699,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B122" s="1">
         <v>121</v>
@@ -5701,7 +5707,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B123" s="1">
         <v>122</v>
@@ -5709,7 +5715,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
@@ -5717,7 +5723,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B125" s="1">
         <v>124</v>
@@ -5725,7 +5731,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B126" s="1">
         <v>125</v>
@@ -5733,7 +5739,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B127" s="1">
         <v>126</v>
@@ -5741,7 +5747,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B128" s="1">
         <v>127</v>
@@ -5749,7 +5755,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B129" s="1">
         <v>128</v>
@@ -5757,7 +5763,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B130" s="1">
         <v>129</v>
@@ -5765,7 +5771,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B131" s="1">
         <v>130</v>
@@ -5773,7 +5779,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B132" s="1">
         <v>131</v>
@@ -5781,7 +5787,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B133" s="1">
         <v>132</v>
@@ -5789,7 +5795,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134" s="1">
         <v>133</v>
@@ -5797,7 +5803,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B135" s="1">
         <v>134</v>
@@ -5805,7 +5811,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B136" s="1">
         <v>135</v>
@@ -5813,7 +5819,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B137" s="1">
         <v>136</v>
@@ -5821,7 +5827,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B138" s="1">
         <v>137</v>
@@ -5829,7 +5835,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B139" s="1">
         <v>138</v>
@@ -5837,7 +5843,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="1">
         <v>139</v>
@@ -5845,7 +5851,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B141" s="1">
         <v>140</v>
@@ -5853,7 +5859,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B142" s="1">
         <v>141</v>
@@ -5861,7 +5867,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B143" s="1">
         <v>142</v>
@@ -5869,7 +5875,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B144" s="1">
         <v>143</v>
@@ -5877,7 +5883,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B145" s="1">
         <v>144</v>
@@ -5885,7 +5891,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B146" s="1">
         <v>145</v>
@@ -5893,7 +5899,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B147" s="1">
         <v>146</v>
@@ -5901,7 +5907,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B148" s="1">
         <v>147</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B149" s="1">
         <v>148</v>
@@ -5917,7 +5923,7 @@
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B150" s="1">
         <v>149</v>
@@ -5925,7 +5931,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B151" s="1">
         <v>150</v>
@@ -5933,7 +5939,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B152" s="1">
         <v>151</v>
@@ -5941,7 +5947,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B153" s="1">
         <v>152</v>
@@ -5949,7 +5955,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B154" s="1">
         <v>153</v>
@@ -5957,7 +5963,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B155" s="1">
         <v>154</v>
@@ -5965,7 +5971,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B156" s="1">
         <v>155</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B157" s="1">
         <v>156</v>
@@ -5981,7 +5987,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B158" s="1">
         <v>157</v>
@@ -5989,7 +5995,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B159" s="1">
         <v>158</v>
@@ -5997,7 +6003,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B160" s="1">
         <v>159</v>
@@ -6005,7 +6011,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B161" s="1">
         <v>160</v>
@@ -6013,7 +6019,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
@@ -6021,7 +6027,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B163" s="1">
         <v>162</v>
@@ -6029,7 +6035,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B164" s="1">
         <v>163</v>
@@ -6037,7 +6043,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
@@ -6045,7 +6051,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B166" s="1">
         <v>165</v>
@@ -6053,7 +6059,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
@@ -6061,7 +6067,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B168" s="1">
         <v>167</v>
@@ -6069,7 +6075,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B169" s="1">
         <v>168</v>
@@ -6077,7 +6083,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B170" s="1">
         <v>169</v>
@@ -6085,7 +6091,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B171" s="1">
         <v>170</v>
@@ -6093,7 +6099,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
@@ -6101,7 +6107,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B173" s="1">
         <v>172</v>
@@ -6109,7 +6115,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B174" s="1">
         <v>173</v>
@@ -6117,7 +6123,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B175" s="1">
         <v>174</v>
@@ -6125,7 +6131,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
@@ -6133,7 +6139,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B177" s="1">
         <v>176</v>
@@ -6141,7 +6147,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B178" s="1">
         <v>177</v>
@@ -6149,7 +6155,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B179" s="1">
         <v>178</v>
@@ -6157,7 +6163,7 @@
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B180" s="1">
         <v>179</v>
@@ -6165,7 +6171,7 @@
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B181" s="1">
         <v>180</v>
@@ -6173,7 +6179,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B182" s="1">
         <v>181</v>
@@ -6181,7 +6187,7 @@
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B183" s="1">
         <v>182</v>
@@ -6189,7 +6195,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B184" s="1">
         <v>183</v>
@@ -6197,7 +6203,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B185" s="1">
         <v>184</v>
@@ -6205,7 +6211,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B186" s="1">
         <v>185</v>
@@ -6213,7 +6219,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B187" s="1">
         <v>186</v>
@@ -6221,7 +6227,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B188" s="1">
         <v>187</v>
@@ -6229,7 +6235,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B189" s="1">
         <v>188</v>
@@ -6237,7 +6243,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
@@ -6245,7 +6251,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B191" s="1">
         <v>190</v>
@@ -6253,7 +6259,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B192" s="1">
         <v>191</v>
@@ -6261,7 +6267,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B193" s="1">
         <v>192</v>
@@ -6269,7 +6275,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B194" s="1">
         <v>193</v>
@@ -6277,7 +6283,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
@@ -6285,7 +6291,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
@@ -6293,7 +6299,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
@@ -6301,7 +6307,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B198" s="1">
         <v>197</v>
@@ -6309,7 +6315,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B199" s="1">
         <v>198</v>
@@ -6317,7 +6323,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B200" s="1">
         <v>199</v>
@@ -6325,7 +6331,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
@@ -6333,7 +6339,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
@@ -6341,7 +6347,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
@@ -6349,7 +6355,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B204" s="1">
         <v>203</v>
@@ -6357,7 +6363,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B205" s="1">
         <v>204</v>
@@ -6365,7 +6371,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B206" s="1">
         <v>205</v>
@@ -6373,7 +6379,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B207" s="1">
         <v>206</v>
@@ -6381,7 +6387,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B208" s="1">
         <v>207</v>
@@ -6389,7 +6395,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B209" s="1">
         <v>208</v>
@@ -6397,7 +6403,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B210" s="1">
         <v>209</v>
@@ -6405,7 +6411,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
@@ -6413,7 +6419,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B212" s="1">
         <v>211</v>
@@ -6421,7 +6427,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
@@ -6429,7 +6435,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
@@ -6437,7 +6443,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B215" s="1">
         <v>214</v>
@@ -6445,7 +6451,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B216" s="1">
         <v>215</v>
@@ -6453,7 +6459,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B217" s="1">
         <v>216</v>
@@ -6461,7 +6467,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B218" s="1">
         <v>217</v>
@@ -6469,7 +6475,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B219" s="1">
         <v>218</v>
@@ -6477,7 +6483,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B220" s="1">
         <v>219</v>
@@ -6485,7 +6491,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
@@ -6493,7 +6499,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B222" s="1">
         <v>221</v>
@@ -6501,7 +6507,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B223" s="1">
         <v>222</v>
@@ -6509,7 +6515,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B224" s="1">
         <v>223</v>
@@ -6517,7 +6523,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B225" s="1">
         <v>224</v>
@@ -6525,7 +6531,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B226" s="1">
         <v>225</v>
@@ -6533,7 +6539,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B227" s="1">
         <v>226</v>
@@ -6541,7 +6547,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B228" s="1">
         <v>227</v>
@@ -6549,7 +6555,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B229" s="1">
         <v>228</v>
@@ -6557,7 +6563,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B230" s="1">
         <v>229</v>
@@ -6565,7 +6571,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B231" s="1">
         <v>230</v>
@@ -6573,7 +6579,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B232" s="1">
         <v>231</v>
@@ -6581,7 +6587,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B233" s="1">
         <v>232</v>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B234" s="1">
         <v>233</v>
@@ -6597,7 +6603,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B235" s="1">
         <v>234</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B236" s="1">
         <v>235</v>
@@ -6613,7 +6619,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B237" s="1">
         <v>236</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B238" s="1">
         <v>237</v>
@@ -6629,7 +6635,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B239" s="1">
         <v>238</v>
@@ -6637,7 +6643,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B240" s="1">
         <v>239</v>
@@ -6645,7 +6651,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B241" s="1">
         <v>240</v>
@@ -6653,7 +6659,7 @@
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B242" s="1">
         <v>241</v>
@@ -6661,7 +6667,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B243" s="1">
         <v>242</v>
@@ -6669,7 +6675,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B244" s="1">
         <v>243</v>
@@ -6677,7 +6683,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B245" s="1">
         <v>244</v>
@@ -6685,7 +6691,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B246" s="1">
         <v>245</v>
@@ -6693,7 +6699,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B247" s="1">
         <v>246</v>
@@ -6701,7 +6707,7 @@
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B248" s="1">
         <v>247</v>
@@ -6709,7 +6715,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B249" s="1">
         <v>248</v>
@@ -6717,7 +6723,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B250" s="1">
         <v>249</v>
@@ -6725,7 +6731,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B251" s="1">
         <v>250</v>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B252" s="1">
         <v>251</v>
@@ -6741,7 +6747,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B253" s="1">
         <v>252</v>
@@ -6749,7 +6755,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B254" s="1">
         <v>253</v>
@@ -6757,7 +6763,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B255" s="1">
         <v>254</v>
@@ -6765,7 +6771,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B256" s="1">
         <v>255</v>
@@ -6773,7 +6779,7 @@
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B257" s="1">
         <v>256</v>
@@ -6781,7 +6787,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B258" s="1">
         <v>257</v>
@@ -6789,7 +6795,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B259" s="1">
         <v>258</v>
@@ -6797,7 +6803,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B260" s="1">
         <v>259</v>
@@ -6805,7 +6811,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B261" s="1">
         <v>260</v>
@@ -6813,7 +6819,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B262" s="1">
         <v>261</v>
@@ -6821,7 +6827,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B263" s="1">
         <v>262</v>
@@ -6829,7 +6835,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B264" s="1">
         <v>263</v>
@@ -6837,7 +6843,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B265" s="1">
         <v>264</v>
@@ -6845,7 +6851,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B266" s="1">
         <v>265</v>
@@ -6853,7 +6859,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B267" s="1">
         <v>266</v>
@@ -6861,7 +6867,7 @@
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B268" s="1">
         <v>267</v>
@@ -6869,7 +6875,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B269" s="1">
         <v>268</v>
@@ -6877,7 +6883,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B270" s="1">
         <v>269</v>
@@ -6885,7 +6891,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
@@ -6893,7 +6899,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B272" s="1">
         <v>271</v>
@@ -6901,7 +6907,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B273" s="1">
         <v>272</v>
@@ -6909,7 +6915,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B274" s="1">
         <v>273</v>
@@ -6917,7 +6923,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B275" s="1">
         <v>274</v>
@@ -6925,7 +6931,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B276" s="1">
         <v>275</v>
@@ -6933,7 +6939,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B277" s="1">
         <v>276</v>
@@ -6941,7 +6947,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B278" s="1">
         <v>277</v>
@@ -6949,7 +6955,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B279" s="1">
         <v>278</v>
@@ -6957,7 +6963,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
@@ -6965,7 +6971,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
@@ -6973,7 +6979,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B282" s="1">
         <v>281</v>
@@ -6981,7 +6987,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B283" s="1">
         <v>282</v>
@@ -6989,7 +6995,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B284" s="1">
         <v>283</v>
@@ -6997,7 +7003,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B285" s="1">
         <v>284</v>
@@ -7005,7 +7011,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B286" s="1">
         <v>285</v>
@@ -7013,7 +7019,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B287" s="1">
         <v>286</v>
@@ -7021,7 +7027,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
@@ -7029,7 +7035,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B289" s="1">
         <v>288</v>
@@ -7037,7 +7043,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B290" s="1">
         <v>289</v>
@@ -7045,7 +7051,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B291" s="1">
         <v>290</v>
@@ -7053,7 +7059,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B292" s="1">
         <v>291</v>
@@ -7061,7 +7067,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B293" s="1">
         <v>292</v>
@@ -7069,7 +7075,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B294" s="1">
         <v>293</v>
@@ -7077,7 +7083,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B295" s="1">
         <v>294</v>
@@ -7085,7 +7091,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B296" s="1">
         <v>295</v>
@@ -7093,7 +7099,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B297" s="1">
         <v>296</v>
@@ -7101,7 +7107,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B298" s="1">
         <v>297</v>
@@ -7109,7 +7115,7 @@
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B299" s="1">
         <v>298</v>
@@ -7117,7 +7123,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B300" s="1">
         <v>299</v>
@@ -7125,7 +7131,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B301" s="1">
         <v>300</v>
@@ -7133,7 +7139,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B302" s="1">
         <v>301</v>
@@ -7141,7 +7147,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B303" s="1">
         <v>302</v>
@@ -7149,7 +7155,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B304" s="1">
         <v>303</v>
@@ -7157,7 +7163,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B305" s="1">
         <v>304</v>
@@ -7165,7 +7171,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B306" s="1">
         <v>305</v>
@@ -7173,7 +7179,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B307" s="1">
         <v>306</v>
@@ -7181,7 +7187,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B308" s="1">
         <v>307</v>
@@ -7189,7 +7195,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B309" s="1">
         <v>308</v>
@@ -7197,7 +7203,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B310" s="1">
         <v>309</v>
@@ -7205,7 +7211,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B311" s="1">
         <v>310</v>
@@ -7213,7 +7219,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B312" s="1">
         <v>311</v>
@@ -7221,7 +7227,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B313" s="1">
         <v>312</v>
@@ -7229,7 +7235,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B314" s="1">
         <v>313</v>
@@ -7237,7 +7243,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B315" s="1">
         <v>314</v>
@@ -7245,7 +7251,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B316" s="1">
         <v>315</v>
@@ -7253,7 +7259,7 @@
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B317" s="1">
         <v>316</v>
@@ -7261,7 +7267,7 @@
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B318" s="1">
         <v>317</v>
@@ -7269,7 +7275,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B319" s="1">
         <v>318</v>
@@ -7277,7 +7283,7 @@
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B320" s="1">
         <v>319</v>
@@ -7285,7 +7291,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B321" s="1">
         <v>320</v>
@@ -7293,7 +7299,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B322" s="1">
         <v>321</v>
@@ -7301,7 +7307,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B323" s="1">
         <v>322</v>
@@ -7309,7 +7315,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B324" s="1">
         <v>323</v>
@@ -7317,7 +7323,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B325" s="1">
         <v>324</v>
@@ -7325,7 +7331,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B326" s="1">
         <v>325</v>
@@ -7333,7 +7339,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B327" s="1">
         <v>326</v>
@@ -7341,7 +7347,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B328" s="1">
         <v>327</v>
@@ -7349,7 +7355,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B329" s="1">
         <v>328</v>
@@ -7357,7 +7363,7 @@
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B330" s="1">
         <v>329</v>
@@ -7365,7 +7371,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B331" s="1">
         <v>330</v>
@@ -7373,7 +7379,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B332" s="1">
         <v>331</v>
@@ -7381,7 +7387,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B333" s="1">
         <v>332</v>
@@ -7389,7 +7395,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B334" s="1">
         <v>333</v>
@@ -7397,7 +7403,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B335" s="1">
         <v>334</v>
@@ -7405,7 +7411,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B336" s="1">
         <v>335</v>
@@ -7413,7 +7419,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B337" s="1">
         <v>336</v>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B338" s="1">
         <v>337</v>
@@ -7429,7 +7435,7 @@
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B339" s="1">
         <v>338</v>
@@ -7437,7 +7443,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B340" s="1">
         <v>339</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B341" s="1">
         <v>340</v>
@@ -7453,7 +7459,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B342" s="1">
         <v>341</v>
@@ -7461,7 +7467,7 @@
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B343" s="1">
         <v>342</v>
@@ -7469,7 +7475,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B344" s="1">
         <v>343</v>
@@ -7477,7 +7483,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B345" s="1">
         <v>344</v>
@@ -7485,7 +7491,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B346" s="1">
         <v>345</v>
@@ -7493,7 +7499,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B347" s="1">
         <v>346</v>
@@ -7501,7 +7507,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B348" s="1">
         <v>347</v>
@@ -7509,7 +7515,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B349" s="1">
         <v>348</v>
@@ -7517,7 +7523,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B350" s="1">
         <v>349</v>
@@ -7525,7 +7531,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B351" s="1">
         <v>350</v>
@@ -7533,7 +7539,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B352" s="1">
         <v>351</v>
@@ -7541,7 +7547,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B353" s="1">
         <v>352</v>
@@ -7549,7 +7555,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B354" s="1">
         <v>353</v>
@@ -7557,7 +7563,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B355" s="1">
         <v>354</v>
@@ -7565,7 +7571,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B356" s="1">
         <v>355</v>
@@ -7573,7 +7579,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B357" s="1">
         <v>356</v>
@@ -7581,7 +7587,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B358" s="1">
         <v>357</v>
@@ -7589,7 +7595,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B359" s="1">
         <v>358</v>
@@ -7597,7 +7603,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B360" s="1">
         <v>359</v>
@@ -7605,7 +7611,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B361" s="1">
         <v>360</v>
@@ -7613,7 +7619,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B362" s="1">
         <v>361</v>
@@ -7621,7 +7627,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B363" s="1">
         <v>362</v>
@@ -7629,7 +7635,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B364" s="1">
         <v>363</v>
@@ -7637,7 +7643,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B365" s="1">
         <v>364</v>
@@ -7645,7 +7651,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B366" s="1">
         <v>365</v>
@@ -7653,7 +7659,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B367" s="1">
         <v>366</v>
@@ -7661,7 +7667,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B368" s="1">
         <v>367</v>
@@ -7669,7 +7675,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B369" s="1">
         <v>368</v>
@@ -7677,7 +7683,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B370" s="1">
         <v>369</v>
@@ -7685,7 +7691,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B371" s="1">
         <v>370</v>
@@ -7693,7 +7699,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B372" s="1">
         <v>371</v>
@@ -7701,7 +7707,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B373" s="1">
         <v>372</v>
@@ -7709,7 +7715,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B374" s="1">
         <v>373</v>
@@ -7717,7 +7723,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B375" s="1">
         <v>374</v>
@@ -7725,7 +7731,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B376" s="1">
         <v>375</v>
@@ -7733,7 +7739,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B377" s="1">
         <v>376</v>
@@ -7741,7 +7747,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B378" s="1">
         <v>377</v>
@@ -7749,7 +7755,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B379" s="1">
         <v>378</v>
@@ -7757,7 +7763,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B380" s="1">
         <v>379</v>
@@ -7765,7 +7771,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B381" s="1">
         <v>380</v>
@@ -7773,7 +7779,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B382" s="1">
         <v>381</v>
@@ -7781,7 +7787,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B383" s="1">
         <v>382</v>
@@ -7789,7 +7795,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B384" s="1">
         <v>383</v>
@@ -7797,7 +7803,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B385" s="1">
         <v>384</v>
@@ -7805,7 +7811,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B386" s="1">
         <v>385</v>
@@ -7813,7 +7819,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B387" s="1">
         <v>386</v>
@@ -7821,7 +7827,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B388" s="1">
         <v>387</v>
@@ -7829,7 +7835,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B389" s="1">
         <v>388</v>
@@ -7837,7 +7843,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B390" s="1">
         <v>389</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B391" s="1">
         <v>390</v>
@@ -7853,7 +7859,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B392" s="1">
         <v>391</v>
@@ -7861,7 +7867,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B393" s="1">
         <v>392</v>
@@ -7869,7 +7875,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B394" s="1">
         <v>393</v>
@@ -7877,7 +7883,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B395" s="1">
         <v>394</v>
@@ -7885,7 +7891,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B396" s="1">
         <v>395</v>
@@ -7893,7 +7899,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B397" s="1">
         <v>396</v>
@@ -7901,7 +7907,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B398" s="1">
         <v>397</v>
@@ -7909,7 +7915,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B399" s="1">
         <v>398</v>
@@ -7917,7 +7923,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B400" s="1">
         <v>399</v>
@@ -7925,7 +7931,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B401" s="1">
         <v>400</v>
@@ -7933,7 +7939,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B402" s="1">
         <v>401</v>
@@ -7941,7 +7947,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B403" s="1">
         <v>402</v>
@@ -7949,7 +7955,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B404" s="1">
         <v>403</v>
@@ -7957,7 +7963,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B405" s="1">
         <v>404</v>
@@ -7965,7 +7971,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B406" s="1">
         <v>405</v>
@@ -7973,7 +7979,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B407" s="1">
         <v>406</v>
@@ -7981,7 +7987,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B408" s="1">
         <v>407</v>
@@ -7989,7 +7995,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B409" s="1">
         <v>408</v>
@@ -7997,7 +8003,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B410" s="1">
         <v>409</v>
@@ -8005,7 +8011,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B411" s="1">
         <v>410</v>
@@ -8013,7 +8019,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B412" s="1">
         <v>411</v>
@@ -8021,7 +8027,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B413" s="1">
         <v>412</v>
@@ -8029,7 +8035,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B414" s="1">
         <v>413</v>
@@ -8037,7 +8043,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B415" s="1">
         <v>414</v>
@@ -8045,7 +8051,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B416" s="1">
         <v>415</v>
@@ -8053,7 +8059,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B417" s="1">
         <v>416</v>
@@ -8061,7 +8067,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B418" s="1">
         <v>417</v>
@@ -8069,7 +8075,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B419" s="1">
         <v>418</v>
@@ -8077,7 +8083,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B420" s="1">
         <v>419</v>
@@ -8085,7 +8091,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B421" s="1">
         <v>420</v>
@@ -8093,7 +8099,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B422" s="1">
         <v>421</v>
@@ -8101,7 +8107,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B423" s="1">
         <v>422</v>
@@ -8109,7 +8115,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B424" s="1">
         <v>423</v>
@@ -8117,7 +8123,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B425" s="1">
         <v>424</v>
@@ -8125,7 +8131,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B426" s="1">
         <v>425</v>
@@ -8133,7 +8139,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B427" s="1">
         <v>426</v>
@@ -8141,7 +8147,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B428" s="1">
         <v>427</v>
@@ -8149,7 +8155,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B429" s="1">
         <v>428</v>
@@ -8157,7 +8163,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B430" s="1">
         <v>429</v>
@@ -8165,7 +8171,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B431" s="1">
         <v>430</v>
@@ -8173,7 +8179,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B432" s="1">
         <v>431</v>
@@ -8181,7 +8187,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B433" s="1">
         <v>432</v>
@@ -8189,7 +8195,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B434" s="1">
         <v>433</v>
@@ -8197,7 +8203,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B435" s="1">
         <v>434</v>
@@ -8205,7 +8211,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B436" s="1">
         <v>435</v>
@@ -8213,7 +8219,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B437" s="1">
         <v>436</v>
@@ -8221,7 +8227,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B438" s="1">
         <v>437</v>
@@ -8229,7 +8235,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B439" s="1">
         <v>438</v>
@@ -8237,7 +8243,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B440" s="1">
         <v>439</v>
@@ -8245,7 +8251,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B441" s="1">
         <v>440</v>
@@ -8253,7 +8259,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B442" s="1">
         <v>441</v>
@@ -8261,7 +8267,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B443" s="1">
         <v>442</v>
@@ -8269,7 +8275,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B444" s="1">
         <v>443</v>
@@ -8277,7 +8283,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B445" s="1">
         <v>444</v>
@@ -8285,7 +8291,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B446" s="1">
         <v>445</v>
@@ -8293,7 +8299,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B447" s="1">
         <v>446</v>
@@ -8301,7 +8307,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B448" s="1">
         <v>447</v>
@@ -8309,7 +8315,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B449" s="1">
         <v>448</v>
@@ -8317,7 +8323,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B450" s="1">
         <v>449</v>
@@ -8325,7 +8331,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B451" s="1">
         <v>450</v>
@@ -8333,7 +8339,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B452" s="1">
         <v>451</v>
@@ -8341,7 +8347,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B453" s="1">
         <v>452</v>
@@ -8349,7 +8355,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B454" s="1">
         <v>453</v>
@@ -8357,7 +8363,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B455" s="1">
         <v>454</v>
@@ -8365,7 +8371,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B456" s="1">
         <v>455</v>
@@ -8373,7 +8379,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B457" s="1">
         <v>456</v>
@@ -8381,7 +8387,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B458" s="1">
         <v>457</v>
@@ -8389,7 +8395,7 @@
     </row>
     <row r="459" spans="1:2">
       <c r="A459" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B459" s="1">
         <v>458</v>
@@ -8397,7 +8403,7 @@
     </row>
     <row r="460" spans="1:2">
       <c r="A460" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B460" s="1">
         <v>459</v>
@@ -8405,7 +8411,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B461" s="1">
         <v>460</v>
@@ -8413,7 +8419,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B462" s="1">
         <v>461</v>
@@ -8421,7 +8427,7 @@
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B463" s="1">
         <v>462</v>
@@ -8429,7 +8435,7 @@
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B464" s="1">
         <v>463</v>
@@ -8437,7 +8443,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B465" s="1">
         <v>464</v>
@@ -8445,7 +8451,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B466" s="1">
         <v>465</v>
@@ -8453,7 +8459,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B467" s="1">
         <v>466</v>
@@ -8461,7 +8467,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B468" s="1">
         <v>467</v>
@@ -8469,7 +8475,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B469" s="1">
         <v>468</v>
@@ -8477,7 +8483,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B470" s="1">
         <v>469</v>
@@ -8485,7 +8491,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B471" s="1">
         <v>470</v>
@@ -8493,7 +8499,7 @@
     </row>
     <row r="472" spans="1:2">
       <c r="A472" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B472" s="1">
         <v>471</v>
@@ -8501,7 +8507,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B473" s="1">
         <v>472</v>
@@ -8509,7 +8515,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B474" s="1">
         <v>473</v>
@@ -8517,7 +8523,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B475" s="1">
         <v>474</v>
@@ -8525,7 +8531,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B476" s="1">
         <v>475</v>
@@ -8533,7 +8539,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B477" s="1">
         <v>476</v>
@@ -8541,7 +8547,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B478" s="1">
         <v>477</v>
@@ -8549,7 +8555,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B479" s="1">
         <v>478</v>
@@ -8557,7 +8563,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B480" s="1">
         <v>479</v>
@@ -8565,7 +8571,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B481" s="1">
         <v>480</v>
@@ -8573,7 +8579,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B482" s="1">
         <v>481</v>
@@ -8581,7 +8587,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B483" s="1">
         <v>482</v>
@@ -8589,7 +8595,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B484" s="1">
         <v>483</v>
@@ -8597,7 +8603,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B485" s="1">
         <v>484</v>
@@ -8605,7 +8611,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B486" s="1">
         <v>485</v>
@@ -8613,7 +8619,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B487" s="1">
         <v>486</v>
@@ -8621,7 +8627,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B488" s="1">
         <v>487</v>
@@ -8629,7 +8635,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B489" s="1">
         <v>488</v>
@@ -8637,7 +8643,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B490" s="1">
         <v>489</v>
@@ -8645,7 +8651,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B491" s="1">
         <v>490</v>
@@ -8653,7 +8659,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B492" s="1">
         <v>491</v>
@@ -8661,7 +8667,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B493" s="1">
         <v>492</v>
@@ -8669,7 +8675,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B494" s="1">
         <v>493</v>
@@ -8677,7 +8683,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B495" s="1">
         <v>494</v>
@@ -8685,7 +8691,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B496" s="1">
         <v>495</v>
@@ -8693,7 +8699,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B497" s="1">
         <v>496</v>
@@ -8701,7 +8707,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B498" s="1">
         <v>497</v>
@@ -8709,7 +8715,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B499" s="1">
         <v>498</v>
@@ -8717,7 +8723,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B500" s="1">
         <v>499</v>
@@ -8725,7 +8731,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B501" s="1">
         <v>500</v>
@@ -8733,7 +8739,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B502" s="1">
         <v>501</v>
@@ -8741,7 +8747,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B503" s="1">
         <v>502</v>
@@ -8749,7 +8755,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B504" s="1">
         <v>503</v>
@@ -8757,7 +8763,7 @@
     </row>
     <row r="505" spans="1:2">
       <c r="A505" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B505" s="1">
         <v>504</v>
@@ -8765,7 +8771,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B506" s="1">
         <v>505</v>
@@ -8773,7 +8779,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B507" s="1">
         <v>506</v>
@@ -8781,7 +8787,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B508" s="1">
         <v>507</v>
@@ -8789,7 +8795,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B509" s="1">
         <v>508</v>
@@ -8797,7 +8803,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B510" s="1">
         <v>509</v>
@@ -8805,7 +8811,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B511" s="1">
         <v>510</v>
@@ -8813,7 +8819,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B512" s="1">
         <v>511</v>
@@ -8821,7 +8827,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B513" s="1">
         <v>512</v>
@@ -8829,7 +8835,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B514" s="1">
         <v>513</v>
@@ -8837,7 +8843,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B515" s="1">
         <v>514</v>
@@ -8845,7 +8851,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B516" s="1">
         <v>515</v>
@@ -8853,7 +8859,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B517" s="1">
         <v>516</v>
@@ -8861,7 +8867,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B518" s="1">
         <v>517</v>
@@ -8869,7 +8875,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B519" s="1">
         <v>518</v>
@@ -8877,7 +8883,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B520" s="1">
         <v>519</v>
@@ -8885,7 +8891,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B521" s="1">
         <v>520</v>
@@ -8893,7 +8899,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B522" s="1">
         <v>521</v>
@@ -8901,7 +8907,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B523" s="1">
         <v>522</v>
@@ -8909,7 +8915,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B524" s="1">
         <v>523</v>
@@ -8917,7 +8923,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B525" s="1">
         <v>524</v>
@@ -8925,7 +8931,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B526" s="1">
         <v>525</v>
@@ -8933,7 +8939,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B527" s="1">
         <v>526</v>
@@ -8941,7 +8947,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B528" s="1">
         <v>527</v>
@@ -8949,7 +8955,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B529" s="1">
         <v>528</v>
@@ -8957,7 +8963,7 @@
     </row>
     <row r="530" spans="1:2">
       <c r="A530" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B530" s="1">
         <v>529</v>
@@ -8965,7 +8971,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B531" s="1">
         <v>530</v>
@@ -8973,7 +8979,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B532" s="1">
         <v>531</v>
@@ -8981,7 +8987,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B533" s="1">
         <v>532</v>
@@ -8989,7 +8995,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B534" s="1">
         <v>533</v>
@@ -8997,7 +9003,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B535" s="1">
         <v>534</v>
@@ -9005,7 +9011,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B536" s="1">
         <v>535</v>
@@ -9013,7 +9019,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B537" s="1">
         <v>536</v>
@@ -9021,7 +9027,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B538" s="1">
         <v>537</v>
@@ -9029,7 +9035,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B539" s="1">
         <v>538</v>
@@ -9037,7 +9043,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B540" s="1">
         <v>539</v>
@@ -9045,7 +9051,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B541" s="1">
         <v>540</v>
@@ -9053,7 +9059,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B542" s="1">
         <v>541</v>
@@ -9061,7 +9067,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B543" s="1">
         <v>542</v>
@@ -9069,7 +9075,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B544" s="1">
         <v>543</v>
@@ -9077,7 +9083,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B545" s="1">
         <v>544</v>
@@ -9085,7 +9091,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B546" s="1">
         <v>545</v>
@@ -9093,7 +9099,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B547" s="1">
         <v>546</v>
@@ -9101,7 +9107,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B548" s="1">
         <v>547</v>
@@ -9109,7 +9115,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B549" s="1">
         <v>548</v>
@@ -9117,7 +9123,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B550" s="1">
         <v>549</v>
@@ -9125,7 +9131,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B551" s="1">
         <v>550</v>
@@ -9133,7 +9139,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B552" s="1">
         <v>551</v>
@@ -9141,7 +9147,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B553" s="1">
         <v>552</v>
@@ -9149,7 +9155,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B554" s="1">
         <v>553</v>
@@ -9157,7 +9163,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B555" s="1">
         <v>554</v>
@@ -9165,7 +9171,7 @@
     </row>
     <row r="556" spans="1:2">
       <c r="A556" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B556" s="1">
         <v>555</v>
@@ -9173,7 +9179,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B557" s="1">
         <v>556</v>
@@ -9181,7 +9187,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B558" s="1">
         <v>557</v>
@@ -9189,7 +9195,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B559" s="1">
         <v>558</v>
@@ -9197,7 +9203,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B560" s="1">
         <v>559</v>
@@ -9205,7 +9211,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B561" s="1">
         <v>560</v>
@@ -9213,7 +9219,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B562" s="1">
         <v>561</v>
@@ -9221,7 +9227,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B563" s="1">
         <v>562</v>
@@ -9229,7 +9235,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B564" s="1">
         <v>563</v>
@@ -9237,7 +9243,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B565" s="1">
         <v>564</v>
@@ -9245,7 +9251,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B566" s="1">
         <v>565</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B567" s="1">
         <v>566</v>
@@ -9261,7 +9267,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B568" s="1">
         <v>567</v>
@@ -9269,7 +9275,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B569" s="1">
         <v>568</v>
@@ -9277,7 +9283,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B570" s="1">
         <v>569</v>
@@ -9285,7 +9291,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B571" s="1">
         <v>570</v>
@@ -9293,7 +9299,7 @@
     </row>
     <row r="572" spans="1:2">
       <c r="A572" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B572" s="1">
         <v>571</v>
@@ -9301,7 +9307,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B573" s="1">
         <v>572</v>
@@ -9309,7 +9315,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B574" s="1">
         <v>573</v>
@@ -9317,7 +9323,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B575" s="1">
         <v>574</v>
@@ -9325,7 +9331,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B576" s="1">
         <v>575</v>
@@ -9333,7 +9339,7 @@
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B577" s="1">
         <v>576</v>
@@ -9341,7 +9347,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B578" s="1">
         <v>577</v>
@@ -9349,7 +9355,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B579" s="1">
         <v>578</v>
@@ -9357,7 +9363,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B580" s="1">
         <v>579</v>
@@ -9365,7 +9371,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B581" s="1">
         <v>580</v>
@@ -9373,7 +9379,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B582" s="1">
         <v>581</v>
@@ -9381,7 +9387,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B583" s="1">
         <v>582</v>
@@ -9389,7 +9395,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B584" s="1">
         <v>583</v>
@@ -9397,7 +9403,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B585" s="1">
         <v>584</v>
@@ -9405,7 +9411,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B586" s="1">
         <v>585</v>
@@ -9413,7 +9419,7 @@
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B587" s="1">
         <v>586</v>
@@ -9421,7 +9427,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B588" s="1">
         <v>587</v>
@@ -9429,7 +9435,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B589" s="1">
         <v>588</v>
@@ -9437,7 +9443,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B590" s="1">
         <v>589</v>
@@ -9445,7 +9451,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B591" s="1">
         <v>590</v>
@@ -9453,7 +9459,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B592" s="1">
         <v>591</v>
@@ -9461,7 +9467,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B593" s="1">
         <v>592</v>
@@ -9469,7 +9475,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B594" s="1">
         <v>593</v>
@@ -9477,7 +9483,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B595" s="1">
         <v>594</v>
@@ -9485,7 +9491,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B596" s="1">
         <v>595</v>
@@ -9493,7 +9499,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B597" s="1">
         <v>596</v>
@@ -9501,7 +9507,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B598" s="1">
         <v>597</v>
@@ -9509,7 +9515,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B599" s="1">
         <v>598</v>
@@ -9517,7 +9523,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B600" s="1">
         <v>599</v>
@@ -9525,7 +9531,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B601" s="1">
         <v>600</v>
@@ -9533,7 +9539,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B602" s="1">
         <v>601</v>
@@ -9541,7 +9547,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B603" s="1">
         <v>602</v>
@@ -9549,7 +9555,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B604" s="1">
         <v>603</v>
@@ -9557,7 +9563,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B605" s="1">
         <v>604</v>
@@ -9565,7 +9571,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B606" s="1">
         <v>605</v>
@@ -9573,7 +9579,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B607" s="1">
         <v>606</v>
@@ -9581,7 +9587,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B608" s="1">
         <v>607</v>
@@ -9589,7 +9595,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B609" s="1">
         <v>608</v>
@@ -9597,7 +9603,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B610" s="1">
         <v>609</v>
@@ -9605,7 +9611,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B611" s="1">
         <v>610</v>
@@ -9613,7 +9619,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B612" s="1">
         <v>611</v>
@@ -9621,7 +9627,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B613" s="1">
         <v>612</v>
@@ -9629,7 +9635,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B614" s="1">
         <v>613</v>
@@ -9637,7 +9643,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B615" s="1">
         <v>614</v>
@@ -9645,7 +9651,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B616" s="1">
         <v>615</v>
@@ -9653,7 +9659,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B617" s="1">
         <v>616</v>
@@ -9661,7 +9667,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B618" s="1">
         <v>617</v>
@@ -9669,7 +9675,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B619" s="1">
         <v>618</v>
@@ -9677,7 +9683,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B620" s="1">
         <v>619</v>
@@ -9685,7 +9691,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B621" s="1">
         <v>620</v>
@@ -9693,7 +9699,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B622" s="1">
         <v>621</v>
@@ -9701,7 +9707,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B623" s="1">
         <v>622</v>
@@ -9709,7 +9715,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B624" s="1">
         <v>623</v>
@@ -9717,7 +9723,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B625" s="1">
         <v>624</v>
@@ -9725,7 +9731,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B626" s="1">
         <v>625</v>
@@ -9733,7 +9739,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B627" s="1">
         <v>626</v>
@@ -9741,7 +9747,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B628" s="1">
         <v>627</v>
@@ -9749,7 +9755,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B629" s="1">
         <v>628</v>
@@ -9757,7 +9763,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B630" s="1">
         <v>629</v>
@@ -9765,7 +9771,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B631" s="1">
         <v>630</v>
@@ -9773,7 +9779,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B632" s="1">
         <v>631</v>
@@ -9781,7 +9787,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B633" s="1">
         <v>632</v>
@@ -9789,7 +9795,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B634" s="1">
         <v>633</v>
@@ -9797,7 +9803,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B635" s="1">
         <v>634</v>
@@ -9805,7 +9811,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B636" s="1">
         <v>635</v>
@@ -9813,7 +9819,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B637" s="1">
         <v>636</v>
@@ -9821,7 +9827,7 @@
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B638" s="1">
         <v>637</v>
@@ -9829,7 +9835,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B639" s="1">
         <v>638</v>
@@ -9837,7 +9843,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B640" s="1">
         <v>639</v>
@@ -9845,7 +9851,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B641" s="1">
         <v>640</v>
@@ -9853,7 +9859,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B642" s="1">
         <v>641</v>
@@ -9861,7 +9867,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B643" s="1">
         <v>642</v>
@@ -9869,7 +9875,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B644" s="1">
         <v>643</v>
@@ -9877,7 +9883,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B645" s="1">
         <v>644</v>
@@ -9885,7 +9891,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B646" s="1">
         <v>645</v>
@@ -9893,7 +9899,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B647" s="1">
         <v>646</v>
@@ -9901,7 +9907,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B648" s="1">
         <v>647</v>
@@ -9909,7 +9915,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B649" s="1">
         <v>648</v>
@@ -9917,7 +9923,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B650" s="1">
         <v>649</v>
@@ -9925,7 +9931,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B651" s="1">
         <v>650</v>
@@ -9933,7 +9939,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B652" s="1">
         <v>651</v>
@@ -9941,7 +9947,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B653" s="1">
         <v>652</v>
@@ -9949,7 +9955,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B654" s="1">
         <v>653</v>
@@ -9957,7 +9963,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B655" s="1">
         <v>654</v>
@@ -9965,7 +9971,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B656" s="1">
         <v>655</v>
@@ -9973,7 +9979,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B657" s="1">
         <v>656</v>
@@ -9981,7 +9987,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B658" s="1">
         <v>657</v>
@@ -9989,7 +9995,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B659" s="1">
         <v>658</v>
@@ -9997,7 +10003,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B660" s="1">
         <v>659</v>
@@ -10005,7 +10011,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B661" s="1">
         <v>660</v>
@@ -10013,7 +10019,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B662" s="1">
         <v>661</v>
@@ -10021,7 +10027,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B663" s="1">
         <v>662</v>
@@ -10029,7 +10035,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B664" s="1">
         <v>663</v>
@@ -10037,7 +10043,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B665" s="1">
         <v>664</v>
@@ -10045,7 +10051,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B666" s="1">
         <v>665</v>
@@ -10053,7 +10059,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B667" s="1">
         <v>666</v>
@@ -10061,7 +10067,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B668" s="1">
         <v>667</v>
@@ -10069,7 +10075,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B669" s="1">
         <v>668</v>
@@ -10077,7 +10083,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B670" s="1">
         <v>669</v>
@@ -10085,7 +10091,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B671" s="1">
         <v>670</v>
@@ -10093,7 +10099,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B672" s="1">
         <v>671</v>
@@ -10101,7 +10107,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B673" s="1">
         <v>672</v>
@@ -10109,7 +10115,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B674" s="1">
         <v>673</v>
@@ -10117,7 +10123,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B675" s="1">
         <v>674</v>
@@ -10125,7 +10131,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B676" s="1">
         <v>675</v>
@@ -10133,7 +10139,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B677" s="1">
         <v>676</v>
@@ -10141,7 +10147,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B678" s="1">
         <v>677</v>
@@ -10149,7 +10155,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B679" s="1">
         <v>678</v>
@@ -10157,7 +10163,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B680" s="1">
         <v>679</v>
@@ -10165,7 +10171,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B681" s="1">
         <v>680</v>
@@ -10173,7 +10179,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B682" s="1">
         <v>681</v>
@@ -10181,7 +10187,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B683" s="1">
         <v>682</v>
@@ -10189,7 +10195,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B684" s="1">
         <v>683</v>
@@ -10197,7 +10203,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B685" s="1">
         <v>684</v>
@@ -10205,7 +10211,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B686" s="1">
         <v>685</v>
@@ -10213,7 +10219,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B687" s="1">
         <v>686</v>
@@ -10221,7 +10227,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B688" s="1">
         <v>687</v>
@@ -10229,7 +10235,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B689" s="1">
         <v>688</v>
@@ -10237,7 +10243,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B690" s="1">
         <v>689</v>
@@ -10245,7 +10251,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B691" s="1">
         <v>690</v>
@@ -10253,7 +10259,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B692" s="1">
         <v>691</v>
@@ -10261,7 +10267,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B693" s="1">
         <v>692</v>
@@ -10269,7 +10275,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B694" s="1">
         <v>693</v>
@@ -10277,7 +10283,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B695" s="1">
         <v>694</v>
@@ -10285,7 +10291,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B696" s="1">
         <v>695</v>
@@ -10293,7 +10299,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B697" s="1">
         <v>696</v>
@@ -10301,7 +10307,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B698" s="1">
         <v>697</v>
@@ -10309,7 +10315,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B699" s="1">
         <v>698</v>
@@ -10317,7 +10323,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B700" s="1">
         <v>699</v>
@@ -10325,7 +10331,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B701" s="1">
         <v>700</v>
@@ -10333,7 +10339,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B702" s="1">
         <v>701</v>
@@ -10341,7 +10347,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B703" s="1">
         <v>702</v>
@@ -10349,7 +10355,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B704" s="1">
         <v>703</v>
@@ -10357,7 +10363,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B705" s="1">
         <v>704</v>
@@ -10365,7 +10371,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B706" s="1">
         <v>705</v>
@@ -10373,7 +10379,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B707" s="1">
         <v>706</v>
@@ -10381,7 +10387,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B708" s="1">
         <v>707</v>
@@ -10389,7 +10395,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B709" s="1">
         <v>708</v>
@@ -10397,7 +10403,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B710" s="1">
         <v>709</v>
@@ -10405,7 +10411,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B711" s="1">
         <v>710</v>
@@ -10413,7 +10419,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B712" s="1">
         <v>711</v>
@@ -10421,7 +10427,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B713" s="1">
         <v>712</v>
@@ -10429,7 +10435,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B714" s="1">
         <v>713</v>
@@ -10437,7 +10443,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B715" s="1">
         <v>714</v>
@@ -10445,7 +10451,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B716" s="1">
         <v>715</v>
@@ -10453,7 +10459,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B717" s="1">
         <v>716</v>
@@ -10461,7 +10467,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B718" s="1">
         <v>717</v>
@@ -10469,7 +10475,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B719" s="1">
         <v>718</v>
@@ -10477,7 +10483,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B720" s="1">
         <v>719</v>
@@ -10485,7 +10491,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B721" s="1">
         <v>720</v>
@@ -10493,7 +10499,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B722" s="1">
         <v>721</v>
@@ -10501,7 +10507,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B723" s="1">
         <v>722</v>
@@ -10509,7 +10515,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B724" s="1">
         <v>723</v>
@@ -10517,7 +10523,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B725" s="1">
         <v>724</v>
@@ -10525,7 +10531,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B726" s="1">
         <v>725</v>
@@ -10533,7 +10539,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B727" s="1">
         <v>726</v>
@@ -10541,7 +10547,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B728" s="1">
         <v>727</v>
@@ -10549,7 +10555,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B729" s="1">
         <v>728</v>
@@ -10557,7 +10563,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B730" s="1">
         <v>729</v>
@@ -10565,7 +10571,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B731" s="1">
         <v>730</v>
@@ -10573,7 +10579,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B732" s="1">
         <v>731</v>
@@ -10581,7 +10587,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B733" s="1">
         <v>732</v>
@@ -10589,7 +10595,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B734" s="1">
         <v>733</v>
@@ -10597,7 +10603,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B735" s="1">
         <v>734</v>
@@ -10605,7 +10611,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B736" s="1">
         <v>735</v>
@@ -10613,7 +10619,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B737" s="1">
         <v>736</v>
@@ -10621,7 +10627,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B738" s="1">
         <v>737</v>
@@ -10629,7 +10635,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B739" s="1">
         <v>738</v>
@@ -10637,7 +10643,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B740" s="1">
         <v>739</v>
@@ -10645,7 +10651,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B741" s="1">
         <v>740</v>
@@ -10653,7 +10659,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B742" s="1">
         <v>741</v>
@@ -10661,7 +10667,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B743" s="1">
         <v>742</v>
@@ -10669,7 +10675,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B744" s="1">
         <v>743</v>
@@ -10677,7 +10683,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B745" s="1">
         <v>744</v>
@@ -10685,7 +10691,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B746" s="1">
         <v>745</v>
@@ -10693,7 +10699,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B747" s="1">
         <v>746</v>
@@ -10701,7 +10707,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B748" s="1">
         <v>747</v>
@@ -10709,7 +10715,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B749" s="1">
         <v>748</v>
@@ -10717,7 +10723,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B750" s="1">
         <v>749</v>
@@ -10725,7 +10731,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B751" s="1">
         <v>750</v>
@@ -10733,7 +10739,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B752" s="1">
         <v>751</v>
@@ -10741,7 +10747,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B753" s="1">
         <v>752</v>
@@ -10749,7 +10755,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B754" s="1">
         <v>753</v>
@@ -10757,7 +10763,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B755" s="1">
         <v>754</v>
@@ -10765,7 +10771,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B756" s="1">
         <v>755</v>
@@ -10773,7 +10779,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B757" s="1">
         <v>756</v>
@@ -10781,7 +10787,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B758" s="1">
         <v>757</v>
@@ -10789,7 +10795,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B759" s="1">
         <v>758</v>
@@ -10797,7 +10803,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B760" s="1">
         <v>759</v>
@@ -10805,7 +10811,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B761" s="1">
         <v>760</v>
@@ -10813,7 +10819,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B762" s="1">
         <v>761</v>
@@ -10821,7 +10827,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B763" s="1">
         <v>762</v>
@@ -10829,7 +10835,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B764" s="1">
         <v>763</v>
@@ -10837,7 +10843,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B765" s="1">
         <v>764</v>
@@ -10845,7 +10851,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B766" s="1">
         <v>765</v>
@@ -10853,7 +10859,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B767" s="1">
         <v>766</v>
@@ -10861,7 +10867,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B768" s="1">
         <v>767</v>
@@ -10869,7 +10875,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B769" s="1">
         <v>768</v>
@@ -10877,7 +10883,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B770" s="1">
         <v>769</v>
@@ -10885,7 +10891,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B771" s="1">
         <v>770</v>
@@ -10893,7 +10899,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B772" s="1">
         <v>771</v>
@@ -10901,7 +10907,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B773" s="1">
         <v>772</v>
@@ -10909,7 +10915,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B774" s="1">
         <v>773</v>
@@ -10917,7 +10923,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B775" s="1">
         <v>774</v>
@@ -10925,7 +10931,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B776" s="1">
         <v>775</v>
@@ -10933,7 +10939,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B777" s="1">
         <v>776</v>
@@ -10941,7 +10947,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B778" s="1">
         <v>777</v>
@@ -10949,7 +10955,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B779" s="1">
         <v>778</v>
@@ -10957,7 +10963,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B780" s="1">
         <v>779</v>
@@ -10965,7 +10971,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B781" s="1">
         <v>780</v>
@@ -10973,7 +10979,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B782" s="1">
         <v>781</v>
@@ -10981,7 +10987,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B783" s="1">
         <v>782</v>
@@ -10989,7 +10995,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B784" s="1">
         <v>783</v>
@@ -10997,7 +11003,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B785" s="1">
         <v>784</v>
@@ -11005,7 +11011,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B786" s="1">
         <v>785</v>
@@ -11013,7 +11019,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B787" s="1">
         <v>786</v>
@@ -11021,7 +11027,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B788" s="1">
         <v>787</v>
@@ -11029,7 +11035,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B789" s="1">
         <v>788</v>
@@ -11037,7 +11043,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B790" s="1">
         <v>789</v>
@@ -11045,7 +11051,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B791" s="1">
         <v>790</v>
@@ -11053,7 +11059,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B792" s="1">
         <v>791</v>
@@ -11061,7 +11067,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B793" s="1">
         <v>792</v>
@@ -11069,7 +11075,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B794" s="1">
         <v>793</v>
@@ -11077,7 +11083,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B795" s="1">
         <v>794</v>
@@ -11085,7 +11091,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B796" s="1">
         <v>795</v>
@@ -11093,7 +11099,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B797" s="1">
         <v>796</v>
@@ -11101,7 +11107,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B798" s="1">
         <v>797</v>
@@ -11109,7 +11115,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B799" s="1">
         <v>798</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B800" s="1">
         <v>799</v>
@@ -11125,7 +11131,7 @@
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B801" s="1">
         <v>800</v>
@@ -11133,18 +11139,18 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B802" s="1">
         <v>801</v>
       </c>
       <c r="C802" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B803" s="1">
         <v>802</v>
@@ -11152,7 +11158,7 @@
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B804" s="1">
         <v>803</v>
@@ -11160,7 +11166,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B805" s="1">
         <v>804</v>
@@ -11168,18 +11174,18 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B806" s="1">
         <v>805</v>
       </c>
       <c r="C806" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B807" s="1">
         <v>806</v>
@@ -11187,18 +11193,18 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B808" s="1">
         <v>807</v>
       </c>
       <c r="C808" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B809" s="1">
         <v>808</v>
@@ -11206,7 +11212,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B810" s="1">
         <v>809</v>
@@ -11214,7 +11220,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B811" s="1">
         <v>810</v>
@@ -11222,7 +11228,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B812" s="1">
         <v>811</v>
@@ -11230,7 +11236,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B813" s="1">
         <v>812</v>
@@ -11238,7 +11244,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B814" s="1">
         <v>813</v>
@@ -11246,7 +11252,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B815" s="1">
         <v>814</v>
@@ -11254,7 +11260,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B816" s="1">
         <v>815</v>
@@ -11299,31 +11305,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -11351,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q3" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P3,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11386,7 +11392,7 @@
         <v>2</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q4" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P4,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11401,7 +11407,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11411,7 +11417,7 @@
         <v>3</v>
       </c>
       <c r="G5" s="30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11421,7 +11427,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11431,7 +11437,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -11441,7 +11447,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P5,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11476,7 +11482,7 @@
         <v>4</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P6,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11512,7 +11518,7 @@
         <v>5</v>
       </c>
       <c r="P7" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P7,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11528,7 +11534,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11538,7 +11544,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11548,7 +11554,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11558,7 +11564,7 @@
         <v>6</v>
       </c>
       <c r="M8" s="31" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11568,7 +11574,7 @@
         <v>6</v>
       </c>
       <c r="P8" s="33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P8,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11604,7 +11610,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11640,7 +11646,7 @@
         <v>8</v>
       </c>
       <c r="P10" s="33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11656,7 +11662,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11666,7 +11672,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11676,7 +11682,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11686,7 +11692,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11696,7 +11702,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="33" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P11,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11732,7 +11738,7 @@
         <v>10</v>
       </c>
       <c r="P12" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11768,7 +11774,7 @@
         <v>11</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P13,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11784,7 +11790,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11794,7 +11800,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11804,7 +11810,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11814,7 +11820,7 @@
         <v>12</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11824,7 +11830,7 @@
         <v>12</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11860,7 +11866,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q15" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P15,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11896,7 +11902,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q16" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P16,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11912,7 +11918,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11922,7 +11928,7 @@
         <v>15</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11932,7 +11938,7 @@
         <v>15</v>
       </c>
       <c r="J17" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11942,7 +11948,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11952,7 +11958,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -11988,7 +11994,7 @@
         <v>16</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q18" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P18,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12035,7 +12041,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12045,7 +12051,7 @@
         <v>18</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12055,7 +12061,7 @@
         <v>18</v>
       </c>
       <c r="J20" s="32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12065,7 +12071,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12117,7 +12123,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(D22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12127,7 +12133,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(G22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12137,7 +12143,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12147,7 +12153,7 @@
         <v>20</v>
       </c>
       <c r="M22" s="33" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -12169,105 +12175,105 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="3:14">
       <c r="C31" s="32" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L31" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="3:14">
       <c r="C32" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32" s="31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L32" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M32" s="27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N32" s="27"/>
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="12:13">
       <c r="L34" s="27" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -12301,7 +12307,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12319,13 +12325,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -12333,25 +12339,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I2" s="19">
         <v>2</v>
@@ -12370,7 +12376,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I4" s="19">
         <v>4</v>
@@ -12389,13 +12395,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12414,10 +12420,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I8" s="19">
         <v>8</v>
@@ -12436,13 +12442,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -12469,10 +12475,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I13" s="19">
         <v>13</v>
@@ -12499,7 +12505,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I16" s="19">
         <v>16</v>
@@ -12589,7 +12595,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -12607,13 +12613,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -12681,25 +12687,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I6" s="19">
         <v>6</v>
@@ -12715,7 +12721,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19">
@@ -12728,7 +12734,7 @@
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -12745,7 +12751,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -12762,10 +12768,10 @@
       </c>
       <c r="B10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F10" s="18"/>
       <c r="H10" s="18"/>
@@ -12808,10 +12814,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -12904,7 +12910,7 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -13001,7 +13007,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13019,13 +13025,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13153,25 +13159,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -13214,14 +13220,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13250,10 +13256,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -13284,10 +13290,10 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -13414,7 +13420,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13432,13 +13438,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -13611,22 +13617,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -13654,13 +13660,13 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -13810,7 +13816,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -13828,13 +13834,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14037,22 +14043,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -14084,7 +14090,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="19">
@@ -14116,7 +14122,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="19">
@@ -14211,7 +14217,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -14229,13 +14235,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -14468,19 +14474,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -14510,7 +14516,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -14542,7 +14548,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
@@ -14606,12 +14612,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14631,7 +14637,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -14651,7 +14657,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -14671,7 +14677,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -14691,7 +14697,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -14711,7 +14717,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -14731,7 +14737,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -14751,7 +14757,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -14771,7 +14777,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -14791,7 +14797,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -14811,7 +14817,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -14831,7 +14837,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -14851,7 +14857,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -14871,7 +14877,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -14891,7 +14897,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -14911,7 +14917,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -14931,7 +14937,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -14951,7 +14957,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -14971,7 +14977,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -14991,7 +14997,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3033,11 +3033,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3049,14 +3055,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3070,8 +3076,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3079,17 +3093,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3132,8 +3138,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3149,7 +3156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3157,21 +3164,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3228,7 +3228,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3246,114 +3312,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3361,30 +3319,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3402,13 +3336,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,32 +3451,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3496,11 +3475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3516,11 +3501,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3542,9 +3540,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3556,10 +3556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3568,34 +3568,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3607,94 +3604,97 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4213,8 +4213,8 @@
   </sheetPr>
   <dimension ref="B1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3034,7 +3034,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3048,7 +3048,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3062,9 +3077,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3084,18 +3107,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3135,22 +3151,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3228,7 +3228,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3240,13 +3336,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3258,19 +3372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3282,133 +3408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3461,21 +3461,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -3494,16 +3479,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3519,6 +3510,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3556,10 +3556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3568,73 +3568,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3643,58 +3643,58 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,7 +4214,7 @@
   <dimension ref="B1:U39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -2977,9 +2977,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3033,6 +3033,52 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3047,8 +3093,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3062,111 +3162,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3228,85 +3228,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3324,7 +3252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3336,7 +3264,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,7 +3366,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3360,55 +3408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,11 +3451,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3471,6 +3486,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3499,25 +3523,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3537,17 +3548,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3556,10 +3556,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3568,133 +3568,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4211,10 +4211,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="B1:U39"/>
+  <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="Q31" s="46"/>
     </row>
-    <row r="32" spans="10:18">
+    <row r="32" spans="10:22">
       <c r="J32" s="37" t="s">
         <v>80</v>
       </c>
@@ -4658,10 +4658,10 @@
       <c r="P32" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="Q32" s="47" t="s">
+      <c r="R32" s="46"/>
+      <c r="V32" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="R32" s="46"/>
     </row>
     <row r="33" spans="10:15">
       <c r="J33" s="37" t="s">

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="袁绍" sheetId="15" r:id="rId6"/>
     <sheet name="吕布" sheetId="16" r:id="rId7"/>
     <sheet name="司马懿" sheetId="18" r:id="rId8"/>
-    <sheet name="关卡难度" sheetId="17" r:id="rId9"/>
-    <sheet name="武将表" sheetId="7" r:id="rId10"/>
+    <sheet name="张角" sheetId="19" r:id="rId9"/>
+    <sheet name="关卡难度" sheetId="17" r:id="rId10"/>
+    <sheet name="武将表" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2976,9 +2977,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -3035,45 +3036,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3087,7 +3072,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3108,41 +3101,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3163,6 +3133,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3171,7 +3172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3228,13 +3229,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3252,85 +3385,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3342,61 +3397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3408,7 +3409,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3451,25 +3452,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3490,11 +3478,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3504,6 +3498,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3523,17 +3526,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3548,6 +3540,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3556,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3568,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4213,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -4710,6 +4711,433 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="8.88888888888889" style="2"/>
+    <col min="2" max="2" width="8.88888888888889" style="3"/>
+    <col min="3" max="16384" width="8.88888888888889" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16.95" spans="2:2">
+      <c r="B1" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>2</v>
+      </c>
+      <c r="H3" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>4</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7">
+        <v>5</v>
+      </c>
+      <c r="H6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7" s="7">
+        <v>6</v>
+      </c>
+      <c r="H7" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>7</v>
+      </c>
+      <c r="H8" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="7">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11" s="7">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
+      <c r="C13" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
+      <c r="C14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>2</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
+      <c r="C15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12">
+        <v>4</v>
+      </c>
+      <c r="G15" s="13">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
+      <c r="C16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="12">
+        <v>3</v>
+      </c>
+      <c r="E16" s="12">
+        <v>4</v>
+      </c>
+      <c r="F16" s="12">
+        <v>5</v>
+      </c>
+      <c r="G16" s="13">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="12">
+        <v>4</v>
+      </c>
+      <c r="E17" s="12">
+        <v>5</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="C18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="12">
+        <v>5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12">
+        <v>7</v>
+      </c>
+      <c r="G18" s="13">
+        <v>6</v>
+      </c>
+      <c r="H18" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="C19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D19" s="12">
+        <v>6</v>
+      </c>
+      <c r="E19" s="12">
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <v>8</v>
+      </c>
+      <c r="G19" s="13">
+        <v>7</v>
+      </c>
+      <c r="H19" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
+      <c r="C20" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D20" s="12">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12">
+        <v>8</v>
+      </c>
+      <c r="F20" s="12">
+        <v>9</v>
+      </c>
+      <c r="G20" s="13">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D21" s="15">
+        <v>8</v>
+      </c>
+      <c r="E21" s="15">
+        <v>9</v>
+      </c>
+      <c r="F21" s="15">
+        <v>10</v>
+      </c>
+      <c r="G21" s="16">
+        <v>9</v>
+      </c>
+      <c r="H21" s="16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C816"/>
@@ -14201,7 +14629,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="16.2"/>
@@ -14597,425 +15025,14 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H21"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="8.88888888888889" style="2"/>
-    <col min="2" max="2" width="8.88888888888889" style="3"/>
-    <col min="3" max="16384" width="8.88888888888889" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.95" spans="2:2">
-      <c r="B1" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8">
-      <c r="C3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7">
-        <v>2</v>
-      </c>
-      <c r="H3" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="7">
-        <v>3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>4</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7">
-        <v>5</v>
-      </c>
-      <c r="H6" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>5</v>
-      </c>
-      <c r="G7" s="7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>6</v>
-      </c>
-      <c r="G8" s="7">
-        <v>7</v>
-      </c>
-      <c r="H8" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9" s="7">
-        <v>8</v>
-      </c>
-      <c r="H9" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>8</v>
-      </c>
-      <c r="G10" s="7">
-        <v>9</v>
-      </c>
-      <c r="H10" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>9</v>
-      </c>
-      <c r="G11" s="7">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D12" s="10">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8">
-      <c r="C13" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <v>2</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8">
-      <c r="C14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <v>2</v>
-      </c>
-      <c r="F14" s="12">
-        <v>3</v>
-      </c>
-      <c r="G14" s="13">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8">
-      <c r="C15" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12">
-        <v>4</v>
-      </c>
-      <c r="G15" s="13">
-        <v>3</v>
-      </c>
-      <c r="H15" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8">
-      <c r="C16" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D16" s="12">
-        <v>3</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4</v>
-      </c>
-      <c r="F16" s="12">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="C17" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="12">
-        <v>4</v>
-      </c>
-      <c r="E17" s="12">
-        <v>5</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6</v>
-      </c>
-      <c r="G17" s="13">
-        <v>5</v>
-      </c>
-      <c r="H17" s="8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D18" s="12">
-        <v>5</v>
-      </c>
-      <c r="E18" s="12">
-        <v>6</v>
-      </c>
-      <c r="F18" s="12">
-        <v>7</v>
-      </c>
-      <c r="G18" s="13">
-        <v>6</v>
-      </c>
-      <c r="H18" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="C19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D19" s="12">
-        <v>6</v>
-      </c>
-      <c r="E19" s="12">
-        <v>7</v>
-      </c>
-      <c r="F19" s="12">
-        <v>8</v>
-      </c>
-      <c r="G19" s="13">
-        <v>7</v>
-      </c>
-      <c r="H19" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D20" s="12">
-        <v>7</v>
-      </c>
-      <c r="E20" s="12">
-        <v>8</v>
-      </c>
-      <c r="F20" s="12">
-        <v>9</v>
-      </c>
-      <c r="G20" s="13">
-        <v>8</v>
-      </c>
-      <c r="H20" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8">
-      <c r="C21" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="D21" s="15">
-        <v>8</v>
-      </c>
-      <c r="E21" s="15">
-        <v>9</v>
-      </c>
-      <c r="F21" s="15">
-        <v>10</v>
-      </c>
-      <c r="G21" s="16">
-        <v>9</v>
-      </c>
-      <c r="H21" s="16">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -2977,10 +2977,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3034,7 +3034,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3042,8 +3048,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3057,22 +3086,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3095,16 +3111,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3118,7 +3143,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3132,30 +3157,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3163,16 +3164,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3235,13 +3235,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,31 +3349,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3289,127 +3391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3452,17 +3452,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3474,39 +3463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3541,6 +3497,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -2978,9 +2978,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3035,24 +3035,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3063,9 +3048,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3073,6 +3065,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3086,17 +3093,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3117,9 +3116,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3143,7 +3157,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3151,14 +3165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,13 +3173,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,7 +3229,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,121 +3367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3385,31 +3403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3467,6 +3467,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3482,17 +3506,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3514,38 +3541,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,31 +3569,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3602,100 +3602,100 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -2977,9 +2977,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -3035,7 +3035,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3048,8 +3077,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3064,52 +3125,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3117,7 +3132,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3132,26 +3147,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3172,7 +3172,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,19 +3229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,7 +3241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3265,25 +3253,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3295,19 +3277,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,7 +3313,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3343,13 +3337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3361,25 +3349,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,13 +3367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3410,6 +3398,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3467,17 +3467,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3485,8 +3479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3509,17 +3503,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -2977,10 +2977,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3035,21 +3035,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3064,6 +3073,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3071,7 +3110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3086,29 +3125,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3116,16 +3140,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3139,40 +3163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,13 +3229,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,13 +3301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3271,55 +3331,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3331,43 +3343,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3385,13 +3367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3403,13 +3379,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,39 +3453,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3496,30 +3463,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3541,11 +3484,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -2977,10 +2977,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3035,30 +3035,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3069,13 +3053,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3103,22 +3080,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3134,7 +3111,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3147,9 +3147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,7 +3165,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,7 +3229,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3241,7 +3253,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3253,7 +3301,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3265,7 +3349,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3277,91 +3379,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3373,37 +3403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3467,21 +3467,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3496,6 +3481,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3526,16 +3526,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,8 +4214,8 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -2978,8 +2978,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -3035,6 +3035,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3042,7 +3049,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3056,8 +3108,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3072,15 +3132,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3095,7 +3157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3109,70 +3171,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3229,7 +3229,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3247,121 +3385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3373,43 +3403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,6 +3453,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3471,56 +3495,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3541,11 +3515,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3557,10 +3557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3569,133 +3569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4214,7 +4214,7 @@
   </sheetPr>
   <dimension ref="B1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3312,9 +3312,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -3395,9 +3395,113 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3413,14 +3517,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3429,111 +3534,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3596,13 +3596,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3614,7 +3644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3626,25 +3656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,31 +3674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3698,19 +3710,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3722,61 +3764,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,6 +3847,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3858,54 +3867,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3929,7 +3890,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3944,6 +3905,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3952,10 +3952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3964,137 +3964,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4285,6 +4285,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4920,487 +4923,487 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="67"/>
-    <col min="10" max="10" width="13.7777777777778" style="67" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="67" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="67"/>
+    <col min="1" max="9" width="9" style="68"/>
+    <col min="10" max="10" width="13.7777777777778" style="68" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="68" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="67" t="s">
+      <c r="J1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="67">
+      <c r="J2" s="68">
         <v>100</v>
       </c>
-      <c r="K2" s="67">
+      <c r="K2" s="68">
         <v>3000</v>
       </c>
-      <c r="L2" s="67">
+      <c r="L2" s="68">
         <v>10</v>
       </c>
-      <c r="M2" s="67">
+      <c r="M2" s="68">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="67">
+      <c r="C3" s="68">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="68">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="68">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="68">
         <v>1</v>
       </c>
-      <c r="I4" s="68" t="s">
+      <c r="I4" s="69" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="67" t="s">
+      <c r="K5" s="68" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="67" t="s">
+      <c r="K6" s="68" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="67" t="s">
+      <c r="K7" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="68" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="67" t="s">
+      <c r="K10" s="68" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="67" t="s">
+      <c r="K11" s="68" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="67">
+      <c r="B12" s="68">
         <v>1</v>
       </c>
-      <c r="C12" s="67">
+      <c r="C12" s="68">
         <v>5</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="69" t="s">
+      <c r="K12" s="70" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="67">
+      <c r="B13" s="68">
         <v>2</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="68">
         <v>5</v>
       </c>
-      <c r="J13" s="69" t="s">
+      <c r="J13" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="69" t="s">
+      <c r="K13" s="70" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="67">
+      <c r="B14" s="68">
         <v>3</v>
       </c>
-      <c r="C14" s="67">
+      <c r="C14" s="68">
         <v>10</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="67" t="s">
+      <c r="J14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="67" t="s">
+      <c r="K14" s="68" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="67">
+      <c r="B15" s="68">
         <v>4</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="68">
         <v>20</v>
       </c>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="67">
+      <c r="B16" s="68">
         <v>5</v>
       </c>
-      <c r="C16" s="67">
+      <c r="C16" s="68">
         <v>40</v>
       </c>
-      <c r="J16" s="67" t="s">
+      <c r="J16" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="67" t="s">
+      <c r="K16" s="68" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="67">
+      <c r="B17" s="68">
         <v>6</v>
       </c>
-      <c r="C17" s="67">
+      <c r="C17" s="68">
         <v>80</v>
       </c>
-      <c r="J17" s="67" t="s">
+      <c r="J17" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="67" t="s">
+      <c r="K17" s="68" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="67">
+      <c r="B18" s="68">
         <v>7</v>
       </c>
-      <c r="C18" s="67">
+      <c r="C18" s="68">
         <v>100</v>
       </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="67" t="s">
+      <c r="I18" s="72"/>
+      <c r="J18" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="67" t="s">
+      <c r="K18" s="68" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="19" ht="16.2" spans="2:9">
-      <c r="B19" s="67">
+      <c r="B19" s="68">
         <v>8</v>
       </c>
-      <c r="C19" s="67">
+      <c r="C19" s="68">
         <v>150</v>
       </c>
-      <c r="I19" s="68" t="s">
+      <c r="I19" s="69" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:11">
-      <c r="B20" s="67">
+      <c r="B20" s="68">
         <v>9</v>
       </c>
-      <c r="C20" s="67">
+      <c r="C20" s="68">
         <v>200</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K20" s="67" t="s">
+      <c r="K20" s="68" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="67">
+      <c r="B21" s="68">
         <v>10</v>
       </c>
-      <c r="C21" s="67">
+      <c r="C21" s="68">
         <v>300</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="67" t="s">
+      <c r="K21" s="68" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="67">
+      <c r="B22" s="68">
         <v>11</v>
       </c>
-      <c r="C22" s="67">
+      <c r="C22" s="68">
         <v>500</v>
       </c>
-      <c r="J22" s="67" t="s">
+      <c r="J22" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="K22" s="67" t="s">
+      <c r="K22" s="68" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="9:11">
-      <c r="I23" s="71"/>
-      <c r="J23" s="67" t="s">
+      <c r="I23" s="72"/>
+      <c r="J23" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="K23" s="67" t="s">
+      <c r="K23" s="68" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="67">
+      <c r="C24" s="68">
         <f>SUM(C12:C22)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="25" spans="10:10">
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" ht="16.2" spans="9:9">
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:21">
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="K28" s="72" t="s">
+      <c r="K28" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="L28" s="72" t="s">
+      <c r="L28" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="72" t="s">
+      <c r="M28" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="N28" s="73" t="s">
+      <c r="N28" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="73" t="s">
+      <c r="O28" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="P28" s="74" t="s">
+      <c r="P28" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="Q28" s="74" t="s">
+      <c r="Q28" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="R28" s="74" t="s">
+      <c r="R28" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="S28" s="74" t="s">
+      <c r="S28" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="T28" s="74" t="s">
+      <c r="T28" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="U28" s="75" t="s">
+      <c r="U28" s="76" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="10:18">
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="K29" s="72" t="s">
+      <c r="K29" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="L29" s="72" t="s">
+      <c r="L29" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="M29" s="72" t="s">
+      <c r="M29" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="72" t="s">
+      <c r="N29" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="O29" s="72" t="s">
+      <c r="O29" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="P29" s="72" t="s">
+      <c r="P29" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="Q29" s="74" t="s">
+      <c r="Q29" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="R29" s="74" t="s">
+      <c r="R29" s="75" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="10:19">
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="K30" s="72" t="s">
+      <c r="K30" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="L30" s="72" t="s">
+      <c r="L30" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="M30" s="72" t="s">
+      <c r="M30" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="N30" s="72" t="s">
+      <c r="N30" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="O30" s="74" t="s">
+      <c r="O30" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="P30" s="74" t="s">
+      <c r="P30" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="Q30" s="74" t="s">
+      <c r="Q30" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="R30" s="74" t="s">
+      <c r="R30" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="S30" s="74" t="s">
+      <c r="S30" s="75" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="31" spans="10:17">
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="K31" s="72" t="s">
+      <c r="K31" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="72" t="s">
+      <c r="L31" s="73" t="s">
         <v>75</v>
       </c>
-      <c r="M31" s="74" t="s">
+      <c r="M31" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="N31" s="74" t="s">
+      <c r="N31" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="O31" s="74" t="s">
+      <c r="O31" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="74" t="s">
+      <c r="P31" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="Q31" s="76"/>
+      <c r="Q31" s="77"/>
     </row>
     <row r="32" spans="10:22">
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="K32" s="72" t="s">
+      <c r="K32" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="L32" s="72" t="s">
+      <c r="L32" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="M32" s="74" t="s">
+      <c r="M32" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="N32" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="O32" s="74" t="s">
+      <c r="O32" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="P32" s="74" t="s">
+      <c r="P32" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="R32" s="76"/>
-      <c r="V32" s="77" t="s">
+      <c r="R32" s="77"/>
+      <c r="V32" s="78" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="10:15">
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="72" t="s">
+      <c r="K33" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="72" t="s">
+      <c r="L33" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="M33" s="74" t="s">
+      <c r="M33" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="N33" s="74" t="s">
+      <c r="N33" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="O33" s="74" t="s">
+      <c r="O33" s="75" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="35" spans="10:10">
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="68" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="36" spans="10:10">
-      <c r="J36" s="67" t="s">
+      <c r="J36" s="68" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="37" spans="10:10">
-      <c r="J37" s="67" t="s">
+      <c r="J37" s="68" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="39" spans="10:10">
-      <c r="J39" s="67" t="s">
+      <c r="J39" s="68" t="s">
         <v>97</v>
       </c>
     </row>
@@ -12424,8 +12427,8 @@
   <sheetPr/>
   <dimension ref="B1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A59" sqref="$A50:$XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -12656,7 +12659,7 @@
       <c r="H15" s="39"/>
     </row>
     <row r="16" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="39" t="s">
         <v>143</v>
       </c>
       <c r="D16" s="47" t="s">
@@ -12832,7 +12835,7 @@
       </c>
     </row>
     <row r="31" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="52" t="s">
         <v>176</v>
       </c>
       <c r="D31" s="47" t="s">
@@ -12948,7 +12951,7 @@
       <c r="H39" s="39"/>
     </row>
     <row r="40" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="52" t="s">
         <v>196</v>
       </c>
       <c r="D40" s="47"/>
@@ -13233,7 +13236,7 @@
       <c r="H61" s="39"/>
     </row>
     <row r="62" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C62" s="49" t="s">
+      <c r="C62" s="45" t="s">
         <v>248</v>
       </c>
       <c r="D62" s="47" t="s">
@@ -13287,7 +13290,7 @@
       <c r="H65" s="39"/>
     </row>
     <row r="66" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C66" s="50" t="s">
+      <c r="C66" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D66" s="39"/>
@@ -13611,11 +13614,11 @@
     </row>
     <row r="90" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B90" s="37"/>
-      <c r="C90" s="64" t="s">
+      <c r="C90" s="65" t="s">
         <v>184</v>
       </c>
       <c r="D90" s="61"/>
-      <c r="E90" s="65" t="s">
+      <c r="E90" s="66" t="s">
         <v>305</v>
       </c>
       <c r="F90" s="61"/>
@@ -13624,7 +13627,7 @@
     </row>
     <row r="91" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B91" s="37"/>
-      <c r="C91" s="64" t="s">
+      <c r="C91" s="65" t="s">
         <v>182</v>
       </c>
       <c r="D91" s="61"/>
@@ -13637,7 +13640,7 @@
     </row>
     <row r="92" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B92" s="37"/>
-      <c r="C92" s="64" t="s">
+      <c r="C92" s="65" t="s">
         <v>307</v>
       </c>
       <c r="D92" s="62"/>
@@ -13678,7 +13681,7 @@
     </row>
     <row r="95" s="2" customFormat="1" spans="2:8">
       <c r="B95" s="37"/>
-      <c r="C95" s="66" t="s">
+      <c r="C95" s="67" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="61" t="s">
@@ -13732,13 +13735,13 @@
     </row>
     <row r="99" s="2" customFormat="1" spans="2:8">
       <c r="B99" s="37"/>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="67" t="s">
         <v>196</v>
       </c>
       <c r="D99" s="61"/>
       <c r="E99" s="61"/>
       <c r="F99" s="61"/>
-      <c r="G99" s="65" t="s">
+      <c r="G99" s="66" t="s">
         <v>317</v>
       </c>
       <c r="H99" s="61"/>
@@ -13883,7 +13886,7 @@
       <c r="H110" s="39"/>
     </row>
     <row r="111" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="39" t="s">
         <v>196</v>
       </c>
       <c r="D111" s="46"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1079">
   <si>
     <t>人民币</t>
   </si>
@@ -948,6 +948,9 @@
     <t>狼骑</t>
   </si>
   <si>
+    <t>臧霸</t>
+  </si>
+  <si>
     <t>魏续、宋宪</t>
   </si>
   <si>
@@ -958,9 +961,6 @@
   </si>
   <si>
     <t>侯成</t>
-  </si>
-  <si>
-    <t>臧霸</t>
   </si>
   <si>
     <t>徐荣</t>
@@ -3312,10 +3312,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3395,6 +3395,54 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3410,36 +3458,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3454,23 +3473,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3483,25 +3493,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3517,23 +3519,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3596,7 +3596,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3608,13 +3608,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3626,25 +3638,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,13 +3698,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3680,19 +3716,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,73 +3764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,15 +3847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3871,17 +3862,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3890,17 +3875,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3924,8 +3898,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3944,6 +3918,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3952,10 +3952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3964,37 +3964,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4003,94 +3997,100 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4290,10 +4290,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4459,13 +4459,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>411480</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4483,7 +4483,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="21602700"/>
+          <a:off x="8633460" y="21396960"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4508,7 +4508,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B117" s="1">
         <v>116</v>
@@ -8902,7 +8902,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B379" s="1">
         <v>378</v>
@@ -8910,7 +8910,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B380" s="1">
         <v>379</v>
@@ -8918,7 +8918,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B381" s="1">
         <v>380</v>
@@ -12332,7 +12332,7 @@
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B807" s="1">
         <v>806</v>
@@ -12425,10 +12425,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:H120"/>
+  <dimension ref="B1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A59" sqref="$A50:$XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A90" sqref="$A90:$XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -13588,10 +13588,12 @@
       <c r="D88" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="E88" s="61"/>
+      <c r="E88" s="65" t="s">
+        <v>301</v>
+      </c>
       <c r="F88" s="61"/>
       <c r="G88" s="61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H88" s="61"/>
     </row>
@@ -13602,77 +13604,77 @@
       </c>
       <c r="D89" s="62"/>
       <c r="E89" s="62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H89" s="61"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B90" s="37"/>
-      <c r="C90" s="65" t="s">
-        <v>184</v>
+      <c r="C90" s="66" t="s">
+        <v>182</v>
       </c>
       <c r="D90" s="61"/>
-      <c r="E90" s="66" t="s">
-        <v>305</v>
-      </c>
-      <c r="F90" s="61"/>
+      <c r="E90" s="63"/>
+      <c r="F90" s="61" t="s">
+        <v>306</v>
+      </c>
       <c r="G90" s="61"/>
       <c r="H90" s="61"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B91" s="37"/>
-      <c r="C91" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D91" s="61"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="G91" s="61"/>
+      <c r="C91" s="66" t="s">
+        <v>307</v>
+      </c>
+      <c r="D91" s="62"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="63" t="s">
+        <v>308</v>
+      </c>
+      <c r="G91" s="61" t="s">
+        <v>309</v>
+      </c>
       <c r="H91" s="61"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B92" s="37"/>
-      <c r="C92" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="D92" s="62"/>
-      <c r="E92" s="61"/>
-      <c r="F92" s="63" t="s">
-        <v>308</v>
-      </c>
-      <c r="G92" s="61" t="s">
-        <v>309</v>
-      </c>
+      <c r="C92" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="61"/>
+      <c r="E92" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F92" s="61"/>
+      <c r="G92" s="61"/>
       <c r="H92" s="61"/>
     </row>
-    <row r="93" s="2" customFormat="1" ht="16.2" spans="2:8">
+    <row r="93" s="2" customFormat="1" spans="2:8">
       <c r="B93" s="37"/>
-      <c r="C93" s="60" t="s">
-        <v>310</v>
-      </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="62" t="s">
-        <v>311</v>
-      </c>
+      <c r="C93" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="61" t="s">
+        <v>312</v>
+      </c>
+      <c r="E93" s="61"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
     </row>
     <row r="94" s="2" customFormat="1" spans="2:8">
       <c r="B94" s="37"/>
-      <c r="C94" s="61" t="s">
-        <v>147</v>
+      <c r="C94" s="67" t="s">
+        <v>210</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E94" s="61"/>
       <c r="F94" s="61"/>
@@ -13681,11 +13683,11 @@
     </row>
     <row r="95" s="2" customFormat="1" spans="2:8">
       <c r="B95" s="37"/>
-      <c r="C95" s="67" t="s">
-        <v>210</v>
+      <c r="C95" s="61" t="s">
+        <v>279</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E95" s="61"/>
       <c r="F95" s="61"/>
@@ -13695,299 +13697,286 @@
     <row r="96" s="2" customFormat="1" spans="2:8">
       <c r="B96" s="37"/>
       <c r="C96" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="D96" s="61" t="s">
-        <v>314</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D96" s="61"/>
       <c r="E96" s="61"/>
-      <c r="F96" s="61"/>
+      <c r="F96" s="61" t="s">
+        <v>315</v>
+      </c>
       <c r="G96" s="61"/>
       <c r="H96" s="61"/>
     </row>
-    <row r="97" s="2" customFormat="1" spans="2:8">
+    <row r="97" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B97" s="37"/>
       <c r="C97" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="D97" s="61"/>
+        <v>212</v>
+      </c>
+      <c r="D97" s="62" t="s">
+        <v>197</v>
+      </c>
       <c r="E97" s="61"/>
-      <c r="F97" s="61" t="s">
-        <v>315</v>
+      <c r="F97" s="62" t="s">
+        <v>316</v>
       </c>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
     </row>
-    <row r="98" s="2" customFormat="1" ht="16.2" spans="2:8">
+    <row r="98" s="2" customFormat="1" spans="2:8">
       <c r="B98" s="37"/>
-      <c r="C98" s="61" t="s">
-        <v>212</v>
-      </c>
-      <c r="D98" s="62" t="s">
-        <v>197</v>
-      </c>
+      <c r="C98" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98" s="61"/>
       <c r="E98" s="61"/>
-      <c r="F98" s="62" t="s">
-        <v>316</v>
-      </c>
-      <c r="G98" s="61"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="65" t="s">
+        <v>317</v>
+      </c>
       <c r="H98" s="61"/>
     </row>
-    <row r="99" s="2" customFormat="1" spans="2:8">
+    <row r="99" s="2" customFormat="1" spans="2:2">
       <c r="B99" s="37"/>
-      <c r="C99" s="67" t="s">
-        <v>196</v>
-      </c>
-      <c r="D99" s="61"/>
-      <c r="E99" s="61"/>
-      <c r="F99" s="61"/>
-      <c r="G99" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="H99" s="61"/>
-    </row>
-    <row r="100" s="2" customFormat="1" spans="2:2">
-      <c r="B100" s="37"/>
-    </row>
-    <row r="102" s="37" customFormat="1" spans="2:8">
-      <c r="B102" s="37" t="s">
+    </row>
+    <row r="101" s="37" customFormat="1" spans="2:8">
+      <c r="B101" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="40">
+      <c r="C101" s="39"/>
+      <c r="D101" s="40">
         <v>6</v>
       </c>
-      <c r="E102" s="41">
+      <c r="E101" s="41">
         <v>5</v>
       </c>
-      <c r="F102" s="42">
+      <c r="F101" s="42">
         <v>4</v>
       </c>
-      <c r="G102" s="43">
+      <c r="G101" s="43">
         <v>3</v>
       </c>
-      <c r="H102" s="44">
+      <c r="H101" s="44">
         <v>2</v>
+      </c>
+    </row>
+    <row r="102" s="37" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C102" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="39" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="39" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="G102" s="39" t="s">
+        <v>322</v>
+      </c>
+      <c r="H102" s="39" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="103" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C103" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="39" t="s">
-        <v>319</v>
+        <v>133</v>
+      </c>
+      <c r="D103" s="47" t="s">
+        <v>324</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>320</v>
-      </c>
-      <c r="F103" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="G103" s="39" t="s">
-        <v>322</v>
-      </c>
-      <c r="H103" s="39" t="s">
-        <v>323</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
     </row>
     <row r="104" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C104" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D104" s="47" t="s">
-        <v>324</v>
-      </c>
-      <c r="E104" s="39" t="s">
-        <v>325</v>
-      </c>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
+        <v>136</v>
+      </c>
+      <c r="D104" s="39"/>
+      <c r="E104" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="F104" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="G104" s="39" t="s">
+        <v>328</v>
+      </c>
       <c r="H104" s="39"/>
     </row>
     <row r="105" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C105" s="45" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="D105" s="39"/>
-      <c r="E105" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="F105" s="39" t="s">
-        <v>327</v>
-      </c>
+      <c r="E105" s="47" t="s">
+        <v>330</v>
+      </c>
+      <c r="F105" s="39"/>
       <c r="G105" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="H105" s="39"/>
+        <v>331</v>
+      </c>
+      <c r="H105" s="39" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="106" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C106" s="45" t="s">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="D106" s="39"/>
-      <c r="E106" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="F106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39" t="s">
+        <v>333</v>
+      </c>
       <c r="G106" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="H106" s="39" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="107" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C107" s="45" t="s">
-        <v>202</v>
+        <v>334</v>
+      </c>
+      <c r="H106" s="39"/>
+    </row>
+    <row r="107" s="37" customFormat="1" spans="3:8">
+      <c r="C107" s="39" t="s">
+        <v>150</v>
       </c>
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="G107" s="39" t="s">
-        <v>334</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="G107" s="39"/>
       <c r="H107" s="39"/>
     </row>
     <row r="108" s="37" customFormat="1" spans="3:8">
       <c r="C108" s="39" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
-      <c r="F108" s="39" t="s">
-        <v>335</v>
+      <c r="F108" s="46" t="s">
+        <v>336</v>
       </c>
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
     </row>
-    <row r="109" s="37" customFormat="1" spans="3:8">
+    <row r="109" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C109" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="46" t="s">
-        <v>336</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D109" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" s="39"/>
       <c r="G109" s="39"/>
       <c r="H109" s="39"/>
     </row>
     <row r="110" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C110" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="D110" s="47" t="s">
-        <v>213</v>
+        <v>196</v>
+      </c>
+      <c r="D110" s="46"/>
+      <c r="E110" s="47" t="s">
+        <v>337</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
       <c r="H110" s="39"/>
     </row>
-    <row r="111" s="37" customFormat="1" ht="16.2" spans="3:8">
+    <row r="111" s="37" customFormat="1" spans="3:8">
       <c r="C111" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D111" s="46"/>
-      <c r="E111" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="F111" s="39"/>
+        <v>212</v>
+      </c>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="46" t="s">
+        <v>338</v>
+      </c>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
-    <row r="112" s="37" customFormat="1" spans="3:8">
-      <c r="C112" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="D112" s="39"/>
-      <c r="E112" s="39"/>
-      <c r="F112" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="G112" s="39"/>
-      <c r="H112" s="39"/>
-    </row>
-    <row r="115" s="37" customFormat="1" spans="2:8">
-      <c r="B115" s="37" t="s">
+    <row r="114" s="37" customFormat="1" spans="2:8">
+      <c r="B114" s="37" t="s">
         <v>339</v>
       </c>
-      <c r="C115" s="39"/>
-      <c r="D115" s="40">
+      <c r="C114" s="39"/>
+      <c r="D114" s="40">
         <v>6</v>
       </c>
-      <c r="E115" s="41">
+      <c r="E114" s="41">
         <v>5</v>
       </c>
-      <c r="F115" s="42">
+      <c r="F114" s="42">
         <v>4</v>
       </c>
-      <c r="G115" s="43">
+      <c r="G114" s="43">
         <v>3</v>
       </c>
-      <c r="H115" s="44">
+      <c r="H114" s="44">
         <v>2</v>
       </c>
+    </row>
+    <row r="115" s="37" customFormat="1" ht="16.2" spans="3:8">
+      <c r="C115" s="45" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
     </row>
     <row r="116" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C116" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="D116" s="39"/>
+        <v>341</v>
+      </c>
+      <c r="D116" s="39" t="s">
+        <v>339</v>
+      </c>
       <c r="E116" s="39"/>
-      <c r="F116" s="39"/>
-      <c r="G116" s="39"/>
+      <c r="F116" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="G116" s="39" t="s">
+        <v>343</v>
+      </c>
       <c r="H116" s="39"/>
     </row>
     <row r="117" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C117" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="E117" s="39"/>
+      <c r="C117" s="49" t="s">
+        <v>344</v>
+      </c>
+      <c r="D117" s="39"/>
       <c r="F117" s="39" t="s">
-        <v>342</v>
-      </c>
-      <c r="G117" s="39" t="s">
-        <v>343</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G117" s="39"/>
       <c r="H117" s="39"/>
     </row>
     <row r="118" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C118" s="49" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="D118" s="39"/>
-      <c r="F118" s="39" t="s">
-        <v>345</v>
-      </c>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
       <c r="G118" s="39"/>
       <c r="H118" s="39"/>
     </row>
-    <row r="119" s="37" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C119" s="49" t="s">
-        <v>166</v>
-      </c>
-      <c r="D119" s="39"/>
+    <row r="119" s="37" customFormat="1" spans="3:8">
+      <c r="C119" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="D119" s="39" t="s">
+        <v>346</v>
+      </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39"/>
       <c r="G119" s="39"/>
       <c r="H119" s="39"/>
-    </row>
-    <row r="120" s="37" customFormat="1" spans="3:8">
-      <c r="C120" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D120" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="E120" s="39"/>
-      <c r="F120" s="39"/>
-      <c r="G120" s="39"/>
-      <c r="H120" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1079">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1080">
   <si>
     <t>人民币</t>
   </si>
@@ -907,6 +907,9 @@
   </si>
   <si>
     <t>王修</t>
+  </si>
+  <si>
+    <t>倾国</t>
   </si>
   <si>
     <t>督军</t>
@@ -3312,10 +3315,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3395,9 +3398,32 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3420,26 +3446,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3464,25 +3481,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3502,15 +3513,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3596,19 +3599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,7 +3635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3632,19 +3653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3656,43 +3671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3710,13 +3695,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3728,7 +3731,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3740,43 +3779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3847,17 +3850,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3871,11 +3874,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3904,17 +3913,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3952,10 +3955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3964,76 +3967,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -4042,55 +4045,55 @@
     <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5447,12 +5450,12 @@
   <sheetData>
     <row r="1" ht="16.95" spans="2:2">
       <c r="B1" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="3:8">
       <c r="C2" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5472,7 +5475,7 @@
     </row>
     <row r="3" spans="3:8">
       <c r="C3" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5492,7 +5495,7 @@
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5512,7 +5515,7 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5532,7 +5535,7 @@
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5552,7 +5555,7 @@
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -5572,7 +5575,7 @@
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -5592,7 +5595,7 @@
     </row>
     <row r="9" spans="3:8">
       <c r="C9" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5612,7 +5615,7 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -5632,7 +5635,7 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
@@ -5672,7 +5675,7 @@
     </row>
     <row r="13" spans="3:8">
       <c r="C13" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
@@ -5692,7 +5695,7 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D14" s="12">
         <v>1</v>
@@ -5712,7 +5715,7 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D15" s="12">
         <v>2</v>
@@ -5732,7 +5735,7 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D16" s="12">
         <v>3</v>
@@ -5752,7 +5755,7 @@
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D17" s="12">
         <v>4</v>
@@ -5772,7 +5775,7 @@
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D18" s="12">
         <v>5</v>
@@ -5792,7 +5795,7 @@
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D19" s="12">
         <v>6</v>
@@ -5812,7 +5815,7 @@
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D20" s="12">
         <v>7</v>
@@ -5832,7 +5835,7 @@
     </row>
     <row r="21" spans="3:8">
       <c r="C21" s="14" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D21" s="15">
         <v>8</v>
@@ -5909,24 +5912,24 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5939,7 +5942,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -6019,7 +6022,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B19" s="1">
         <v>18</v>
@@ -6027,7 +6030,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B21" s="1">
         <v>20</v>
@@ -6043,7 +6046,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B22" s="1">
         <v>21</v>
@@ -6091,7 +6094,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B28" s="1">
         <v>27</v>
@@ -6099,7 +6102,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B29" s="1">
         <v>28</v>
@@ -6155,7 +6158,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B36" s="1">
         <v>35</v>
@@ -6267,7 +6270,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B50" s="1">
         <v>49</v>
@@ -6275,13 +6278,13 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" s="1">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6318,7 +6321,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B56" s="1">
         <v>55</v>
@@ -6342,7 +6345,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B59" s="1">
         <v>58</v>
@@ -6398,7 +6401,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B66" s="1">
         <v>65</v>
@@ -6414,7 +6417,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B68" s="1">
         <v>67</v>
@@ -6422,7 +6425,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B69" s="1">
         <v>68</v>
@@ -6430,7 +6433,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B70" s="1">
         <v>69</v>
@@ -6438,7 +6441,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B71" s="1">
         <v>70</v>
@@ -6446,7 +6449,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B72" s="1">
         <v>71</v>
@@ -6454,7 +6457,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B73" s="1">
         <v>72</v>
@@ -6462,7 +6465,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B74" s="1">
         <v>73</v>
@@ -6470,7 +6473,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B75" s="1">
         <v>74</v>
@@ -6478,7 +6481,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B76" s="1">
         <v>75</v>
@@ -6486,7 +6489,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B77" s="1">
         <v>76</v>
@@ -6494,7 +6497,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B78" s="1">
         <v>77</v>
@@ -6502,7 +6505,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B79" s="1">
         <v>78</v>
@@ -6510,7 +6513,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B80" s="1">
         <v>79</v>
@@ -6526,7 +6529,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B82" s="1">
         <v>81</v>
@@ -6542,7 +6545,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B84" s="1">
         <v>83</v>
@@ -6550,7 +6553,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B85" s="1">
         <v>84</v>
@@ -6558,7 +6561,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B86" s="1">
         <v>85</v>
@@ -6582,7 +6585,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B89" s="1">
         <v>88</v>
@@ -6590,7 +6593,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B90" s="1">
         <v>89</v>
@@ -6614,7 +6617,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B93" s="1">
         <v>92</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B94" s="1">
         <v>93</v>
@@ -6630,7 +6633,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B95" s="1">
         <v>94</v>
@@ -6638,7 +6641,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B96" s="1">
         <v>95</v>
@@ -6646,7 +6649,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B97" s="1">
         <v>96</v>
@@ -6654,7 +6657,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B98" s="1">
         <v>97</v>
@@ -6662,7 +6665,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B99" s="1">
         <v>98</v>
@@ -6670,7 +6673,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B100" s="1">
         <v>99</v>
@@ -6694,7 +6697,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B103" s="1">
         <v>102</v>
@@ -6702,7 +6705,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B104" s="1">
         <v>103</v>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B105" s="1">
         <v>104</v>
@@ -6718,7 +6721,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B106" s="1">
         <v>105</v>
@@ -6726,7 +6729,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B107" s="1">
         <v>106</v>
@@ -6742,7 +6745,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B109" s="1">
         <v>108</v>
@@ -6750,7 +6753,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B110" s="1">
         <v>109</v>
@@ -6758,7 +6761,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B111" s="1">
         <v>110</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B112" s="1">
         <v>111</v>
@@ -6774,7 +6777,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B113" s="1">
         <v>112</v>
@@ -6790,7 +6793,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B115" s="1">
         <v>114</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B117" s="1">
         <v>116</v>
@@ -6814,7 +6817,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B118" s="1">
         <v>117</v>
@@ -6822,7 +6825,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B119" s="1">
         <v>118</v>
@@ -6830,7 +6833,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B120" s="1">
         <v>119</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B121" s="1">
         <v>120</v>
@@ -6862,7 +6865,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B124" s="1">
         <v>123</v>
@@ -6870,7 +6873,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B125" s="1">
         <v>124</v>
@@ -6878,7 +6881,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B126" s="1">
         <v>125</v>
@@ -6886,7 +6889,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B127" s="1">
         <v>126</v>
@@ -6894,7 +6897,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B128" s="1">
         <v>127</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B130" s="1">
         <v>129</v>
@@ -6918,7 +6921,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B131" s="1">
         <v>130</v>
@@ -6926,7 +6929,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B132" s="1">
         <v>131</v>
@@ -6934,7 +6937,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B133" s="1">
         <v>132</v>
@@ -6950,7 +6953,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B135" s="1">
         <v>134</v>
@@ -6958,7 +6961,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B136" s="1">
         <v>135</v>
@@ -6974,7 +6977,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B138" s="1">
         <v>137</v>
@@ -6998,7 +7001,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B141" s="1">
         <v>140</v>
@@ -7014,7 +7017,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B143" s="1">
         <v>142</v>
@@ -7038,7 +7041,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B146" s="1">
         <v>145</v>
@@ -7062,7 +7065,7 @@
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B149" s="1">
         <v>148</v>
@@ -7078,7 +7081,7 @@
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B151" s="1">
         <v>150</v>
@@ -7086,7 +7089,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B152" s="1">
         <v>151</v>
@@ -7094,7 +7097,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B153" s="1">
         <v>152</v>
@@ -7102,7 +7105,7 @@
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B154" s="1">
         <v>153</v>
@@ -7110,7 +7113,7 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B155" s="1">
         <v>154</v>
@@ -7118,7 +7121,7 @@
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B156" s="1">
         <v>155</v>
@@ -7126,7 +7129,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B157" s="1">
         <v>156</v>
@@ -7134,7 +7137,7 @@
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B158" s="1">
         <v>157</v>
@@ -7142,7 +7145,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B159" s="1">
         <v>158</v>
@@ -7150,7 +7153,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B160" s="1">
         <v>159</v>
@@ -7158,7 +7161,7 @@
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B161" s="1">
         <v>160</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B162" s="1">
         <v>161</v>
@@ -7174,7 +7177,7 @@
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B163" s="1">
         <v>162</v>
@@ -7182,7 +7185,7 @@
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B164" s="1">
         <v>163</v>
@@ -7190,7 +7193,7 @@
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B165" s="1">
         <v>164</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B166" s="1">
         <v>165</v>
@@ -7206,7 +7209,7 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B167" s="1">
         <v>166</v>
@@ -7214,7 +7217,7 @@
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B168" s="1">
         <v>167</v>
@@ -7222,7 +7225,7 @@
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B169" s="1">
         <v>168</v>
@@ -7230,7 +7233,7 @@
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B170" s="1">
         <v>169</v>
@@ -7238,7 +7241,7 @@
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B171" s="1">
         <v>170</v>
@@ -7246,7 +7249,7 @@
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B172" s="1">
         <v>171</v>
@@ -7254,7 +7257,7 @@
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B173" s="1">
         <v>172</v>
@@ -7262,7 +7265,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B174" s="1">
         <v>173</v>
@@ -7270,7 +7273,7 @@
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B175" s="1">
         <v>174</v>
@@ -7278,7 +7281,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B176" s="1">
         <v>175</v>
@@ -7294,7 +7297,7 @@
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B178" s="1">
         <v>177</v>
@@ -7302,7 +7305,7 @@
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B179" s="1">
         <v>178</v>
@@ -7342,7 +7345,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B184" s="1">
         <v>183</v>
@@ -7350,7 +7353,7 @@
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B185" s="1">
         <v>184</v>
@@ -7374,7 +7377,7 @@
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B188" s="1">
         <v>187</v>
@@ -7382,7 +7385,7 @@
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B189" s="1">
         <v>188</v>
@@ -7390,7 +7393,7 @@
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B190" s="1">
         <v>189</v>
@@ -7398,7 +7401,7 @@
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B191" s="1">
         <v>190</v>
@@ -7406,7 +7409,7 @@
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B192" s="1">
         <v>191</v>
@@ -7414,7 +7417,7 @@
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B193" s="1">
         <v>192</v>
@@ -7422,7 +7425,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B194" s="1">
         <v>193</v>
@@ -7430,7 +7433,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B195" s="1">
         <v>194</v>
@@ -7438,7 +7441,7 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B196" s="1">
         <v>195</v>
@@ -7446,7 +7449,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B197" s="1">
         <v>196</v>
@@ -7454,7 +7457,7 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B198" s="1">
         <v>197</v>
@@ -7462,7 +7465,7 @@
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B199" s="1">
         <v>198</v>
@@ -7470,7 +7473,7 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B200" s="1">
         <v>199</v>
@@ -7478,7 +7481,7 @@
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B201" s="1">
         <v>200</v>
@@ -7486,7 +7489,7 @@
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B202" s="1">
         <v>201</v>
@@ -7494,7 +7497,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B203" s="1">
         <v>202</v>
@@ -7502,7 +7505,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B204" s="1">
         <v>203</v>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B205" s="1">
         <v>204</v>
@@ -7518,7 +7521,7 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B206" s="1">
         <v>205</v>
@@ -7526,7 +7529,7 @@
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B207" s="1">
         <v>206</v>
@@ -7534,7 +7537,7 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B208" s="1">
         <v>207</v>
@@ -7542,7 +7545,7 @@
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B209" s="1">
         <v>208</v>
@@ -7550,7 +7553,7 @@
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B210" s="1">
         <v>209</v>
@@ -7558,7 +7561,7 @@
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B211" s="1">
         <v>210</v>
@@ -7566,7 +7569,7 @@
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B212" s="1">
         <v>211</v>
@@ -7574,7 +7577,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B213" s="1">
         <v>212</v>
@@ -7582,7 +7585,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B214" s="1">
         <v>213</v>
@@ -7590,7 +7593,7 @@
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B215" s="1">
         <v>214</v>
@@ -7598,7 +7601,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B216" s="1">
         <v>215</v>
@@ -7606,7 +7609,7 @@
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B217" s="1">
         <v>216</v>
@@ -7614,7 +7617,7 @@
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B218" s="1">
         <v>217</v>
@@ -7622,7 +7625,7 @@
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B219" s="1">
         <v>218</v>
@@ -7630,7 +7633,7 @@
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B220" s="1">
         <v>219</v>
@@ -7638,7 +7641,7 @@
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B221" s="1">
         <v>220</v>
@@ -7646,7 +7649,7 @@
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B222" s="1">
         <v>221</v>
@@ -7654,7 +7657,7 @@
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B223" s="1">
         <v>222</v>
@@ -7662,7 +7665,7 @@
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B224" s="1">
         <v>223</v>
@@ -7670,7 +7673,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B225" s="1">
         <v>224</v>
@@ -7678,7 +7681,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B226" s="1">
         <v>225</v>
@@ -7686,7 +7689,7 @@
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B227" s="1">
         <v>226</v>
@@ -7694,7 +7697,7 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B228" s="1">
         <v>227</v>
@@ -7702,7 +7705,7 @@
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B229" s="1">
         <v>228</v>
@@ -7710,7 +7713,7 @@
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B230" s="1">
         <v>229</v>
@@ -7718,7 +7721,7 @@
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B231" s="1">
         <v>230</v>
@@ -7726,7 +7729,7 @@
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B232" s="1">
         <v>231</v>
@@ -7734,7 +7737,7 @@
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B233" s="1">
         <v>232</v>
@@ -7742,7 +7745,7 @@
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B234" s="1">
         <v>233</v>
@@ -7750,7 +7753,7 @@
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B235" s="1">
         <v>234</v>
@@ -7758,7 +7761,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B236" s="1">
         <v>235</v>
@@ -7766,7 +7769,7 @@
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B237" s="1">
         <v>236</v>
@@ -7774,7 +7777,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B238" s="1">
         <v>237</v>
@@ -7782,7 +7785,7 @@
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B239" s="1">
         <v>238</v>
@@ -7790,7 +7793,7 @@
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B240" s="1">
         <v>239</v>
@@ -7798,7 +7801,7 @@
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B241" s="1">
         <v>240</v>
@@ -7814,7 +7817,7 @@
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B243" s="1">
         <v>242</v>
@@ -7822,7 +7825,7 @@
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B244" s="1">
         <v>243</v>
@@ -7830,7 +7833,7 @@
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B245" s="1">
         <v>244</v>
@@ -7838,7 +7841,7 @@
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B246" s="1">
         <v>245</v>
@@ -7846,7 +7849,7 @@
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B247" s="1">
         <v>246</v>
@@ -7862,7 +7865,7 @@
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B249" s="1">
         <v>248</v>
@@ -7870,7 +7873,7 @@
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B250" s="1">
         <v>249</v>
@@ -7878,7 +7881,7 @@
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B251" s="1">
         <v>250</v>
@@ -7886,7 +7889,7 @@
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B252" s="1">
         <v>251</v>
@@ -7894,7 +7897,7 @@
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B253" s="1">
         <v>252</v>
@@ -7902,7 +7905,7 @@
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B254" s="1">
         <v>253</v>
@@ -7910,7 +7913,7 @@
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B255" s="1">
         <v>254</v>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B256" s="1">
         <v>255</v>
@@ -7934,7 +7937,7 @@
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B258" s="1">
         <v>257</v>
@@ -7942,7 +7945,7 @@
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B259" s="1">
         <v>258</v>
@@ -7950,7 +7953,7 @@
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B260" s="1">
         <v>259</v>
@@ -7958,7 +7961,7 @@
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B261" s="1">
         <v>260</v>
@@ -7966,7 +7969,7 @@
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B262" s="1">
         <v>261</v>
@@ -7974,7 +7977,7 @@
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B263" s="1">
         <v>262</v>
@@ -7982,7 +7985,7 @@
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B264" s="1">
         <v>263</v>
@@ -7990,7 +7993,7 @@
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B265" s="1">
         <v>264</v>
@@ -7998,7 +8001,7 @@
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B266" s="1">
         <v>265</v>
@@ -8006,7 +8009,7 @@
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B267" s="1">
         <v>266</v>
@@ -8022,7 +8025,7 @@
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B269" s="1">
         <v>268</v>
@@ -8030,7 +8033,7 @@
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B270" s="1">
         <v>269</v>
@@ -8038,7 +8041,7 @@
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B271" s="1">
         <v>270</v>
@@ -8046,7 +8049,7 @@
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B272" s="1">
         <v>271</v>
@@ -8054,7 +8057,7 @@
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B273" s="1">
         <v>272</v>
@@ -8062,7 +8065,7 @@
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B274" s="1">
         <v>273</v>
@@ -8070,7 +8073,7 @@
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B275" s="1">
         <v>274</v>
@@ -8078,7 +8081,7 @@
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B276" s="1">
         <v>275</v>
@@ -8086,7 +8089,7 @@
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B277" s="1">
         <v>276</v>
@@ -8094,7 +8097,7 @@
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B278" s="1">
         <v>277</v>
@@ -8102,7 +8105,7 @@
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B279" s="1">
         <v>278</v>
@@ -8110,7 +8113,7 @@
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B280" s="1">
         <v>279</v>
@@ -8118,7 +8121,7 @@
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B281" s="1">
         <v>280</v>
@@ -8126,7 +8129,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B282" s="1">
         <v>281</v>
@@ -8134,7 +8137,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B283" s="1">
         <v>282</v>
@@ -8142,7 +8145,7 @@
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B284" s="1">
         <v>283</v>
@@ -8150,7 +8153,7 @@
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B285" s="1">
         <v>284</v>
@@ -8158,7 +8161,7 @@
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B286" s="1">
         <v>285</v>
@@ -8166,7 +8169,7 @@
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B287" s="1">
         <v>286</v>
@@ -8174,7 +8177,7 @@
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B288" s="1">
         <v>287</v>
@@ -8182,7 +8185,7 @@
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B289" s="1">
         <v>288</v>
@@ -8190,7 +8193,7 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B290" s="1">
         <v>289</v>
@@ -8198,7 +8201,7 @@
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B291" s="1">
         <v>290</v>
@@ -8206,7 +8209,7 @@
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B292" s="1">
         <v>291</v>
@@ -8214,7 +8217,7 @@
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B293" s="1">
         <v>292</v>
@@ -8222,7 +8225,7 @@
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B294" s="1">
         <v>293</v>
@@ -8230,7 +8233,7 @@
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B295" s="1">
         <v>294</v>
@@ -8238,7 +8241,7 @@
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B296" s="1">
         <v>295</v>
@@ -8246,7 +8249,7 @@
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B297" s="1">
         <v>296</v>
@@ -8254,7 +8257,7 @@
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B298" s="1">
         <v>297</v>
@@ -8270,7 +8273,7 @@
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B300" s="1">
         <v>299</v>
@@ -8278,7 +8281,7 @@
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B301" s="1">
         <v>300</v>
@@ -8286,7 +8289,7 @@
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B302" s="1">
         <v>301</v>
@@ -8294,7 +8297,7 @@
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B303" s="1">
         <v>302</v>
@@ -8302,7 +8305,7 @@
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B304" s="1">
         <v>303</v>
@@ -8310,7 +8313,7 @@
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B305" s="1">
         <v>304</v>
@@ -8318,7 +8321,7 @@
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B306" s="1">
         <v>305</v>
@@ -8326,7 +8329,7 @@
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B307" s="1">
         <v>306</v>
@@ -8334,7 +8337,7 @@
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B308" s="1">
         <v>307</v>
@@ -8342,7 +8345,7 @@
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B309" s="1">
         <v>308</v>
@@ -8350,7 +8353,7 @@
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B310" s="1">
         <v>309</v>
@@ -8358,7 +8361,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B311" s="1">
         <v>310</v>
@@ -8374,7 +8377,7 @@
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B313" s="1">
         <v>312</v>
@@ -8382,7 +8385,7 @@
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B314" s="1">
         <v>313</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B315" s="1">
         <v>314</v>
@@ -8398,7 +8401,7 @@
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B316" s="1">
         <v>315</v>
@@ -8422,7 +8425,7 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B319" s="1">
         <v>318</v>
@@ -8438,7 +8441,7 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B321" s="1">
         <v>320</v>
@@ -8446,7 +8449,7 @@
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B322" s="1">
         <v>321</v>
@@ -8454,7 +8457,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B323" s="1">
         <v>322</v>
@@ -8462,7 +8465,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B324" s="1">
         <v>323</v>
@@ -8470,7 +8473,7 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B325" s="1">
         <v>324</v>
@@ -8478,7 +8481,7 @@
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B326" s="1">
         <v>325</v>
@@ -8486,7 +8489,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B327" s="1">
         <v>326</v>
@@ -8494,7 +8497,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B328" s="1">
         <v>327</v>
@@ -8502,7 +8505,7 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B329" s="1">
         <v>328</v>
@@ -8518,7 +8521,7 @@
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B331" s="1">
         <v>330</v>
@@ -8526,7 +8529,7 @@
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B332" s="1">
         <v>331</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B333" s="1">
         <v>332</v>
@@ -8542,7 +8545,7 @@
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B334" s="1">
         <v>333</v>
@@ -8550,7 +8553,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B335" s="1">
         <v>334</v>
@@ -8558,7 +8561,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B336" s="1">
         <v>335</v>
@@ -8566,7 +8569,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B337" s="1">
         <v>336</v>
@@ -8574,7 +8577,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B338" s="1">
         <v>337</v>
@@ -8590,7 +8593,7 @@
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B340" s="1">
         <v>339</v>
@@ -8598,7 +8601,7 @@
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B341" s="1">
         <v>340</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B342" s="1">
         <v>341</v>
@@ -8622,7 +8625,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B344" s="1">
         <v>343</v>
@@ -8630,7 +8633,7 @@
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B345" s="1">
         <v>344</v>
@@ -8638,7 +8641,7 @@
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B346" s="1">
         <v>345</v>
@@ -8646,7 +8649,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B347" s="1">
         <v>346</v>
@@ -8654,7 +8657,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B348" s="1">
         <v>347</v>
@@ -8662,7 +8665,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B349" s="1">
         <v>348</v>
@@ -8670,7 +8673,7 @@
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B350" s="1">
         <v>349</v>
@@ -8686,7 +8689,7 @@
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B352" s="1">
         <v>351</v>
@@ -8694,7 +8697,7 @@
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B353" s="1">
         <v>352</v>
@@ -8702,7 +8705,7 @@
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B354" s="1">
         <v>353</v>
@@ -8710,7 +8713,7 @@
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B355" s="1">
         <v>354</v>
@@ -8718,7 +8721,7 @@
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B356" s="1">
         <v>355</v>
@@ -8726,7 +8729,7 @@
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B357" s="1">
         <v>356</v>
@@ -8734,7 +8737,7 @@
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B358" s="1">
         <v>357</v>
@@ -8742,7 +8745,7 @@
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B359" s="1">
         <v>358</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B360" s="1">
         <v>359</v>
@@ -8758,7 +8761,7 @@
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B361" s="1">
         <v>360</v>
@@ -8766,7 +8769,7 @@
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B362" s="1">
         <v>361</v>
@@ -8774,7 +8777,7 @@
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B363" s="1">
         <v>362</v>
@@ -8782,7 +8785,7 @@
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B364" s="1">
         <v>363</v>
@@ -8790,7 +8793,7 @@
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B365" s="1">
         <v>364</v>
@@ -8798,7 +8801,7 @@
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B366" s="1">
         <v>365</v>
@@ -8806,7 +8809,7 @@
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B367" s="1">
         <v>366</v>
@@ -8814,7 +8817,7 @@
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B368" s="1">
         <v>367</v>
@@ -8822,7 +8825,7 @@
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B369" s="1">
         <v>368</v>
@@ -8830,7 +8833,7 @@
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B370" s="1">
         <v>369</v>
@@ -8838,7 +8841,7 @@
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B371" s="1">
         <v>370</v>
@@ -8846,7 +8849,7 @@
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B372" s="1">
         <v>371</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B373" s="1">
         <v>372</v>
@@ -8862,7 +8865,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B374" s="1">
         <v>373</v>
@@ -8870,7 +8873,7 @@
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B375" s="1">
         <v>374</v>
@@ -8878,7 +8881,7 @@
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B376" s="1">
         <v>375</v>
@@ -8886,7 +8889,7 @@
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B377" s="1">
         <v>376</v>
@@ -8894,7 +8897,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B378" s="1">
         <v>377</v>
@@ -8902,7 +8905,7 @@
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B379" s="1">
         <v>378</v>
@@ -8910,7 +8913,7 @@
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B380" s="1">
         <v>379</v>
@@ -8918,7 +8921,7 @@
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B381" s="1">
         <v>380</v>
@@ -8926,7 +8929,7 @@
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B382" s="1">
         <v>381</v>
@@ -8934,7 +8937,7 @@
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B383" s="1">
         <v>382</v>
@@ -8942,7 +8945,7 @@
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B384" s="1">
         <v>383</v>
@@ -8950,7 +8953,7 @@
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B385" s="1">
         <v>384</v>
@@ -8958,7 +8961,7 @@
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B386" s="1">
         <v>385</v>
@@ -8966,7 +8969,7 @@
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B387" s="1">
         <v>386</v>
@@ -8974,7 +8977,7 @@
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B388" s="1">
         <v>387</v>
@@ -8982,7 +8985,7 @@
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B389" s="1">
         <v>388</v>
@@ -8990,7 +8993,7 @@
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B390" s="1">
         <v>389</v>
@@ -8998,7 +9001,7 @@
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B391" s="1">
         <v>390</v>
@@ -9006,7 +9009,7 @@
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B392" s="1">
         <v>391</v>
@@ -9014,7 +9017,7 @@
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B393" s="1">
         <v>392</v>
@@ -9022,7 +9025,7 @@
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B394" s="1">
         <v>393</v>
@@ -9030,7 +9033,7 @@
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B395" s="1">
         <v>394</v>
@@ -9038,7 +9041,7 @@
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B396" s="1">
         <v>395</v>
@@ -9046,7 +9049,7 @@
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="B397" s="1">
         <v>396</v>
@@ -9054,7 +9057,7 @@
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B398" s="1">
         <v>397</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B399" s="1">
         <v>398</v>
@@ -9070,7 +9073,7 @@
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B400" s="1">
         <v>399</v>
@@ -9078,7 +9081,7 @@
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B401" s="1">
         <v>400</v>
@@ -9086,7 +9089,7 @@
     </row>
     <row r="402" spans="1:2">
       <c r="A402" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B402" s="1">
         <v>401</v>
@@ -9094,7 +9097,7 @@
     </row>
     <row r="403" spans="1:2">
       <c r="A403" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B403" s="1">
         <v>402</v>
@@ -9102,7 +9105,7 @@
     </row>
     <row r="404" spans="1:2">
       <c r="A404" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B404" s="1">
         <v>403</v>
@@ -9110,7 +9113,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B405" s="1">
         <v>404</v>
@@ -9118,7 +9121,7 @@
     </row>
     <row r="406" spans="1:2">
       <c r="A406" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B406" s="1">
         <v>405</v>
@@ -9126,7 +9129,7 @@
     </row>
     <row r="407" spans="1:2">
       <c r="A407" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B407" s="1">
         <v>406</v>
@@ -9134,7 +9137,7 @@
     </row>
     <row r="408" spans="1:2">
       <c r="A408" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B408" s="1">
         <v>407</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="409" spans="1:2">
       <c r="A409" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B409" s="1">
         <v>408</v>
@@ -9150,7 +9153,7 @@
     </row>
     <row r="410" spans="1:2">
       <c r="A410" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B410" s="1">
         <v>409</v>
@@ -9158,7 +9161,7 @@
     </row>
     <row r="411" spans="1:2">
       <c r="A411" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B411" s="1">
         <v>410</v>
@@ -9166,7 +9169,7 @@
     </row>
     <row r="412" spans="1:2">
       <c r="A412" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B412" s="1">
         <v>411</v>
@@ -9174,7 +9177,7 @@
     </row>
     <row r="413" spans="1:2">
       <c r="A413" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B413" s="1">
         <v>412</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="414" spans="1:2">
       <c r="A414" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B414" s="1">
         <v>413</v>
@@ -9190,7 +9193,7 @@
     </row>
     <row r="415" spans="1:2">
       <c r="A415" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B415" s="1">
         <v>414</v>
@@ -9198,7 +9201,7 @@
     </row>
     <row r="416" spans="1:2">
       <c r="A416" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B416" s="1">
         <v>415</v>
@@ -9206,7 +9209,7 @@
     </row>
     <row r="417" spans="1:2">
       <c r="A417" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B417" s="1">
         <v>416</v>
@@ -9214,7 +9217,7 @@
     </row>
     <row r="418" spans="1:2">
       <c r="A418" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B418" s="1">
         <v>417</v>
@@ -9222,7 +9225,7 @@
     </row>
     <row r="419" spans="1:2">
       <c r="A419" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B419" s="1">
         <v>418</v>
@@ -9230,7 +9233,7 @@
     </row>
     <row r="420" spans="1:2">
       <c r="A420" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B420" s="1">
         <v>419</v>
@@ -9238,7 +9241,7 @@
     </row>
     <row r="421" spans="1:2">
       <c r="A421" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B421" s="1">
         <v>420</v>
@@ -9246,7 +9249,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B422" s="1">
         <v>421</v>
@@ -9254,7 +9257,7 @@
     </row>
     <row r="423" spans="1:2">
       <c r="A423" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B423" s="1">
         <v>422</v>
@@ -9262,7 +9265,7 @@
     </row>
     <row r="424" spans="1:2">
       <c r="A424" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B424" s="1">
         <v>423</v>
@@ -9270,7 +9273,7 @@
     </row>
     <row r="425" spans="1:2">
       <c r="A425" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B425" s="1">
         <v>424</v>
@@ -9278,7 +9281,7 @@
     </row>
     <row r="426" spans="1:2">
       <c r="A426" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B426" s="1">
         <v>425</v>
@@ -9286,7 +9289,7 @@
     </row>
     <row r="427" spans="1:2">
       <c r="A427" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B427" s="1">
         <v>426</v>
@@ -9294,7 +9297,7 @@
     </row>
     <row r="428" spans="1:2">
       <c r="A428" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B428" s="1">
         <v>427</v>
@@ -9302,7 +9305,7 @@
     </row>
     <row r="429" spans="1:2">
       <c r="A429" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B429" s="1">
         <v>428</v>
@@ -9310,7 +9313,7 @@
     </row>
     <row r="430" spans="1:2">
       <c r="A430" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B430" s="1">
         <v>429</v>
@@ -9318,7 +9321,7 @@
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B431" s="1">
         <v>430</v>
@@ -9326,7 +9329,7 @@
     </row>
     <row r="432" spans="1:2">
       <c r="A432" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B432" s="1">
         <v>431</v>
@@ -9334,7 +9337,7 @@
     </row>
     <row r="433" spans="1:2">
       <c r="A433" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B433" s="1">
         <v>432</v>
@@ -9342,7 +9345,7 @@
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B434" s="1">
         <v>433</v>
@@ -9350,7 +9353,7 @@
     </row>
     <row r="435" spans="1:2">
       <c r="A435" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B435" s="1">
         <v>434</v>
@@ -9358,7 +9361,7 @@
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B436" s="1">
         <v>435</v>
@@ -9366,7 +9369,7 @@
     </row>
     <row r="437" spans="1:2">
       <c r="A437" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B437" s="1">
         <v>436</v>
@@ -9374,7 +9377,7 @@
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B438" s="1">
         <v>437</v>
@@ -9382,7 +9385,7 @@
     </row>
     <row r="439" spans="1:2">
       <c r="A439" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B439" s="1">
         <v>438</v>
@@ -9390,7 +9393,7 @@
     </row>
     <row r="440" spans="1:2">
       <c r="A440" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B440" s="1">
         <v>439</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="441" spans="1:2">
       <c r="A441" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B441" s="1">
         <v>440</v>
@@ -9406,7 +9409,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B442" s="1">
         <v>441</v>
@@ -9414,7 +9417,7 @@
     </row>
     <row r="443" spans="1:2">
       <c r="A443" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B443" s="1">
         <v>442</v>
@@ -9422,7 +9425,7 @@
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B444" s="1">
         <v>443</v>
@@ -9430,7 +9433,7 @@
     </row>
     <row r="445" spans="1:2">
       <c r="A445" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B445" s="1">
         <v>444</v>
@@ -9438,7 +9441,7 @@
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B446" s="1">
         <v>445</v>
@@ -9446,7 +9449,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B447" s="1">
         <v>446</v>
@@ -9454,7 +9457,7 @@
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B448" s="1">
         <v>447</v>
@@ -9462,7 +9465,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B449" s="1">
         <v>448</v>
@@ -9470,7 +9473,7 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B450" s="1">
         <v>449</v>
@@ -9478,7 +9481,7 @@
     </row>
     <row r="451" spans="1:2">
       <c r="A451" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B451" s="1">
         <v>450</v>
@@ -9486,7 +9489,7 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B452" s="1">
         <v>451</v>
@@ -9494,7 +9497,7 @@
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B453" s="1">
         <v>452</v>
@@ -9502,7 +9505,7 @@
     </row>
     <row r="454" spans="1:2">
       <c r="A454" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B454" s="1">
         <v>453</v>
@@ -9510,7 +9513,7 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B455" s="1">
         <v>454</v>
@@ -9518,7 +9521,7 @@
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B456" s="1">
         <v>455</v>
@@ -9526,7 +9529,7 @@
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B457" s="1">
         <v>456</v>
@@ -9534,7 +9537,7 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B458" s="1">
         <v>457</v>
@@ -9558,7 +9561,7 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B461" s="1">
         <v>460</v>
@@ -9566,7 +9569,7 @@
     </row>
     <row r="462" spans="1:2">
       <c r="A462" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B462" s="1">
         <v>461</v>
@@ -9590,7 +9593,7 @@
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B465" s="1">
         <v>464</v>
@@ -9598,7 +9601,7 @@
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B466" s="1">
         <v>465</v>
@@ -9606,7 +9609,7 @@
     </row>
     <row r="467" spans="1:2">
       <c r="A467" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B467" s="1">
         <v>466</v>
@@ -9614,7 +9617,7 @@
     </row>
     <row r="468" spans="1:2">
       <c r="A468" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B468" s="1">
         <v>467</v>
@@ -9622,7 +9625,7 @@
     </row>
     <row r="469" spans="1:2">
       <c r="A469" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B469" s="1">
         <v>468</v>
@@ -9630,7 +9633,7 @@
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B470" s="1">
         <v>469</v>
@@ -9638,7 +9641,7 @@
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B471" s="1">
         <v>470</v>
@@ -9662,7 +9665,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B474" s="1">
         <v>473</v>
@@ -9670,7 +9673,7 @@
     </row>
     <row r="475" spans="1:2">
       <c r="A475" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B475" s="1">
         <v>474</v>
@@ -9686,7 +9689,7 @@
     </row>
     <row r="477" spans="1:2">
       <c r="A477" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B477" s="1">
         <v>476</v>
@@ -9694,7 +9697,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B478" s="1">
         <v>477</v>
@@ -9702,7 +9705,7 @@
     </row>
     <row r="479" spans="1:2">
       <c r="A479" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B479" s="1">
         <v>478</v>
@@ -9710,7 +9713,7 @@
     </row>
     <row r="480" spans="1:2">
       <c r="A480" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B480" s="1">
         <v>479</v>
@@ -9718,7 +9721,7 @@
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B481" s="1">
         <v>480</v>
@@ -9726,7 +9729,7 @@
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B482" s="1">
         <v>481</v>
@@ -9734,7 +9737,7 @@
     </row>
     <row r="483" spans="1:2">
       <c r="A483" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B483" s="1">
         <v>482</v>
@@ -9742,7 +9745,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B484" s="1">
         <v>483</v>
@@ -9750,7 +9753,7 @@
     </row>
     <row r="485" spans="1:2">
       <c r="A485" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B485" s="1">
         <v>484</v>
@@ -9758,7 +9761,7 @@
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B486" s="1">
         <v>485</v>
@@ -9766,7 +9769,7 @@
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B487" s="1">
         <v>486</v>
@@ -9774,7 +9777,7 @@
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B488" s="1">
         <v>487</v>
@@ -9782,7 +9785,7 @@
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B489" s="1">
         <v>488</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="490" spans="1:2">
       <c r="A490" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B490" s="1">
         <v>489</v>
@@ -9798,7 +9801,7 @@
     </row>
     <row r="491" spans="1:2">
       <c r="A491" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B491" s="1">
         <v>490</v>
@@ -9806,7 +9809,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B492" s="1">
         <v>491</v>
@@ -9814,7 +9817,7 @@
     </row>
     <row r="493" spans="1:2">
       <c r="A493" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B493" s="1">
         <v>492</v>
@@ -9822,7 +9825,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B494" s="1">
         <v>493</v>
@@ -9830,7 +9833,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B495" s="1">
         <v>494</v>
@@ -9838,7 +9841,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B496" s="1">
         <v>495</v>
@@ -9846,7 +9849,7 @@
     </row>
     <row r="497" spans="1:2">
       <c r="A497" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B497" s="1">
         <v>496</v>
@@ -9854,7 +9857,7 @@
     </row>
     <row r="498" spans="1:2">
       <c r="A498" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B498" s="1">
         <v>497</v>
@@ -9862,7 +9865,7 @@
     </row>
     <row r="499" spans="1:2">
       <c r="A499" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B499" s="1">
         <v>498</v>
@@ -9870,7 +9873,7 @@
     </row>
     <row r="500" spans="1:2">
       <c r="A500" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B500" s="1">
         <v>499</v>
@@ -9878,7 +9881,7 @@
     </row>
     <row r="501" spans="1:2">
       <c r="A501" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B501" s="1">
         <v>500</v>
@@ -9886,7 +9889,7 @@
     </row>
     <row r="502" spans="1:2">
       <c r="A502" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B502" s="1">
         <v>501</v>
@@ -9894,7 +9897,7 @@
     </row>
     <row r="503" spans="1:2">
       <c r="A503" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B503" s="1">
         <v>502</v>
@@ -9902,7 +9905,7 @@
     </row>
     <row r="504" spans="1:2">
       <c r="A504" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B504" s="1">
         <v>503</v>
@@ -9918,7 +9921,7 @@
     </row>
     <row r="506" spans="1:2">
       <c r="A506" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B506" s="1">
         <v>505</v>
@@ -9926,7 +9929,7 @@
     </row>
     <row r="507" spans="1:2">
       <c r="A507" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B507" s="1">
         <v>506</v>
@@ -9934,7 +9937,7 @@
     </row>
     <row r="508" spans="1:2">
       <c r="A508" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B508" s="1">
         <v>507</v>
@@ -9942,7 +9945,7 @@
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B509" s="1">
         <v>508</v>
@@ -9950,7 +9953,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B510" s="1">
         <v>509</v>
@@ -9958,7 +9961,7 @@
     </row>
     <row r="511" spans="1:2">
       <c r="A511" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B511" s="1">
         <v>510</v>
@@ -9966,7 +9969,7 @@
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B512" s="1">
         <v>511</v>
@@ -9974,7 +9977,7 @@
     </row>
     <row r="513" spans="1:2">
       <c r="A513" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B513" s="1">
         <v>512</v>
@@ -9982,7 +9985,7 @@
     </row>
     <row r="514" spans="1:2">
       <c r="A514" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B514" s="1">
         <v>513</v>
@@ -9990,7 +9993,7 @@
     </row>
     <row r="515" spans="1:2">
       <c r="A515" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B515" s="1">
         <v>514</v>
@@ -9998,7 +10001,7 @@
     </row>
     <row r="516" spans="1:2">
       <c r="A516" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B516" s="1">
         <v>515</v>
@@ -10006,7 +10009,7 @@
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B517" s="1">
         <v>516</v>
@@ -10014,7 +10017,7 @@
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B518" s="1">
         <v>517</v>
@@ -10022,7 +10025,7 @@
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B519" s="1">
         <v>518</v>
@@ -10030,7 +10033,7 @@
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B520" s="1">
         <v>519</v>
@@ -10038,7 +10041,7 @@
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B521" s="1">
         <v>520</v>
@@ -10046,7 +10049,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B522" s="1">
         <v>521</v>
@@ -10054,7 +10057,7 @@
     </row>
     <row r="523" spans="1:2">
       <c r="A523" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B523" s="1">
         <v>522</v>
@@ -10062,7 +10065,7 @@
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B524" s="1">
         <v>523</v>
@@ -10070,7 +10073,7 @@
     </row>
     <row r="525" spans="1:2">
       <c r="A525" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B525" s="1">
         <v>524</v>
@@ -10078,7 +10081,7 @@
     </row>
     <row r="526" spans="1:2">
       <c r="A526" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B526" s="1">
         <v>525</v>
@@ -10086,7 +10089,7 @@
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B527" s="1">
         <v>526</v>
@@ -10094,7 +10097,7 @@
     </row>
     <row r="528" spans="1:2">
       <c r="A528" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B528" s="1">
         <v>527</v>
@@ -10102,7 +10105,7 @@
     </row>
     <row r="529" spans="1:2">
       <c r="A529" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B529" s="1">
         <v>528</v>
@@ -10118,7 +10121,7 @@
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B531" s="1">
         <v>530</v>
@@ -10126,7 +10129,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B532" s="1">
         <v>531</v>
@@ -10134,7 +10137,7 @@
     </row>
     <row r="533" spans="1:2">
       <c r="A533" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B533" s="1">
         <v>532</v>
@@ -10142,7 +10145,7 @@
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B534" s="1">
         <v>533</v>
@@ -10150,7 +10153,7 @@
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B535" s="1">
         <v>534</v>
@@ -10158,7 +10161,7 @@
     </row>
     <row r="536" spans="1:2">
       <c r="A536" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B536" s="1">
         <v>535</v>
@@ -10166,7 +10169,7 @@
     </row>
     <row r="537" spans="1:2">
       <c r="A537" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B537" s="1">
         <v>536</v>
@@ -10174,7 +10177,7 @@
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B538" s="1">
         <v>537</v>
@@ -10182,7 +10185,7 @@
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B539" s="1">
         <v>538</v>
@@ -10190,7 +10193,7 @@
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B540" s="1">
         <v>539</v>
@@ -10198,7 +10201,7 @@
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B541" s="1">
         <v>540</v>
@@ -10206,7 +10209,7 @@
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B542" s="1">
         <v>541</v>
@@ -10214,7 +10217,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B543" s="1">
         <v>542</v>
@@ -10222,7 +10225,7 @@
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B544" s="1">
         <v>543</v>
@@ -10230,7 +10233,7 @@
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B545" s="1">
         <v>544</v>
@@ -10238,7 +10241,7 @@
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B546" s="1">
         <v>545</v>
@@ -10246,7 +10249,7 @@
     </row>
     <row r="547" spans="1:2">
       <c r="A547" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B547" s="1">
         <v>546</v>
@@ -10254,7 +10257,7 @@
     </row>
     <row r="548" spans="1:2">
       <c r="A548" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B548" s="1">
         <v>547</v>
@@ -10262,7 +10265,7 @@
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B549" s="1">
         <v>548</v>
@@ -10270,7 +10273,7 @@
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B550" s="1">
         <v>549</v>
@@ -10278,7 +10281,7 @@
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B551" s="1">
         <v>550</v>
@@ -10286,7 +10289,7 @@
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B552" s="1">
         <v>551</v>
@@ -10294,7 +10297,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B553" s="1">
         <v>552</v>
@@ -10302,7 +10305,7 @@
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B554" s="1">
         <v>553</v>
@@ -10310,7 +10313,7 @@
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B555" s="1">
         <v>554</v>
@@ -10326,7 +10329,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B557" s="1">
         <v>556</v>
@@ -10334,7 +10337,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B558" s="1">
         <v>557</v>
@@ -10342,7 +10345,7 @@
     </row>
     <row r="559" spans="1:2">
       <c r="A559" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B559" s="1">
         <v>558</v>
@@ -10350,7 +10353,7 @@
     </row>
     <row r="560" spans="1:2">
       <c r="A560" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B560" s="1">
         <v>559</v>
@@ -10358,7 +10361,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B561" s="1">
         <v>560</v>
@@ -10366,7 +10369,7 @@
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B562" s="1">
         <v>561</v>
@@ -10374,7 +10377,7 @@
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B563" s="1">
         <v>562</v>
@@ -10382,7 +10385,7 @@
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B564" s="1">
         <v>563</v>
@@ -10390,7 +10393,7 @@
     </row>
     <row r="565" spans="1:2">
       <c r="A565" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B565" s="1">
         <v>564</v>
@@ -10398,7 +10401,7 @@
     </row>
     <row r="566" spans="1:2">
       <c r="A566" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B566" s="1">
         <v>565</v>
@@ -10406,7 +10409,7 @@
     </row>
     <row r="567" spans="1:2">
       <c r="A567" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B567" s="1">
         <v>566</v>
@@ -10414,7 +10417,7 @@
     </row>
     <row r="568" spans="1:2">
       <c r="A568" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B568" s="1">
         <v>567</v>
@@ -10422,7 +10425,7 @@
     </row>
     <row r="569" spans="1:2">
       <c r="A569" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B569" s="1">
         <v>568</v>
@@ -10430,7 +10433,7 @@
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B570" s="1">
         <v>569</v>
@@ -10438,7 +10441,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B571" s="1">
         <v>570</v>
@@ -10454,7 +10457,7 @@
     </row>
     <row r="573" spans="1:2">
       <c r="A573" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B573" s="1">
         <v>572</v>
@@ -10462,7 +10465,7 @@
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B574" s="1">
         <v>573</v>
@@ -10470,7 +10473,7 @@
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B575" s="1">
         <v>574</v>
@@ -10478,7 +10481,7 @@
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B576" s="1">
         <v>575</v>
@@ -10494,7 +10497,7 @@
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B578" s="1">
         <v>577</v>
@@ -10502,7 +10505,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B579" s="1">
         <v>578</v>
@@ -10510,7 +10513,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B580" s="1">
         <v>579</v>
@@ -10518,7 +10521,7 @@
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B581" s="1">
         <v>580</v>
@@ -10526,7 +10529,7 @@
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B582" s="1">
         <v>581</v>
@@ -10534,7 +10537,7 @@
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B583" s="1">
         <v>582</v>
@@ -10542,7 +10545,7 @@
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B584" s="1">
         <v>583</v>
@@ -10550,7 +10553,7 @@
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B585" s="1">
         <v>584</v>
@@ -10558,7 +10561,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B586" s="1">
         <v>585</v>
@@ -10574,7 +10577,7 @@
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B588" s="1">
         <v>587</v>
@@ -10582,7 +10585,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B589" s="1">
         <v>588</v>
@@ -10590,7 +10593,7 @@
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B590" s="1">
         <v>589</v>
@@ -10598,7 +10601,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B591" s="1">
         <v>590</v>
@@ -10606,7 +10609,7 @@
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B592" s="1">
         <v>591</v>
@@ -10614,7 +10617,7 @@
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B593" s="1">
         <v>592</v>
@@ -10622,7 +10625,7 @@
     </row>
     <row r="594" spans="1:2">
       <c r="A594" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B594" s="1">
         <v>593</v>
@@ -10630,7 +10633,7 @@
     </row>
     <row r="595" spans="1:2">
       <c r="A595" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B595" s="1">
         <v>594</v>
@@ -10638,7 +10641,7 @@
     </row>
     <row r="596" spans="1:2">
       <c r="A596" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B596" s="1">
         <v>595</v>
@@ -10646,7 +10649,7 @@
     </row>
     <row r="597" spans="1:2">
       <c r="A597" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B597" s="1">
         <v>596</v>
@@ -10654,7 +10657,7 @@
     </row>
     <row r="598" spans="1:2">
       <c r="A598" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B598" s="1">
         <v>597</v>
@@ -10662,7 +10665,7 @@
     </row>
     <row r="599" spans="1:2">
       <c r="A599" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B599" s="1">
         <v>598</v>
@@ -10670,7 +10673,7 @@
     </row>
     <row r="600" spans="1:2">
       <c r="A600" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B600" s="1">
         <v>599</v>
@@ -10678,7 +10681,7 @@
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B601" s="1">
         <v>600</v>
@@ -10686,7 +10689,7 @@
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B602" s="1">
         <v>601</v>
@@ -10694,7 +10697,7 @@
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B603" s="1">
         <v>602</v>
@@ -10702,7 +10705,7 @@
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B604" s="1">
         <v>603</v>
@@ -10710,7 +10713,7 @@
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B605" s="1">
         <v>604</v>
@@ -10718,7 +10721,7 @@
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B606" s="1">
         <v>605</v>
@@ -10726,7 +10729,7 @@
     </row>
     <row r="607" spans="1:2">
       <c r="A607" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B607" s="1">
         <v>606</v>
@@ -10734,7 +10737,7 @@
     </row>
     <row r="608" spans="1:2">
       <c r="A608" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B608" s="1">
         <v>607</v>
@@ -10742,7 +10745,7 @@
     </row>
     <row r="609" spans="1:2">
       <c r="A609" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B609" s="1">
         <v>608</v>
@@ -10750,7 +10753,7 @@
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B610" s="1">
         <v>609</v>
@@ -10758,7 +10761,7 @@
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B611" s="1">
         <v>610</v>
@@ -10766,7 +10769,7 @@
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B612" s="1">
         <v>611</v>
@@ -10774,7 +10777,7 @@
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B613" s="1">
         <v>612</v>
@@ -10782,7 +10785,7 @@
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B614" s="1">
         <v>613</v>
@@ -10798,7 +10801,7 @@
     </row>
     <row r="616" spans="1:2">
       <c r="A616" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B616" s="1">
         <v>615</v>
@@ -10806,7 +10809,7 @@
     </row>
     <row r="617" spans="1:2">
       <c r="A617" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B617" s="1">
         <v>616</v>
@@ -10814,7 +10817,7 @@
     </row>
     <row r="618" spans="1:2">
       <c r="A618" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B618" s="1">
         <v>617</v>
@@ -10822,7 +10825,7 @@
     </row>
     <row r="619" spans="1:2">
       <c r="A619" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B619" s="1">
         <v>618</v>
@@ -10838,7 +10841,7 @@
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B621" s="1">
         <v>620</v>
@@ -10846,7 +10849,7 @@
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B622" s="1">
         <v>621</v>
@@ -10854,7 +10857,7 @@
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B623" s="1">
         <v>622</v>
@@ -10862,7 +10865,7 @@
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B624" s="1">
         <v>623</v>
@@ -10870,7 +10873,7 @@
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B625" s="1">
         <v>624</v>
@@ -10878,7 +10881,7 @@
     </row>
     <row r="626" spans="1:2">
       <c r="A626" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B626" s="1">
         <v>625</v>
@@ -10886,7 +10889,7 @@
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B627" s="1">
         <v>626</v>
@@ -10894,7 +10897,7 @@
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B628" s="1">
         <v>627</v>
@@ -10902,7 +10905,7 @@
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B629" s="1">
         <v>628</v>
@@ -10910,7 +10913,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B630" s="1">
         <v>629</v>
@@ -10918,7 +10921,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B631" s="1">
         <v>630</v>
@@ -10926,7 +10929,7 @@
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B632" s="1">
         <v>631</v>
@@ -10934,7 +10937,7 @@
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B633" s="1">
         <v>632</v>
@@ -10942,7 +10945,7 @@
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B634" s="1">
         <v>633</v>
@@ -10950,7 +10953,7 @@
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B635" s="1">
         <v>634</v>
@@ -10958,7 +10961,7 @@
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B636" s="1">
         <v>635</v>
@@ -10966,7 +10969,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B637" s="1">
         <v>636</v>
@@ -10982,7 +10985,7 @@
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B639" s="1">
         <v>638</v>
@@ -10990,7 +10993,7 @@
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B640" s="1">
         <v>639</v>
@@ -10998,7 +11001,7 @@
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B641" s="1">
         <v>640</v>
@@ -11006,7 +11009,7 @@
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B642" s="1">
         <v>641</v>
@@ -11014,7 +11017,7 @@
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B643" s="1">
         <v>642</v>
@@ -11022,7 +11025,7 @@
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B644" s="1">
         <v>643</v>
@@ -11030,7 +11033,7 @@
     </row>
     <row r="645" spans="1:2">
       <c r="A645" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B645" s="1">
         <v>644</v>
@@ -11038,7 +11041,7 @@
     </row>
     <row r="646" spans="1:2">
       <c r="A646" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B646" s="1">
         <v>645</v>
@@ -11046,7 +11049,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B647" s="1">
         <v>646</v>
@@ -11054,7 +11057,7 @@
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B648" s="1">
         <v>647</v>
@@ -11062,7 +11065,7 @@
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B649" s="1">
         <v>648</v>
@@ -11070,7 +11073,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B650" s="1">
         <v>649</v>
@@ -11078,7 +11081,7 @@
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B651" s="1">
         <v>650</v>
@@ -11086,7 +11089,7 @@
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B652" s="1">
         <v>651</v>
@@ -11094,7 +11097,7 @@
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B653" s="1">
         <v>652</v>
@@ -11102,7 +11105,7 @@
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B654" s="1">
         <v>653</v>
@@ -11110,7 +11113,7 @@
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B655" s="1">
         <v>654</v>
@@ -11118,7 +11121,7 @@
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B656" s="1">
         <v>655</v>
@@ -11126,7 +11129,7 @@
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B657" s="1">
         <v>656</v>
@@ -11134,7 +11137,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B658" s="1">
         <v>657</v>
@@ -11142,7 +11145,7 @@
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B659" s="1">
         <v>658</v>
@@ -11150,7 +11153,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B660" s="1">
         <v>659</v>
@@ -11158,7 +11161,7 @@
     </row>
     <row r="661" spans="1:2">
       <c r="A661" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B661" s="1">
         <v>660</v>
@@ -11166,7 +11169,7 @@
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B662" s="1">
         <v>661</v>
@@ -11174,7 +11177,7 @@
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B663" s="1">
         <v>662</v>
@@ -11182,7 +11185,7 @@
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B664" s="1">
         <v>663</v>
@@ -11190,7 +11193,7 @@
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B665" s="1">
         <v>664</v>
@@ -11198,7 +11201,7 @@
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B666" s="1">
         <v>665</v>
@@ -11206,7 +11209,7 @@
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B667" s="1">
         <v>666</v>
@@ -11214,7 +11217,7 @@
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B668" s="1">
         <v>667</v>
@@ -11222,7 +11225,7 @@
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B669" s="1">
         <v>668</v>
@@ -11230,7 +11233,7 @@
     </row>
     <row r="670" spans="1:2">
       <c r="A670" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B670" s="1">
         <v>669</v>
@@ -11238,7 +11241,7 @@
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B671" s="1">
         <v>670</v>
@@ -11246,7 +11249,7 @@
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B672" s="1">
         <v>671</v>
@@ -11254,7 +11257,7 @@
     </row>
     <row r="673" spans="1:2">
       <c r="A673" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B673" s="1">
         <v>672</v>
@@ -11262,7 +11265,7 @@
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B674" s="1">
         <v>673</v>
@@ -11270,7 +11273,7 @@
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B675" s="1">
         <v>674</v>
@@ -11278,7 +11281,7 @@
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B676" s="1">
         <v>675</v>
@@ -11286,7 +11289,7 @@
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B677" s="1">
         <v>676</v>
@@ -11294,7 +11297,7 @@
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B678" s="1">
         <v>677</v>
@@ -11302,7 +11305,7 @@
     </row>
     <row r="679" spans="1:2">
       <c r="A679" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B679" s="1">
         <v>678</v>
@@ -11310,7 +11313,7 @@
     </row>
     <row r="680" spans="1:2">
       <c r="A680" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B680" s="1">
         <v>679</v>
@@ -11318,7 +11321,7 @@
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B681" s="1">
         <v>680</v>
@@ -11326,7 +11329,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B682" s="1">
         <v>681</v>
@@ -11334,7 +11337,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B683" s="1">
         <v>682</v>
@@ -11342,7 +11345,7 @@
     </row>
     <row r="684" spans="1:2">
       <c r="A684" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B684" s="1">
         <v>683</v>
@@ -11350,7 +11353,7 @@
     </row>
     <row r="685" spans="1:2">
       <c r="A685" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B685" s="1">
         <v>684</v>
@@ -11358,7 +11361,7 @@
     </row>
     <row r="686" spans="1:2">
       <c r="A686" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B686" s="1">
         <v>685</v>
@@ -11366,7 +11369,7 @@
     </row>
     <row r="687" spans="1:2">
       <c r="A687" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B687" s="1">
         <v>686</v>
@@ -11374,7 +11377,7 @@
     </row>
     <row r="688" spans="1:2">
       <c r="A688" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B688" s="1">
         <v>687</v>
@@ -11382,7 +11385,7 @@
     </row>
     <row r="689" spans="1:2">
       <c r="A689" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B689" s="1">
         <v>688</v>
@@ -11390,7 +11393,7 @@
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B690" s="1">
         <v>689</v>
@@ -11398,7 +11401,7 @@
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B691" s="1">
         <v>690</v>
@@ -11406,7 +11409,7 @@
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B692" s="1">
         <v>691</v>
@@ -11414,7 +11417,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B693" s="1">
         <v>692</v>
@@ -11422,7 +11425,7 @@
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B694" s="1">
         <v>693</v>
@@ -11430,7 +11433,7 @@
     </row>
     <row r="695" spans="1:2">
       <c r="A695" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B695" s="1">
         <v>694</v>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="696" spans="1:2">
       <c r="A696" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B696" s="1">
         <v>695</v>
@@ -11446,7 +11449,7 @@
     </row>
     <row r="697" spans="1:2">
       <c r="A697" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B697" s="1">
         <v>696</v>
@@ -11454,7 +11457,7 @@
     </row>
     <row r="698" spans="1:2">
       <c r="A698" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B698" s="1">
         <v>697</v>
@@ -11462,7 +11465,7 @@
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B699" s="1">
         <v>698</v>
@@ -11470,7 +11473,7 @@
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B700" s="1">
         <v>699</v>
@@ -11478,7 +11481,7 @@
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B701" s="1">
         <v>700</v>
@@ -11486,7 +11489,7 @@
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B702" s="1">
         <v>701</v>
@@ -11494,7 +11497,7 @@
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B703" s="1">
         <v>702</v>
@@ -11502,7 +11505,7 @@
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B704" s="1">
         <v>703</v>
@@ -11510,7 +11513,7 @@
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B705" s="1">
         <v>704</v>
@@ -11518,7 +11521,7 @@
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B706" s="1">
         <v>705</v>
@@ -11526,7 +11529,7 @@
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B707" s="1">
         <v>706</v>
@@ -11534,7 +11537,7 @@
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B708" s="1">
         <v>707</v>
@@ -11542,7 +11545,7 @@
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B709" s="1">
         <v>708</v>
@@ -11550,7 +11553,7 @@
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B710" s="1">
         <v>709</v>
@@ -11558,7 +11561,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B711" s="1">
         <v>710</v>
@@ -11566,7 +11569,7 @@
     </row>
     <row r="712" spans="1:2">
       <c r="A712" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B712" s="1">
         <v>711</v>
@@ -11574,7 +11577,7 @@
     </row>
     <row r="713" spans="1:2">
       <c r="A713" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B713" s="1">
         <v>712</v>
@@ -11582,7 +11585,7 @@
     </row>
     <row r="714" spans="1:2">
       <c r="A714" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B714" s="1">
         <v>713</v>
@@ -11590,7 +11593,7 @@
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B715" s="1">
         <v>714</v>
@@ -11598,7 +11601,7 @@
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B716" s="1">
         <v>715</v>
@@ -11606,7 +11609,7 @@
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B717" s="1">
         <v>716</v>
@@ -11614,7 +11617,7 @@
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B718" s="1">
         <v>717</v>
@@ -11622,7 +11625,7 @@
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B719" s="1">
         <v>718</v>
@@ -11630,7 +11633,7 @@
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B720" s="1">
         <v>719</v>
@@ -11638,7 +11641,7 @@
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B721" s="1">
         <v>720</v>
@@ -11646,7 +11649,7 @@
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B722" s="1">
         <v>721</v>
@@ -11654,7 +11657,7 @@
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B723" s="1">
         <v>722</v>
@@ -11662,7 +11665,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B724" s="1">
         <v>723</v>
@@ -11670,7 +11673,7 @@
     </row>
     <row r="725" spans="1:2">
       <c r="A725" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B725" s="1">
         <v>724</v>
@@ -11678,7 +11681,7 @@
     </row>
     <row r="726" spans="1:2">
       <c r="A726" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B726" s="1">
         <v>725</v>
@@ -11686,7 +11689,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B727" s="1">
         <v>726</v>
@@ -11694,7 +11697,7 @@
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B728" s="1">
         <v>727</v>
@@ -11702,7 +11705,7 @@
     </row>
     <row r="729" spans="1:2">
       <c r="A729" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B729" s="1">
         <v>728</v>
@@ -11710,7 +11713,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B730" s="1">
         <v>729</v>
@@ -11718,7 +11721,7 @@
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B731" s="1">
         <v>730</v>
@@ -11726,7 +11729,7 @@
     </row>
     <row r="732" spans="1:2">
       <c r="A732" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B732" s="1">
         <v>731</v>
@@ -11734,7 +11737,7 @@
     </row>
     <row r="733" spans="1:2">
       <c r="A733" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B733" s="1">
         <v>732</v>
@@ -11742,7 +11745,7 @@
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B734" s="1">
         <v>733</v>
@@ -11750,7 +11753,7 @@
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B735" s="1">
         <v>734</v>
@@ -11758,7 +11761,7 @@
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B736" s="1">
         <v>735</v>
@@ -11766,7 +11769,7 @@
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B737" s="1">
         <v>736</v>
@@ -11774,7 +11777,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B738" s="1">
         <v>737</v>
@@ -11782,7 +11785,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B739" s="1">
         <v>738</v>
@@ -11790,7 +11793,7 @@
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B740" s="1">
         <v>739</v>
@@ -11798,7 +11801,7 @@
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B741" s="1">
         <v>740</v>
@@ -11806,7 +11809,7 @@
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B742" s="1">
         <v>741</v>
@@ -11814,7 +11817,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B743" s="1">
         <v>742</v>
@@ -11822,7 +11825,7 @@
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B744" s="1">
         <v>743</v>
@@ -11830,7 +11833,7 @@
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B745" s="1">
         <v>744</v>
@@ -11838,7 +11841,7 @@
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B746" s="1">
         <v>745</v>
@@ -11846,7 +11849,7 @@
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B747" s="1">
         <v>746</v>
@@ -11854,7 +11857,7 @@
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B748" s="1">
         <v>747</v>
@@ -11862,7 +11865,7 @@
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B749" s="1">
         <v>748</v>
@@ -11870,7 +11873,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B750" s="1">
         <v>749</v>
@@ -11878,7 +11881,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B751" s="1">
         <v>750</v>
@@ -11886,7 +11889,7 @@
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B752" s="1">
         <v>751</v>
@@ -11894,7 +11897,7 @@
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B753" s="1">
         <v>752</v>
@@ -11902,7 +11905,7 @@
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B754" s="1">
         <v>753</v>
@@ -11910,7 +11913,7 @@
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B755" s="1">
         <v>754</v>
@@ -11918,7 +11921,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B756" s="1">
         <v>755</v>
@@ -11926,7 +11929,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B757" s="1">
         <v>756</v>
@@ -11934,7 +11937,7 @@
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B758" s="1">
         <v>757</v>
@@ -11942,7 +11945,7 @@
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B759" s="1">
         <v>758</v>
@@ -11950,7 +11953,7 @@
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B760" s="1">
         <v>759</v>
@@ -11958,7 +11961,7 @@
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B761" s="1">
         <v>760</v>
@@ -11966,7 +11969,7 @@
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B762" s="1">
         <v>761</v>
@@ -11974,7 +11977,7 @@
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B763" s="1">
         <v>762</v>
@@ -11982,7 +11985,7 @@
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B764" s="1">
         <v>763</v>
@@ -11990,7 +11993,7 @@
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B765" s="1">
         <v>764</v>
@@ -11998,7 +12001,7 @@
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B766" s="1">
         <v>765</v>
@@ -12006,7 +12009,7 @@
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B767" s="1">
         <v>766</v>
@@ -12014,7 +12017,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B768" s="1">
         <v>767</v>
@@ -12022,7 +12025,7 @@
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B769" s="1">
         <v>768</v>
@@ -12030,7 +12033,7 @@
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B770" s="1">
         <v>769</v>
@@ -12038,7 +12041,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B771" s="1">
         <v>770</v>
@@ -12046,7 +12049,7 @@
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B772" s="1">
         <v>771</v>
@@ -12054,7 +12057,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B773" s="1">
         <v>772</v>
@@ -12062,7 +12065,7 @@
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B774" s="1">
         <v>773</v>
@@ -12070,7 +12073,7 @@
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B775" s="1">
         <v>774</v>
@@ -12078,7 +12081,7 @@
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B776" s="1">
         <v>775</v>
@@ -12086,7 +12089,7 @@
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B777" s="1">
         <v>776</v>
@@ -12094,7 +12097,7 @@
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B778" s="1">
         <v>777</v>
@@ -12102,7 +12105,7 @@
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B779" s="1">
         <v>778</v>
@@ -12110,7 +12113,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B780" s="1">
         <v>779</v>
@@ -12118,7 +12121,7 @@
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B781" s="1">
         <v>780</v>
@@ -12126,7 +12129,7 @@
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B782" s="1">
         <v>781</v>
@@ -12134,7 +12137,7 @@
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B783" s="1">
         <v>782</v>
@@ -12142,7 +12145,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B784" s="1">
         <v>783</v>
@@ -12150,7 +12153,7 @@
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B785" s="1">
         <v>784</v>
@@ -12158,7 +12161,7 @@
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B786" s="1">
         <v>785</v>
@@ -12166,7 +12169,7 @@
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B787" s="1">
         <v>786</v>
@@ -12174,7 +12177,7 @@
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B788" s="1">
         <v>787</v>
@@ -12182,7 +12185,7 @@
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B789" s="1">
         <v>788</v>
@@ -12190,7 +12193,7 @@
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B790" s="1">
         <v>789</v>
@@ -12198,7 +12201,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B791" s="1">
         <v>790</v>
@@ -12206,7 +12209,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B792" s="1">
         <v>791</v>
@@ -12214,7 +12217,7 @@
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B793" s="1">
         <v>792</v>
@@ -12222,7 +12225,7 @@
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B794" s="1">
         <v>793</v>
@@ -12230,7 +12233,7 @@
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B795" s="1">
         <v>794</v>
@@ -12238,7 +12241,7 @@
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B796" s="1">
         <v>795</v>
@@ -12246,7 +12249,7 @@
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B797" s="1">
         <v>796</v>
@@ -12254,7 +12257,7 @@
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B798" s="1">
         <v>797</v>
@@ -12262,7 +12265,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B799" s="1">
         <v>798</v>
@@ -12270,7 +12273,7 @@
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B800" s="1">
         <v>799</v>
@@ -12286,13 +12289,13 @@
     </row>
     <row r="802" spans="1:3">
       <c r="A802" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B802" s="1">
         <v>801</v>
       </c>
       <c r="C802" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="803" spans="1:2">
@@ -12313,7 +12316,7 @@
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B805" s="1">
         <v>804</v>
@@ -12321,18 +12324,18 @@
     </row>
     <row r="806" spans="1:3">
       <c r="A806" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B806" s="1">
         <v>805</v>
       </c>
       <c r="C806" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B807" s="1">
         <v>806</v>
@@ -12340,18 +12343,18 @@
     </row>
     <row r="808" spans="1:3">
       <c r="A808" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B808" s="1">
         <v>807</v>
       </c>
       <c r="C808" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B809" s="1">
         <v>808</v>
@@ -12359,7 +12362,7 @@
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B810" s="1">
         <v>809</v>
@@ -12367,7 +12370,7 @@
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B811" s="1">
         <v>810</v>
@@ -12375,7 +12378,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B812" s="1">
         <v>811</v>
@@ -12383,7 +12386,7 @@
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B813" s="1">
         <v>812</v>
@@ -12391,7 +12394,7 @@
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B814" s="1">
         <v>813</v>
@@ -12399,7 +12402,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B815" s="1">
         <v>814</v>
@@ -12407,7 +12410,7 @@
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B816" s="1">
         <v>815</v>
@@ -12427,8 +12430,8 @@
   <sheetPr/>
   <dimension ref="B1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A90" sqref="$A90:$XFD90"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A88" sqref="$A84:$XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -12503,7 +12506,7 @@
       <c r="C4" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="46" t="s">
         <v>112</v>
       </c>
       <c r="F4" s="48" t="s">
@@ -13483,7 +13486,7 @@
     </row>
     <row r="81" s="38" customFormat="1" ht="16.2" spans="3:8">
       <c r="C81" s="39" t="s">
-        <v>208</v>
+        <v>288</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="47" t="s">
@@ -13495,15 +13498,15 @@
     </row>
     <row r="82" s="37" customFormat="1" spans="3:8">
       <c r="C82" s="50" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
       <c r="F82" s="39" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G82" s="39" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H82" s="39"/>
     </row>
@@ -13512,7 +13515,7 @@
     </row>
     <row r="84" s="2" customFormat="1" spans="2:8">
       <c r="B84" s="37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C84" s="39"/>
       <c r="D84" s="40">
@@ -13534,14 +13537,14 @@
     <row r="85" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B85" s="37"/>
       <c r="C85" s="60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D85" s="61"/>
       <c r="E85" s="62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F85" s="63" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
@@ -13553,16 +13556,16 @@
       </c>
       <c r="D86" s="61"/>
       <c r="E86" s="62" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F86" s="63" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G86" s="61" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H86" s="61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" s="2" customFormat="1" ht="16.2" spans="2:8">
@@ -13571,10 +13574,10 @@
         <v>168</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E87" s="61" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
@@ -13583,17 +13586,17 @@
     <row r="88" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B88" s="37"/>
       <c r="C88" s="64" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D88" s="62" t="s">
         <v>169</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F88" s="61"/>
       <c r="G88" s="61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H88" s="61"/>
     </row>
@@ -13604,13 +13607,13 @@
       </c>
       <c r="D89" s="62"/>
       <c r="E89" s="62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F89" s="61" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G89" s="61" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H89" s="61"/>
     </row>
@@ -13622,7 +13625,7 @@
       <c r="D90" s="61"/>
       <c r="E90" s="63"/>
       <c r="F90" s="61" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G90" s="61"/>
       <c r="H90" s="61"/>
@@ -13630,26 +13633,26 @@
     <row r="91" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B91" s="37"/>
       <c r="C91" s="66" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D91" s="62"/>
       <c r="E91" s="61"/>
       <c r="F91" s="63" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G91" s="61" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H91" s="61"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B92" s="37"/>
       <c r="C92" s="60" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D92" s="61"/>
       <c r="E92" s="62" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F92" s="61"/>
       <c r="G92" s="61"/>
@@ -13661,7 +13664,7 @@
         <v>147</v>
       </c>
       <c r="D93" s="61" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E93" s="61"/>
       <c r="F93" s="61"/>
@@ -13674,7 +13677,7 @@
         <v>210</v>
       </c>
       <c r="D94" s="61" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E94" s="61"/>
       <c r="F94" s="61"/>
@@ -13687,7 +13690,7 @@
         <v>279</v>
       </c>
       <c r="D95" s="61" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E95" s="61"/>
       <c r="F95" s="61"/>
@@ -13702,7 +13705,7 @@
       <c r="D96" s="61"/>
       <c r="E96" s="61"/>
       <c r="F96" s="61" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G96" s="61"/>
       <c r="H96" s="61"/>
@@ -13717,7 +13720,7 @@
       </c>
       <c r="E97" s="61"/>
       <c r="F97" s="62" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
@@ -13731,7 +13734,7 @@
       <c r="E98" s="61"/>
       <c r="F98" s="61"/>
       <c r="G98" s="65" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H98" s="61"/>
     </row>
@@ -13761,22 +13764,22 @@
     </row>
     <row r="102" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C102" s="45" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D102" s="39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E102" s="39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F102" s="39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G102" s="39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H102" s="39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="103" s="37" customFormat="1" ht="16.2" spans="3:8">
@@ -13784,10 +13787,10 @@
         <v>133</v>
       </c>
       <c r="D103" s="47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E103" s="39" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F103" s="39"/>
       <c r="G103" s="39"/>
@@ -13799,30 +13802,30 @@
       </c>
       <c r="D104" s="39"/>
       <c r="E104" s="46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F104" s="39" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G104" s="39" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H104" s="39"/>
     </row>
     <row r="105" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C105" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D105" s="39"/>
       <c r="E105" s="47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F105" s="39"/>
       <c r="G105" s="39" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H105" s="39" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="106" s="37" customFormat="1" ht="16.2" spans="3:8">
@@ -13832,10 +13835,10 @@
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
       <c r="F106" s="39" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G106" s="39" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H106" s="39"/>
     </row>
@@ -13846,7 +13849,7 @@
       <c r="D107" s="39"/>
       <c r="E107" s="39"/>
       <c r="F107" s="39" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G107" s="39"/>
       <c r="H107" s="39"/>
@@ -13858,7 +13861,7 @@
       <c r="D108" s="39"/>
       <c r="E108" s="39"/>
       <c r="F108" s="46" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G108" s="39"/>
       <c r="H108" s="39"/>
@@ -13880,7 +13883,7 @@
       </c>
       <c r="D110" s="46"/>
       <c r="E110" s="47" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F110" s="39"/>
       <c r="G110" s="39"/>
@@ -13893,14 +13896,14 @@
       <c r="D111" s="39"/>
       <c r="E111" s="39"/>
       <c r="F111" s="46" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G111" s="39"/>
       <c r="H111" s="39"/>
     </row>
     <row r="114" s="37" customFormat="1" spans="2:8">
       <c r="B114" s="37" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C114" s="39"/>
       <c r="D114" s="40">
@@ -13921,7 +13924,7 @@
     </row>
     <row r="115" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C115" s="45" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D115" s="39"/>
       <c r="E115" s="39"/>
@@ -13931,27 +13934,27 @@
     </row>
     <row r="116" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C116" s="45" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D116" s="39" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E116" s="39"/>
       <c r="F116" s="39" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H116" s="39"/>
     </row>
     <row r="117" s="37" customFormat="1" ht="16.2" spans="3:8">
       <c r="C117" s="49" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D117" s="39"/>
       <c r="F117" s="39" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G117" s="39"/>
       <c r="H117" s="39"/>
@@ -13971,7 +13974,7 @@
         <v>134</v>
       </c>
       <c r="D119" s="39" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E119" s="39"/>
       <c r="F119" s="39"/>
@@ -14015,31 +14018,31 @@
   <sheetData>
     <row r="2" ht="16.2" spans="3:19">
       <c r="C2" s="28" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
       <c r="F2" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
       <c r="I2" s="28" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J2" s="28"/>
       <c r="K2" s="28"/>
       <c r="L2" s="28" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P2" s="3"/>
       <c r="S2" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="3:19">
@@ -14147,7 +14150,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N5" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M5,武将表!$A:$B,2,FALSE),",10")</f>
@@ -14320,7 +14323,7 @@
         <v>7</v>
       </c>
       <c r="P9" s="33" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q9" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P9,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14520,7 +14523,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K14" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J14,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14576,7 +14579,7 @@
         <v>13</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q15" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P15,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14668,7 +14671,7 @@
         <v>15</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P17,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14781,7 +14784,7 @@
         <v>18</v>
       </c>
       <c r="M20" s="32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N20" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M20,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14853,7 +14856,7 @@
         <v>20</v>
       </c>
       <c r="J22" s="33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(J22,武将表!$A:$B,2,FALSE),",5")</f>
@@ -14885,10 +14888,10 @@
     </row>
     <row r="30" ht="16.2" spans="3:12">
       <c r="C30" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="3:14">
@@ -14905,19 +14908,19 @@
         <v>259</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H31" s="32" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L31" s="27" t="s">
         <v>124</v>
       </c>
       <c r="M31" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N31" s="27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="32" spans="3:14">
@@ -14934,10 +14937,10 @@
         <v>271</v>
       </c>
       <c r="G32" s="33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H32" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L32" s="27" t="s">
         <v>130</v>
@@ -14949,7 +14952,7 @@
     </row>
     <row r="33" spans="5:12">
       <c r="E33" s="31" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L33" s="27" t="s">
         <v>135</v>
@@ -14963,27 +14966,27 @@
     </row>
     <row r="35" spans="3:5">
       <c r="C35" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F36" s="27" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -15017,7 +15020,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -15035,13 +15038,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -15055,19 +15058,19 @@
         <v>98</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I2" s="19">
         <v>2</v>
@@ -15108,7 +15111,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>102</v>
@@ -15130,7 +15133,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>137</v>
@@ -15152,13 +15155,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>101</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -15305,7 +15308,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -15323,13 +15326,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -15397,22 +15400,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>215</v>
@@ -15431,7 +15434,7 @@
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H7" s="18"/>
       <c r="I7" s="19">
@@ -15461,7 +15464,7 @@
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -15478,7 +15481,7 @@
       </c>
       <c r="B10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E10" s="18" t="s">
         <v>204</v>
@@ -15524,10 +15527,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
@@ -15717,7 +15720,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -15735,13 +15738,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -15869,25 +15872,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I10" s="19">
         <v>10</v>
@@ -15930,14 +15933,14 @@
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -15966,10 +15969,10 @@
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -16000,10 +16003,10 @@
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -16130,7 +16133,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -16148,13 +16151,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -16333,16 +16336,16 @@
         <v>259</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="19">
@@ -16370,13 +16373,13 @@
       </c>
       <c r="B15" s="18"/>
       <c r="C15" s="18" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -16526,7 +16529,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -16544,13 +16547,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -16753,22 +16756,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H15" s="18"/>
       <c r="I15" s="19">
@@ -16800,7 +16803,7 @@
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
       <c r="G17" s="18" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="19">
@@ -16832,7 +16835,7 @@
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="19">
@@ -16927,7 +16930,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:9">
       <c r="A1" s="20" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B1" s="21">
         <v>6</v>
@@ -16945,13 +16948,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:9">
@@ -17184,19 +17187,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
@@ -17226,7 +17229,7 @@
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -17258,7 +17261,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="11"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3325,9 +3325,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3408,14 +3408,60 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3428,24 +3474,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3460,39 +3513,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3506,38 +3530,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3545,7 +3538,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3608,7 +3608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3620,13 +3620,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3638,37 +3698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,7 +3722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3698,67 +3734,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3776,19 +3758,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3868,15 +3868,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3888,17 +3879,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3918,6 +3898,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3929,15 +3929,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3956,6 +3947,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3964,10 +3964,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3976,133 +3976,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4302,10 +4302,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4411,11 +4411,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00000000"/>
       <color rgb="00FFFF00"/>
       <color rgb="00FA26DF"/>
       <color rgb="0092D050"/>
       <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5876,7 +5876,7 @@
   <sheetPr/>
   <dimension ref="A1:C830"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A807" workbookViewId="0">
+    <sheetView topLeftCell="A807" workbookViewId="0">
       <selection activeCell="A831" sqref="A831"/>
     </sheetView>
   </sheetViews>
@@ -15029,8 +15029,8 @@
   <sheetPr/>
   <dimension ref="B1:H119"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I105" sqref="I105"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15122,7 +15122,7 @@
       <c r="C5" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="48" t="s">
         <v>117</v>
       </c>
       <c r="F5" s="49" t="s">
@@ -15789,7 +15789,7 @@
       <c r="C58" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="49" t="s">
         <v>240</v>
       </c>
       <c r="E58" s="40"/>
@@ -16163,7 +16163,7 @@
       <c r="E86" s="63" t="s">
         <v>299</v>
       </c>
-      <c r="F86" s="64" t="s">
+      <c r="F86" s="65" t="s">
         <v>300</v>
       </c>
       <c r="G86" s="62" t="s">
@@ -16190,13 +16190,13 @@
     </row>
     <row r="88" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B88" s="38"/>
-      <c r="C88" s="65" t="s">
+      <c r="C88" s="66" t="s">
         <v>304</v>
       </c>
       <c r="D88" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="E88" s="66" t="s">
+      <c r="E88" s="64" t="s">
         <v>305</v>
       </c>
       <c r="F88" s="62"/>
@@ -16207,7 +16207,7 @@
     </row>
     <row r="89" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B89" s="38"/>
-      <c r="C89" s="65" t="s">
+      <c r="C89" s="66" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="63"/>
@@ -16338,7 +16338,7 @@
       <c r="D98" s="62"/>
       <c r="E98" s="62"/>
       <c r="F98" s="62"/>
-      <c r="G98" s="66" t="s">
+      <c r="G98" s="65" t="s">
         <v>321</v>
       </c>
       <c r="H98" s="62"/>
@@ -16391,7 +16391,7 @@
       <c r="C103" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="D103" s="48" t="s">
+      <c r="D103" s="49" t="s">
         <v>328</v>
       </c>
       <c r="E103" s="40" t="s">

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3345,9 +3345,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -3429,6 +3429,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3436,7 +3458,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3450,37 +3534,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3496,77 +3559,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3629,7 +3629,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3641,7 +3671,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3653,19 +3689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3677,61 +3701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3749,13 +3719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3767,19 +3731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3791,13 +3743,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3809,7 +3755,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3880,6 +3880,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3891,54 +3900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3961,8 +3922,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3977,6 +3938,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3985,10 +3985,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3997,133 +3997,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4947,8 +4947,8 @@
   </sheetPr>
   <dimension ref="B1:R48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -402,7 +402,7 @@
     <t>吴兰</t>
   </si>
   <si>
-    <t>元戎弩</t>
+    <t>飞弩</t>
   </si>
   <si>
     <t>姜维</t>
@@ -3362,10 +3362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3457,11 +3457,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3472,10 +3472,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3484,6 +3485,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3501,14 +3509,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3517,17 +3517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3540,24 +3532,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3596,6 +3588,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3658,7 +3658,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3670,19 +3694,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3694,25 +3802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3724,115 +3820,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3909,6 +3909,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3929,41 +3953,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4006,6 +3995,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4014,10 +4014,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4026,16 +4026,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4044,115 +4044,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5035,8 +5035,8 @@
   </sheetPr>
   <dimension ref="B1:R53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O58" sqref="O58"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -15194,8 +15194,8 @@
   <sheetPr/>
   <dimension ref="B1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15284,7 +15284,7 @@
       </c>
     </row>
     <row r="5" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="46" t="s">
         <v>125</v>
       </c>
       <c r="D5" s="48" t="s">

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -436,6 +436,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>关兴、</t>
     </r>
     <r>
@@ -3394,10 +3399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3490,7 +3495,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3505,6 +3524,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3512,15 +3561,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3543,63 +3592,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3611,8 +3607,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3690,7 +3695,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3702,31 +3785,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3744,55 +3839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3804,73 +3863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3944,6 +3949,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -3980,6 +3994,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4004,30 +4033,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4046,10 +4051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4058,137 +4063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4348,19 +4353,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5085,474 +5081,474 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="77"/>
-    <col min="10" max="10" width="13.7777777777778" style="77" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="77" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="77"/>
+    <col min="1" max="9" width="9" style="74"/>
+    <col min="10" max="10" width="13.7777777777778" style="74" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="74" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="77" t="s">
+      <c r="J1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="77" t="s">
+      <c r="K1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="77" t="s">
+      <c r="L1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="77" t="s">
+      <c r="M1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="77">
+      <c r="J2" s="74">
         <v>100</v>
       </c>
-      <c r="K2" s="77">
+      <c r="K2" s="74">
         <v>3000</v>
       </c>
-      <c r="L2" s="77">
+      <c r="L2" s="74">
         <v>10</v>
       </c>
-      <c r="M2" s="77">
+      <c r="M2" s="74">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77">
+      <c r="C3" s="74">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="77">
+      <c r="D3" s="74">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="77">
+      <c r="C4" s="74">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="77">
+      <c r="D4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="78" t="s">
+      <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="77" t="s">
+      <c r="K5" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="77" t="s">
+      <c r="J6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="77" t="s">
+      <c r="J9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="77" t="s">
+      <c r="K9" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="77">
+      <c r="B12" s="74">
         <v>1</v>
       </c>
-      <c r="C12" s="77">
+      <c r="C12" s="74">
         <v>5</v>
       </c>
-      <c r="J12" s="79" t="s">
+      <c r="J12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="79" t="s">
+      <c r="K12" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="77">
+      <c r="B13" s="74">
         <v>2</v>
       </c>
-      <c r="C13" s="77">
+      <c r="C13" s="74">
         <v>5</v>
       </c>
-      <c r="J13" s="79" t="s">
+      <c r="J13" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="79" t="s">
+      <c r="K13" s="76" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="77">
+      <c r="B14" s="74">
         <v>3</v>
       </c>
-      <c r="C14" s="77">
+      <c r="C14" s="74">
         <v>10</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="77" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="77" t="s">
+      <c r="K14" s="74" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="77">
+      <c r="B15" s="74">
         <v>4</v>
       </c>
-      <c r="C15" s="77">
+      <c r="C15" s="74">
         <v>20</v>
       </c>
-      <c r="J15" s="79"/>
-      <c r="K15" s="79"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="77">
+      <c r="B16" s="74">
         <v>5</v>
       </c>
-      <c r="C16" s="77">
+      <c r="C16" s="74">
         <v>40</v>
       </c>
-      <c r="J16" s="77" t="s">
+      <c r="J16" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="77" t="s">
+      <c r="K16" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="77">
+      <c r="B17" s="74">
         <v>6</v>
       </c>
-      <c r="C17" s="77">
+      <c r="C17" s="74">
         <v>80</v>
       </c>
-      <c r="J17" s="77" t="s">
+      <c r="J17" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="77" t="s">
+      <c r="K17" s="74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="77">
+      <c r="B18" s="74">
         <v>7</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="74">
         <v>100</v>
       </c>
-      <c r="I18" s="81"/>
-      <c r="J18" s="77" t="s">
+      <c r="I18" s="78"/>
+      <c r="J18" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="77" t="s">
+      <c r="K18" s="74" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="80" t="s">
+      <c r="I19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="77" t="s">
+      <c r="K19" s="74" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="2:9">
-      <c r="B20" s="77">
+      <c r="B20" s="74">
         <v>8</v>
       </c>
-      <c r="C20" s="77">
+      <c r="C20" s="74">
         <v>150</v>
       </c>
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="77">
+      <c r="B21" s="74">
         <v>9</v>
       </c>
-      <c r="C21" s="77">
+      <c r="C21" s="74">
         <v>200</v>
       </c>
-      <c r="J21" s="77" t="s">
+      <c r="J21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="77" t="s">
+      <c r="K21" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="77">
+      <c r="B22" s="74">
         <v>10</v>
       </c>
-      <c r="C22" s="77">
+      <c r="C22" s="74">
         <v>300</v>
       </c>
-      <c r="J22" s="77" t="s">
+      <c r="J22" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="77" t="s">
+      <c r="K22" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="77">
+      <c r="B23" s="74">
         <v>11</v>
       </c>
-      <c r="C23" s="77">
+      <c r="C23" s="74">
         <v>500</v>
       </c>
-      <c r="J23" s="77" t="s">
+      <c r="J23" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="77" t="s">
+      <c r="K23" s="74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="9:11">
-      <c r="I24" s="81"/>
-      <c r="J24" s="77" t="s">
+      <c r="I24" s="78"/>
+      <c r="J24" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="77" t="s">
+      <c r="K24" s="74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="77">
+      <c r="C25" s="74">
         <f>SUM(C12:C23)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="77" t="s">
+      <c r="J26" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="16.2" spans="9:9">
-      <c r="I28" s="78" t="s">
+      <c r="I28" s="75" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:18">
-      <c r="J29" s="77" t="s">
+      <c r="J29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="82" t="s">
+      <c r="K29" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="82" t="s">
+      <c r="L29" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="82" t="s">
+      <c r="M29" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="83" t="s">
+      <c r="N29" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="84" t="s">
+      <c r="O29" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="84" t="s">
+      <c r="P29" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="84" t="s">
+      <c r="Q29" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="85" t="s">
+      <c r="R29" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:15">
-      <c r="J30" s="77" t="s">
+      <c r="J30" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="82" t="s">
+      <c r="K30" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="82" t="s">
+      <c r="M30" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="84" t="s">
+      <c r="N30" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="84" t="s">
+      <c r="O30" s="81" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="11:15">
-      <c r="K31" s="82" t="s">
+      <c r="K31" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="82" t="s">
+      <c r="L31" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="84" t="s">
+      <c r="M31" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="84" t="s">
+      <c r="N31" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="O31" s="84" t="s">
+      <c r="O31" s="81" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="10:18">
-      <c r="J32" s="77" t="s">
+      <c r="J32" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="82" t="s">
+      <c r="K32" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="82" t="s">
+      <c r="L32" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="82" t="s">
+      <c r="M32" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="N32" s="84" t="s">
+      <c r="N32" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="84" t="s">
+      <c r="O32" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="84" t="s">
+      <c r="P32" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="Q32" s="84" t="s">
+      <c r="Q32" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R32" s="84" t="s">
+      <c r="R32" s="81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
-      <c r="J33" s="77" t="s">
+      <c r="J33" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="82" t="s">
+      <c r="K33" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="82" t="s">
+      <c r="L33" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="84" t="s">
+      <c r="M33" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="N33" s="84" t="s">
+      <c r="N33" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="O33" s="84" t="s">
+      <c r="O33" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="84" t="s">
+      <c r="P33" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="84" t="s">
+      <c r="Q33" s="81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
-      <c r="J34" s="77" t="s">
+      <c r="J34" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="82" t="s">
+      <c r="K34" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="82" t="s">
+      <c r="L34" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="84" t="s">
+      <c r="M34" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="84" t="s">
+      <c r="N34" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="O34" s="84" t="s">
+      <c r="O34" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="P34" s="84" t="s">
+      <c r="P34" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="Q34" s="84" t="s">
+      <c r="Q34" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:12">
-      <c r="J35" s="77" t="s">
+      <c r="J35" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="84" t="s">
+      <c r="K35" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="84" t="s">
+      <c r="L35" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" ht="16.2" spans="9:9">
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="75" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="77" t="s">
+      <c r="J38" s="74" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="34" t="s">
@@ -5560,29 +5556,29 @@
       </c>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="77" t="s">
+      <c r="J39" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="82" t="s">
+      <c r="K39" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="L39" s="82" t="s">
+      <c r="L39" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="84" t="s">
+      <c r="M39" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="77" t="s">
+      <c r="J40" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="K40" s="82" t="s">
+      <c r="K40" s="79" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:12">
-      <c r="J41" s="77" t="s">
+      <c r="J41" s="74" t="s">
         <v>81</v>
       </c>
       <c r="K41" s="34" t="s">
@@ -5593,40 +5589,40 @@
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="77" t="s">
+      <c r="J42" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="82" t="s">
+      <c r="K42" s="79" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="77" t="s">
+      <c r="J44" s="74" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="77" t="s">
+      <c r="J45" s="74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="77" t="s">
+      <c r="J46" s="74" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="77" t="s">
+      <c r="J48" s="74" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="15:15">
-      <c r="O52" s="77" t="s">
+      <c r="O52" s="74" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="15:15">
-      <c r="O53" s="77" t="s">
+      <c r="O53" s="74" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15239,7 +15235,7 @@
   <dimension ref="B1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15425,10 +15421,10 @@
         <v>144</v>
       </c>
       <c r="D12" s="40"/>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="F12" s="49" t="s">
         <v>146</v>
       </c>
       <c r="G12" s="40"/>
@@ -15491,7 +15487,7 @@
       <c r="D17" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>157</v>
       </c>
       <c r="F17" s="40"/>
@@ -15555,7 +15551,7 @@
         <v>168</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="E22" s="53" t="s">
+      <c r="E22" s="54" t="s">
         <v>169</v>
       </c>
       <c r="F22" s="52" t="s">
@@ -15569,7 +15565,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="40"/>
-      <c r="E23" s="53"/>
+      <c r="E23" s="54"/>
       <c r="F23" s="52" t="s">
         <v>172</v>
       </c>
@@ -15593,7 +15589,7 @@
         <v>176</v>
       </c>
       <c r="D26" s="40"/>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="54" t="s">
         <v>177</v>
       </c>
       <c r="F26" s="51"/>
@@ -15604,14 +15600,14 @@
       <c r="C27" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
     </row>
     <row r="28" s="39" customFormat="1" spans="3:3">
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="55" t="s">
         <v>179</v>
       </c>
     </row>
@@ -15680,7 +15676,7 @@
       <c r="H34" s="40"/>
     </row>
     <row r="35" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="56" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -15693,7 +15689,7 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="57" t="s">
         <v>192</v>
       </c>
       <c r="D36" s="48"/>
@@ -15735,7 +15731,7 @@
       </c>
     </row>
     <row r="39" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -15759,7 +15755,7 @@
         <v>206</v>
       </c>
       <c r="D40" s="40"/>
-      <c r="E40" s="49" t="s">
+      <c r="E40" s="47" t="s">
         <v>207</v>
       </c>
       <c r="F40" s="40"/>
@@ -15779,7 +15775,7 @@
       <c r="H41" s="40"/>
     </row>
     <row r="42" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="57" t="s">
         <v>210</v>
       </c>
       <c r="D42" s="48"/>
@@ -15853,7 +15849,7 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="56" t="s">
         <v>168</v>
       </c>
       <c r="D48" s="48"/>
@@ -15866,7 +15862,7 @@
       </c>
     </row>
     <row r="49" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="56" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="47" t="s">
@@ -15896,7 +15892,7 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="56" t="s">
         <v>228</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -15922,7 +15918,7 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="58" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -15949,13 +15945,13 @@
       <c r="C55" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="62"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" s="38" customFormat="1" spans="3:5">
       <c r="C56" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="62"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="58" s="38" customFormat="1" spans="2:8">
       <c r="B58" s="38" t="s">
@@ -15986,10 +15982,10 @@
       <c r="E59" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="F59" s="63" t="s">
+      <c r="F59" s="60" t="s">
         <v>242</v>
       </c>
-      <c r="G59" s="63" t="s">
+      <c r="G59" s="60" t="s">
         <v>243</v>
       </c>
       <c r="H59" s="40" t="s">
@@ -16004,7 +16000,7 @@
       <c r="E60" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="64" t="s">
+      <c r="F60" s="61" t="s">
         <v>247</v>
       </c>
       <c r="G60" s="40" t="s">
@@ -16019,7 +16015,7 @@
       <c r="D61" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="53"/>
+      <c r="E61" s="54"/>
       <c r="F61" s="49" t="s">
         <v>251</v>
       </c>
@@ -16031,7 +16027,7 @@
         <v>252</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" s="53"/>
+      <c r="E62" s="54"/>
       <c r="F62" s="49" t="s">
         <v>253</v>
       </c>
@@ -16153,7 +16149,7 @@
       <c r="D71" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="65" t="s">
+      <c r="E71" s="62" t="s">
         <v>274</v>
       </c>
       <c r="F71" s="51" t="s">
@@ -16181,7 +16177,7 @@
       <c r="H72" s="40"/>
     </row>
     <row r="73" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="66" t="s">
+      <c r="C73" s="63" t="s">
         <v>280</v>
       </c>
       <c r="D73" s="51"/>
@@ -16409,7 +16405,7 @@
       <c r="H90" s="40"/>
     </row>
     <row r="91" s="38" customFormat="1" spans="3:8">
-      <c r="C91" s="66" t="s">
+      <c r="C91" s="63" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="40"/>
@@ -16448,207 +16444,207 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B94" s="38"/>
-      <c r="C94" s="67" t="s">
+      <c r="C94" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="68"/>
-      <c r="E94" s="69" t="s">
+      <c r="D94" s="65"/>
+      <c r="E94" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="F94" s="70" t="s">
+      <c r="F94" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B95" s="38"/>
-      <c r="C95" s="67" t="s">
+      <c r="C95" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="69" t="s">
+      <c r="D95" s="65"/>
+      <c r="E95" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="F95" s="71" t="s">
+      <c r="F95" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="G95" s="68" t="s">
+      <c r="G95" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="H95" s="68" t="s">
+      <c r="H95" s="65" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B96" s="38"/>
-      <c r="C96" s="67" t="s">
+      <c r="C96" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="72" t="s">
+      <c r="D96" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="E96" s="68" t="s">
+      <c r="E96" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B97" s="38"/>
-      <c r="C97" s="73" t="s">
+      <c r="C97" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="72" t="s">
+      <c r="E97" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="F97" s="68"/>
-      <c r="G97" s="71" t="s">
+      <c r="F97" s="65"/>
+      <c r="G97" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H97" s="68"/>
+      <c r="H97" s="65"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B98" s="38"/>
-      <c r="C98" s="73" t="s">
+      <c r="C98" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="69"/>
-      <c r="E98" s="69" t="s">
+      <c r="D98" s="66"/>
+      <c r="E98" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="F98" s="71" t="s">
+      <c r="F98" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="G98" s="68" t="s">
+      <c r="G98" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="H98" s="68"/>
+      <c r="H98" s="65"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B99" s="38"/>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="D99" s="68"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="71" t="s">
+      <c r="D99" s="65"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B100" s="38"/>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="69"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="71" t="s">
+      <c r="D100" s="66"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="68" t="s">
+      <c r="G100" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="H100" s="68"/>
+      <c r="H100" s="65"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B101" s="38"/>
-      <c r="C101" s="67" t="s">
+      <c r="C101" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="68"/>
-      <c r="E101" s="69" t="s">
+      <c r="D101" s="65"/>
+      <c r="E101" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="F101" s="68"/>
-      <c r="G101" s="68"/>
-      <c r="H101" s="68"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="2:8">
       <c r="B102" s="38"/>
-      <c r="C102" s="68" t="s">
+      <c r="C102" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D102" s="68" t="s">
+      <c r="D102" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B103" s="38"/>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="E103" s="68"/>
-      <c r="F103" s="68"/>
-      <c r="G103" s="68"/>
-      <c r="H103" s="68"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="2:8">
       <c r="B104" s="38"/>
-      <c r="C104" s="68" t="s">
+      <c r="C104" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="68" t="s">
+      <c r="D104" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="2:8">
       <c r="B105" s="38"/>
-      <c r="C105" s="68" t="s">
+      <c r="C105" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D105" s="68"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="68" t="s">
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="G105" s="68"/>
-      <c r="H105" s="68"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B106" s="38"/>
-      <c r="C106" s="68" t="s">
+      <c r="C106" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="69" t="s">
+      <c r="D106" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="68"/>
-      <c r="F106" s="69" t="s">
+      <c r="E106" s="65"/>
+      <c r="F106" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="68"/>
-      <c r="H106" s="68"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="2:8">
       <c r="B107" s="38"/>
-      <c r="C107" s="76" t="s">
+      <c r="C107" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="68"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="68"/>
-      <c r="G107" s="70" t="s">
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="H107" s="68"/>
+      <c r="H107" s="65"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="2:2">
       <c r="B108" s="38"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3495,14 +3495,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3515,16 +3523,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3538,8 +3552,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3547,29 +3569,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3580,14 +3580,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3608,6 +3600,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3623,16 +3631,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3695,7 +3695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3707,13 +3725,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3725,31 +3809,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3761,121 +3875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3946,11 +3946,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3958,8 +3964,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3979,17 +3985,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4009,15 +4029,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4032,17 +4043,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4051,10 +4051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4063,137 +4063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4344,13 +4344,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4368,6 +4371,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4381,9 +4387,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -4509,9 +4512,9 @@
     <mruColors>
       <color rgb="00FA26DF"/>
       <color rgb="0092D050"/>
-      <color rgb="00FFFF00"/>
       <color rgb="00000000"/>
       <color rgb="00FF0000"/>
+      <color rgb="00FFFF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5081,474 +5084,474 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="74"/>
-    <col min="10" max="10" width="13.7777777777778" style="74" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="74" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="74"/>
+    <col min="1" max="9" width="9" style="75"/>
+    <col min="10" max="10" width="13.7777777777778" style="75" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="75" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="75">
         <v>100</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="75">
         <v>3000</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="75">
         <v>10</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="75">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="75">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="75">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="75">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="75">
         <v>1</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="74">
+      <c r="B12" s="75">
         <v>1</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="75">
         <v>5</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="77" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="74">
+      <c r="B13" s="75">
         <v>2</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="75">
         <v>5</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="77" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="74">
+      <c r="B14" s="75">
         <v>3</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="75">
         <v>10</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="74" t="s">
+      <c r="I14" s="78"/>
+      <c r="J14" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="75" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="74">
+      <c r="B15" s="75">
         <v>4</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="75">
         <v>20</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="74">
+      <c r="B16" s="75">
         <v>5</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="75">
         <v>40</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="74">
+      <c r="B17" s="75">
         <v>6</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="75">
         <v>80</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="74">
+      <c r="B18" s="75">
         <v>7</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="75">
         <v>100</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="74" t="s">
+      <c r="I18" s="79"/>
+      <c r="J18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="75" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="75" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="2:9">
-      <c r="B20" s="74">
+      <c r="B20" s="75">
         <v>8</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="75">
         <v>150</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="74">
+      <c r="B21" s="75">
         <v>9</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="75">
         <v>200</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="74">
+      <c r="B22" s="75">
         <v>10</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="75">
         <v>300</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="74">
+      <c r="B23" s="75">
         <v>11</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="75">
         <v>500</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="75" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="9:11">
-      <c r="I24" s="78"/>
-      <c r="J24" s="74" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="75" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="74">
+      <c r="C25" s="75">
         <f>SUM(C12:C23)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="16.2" spans="9:9">
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:18">
-      <c r="J29" s="74" t="s">
+      <c r="J29" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="79" t="s">
+      <c r="L29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="79" t="s">
+      <c r="M29" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="N29" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="81" t="s">
+      <c r="O29" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="81" t="s">
+      <c r="P29" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="81" t="s">
+      <c r="Q29" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="82" t="s">
+      <c r="R29" s="83" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:15">
-      <c r="J30" s="74" t="s">
+      <c r="J30" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="79" t="s">
+      <c r="K30" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="79" t="s">
+      <c r="L30" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="79" t="s">
+      <c r="M30" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="81" t="s">
+      <c r="N30" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="81" t="s">
+      <c r="O30" s="82" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="11:15">
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="79" t="s">
+      <c r="L31" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="81" t="s">
+      <c r="M31" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="81" t="s">
+      <c r="N31" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="O31" s="81" t="s">
+      <c r="O31" s="82" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="10:18">
-      <c r="J32" s="74" t="s">
+      <c r="J32" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="79" t="s">
+      <c r="L32" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="79" t="s">
+      <c r="M32" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="N32" s="81" t="s">
+      <c r="N32" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="O32" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="81" t="s">
+      <c r="P32" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="Q32" s="81" t="s">
+      <c r="Q32" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="R32" s="81" t="s">
+      <c r="R32" s="82" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
-      <c r="J33" s="74" t="s">
+      <c r="J33" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="79" t="s">
+      <c r="L33" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="81" t="s">
+      <c r="M33" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="N33" s="81" t="s">
+      <c r="N33" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="O33" s="81" t="s">
+      <c r="O33" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="81" t="s">
+      <c r="P33" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="81" t="s">
+      <c r="Q33" s="82" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
-      <c r="J34" s="74" t="s">
+      <c r="J34" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="79" t="s">
+      <c r="L34" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="81" t="s">
+      <c r="M34" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="N34" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="O34" s="81" t="s">
+      <c r="O34" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="P34" s="81" t="s">
+      <c r="P34" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="Q34" s="81" t="s">
+      <c r="Q34" s="82" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:12">
-      <c r="J35" s="74" t="s">
+      <c r="J35" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="81" t="s">
+      <c r="K35" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="81" t="s">
+      <c r="L35" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" ht="16.2" spans="9:9">
-      <c r="I37" s="75" t="s">
+      <c r="I37" s="76" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="74" t="s">
+      <c r="J38" s="75" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="34" t="s">
@@ -5556,29 +5559,29 @@
       </c>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="79" t="s">
+      <c r="K39" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="L39" s="79" t="s">
+      <c r="L39" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="81" t="s">
+      <c r="M39" s="82" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="74" t="s">
+      <c r="J40" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="K40" s="79" t="s">
+      <c r="K40" s="80" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:12">
-      <c r="J41" s="74" t="s">
+      <c r="J41" s="75" t="s">
         <v>81</v>
       </c>
       <c r="K41" s="34" t="s">
@@ -5589,40 +5592,40 @@
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="74" t="s">
+      <c r="J42" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="79" t="s">
+      <c r="K42" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="74" t="s">
+      <c r="J44" s="75" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="74" t="s">
+      <c r="J45" s="75" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="74" t="s">
+      <c r="J46" s="75" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="74" t="s">
+      <c r="J48" s="75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="15:15">
-      <c r="O52" s="74" t="s">
+      <c r="O52" s="75" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="15:15">
-      <c r="O53" s="74" t="s">
+      <c r="O53" s="75" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15235,7 +15238,7 @@
   <dimension ref="B1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15417,7 +15420,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="53" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="40"/>
@@ -15487,7 +15490,7 @@
       <c r="D17" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="54" t="s">
         <v>157</v>
       </c>
       <c r="F17" s="40"/>
@@ -15551,7 +15554,7 @@
         <v>168</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="55" t="s">
         <v>169</v>
       </c>
       <c r="F22" s="52" t="s">
@@ -15565,7 +15568,7 @@
         <v>171</v>
       </c>
       <c r="D23" s="40"/>
-      <c r="E23" s="54"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="52" t="s">
         <v>172</v>
       </c>
@@ -15589,7 +15592,7 @@
         <v>176</v>
       </c>
       <c r="D26" s="40"/>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="55" t="s">
         <v>177</v>
       </c>
       <c r="F26" s="51"/>
@@ -15601,13 +15604,13 @@
         <v>178</v>
       </c>
       <c r="D27" s="40"/>
-      <c r="E27" s="54"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="51"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
     </row>
     <row r="28" s="39" customFormat="1" spans="3:3">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="56" t="s">
         <v>179</v>
       </c>
     </row>
@@ -15676,7 +15679,7 @@
       <c r="H34" s="40"/>
     </row>
     <row r="35" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="57" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -15689,7 +15692,7 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="58" t="s">
         <v>192</v>
       </c>
       <c r="D36" s="48"/>
@@ -15731,7 +15734,7 @@
       </c>
     </row>
     <row r="39" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="57" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -15751,7 +15754,7 @@
       </c>
     </row>
     <row r="40" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C40" s="50" t="s">
+      <c r="C40" s="59" t="s">
         <v>206</v>
       </c>
       <c r="D40" s="40"/>
@@ -15763,7 +15766,7 @@
       <c r="H40" s="40"/>
     </row>
     <row r="41" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="59" t="s">
         <v>208</v>
       </c>
       <c r="D41" s="40"/>
@@ -15775,7 +15778,7 @@
       <c r="H41" s="40"/>
     </row>
     <row r="42" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="58" t="s">
         <v>210</v>
       </c>
       <c r="D42" s="48"/>
@@ -15799,7 +15802,7 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C44" s="50" t="s">
+      <c r="C44" s="59" t="s">
         <v>214</v>
       </c>
       <c r="D44" s="48" t="s">
@@ -15849,7 +15852,7 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="57" t="s">
         <v>168</v>
       </c>
       <c r="D48" s="48"/>
@@ -15862,7 +15865,7 @@
       </c>
     </row>
     <row r="49" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="57" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="47" t="s">
@@ -15892,7 +15895,7 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="57" t="s">
         <v>228</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -15918,7 +15921,7 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -15945,13 +15948,13 @@
       <c r="C55" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="59"/>
+      <c r="E55" s="61"/>
     </row>
     <row r="56" s="38" customFormat="1" spans="3:5">
       <c r="C56" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="59"/>
+      <c r="E56" s="61"/>
     </row>
     <row r="58" s="38" customFormat="1" spans="2:8">
       <c r="B58" s="38" t="s">
@@ -15982,10 +15985,10 @@
       <c r="E59" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="F59" s="60" t="s">
+      <c r="F59" s="62" t="s">
         <v>242</v>
       </c>
-      <c r="G59" s="60" t="s">
+      <c r="G59" s="62" t="s">
         <v>243</v>
       </c>
       <c r="H59" s="40" t="s">
@@ -15993,14 +15996,14 @@
       </c>
     </row>
     <row r="60" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="59" t="s">
         <v>245</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="61" t="s">
+      <c r="F60" s="63" t="s">
         <v>247</v>
       </c>
       <c r="G60" s="40" t="s">
@@ -16009,13 +16012,13 @@
       <c r="H60" s="40"/>
     </row>
     <row r="61" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="59" t="s">
         <v>249</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="54"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="49" t="s">
         <v>251</v>
       </c>
@@ -16023,11 +16026,11 @@
       <c r="H61" s="40"/>
     </row>
     <row r="62" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="59" t="s">
         <v>252</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" s="54"/>
+      <c r="E62" s="55"/>
       <c r="F62" s="49" t="s">
         <v>253</v>
       </c>
@@ -16149,7 +16152,7 @@
       <c r="D71" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="62" t="s">
+      <c r="E71" s="64" t="s">
         <v>274</v>
       </c>
       <c r="F71" s="51" t="s">
@@ -16177,7 +16180,7 @@
       <c r="H72" s="40"/>
     </row>
     <row r="73" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="63" t="s">
+      <c r="C73" s="53" t="s">
         <v>280</v>
       </c>
       <c r="D73" s="51"/>
@@ -16405,7 +16408,7 @@
       <c r="H90" s="40"/>
     </row>
     <row r="91" s="38" customFormat="1" spans="3:8">
-      <c r="C91" s="63" t="s">
+      <c r="C91" s="53" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="40"/>
@@ -16444,207 +16447,207 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B94" s="38"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="65" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66" t="s">
+      <c r="D94" s="66"/>
+      <c r="E94" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="68" t="s">
         <v>320</v>
       </c>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B95" s="38"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66" t="s">
+      <c r="D95" s="66"/>
+      <c r="E95" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="69" t="s">
         <v>322</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="H95" s="65" t="s">
+      <c r="H95" s="66" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B96" s="38"/>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="65" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="70" t="s">
         <v>317</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B97" s="38"/>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="71" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="66" t="s">
+      <c r="D97" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="69" t="s">
+      <c r="E97" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="F97" s="65"/>
-      <c r="G97" s="68" t="s">
+      <c r="F97" s="66"/>
+      <c r="G97" s="69" t="s">
         <v>328</v>
       </c>
-      <c r="H97" s="65"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B98" s="38"/>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66" t="s">
+      <c r="D98" s="67"/>
+      <c r="E98" s="67" t="s">
         <v>329</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="69" t="s">
         <v>330</v>
       </c>
-      <c r="G98" s="65" t="s">
+      <c r="G98" s="66" t="s">
         <v>331</v>
       </c>
-      <c r="H98" s="65"/>
+      <c r="H98" s="66"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B99" s="38"/>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="72" t="s">
         <v>208</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="68" t="s">
+      <c r="D99" s="66"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="69" t="s">
         <v>332</v>
       </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B100" s="38"/>
-      <c r="C100" s="71" t="s">
+      <c r="C100" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="68" t="s">
+      <c r="D100" s="67"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="69" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="65" t="s">
+      <c r="G100" s="66" t="s">
         <v>335</v>
       </c>
-      <c r="H100" s="65"/>
+      <c r="H100" s="66"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B101" s="38"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="65" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66" t="s">
+      <c r="D101" s="66"/>
+      <c r="E101" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="2:8">
       <c r="B102" s="38"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D102" s="66" t="s">
         <v>337</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B103" s="38"/>
-      <c r="C103" s="72" t="s">
+      <c r="C103" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="66" t="s">
+      <c r="D103" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="2:8">
       <c r="B104" s="38"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="2:8">
       <c r="B105" s="38"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65" t="s">
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B106" s="38"/>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="66" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="66" t="s">
+      <c r="D106" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="66" t="s">
+      <c r="E106" s="66"/>
+      <c r="F106" s="67" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="2:8">
       <c r="B107" s="38"/>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="67" t="s">
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="H107" s="65"/>
+      <c r="H107" s="66"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="2:2">
       <c r="B108" s="38"/>
@@ -16857,7 +16860,7 @@
       <c r="H125" s="40"/>
     </row>
     <row r="126" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="59" t="s">
         <v>369</v>
       </c>
       <c r="D126" s="40"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3399,10 +3399,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3495,15 +3495,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3517,28 +3525,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3552,16 +3539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3569,7 +3548,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3584,6 +3563,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3591,16 +3585,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3615,7 +3609,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3625,14 +3625,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3695,7 +3695,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3713,25 +3767,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3743,31 +3803,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3785,97 +3851,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3964,8 +3964,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3985,35 +4009,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4029,17 +4024,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4051,10 +4051,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4063,137 +4063,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4342,9 +4342,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5084,474 +5081,474 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="75"/>
-    <col min="10" max="10" width="13.7777777777778" style="75" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="75" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="75"/>
+    <col min="1" max="9" width="9" style="74"/>
+    <col min="10" max="10" width="13.7777777777778" style="74" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="74" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="M1" s="74" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="75">
+      <c r="J2" s="74">
         <v>100</v>
       </c>
-      <c r="K2" s="75">
+      <c r="K2" s="74">
         <v>3000</v>
       </c>
-      <c r="L2" s="75">
+      <c r="L2" s="74">
         <v>10</v>
       </c>
-      <c r="M2" s="75">
+      <c r="M2" s="74">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="75">
+      <c r="C3" s="74">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="74">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="74">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="75">
+      <c r="D4" s="74">
         <v>1</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="75" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="75" t="s">
+      <c r="J5" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="75" t="s">
+      <c r="K5" s="74" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="75" t="s">
+      <c r="J6" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="75" t="s">
+      <c r="K6" s="74" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="75" t="s">
+      <c r="J7" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="75" t="s">
+      <c r="K7" s="74" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="75" t="s">
+      <c r="J9" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="75" t="s">
+      <c r="K9" s="74" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="75" t="s">
+      <c r="J10" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="75" t="s">
+      <c r="K10" s="74" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="75" t="s">
+      <c r="J11" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="75" t="s">
+      <c r="K11" s="74" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="75">
+      <c r="B12" s="74">
         <v>1</v>
       </c>
-      <c r="C12" s="75">
+      <c r="C12" s="74">
         <v>5</v>
       </c>
-      <c r="J12" s="77" t="s">
+      <c r="J12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="77" t="s">
+      <c r="K12" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="75">
+      <c r="B13" s="74">
         <v>2</v>
       </c>
-      <c r="C13" s="75">
+      <c r="C13" s="74">
         <v>5</v>
       </c>
-      <c r="J13" s="77" t="s">
+      <c r="J13" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="77" t="s">
+      <c r="K13" s="76" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="75">
+      <c r="B14" s="74">
         <v>3</v>
       </c>
-      <c r="C14" s="75">
+      <c r="C14" s="74">
         <v>10</v>
       </c>
-      <c r="I14" s="78"/>
-      <c r="J14" s="75" t="s">
+      <c r="I14" s="77"/>
+      <c r="J14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="75" t="s">
+      <c r="K14" s="74" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="75">
+      <c r="B15" s="74">
         <v>4</v>
       </c>
-      <c r="C15" s="75">
+      <c r="C15" s="74">
         <v>20</v>
       </c>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>5</v>
       </c>
-      <c r="C16" s="75">
+      <c r="C16" s="74">
         <v>40</v>
       </c>
-      <c r="J16" s="75" t="s">
+      <c r="J16" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="75" t="s">
+      <c r="K16" s="74" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>6</v>
       </c>
-      <c r="C17" s="75">
+      <c r="C17" s="74">
         <v>80</v>
       </c>
-      <c r="J17" s="75" t="s">
+      <c r="J17" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="75" t="s">
+      <c r="K17" s="74" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>7</v>
       </c>
-      <c r="C18" s="75">
+      <c r="C18" s="74">
         <v>100</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="75" t="s">
+      <c r="I18" s="78"/>
+      <c r="J18" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="75" t="s">
+      <c r="K18" s="74" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="75" t="s">
+      <c r="J19" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="75" t="s">
+      <c r="K19" s="74" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="2:9">
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>8</v>
       </c>
-      <c r="C20" s="75">
+      <c r="C20" s="74">
         <v>150</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="75" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>9</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="74">
         <v>200</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="74" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="75">
+      <c r="B22" s="74">
         <v>10</v>
       </c>
-      <c r="C22" s="75">
+      <c r="C22" s="74">
         <v>300</v>
       </c>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="74" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>11</v>
       </c>
-      <c r="C23" s="75">
+      <c r="C23" s="74">
         <v>500</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="75" t="s">
+      <c r="K23" s="74" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="9:11">
-      <c r="I24" s="79"/>
-      <c r="J24" s="75" t="s">
+      <c r="I24" s="78"/>
+      <c r="J24" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="75" t="s">
+      <c r="K24" s="74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="75">
+      <c r="C25" s="74">
         <f>SUM(C12:C23)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="75" t="s">
+      <c r="J26" s="74" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="16.2" spans="9:9">
-      <c r="I28" s="76" t="s">
+      <c r="I28" s="75" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:18">
-      <c r="J29" s="75" t="s">
+      <c r="J29" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="80" t="s">
+      <c r="L29" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="80" t="s">
+      <c r="M29" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="81" t="s">
+      <c r="N29" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="82" t="s">
+      <c r="O29" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="82" t="s">
+      <c r="P29" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="82" t="s">
+      <c r="Q29" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="R29" s="83" t="s">
+      <c r="R29" s="82" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" spans="10:15">
-      <c r="J30" s="75" t="s">
+      <c r="J30" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="L30" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="M30" s="80" t="s">
+      <c r="M30" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="N30" s="82" t="s">
+      <c r="N30" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="82" t="s">
+      <c r="O30" s="81" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="31" spans="11:15">
-      <c r="K31" s="80" t="s">
+      <c r="K31" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="L31" s="80" t="s">
+      <c r="L31" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="M31" s="82" t="s">
+      <c r="M31" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="82" t="s">
+      <c r="N31" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="O31" s="82" t="s">
+      <c r="O31" s="81" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="10:18">
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="K32" s="80" t="s">
+      <c r="K32" s="79" t="s">
         <v>65</v>
       </c>
-      <c r="L32" s="80" t="s">
+      <c r="L32" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="M32" s="80" t="s">
+      <c r="M32" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="N32" s="82" t="s">
+      <c r="N32" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="O32" s="82" t="s">
+      <c r="O32" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="P32" s="82" t="s">
+      <c r="P32" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="Q32" s="82" t="s">
+      <c r="Q32" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R32" s="82" t="s">
+      <c r="R32" s="81" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="10:17">
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="K33" s="80" t="s">
+      <c r="K33" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="L33" s="80" t="s">
+      <c r="L33" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="M33" s="82" t="s">
+      <c r="M33" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="N33" s="82" t="s">
+      <c r="N33" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="O33" s="82" t="s">
+      <c r="O33" s="81" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="82" t="s">
+      <c r="P33" s="81" t="s">
         <v>79</v>
       </c>
-      <c r="Q33" s="82" t="s">
+      <c r="Q33" s="81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="34" spans="10:17">
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="K34" s="80" t="s">
+      <c r="K34" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="M34" s="82" t="s">
+      <c r="M34" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="82" t="s">
+      <c r="N34" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="O34" s="82" t="s">
+      <c r="O34" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="P34" s="82" t="s">
+      <c r="P34" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="Q34" s="82" t="s">
+      <c r="Q34" s="81" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="10:12">
-      <c r="J35" s="75" t="s">
+      <c r="J35" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K35" s="82" t="s">
+      <c r="K35" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="L35" s="82" t="s">
+      <c r="L35" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="37" ht="16.2" spans="9:9">
-      <c r="I37" s="76" t="s">
+      <c r="I37" s="75" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="10:11">
-      <c r="J38" s="75" t="s">
+      <c r="J38" s="74" t="s">
         <v>44</v>
       </c>
       <c r="K38" s="34" t="s">
@@ -5559,29 +5556,29 @@
       </c>
     </row>
     <row r="39" spans="10:13">
-      <c r="J39" s="75" t="s">
+      <c r="J39" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="K39" s="80" t="s">
+      <c r="K39" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="L39" s="80" t="s">
+      <c r="L39" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="M39" s="82" t="s">
+      <c r="M39" s="81" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" spans="10:11">
-      <c r="J40" s="75" t="s">
+      <c r="J40" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="K40" s="80" t="s">
+      <c r="K40" s="79" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:12">
-      <c r="J41" s="75" t="s">
+      <c r="J41" s="74" t="s">
         <v>81</v>
       </c>
       <c r="K41" s="34" t="s">
@@ -5592,40 +5589,40 @@
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="75" t="s">
+      <c r="J42" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="K42" s="80" t="s">
+      <c r="K42" s="79" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="75" t="s">
+      <c r="J44" s="74" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="10:10">
-      <c r="J45" s="75" t="s">
+      <c r="J45" s="74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="75" t="s">
+      <c r="J46" s="74" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="75" t="s">
+      <c r="J48" s="74" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="52" spans="15:15">
-      <c r="O52" s="75" t="s">
+      <c r="O52" s="74" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="15:15">
-      <c r="O53" s="75" t="s">
+      <c r="O53" s="74" t="s">
         <v>106</v>
       </c>
     </row>
@@ -15238,7 +15235,7 @@
   <dimension ref="B1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15340,7 +15337,7 @@
       <c r="H5" s="40"/>
     </row>
     <row r="6" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="46" t="s">
         <v>128</v>
       </c>
       <c r="D6" s="40"/>
@@ -15352,7 +15349,7 @@
       <c r="H6" s="40"/>
     </row>
     <row r="7" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="46" t="s">
         <v>130</v>
       </c>
       <c r="D7" s="40"/>
@@ -15372,10 +15369,10 @@
       <c r="D8" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="50" t="s">
         <v>136</v>
       </c>
       <c r="G8" s="40"/>
@@ -15389,7 +15386,7 @@
         <v>138</v>
       </c>
       <c r="E9" s="40"/>
-      <c r="F9" s="51" t="s">
+      <c r="F9" s="50" t="s">
         <v>139</v>
       </c>
       <c r="G9" s="40"/>
@@ -15401,7 +15398,7 @@
       </c>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="51" t="s">
         <v>141</v>
       </c>
       <c r="G10" s="40"/>
@@ -15414,13 +15411,13 @@
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
       <c r="F11" s="49"/>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="51" t="s">
         <v>143</v>
       </c>
       <c r="H11" s="40"/>
     </row>
     <row r="12" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="52" t="s">
         <v>144</v>
       </c>
       <c r="D12" s="40"/>
@@ -15490,7 +15487,7 @@
       <c r="D17" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>157</v>
       </c>
       <c r="F17" s="40"/>
@@ -15554,10 +15551,10 @@
         <v>168</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="54" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="51" t="s">
         <v>170</v>
       </c>
       <c r="G22" s="40"/>
@@ -15568,11 +15565,11 @@
         <v>171</v>
       </c>
       <c r="D23" s="40"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="52" t="s">
+      <c r="E23" s="54"/>
+      <c r="F23" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="52" t="s">
+      <c r="G23" s="51" t="s">
         <v>173</v>
       </c>
       <c r="H23" s="40"/>
@@ -15592,10 +15589,10 @@
         <v>176</v>
       </c>
       <c r="D26" s="40"/>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="51"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
     </row>
@@ -15604,13 +15601,13 @@
         <v>178</v>
       </c>
       <c r="D27" s="40"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="50"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
     </row>
     <row r="28" s="39" customFormat="1" spans="3:3">
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="55" t="s">
         <v>179</v>
       </c>
     </row>
@@ -15654,7 +15651,7 @@
       <c r="C33" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="51" t="s">
+      <c r="D33" s="50" t="s">
         <v>184</v>
       </c>
       <c r="E33" s="40"/>
@@ -15679,7 +15676,7 @@
       <c r="H34" s="40"/>
     </row>
     <row r="35" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C35" s="57" t="s">
+      <c r="C35" s="56" t="s">
         <v>189</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -15692,11 +15689,11 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="57" t="s">
         <v>192</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="E36" s="52"/>
+      <c r="E36" s="51"/>
       <c r="F36" s="49" t="s">
         <v>193</v>
       </c>
@@ -15721,7 +15718,7 @@
       <c r="C38" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="50" t="s">
         <v>197</v>
       </c>
       <c r="E38" s="40" t="s">
@@ -15734,7 +15731,7 @@
       </c>
     </row>
     <row r="39" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C39" s="57" t="s">
+      <c r="C39" s="56" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -15743,7 +15740,7 @@
       <c r="E39" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="51" t="s">
+      <c r="F39" s="50" t="s">
         <v>203</v>
       </c>
       <c r="G39" s="40" t="s">
@@ -15754,7 +15751,7 @@
       </c>
     </row>
     <row r="40" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C40" s="59" t="s">
+      <c r="C40" s="58" t="s">
         <v>206</v>
       </c>
       <c r="D40" s="40"/>
@@ -15766,7 +15763,7 @@
       <c r="H40" s="40"/>
     </row>
     <row r="41" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="58" t="s">
         <v>208</v>
       </c>
       <c r="D41" s="40"/>
@@ -15778,7 +15775,7 @@
       <c r="H41" s="40"/>
     </row>
     <row r="42" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="57" t="s">
         <v>210</v>
       </c>
       <c r="D42" s="48"/>
@@ -15802,7 +15799,7 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="58" t="s">
         <v>214</v>
       </c>
       <c r="D44" s="48" t="s">
@@ -15845,43 +15842,43 @@
       </c>
       <c r="D47" s="48"/>
       <c r="E47" s="40"/>
-      <c r="F47" s="51"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="40" t="s">
         <v>220</v>
       </c>
       <c r="H47" s="40"/>
     </row>
     <row r="48" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="56" t="s">
         <v>168</v>
       </c>
       <c r="D48" s="48"/>
       <c r="E48" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="F48" s="51"/>
+      <c r="F48" s="50"/>
       <c r="H48" s="40" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="49" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>152</v>
       </c>
       <c r="D49" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="F49" s="51"/>
+      <c r="F49" s="50"/>
       <c r="G49" s="40" t="s">
         <v>225</v>
       </c>
       <c r="H49" s="40"/>
     </row>
     <row r="50" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="50" t="s">
         <v>171</v>
       </c>
       <c r="D50" s="40"/>
@@ -15895,7 +15892,7 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C51" s="57" t="s">
+      <c r="C51" s="56" t="s">
         <v>228</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -15909,7 +15906,7 @@
       <c r="H51" s="40"/>
     </row>
     <row r="52" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="50" t="s">
         <v>231</v>
       </c>
       <c r="D52" s="40"/>
@@ -15921,7 +15918,7 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="59" t="s">
         <v>233</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -15933,7 +15930,7 @@
       <c r="H53" s="40"/>
     </row>
     <row r="54" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C54" s="51" t="s">
+      <c r="C54" s="50" t="s">
         <v>235</v>
       </c>
       <c r="D54" s="48" t="s">
@@ -15948,13 +15945,13 @@
       <c r="C55" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E55" s="61"/>
+      <c r="E55" s="60"/>
     </row>
     <row r="56" s="38" customFormat="1" spans="3:5">
       <c r="C56" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="E56" s="61"/>
+      <c r="E56" s="60"/>
     </row>
     <row r="58" s="38" customFormat="1" spans="2:8">
       <c r="B58" s="38" t="s">
@@ -15985,10 +15982,10 @@
       <c r="E59" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="F59" s="62" t="s">
+      <c r="F59" s="61" t="s">
         <v>242</v>
       </c>
-      <c r="G59" s="62" t="s">
+      <c r="G59" s="61" t="s">
         <v>243</v>
       </c>
       <c r="H59" s="40" t="s">
@@ -15996,14 +15993,14 @@
       </c>
     </row>
     <row r="60" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="58" t="s">
         <v>245</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="F60" s="63" t="s">
+      <c r="F60" s="62" t="s">
         <v>247</v>
       </c>
       <c r="G60" s="40" t="s">
@@ -16012,13 +16009,13 @@
       <c r="H60" s="40"/>
     </row>
     <row r="61" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="50" t="s">
         <v>250</v>
       </c>
-      <c r="E61" s="55"/>
+      <c r="E61" s="54"/>
       <c r="F61" s="49" t="s">
         <v>251</v>
       </c>
@@ -16026,11 +16023,11 @@
       <c r="H61" s="40"/>
     </row>
     <row r="62" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C62" s="59" t="s">
+      <c r="C62" s="58" t="s">
         <v>252</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" s="55"/>
+      <c r="E62" s="54"/>
       <c r="F62" s="49" t="s">
         <v>253</v>
       </c>
@@ -16063,7 +16060,7 @@
       <c r="D64" s="48" t="s">
         <v>260</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="50" t="s">
         <v>261</v>
       </c>
       <c r="F64" s="40"/>
@@ -16086,7 +16083,7 @@
       <c r="C66" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="50" t="s">
         <v>262</v>
       </c>
       <c r="E66" s="40"/>
@@ -16107,7 +16104,7 @@
       <c r="H67" s="40"/>
     </row>
     <row r="68" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C68" s="51" t="s">
+      <c r="C68" s="50" t="s">
         <v>231</v>
       </c>
       <c r="D68" s="48" t="s">
@@ -16118,7 +16115,7 @@
       <c r="H68" s="40"/>
     </row>
     <row r="69" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C69" s="51" t="s">
+      <c r="C69" s="50" t="s">
         <v>266</v>
       </c>
       <c r="D69" s="48"/>
@@ -16152,10 +16149,10 @@
       <c r="D71" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="64" t="s">
+      <c r="E71" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="F71" s="51" t="s">
+      <c r="F71" s="50" t="s">
         <v>275</v>
       </c>
       <c r="G71" s="40" t="s">
@@ -16169,7 +16166,7 @@
       <c r="C72" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="51"/>
+      <c r="D72" s="50"/>
       <c r="E72" s="48" t="s">
         <v>278</v>
       </c>
@@ -16180,10 +16177,10 @@
       <c r="H72" s="40"/>
     </row>
     <row r="73" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="53" t="s">
+      <c r="C73" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="D73" s="51"/>
+      <c r="D73" s="50"/>
       <c r="E73" s="48" t="s">
         <v>281</v>
       </c>
@@ -16195,7 +16192,7 @@
       <c r="C74" s="40" t="s">
         <v>219</v>
       </c>
-      <c r="D74" s="51"/>
+      <c r="D74" s="50"/>
       <c r="E74" s="48" t="s">
         <v>282</v>
       </c>
@@ -16283,7 +16280,7 @@
       <c r="E82" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="F82" s="51" t="s">
+      <c r="F82" s="50" t="s">
         <v>294</v>
       </c>
       <c r="G82" s="40" t="s">
@@ -16350,8 +16347,8 @@
       <c r="F86" s="49" t="s">
         <v>307</v>
       </c>
-      <c r="G86" s="51"/>
-      <c r="H86" s="51" t="s">
+      <c r="G86" s="50"/>
+      <c r="H86" s="50" t="s">
         <v>308</v>
       </c>
     </row>
@@ -16364,10 +16361,10 @@
         <v>309</v>
       </c>
       <c r="F87" s="47"/>
-      <c r="G87" s="51" t="s">
+      <c r="G87" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="H87" s="51" t="s">
+      <c r="H87" s="50" t="s">
         <v>311</v>
       </c>
     </row>
@@ -16378,10 +16375,10 @@
       <c r="D88" s="40"/>
       <c r="E88" s="48"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="51" t="s">
+      <c r="G88" s="50" t="s">
         <v>312</v>
       </c>
-      <c r="H88" s="51"/>
+      <c r="H88" s="50"/>
     </row>
     <row r="89" s="38" customFormat="1" ht="16.2" spans="3:8">
       <c r="C89" s="40" t="s">
@@ -16408,7 +16405,7 @@
       <c r="H90" s="40"/>
     </row>
     <row r="91" s="38" customFormat="1" spans="3:8">
-      <c r="C91" s="53" t="s">
+      <c r="C91" s="52" t="s">
         <v>314</v>
       </c>
       <c r="D91" s="40"/>
@@ -16447,207 +16444,207 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B94" s="38"/>
-      <c r="C94" s="65" t="s">
+      <c r="C94" s="64" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="66"/>
-      <c r="E94" s="67" t="s">
+      <c r="D94" s="65"/>
+      <c r="E94" s="66" t="s">
         <v>319</v>
       </c>
-      <c r="F94" s="68" t="s">
+      <c r="F94" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B95" s="38"/>
-      <c r="C95" s="65" t="s">
+      <c r="C95" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="66"/>
-      <c r="E95" s="67" t="s">
+      <c r="D95" s="65"/>
+      <c r="E95" s="66" t="s">
         <v>321</v>
       </c>
-      <c r="F95" s="69" t="s">
+      <c r="F95" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="G95" s="66" t="s">
+      <c r="G95" s="65" t="s">
         <v>323</v>
       </c>
-      <c r="H95" s="66" t="s">
+      <c r="H95" s="65" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B96" s="38"/>
-      <c r="C96" s="65" t="s">
+      <c r="C96" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="D96" s="70" t="s">
+      <c r="D96" s="69" t="s">
         <v>317</v>
       </c>
-      <c r="E96" s="66" t="s">
+      <c r="E96" s="65" t="s">
         <v>325</v>
       </c>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B97" s="38"/>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="67" t="s">
+      <c r="D97" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="70" t="s">
+      <c r="E97" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="F97" s="66"/>
-      <c r="G97" s="69" t="s">
+      <c r="F97" s="65"/>
+      <c r="G97" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="H97" s="66"/>
+      <c r="H97" s="65"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B98" s="38"/>
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="D98" s="67"/>
-      <c r="E98" s="67" t="s">
+      <c r="D98" s="66"/>
+      <c r="E98" s="66" t="s">
         <v>329</v>
       </c>
-      <c r="F98" s="69" t="s">
+      <c r="F98" s="68" t="s">
         <v>330</v>
       </c>
-      <c r="G98" s="66" t="s">
+      <c r="G98" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="H98" s="66"/>
+      <c r="H98" s="65"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B99" s="38"/>
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="71" t="s">
         <v>208</v>
       </c>
-      <c r="D99" s="66"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="69" t="s">
+      <c r="D99" s="65"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B100" s="38"/>
-      <c r="C100" s="72" t="s">
+      <c r="C100" s="71" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="69" t="s">
+      <c r="D100" s="66"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="G100" s="66" t="s">
+      <c r="G100" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="H100" s="66"/>
+      <c r="H100" s="65"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B101" s="38"/>
-      <c r="C101" s="65" t="s">
+      <c r="C101" s="64" t="s">
         <v>144</v>
       </c>
-      <c r="D101" s="66"/>
-      <c r="E101" s="67" t="s">
+      <c r="D101" s="65"/>
+      <c r="E101" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="2:8">
       <c r="B102" s="38"/>
-      <c r="C102" s="66" t="s">
+      <c r="C102" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="D102" s="66" t="s">
+      <c r="D102" s="65" t="s">
         <v>337</v>
       </c>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B103" s="38"/>
-      <c r="C103" s="73" t="s">
+      <c r="C103" s="72" t="s">
         <v>233</v>
       </c>
-      <c r="D103" s="67" t="s">
+      <c r="D103" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="2:8">
       <c r="B104" s="38"/>
-      <c r="C104" s="66" t="s">
+      <c r="C104" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D104" s="66" t="s">
+      <c r="D104" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="2:8">
       <c r="B105" s="38"/>
-      <c r="C105" s="66" t="s">
+      <c r="C105" s="65" t="s">
         <v>152</v>
       </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66" t="s">
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65" t="s">
         <v>340</v>
       </c>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B106" s="38"/>
-      <c r="C106" s="66" t="s">
+      <c r="C106" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="D106" s="67" t="s">
+      <c r="D106" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="E106" s="66"/>
-      <c r="F106" s="67" t="s">
+      <c r="E106" s="65"/>
+      <c r="F106" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="2:8">
       <c r="B107" s="38"/>
-      <c r="C107" s="74" t="s">
+      <c r="C107" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="68" t="s">
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="H107" s="66"/>
+      <c r="H107" s="65"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="2:2">
       <c r="B108" s="38"/>
@@ -16697,7 +16694,7 @@
       <c r="C112" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="D112" s="51" t="s">
+      <c r="D112" s="50" t="s">
         <v>349</v>
       </c>
       <c r="E112" s="40" t="s">
@@ -16712,7 +16709,7 @@
         <v>152</v>
       </c>
       <c r="D113" s="40"/>
-      <c r="E113" s="51" t="s">
+      <c r="E113" s="50" t="s">
         <v>351</v>
       </c>
       <c r="F113" s="40" t="s">
@@ -16860,7 +16857,7 @@
       <c r="H125" s="40"/>
     </row>
     <row r="126" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C126" s="59" t="s">
+      <c r="C126" s="58" t="s">
         <v>369</v>
       </c>
       <c r="D126" s="40"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3397,9 +3397,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3505,6 +3505,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -3519,18 +3527,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3542,22 +3543,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3572,7 +3588,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3587,16 +3603,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3612,31 +3636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3699,7 +3699,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3711,175 +3873,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3970,15 +3970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3990,6 +3981,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4009,6 +4024,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4023,30 +4047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4055,10 +4055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4067,137 +4067,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4354,7 +4354,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4388,6 +4388,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -5079,524 +5082,524 @@
   </sheetPr>
   <dimension ref="B1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="9" width="9" style="74"/>
-    <col min="10" max="10" width="13.7777777777778" style="74" customWidth="1"/>
-    <col min="11" max="19" width="10.2222222222222" style="74" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="74"/>
+    <col min="1" max="9" width="9" style="75"/>
+    <col min="10" max="10" width="13.7777777777778" style="75" customWidth="1"/>
+    <col min="11" max="19" width="10.2222222222222" style="75" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="75"/>
   </cols>
   <sheetData>
     <row r="1" spans="10:13">
-      <c r="J1" s="74" t="s">
+      <c r="J1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="75" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:13">
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="74" t="s">
+      <c r="D2" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="74">
+      <c r="J2" s="75">
         <v>100</v>
       </c>
-      <c r="K2" s="74">
+      <c r="K2" s="75">
         <v>3000</v>
       </c>
-      <c r="L2" s="74">
+      <c r="L2" s="75">
         <v>10</v>
       </c>
-      <c r="M2" s="74">
+      <c r="M2" s="75">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="74">
+      <c r="C3" s="75">
         <f>300/10</f>
         <v>30</v>
       </c>
-      <c r="D3" s="74">
+      <c r="D3" s="75">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" ht="16.2" spans="2:9">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="75">
         <f>200/10</f>
         <v>20</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="75">
         <v>1</v>
       </c>
-      <c r="I4" s="75" t="s">
+      <c r="I4" s="76" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="10:11">
-      <c r="J6" s="74" t="s">
+      <c r="J6" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="74" t="s">
+      <c r="K6" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="10:11">
-      <c r="J7" s="74" t="s">
+      <c r="J7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="74" t="s">
+      <c r="K7" s="75" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="10:11">
-      <c r="J9" s="74" t="s">
+      <c r="J9" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="74" t="s">
+      <c r="K9" s="75" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="10:11">
-      <c r="J10" s="74" t="s">
+      <c r="J10" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="74" t="s">
+      <c r="K10" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="10:11">
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="74" t="s">
+      <c r="K11" s="75" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="74">
+      <c r="B12" s="75">
         <v>1</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="75">
         <v>5</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="76" t="s">
+      <c r="K12" s="77" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="74">
+      <c r="B13" s="75">
         <v>2</v>
       </c>
-      <c r="C13" s="74">
+      <c r="C13" s="75">
         <v>5</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="76" t="s">
+      <c r="K13" s="77" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="74">
+      <c r="B14" s="75">
         <v>3</v>
       </c>
-      <c r="C14" s="74">
+      <c r="C14" s="75">
         <v>10</v>
       </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="74" t="s">
+      <c r="I14" s="78"/>
+      <c r="J14" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="74" t="s">
+      <c r="K14" s="75" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="74">
+      <c r="B15" s="75">
         <v>4</v>
       </c>
-      <c r="C15" s="74">
+      <c r="C15" s="75">
         <v>20</v>
       </c>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="74">
+      <c r="B16" s="75">
         <v>5</v>
       </c>
-      <c r="C16" s="74">
+      <c r="C16" s="75">
         <v>40</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="74" t="s">
+      <c r="K16" s="75" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="74">
+      <c r="B17" s="75">
         <v>6</v>
       </c>
-      <c r="C17" s="74">
+      <c r="C17" s="75">
         <v>80</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="74" t="s">
+      <c r="K17" s="75" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:11">
-      <c r="B18" s="74">
+      <c r="B18" s="75">
         <v>7</v>
       </c>
-      <c r="C18" s="74">
+      <c r="C18" s="75">
         <v>100</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="74" t="s">
+      <c r="I18" s="79"/>
+      <c r="J18" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="74" t="s">
+      <c r="K18" s="75" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="9:11">
-      <c r="I19" s="77" t="s">
+      <c r="I19" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="J19" s="74" t="s">
+      <c r="J19" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="K19" s="74" t="s">
+      <c r="K19" s="75" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="20" ht="16.2" spans="2:9">
-      <c r="B20" s="74">
+      <c r="B20" s="75">
         <v>8</v>
       </c>
-      <c r="C20" s="74">
+      <c r="C20" s="75">
         <v>150</v>
       </c>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="76" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="74">
+      <c r="B21" s="75">
         <v>9</v>
       </c>
-      <c r="C21" s="74">
+      <c r="C21" s="75">
         <v>200</v>
       </c>
-      <c r="J21" s="74" t="s">
+      <c r="J21" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="74" t="s">
+      <c r="K21" s="75" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="74">
+      <c r="B22" s="75">
         <v>10</v>
       </c>
-      <c r="C22" s="74">
+      <c r="C22" s="75">
         <v>300</v>
       </c>
-      <c r="J22" s="74" t="s">
+      <c r="J22" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="74" t="s">
+      <c r="K22" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="74">
+      <c r="B23" s="75">
         <v>11</v>
       </c>
-      <c r="C23" s="74">
+      <c r="C23" s="75">
         <v>500</v>
       </c>
-      <c r="J23" s="74" t="s">
+      <c r="J23" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="74" t="s">
+      <c r="K23" s="75" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" spans="9:11">
-      <c r="I24" s="78"/>
-      <c r="J24" s="74" t="s">
+      <c r="I24" s="79"/>
+      <c r="J24" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="K24" s="74" t="s">
+      <c r="K24" s="75" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="74">
+      <c r="C25" s="75">
         <f>SUM(C12:C23)</f>
         <v>1410</v>
       </c>
     </row>
     <row r="26" spans="10:10">
-      <c r="J26" s="74" t="s">
+      <c r="J26" s="75" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="16.2" spans="9:9">
-      <c r="I28" s="75" t="s">
+      <c r="I28" s="76" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:16">
-      <c r="J29" s="74" t="s">
+      <c r="J29" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="K29" s="79" t="s">
+      <c r="K29" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="L29" s="79" t="s">
+      <c r="L29" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="79" t="s">
+      <c r="M29" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="80" t="s">
+      <c r="N29" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="O29" s="80" t="s">
+      <c r="O29" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="P29" s="80" t="s">
+      <c r="P29" s="81" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="30" spans="11:18">
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="80" t="s">
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="80" t="s">
+      <c r="P30" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
     </row>
     <row r="31" spans="10:16">
-      <c r="J31" s="74" t="s">
+      <c r="J31" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="79" t="s">
+      <c r="K31" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="79" t="s">
+      <c r="L31" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="M31" s="79" t="s">
+      <c r="M31" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="N31" s="80" t="s">
+      <c r="N31" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="80" t="s">
+      <c r="O31" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="P31" s="80" t="s">
+      <c r="P31" s="81" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="11:16">
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="L32" s="79" t="s">
+      <c r="L32" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="M32" s="79" t="s">
+      <c r="M32" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="N32" s="80" t="s">
+      <c r="N32" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="O32" s="80" t="s">
+      <c r="O32" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="80" t="s">
+      <c r="P32" s="81" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="10:16">
-      <c r="J33" s="74" t="s">
+      <c r="J33" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="79" t="s">
+      <c r="K33" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="L33" s="79" t="s">
+      <c r="L33" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="M33" s="79" t="s">
+      <c r="M33" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="N33" s="80" t="s">
+      <c r="N33" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="O33" s="80" t="s">
+      <c r="O33" s="81" t="s">
         <v>72</v>
       </c>
       <c r="P33" s="32"/>
     </row>
     <row r="34" spans="11:16">
-      <c r="K34" s="79" t="s">
+      <c r="K34" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="L34" s="79" t="s">
+      <c r="L34" s="80" t="s">
         <v>74</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="80" t="s">
+      <c r="M34" s="82"/>
+      <c r="N34" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="O34" s="80" t="s">
+      <c r="O34" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="P34" s="80" t="s">
+      <c r="P34" s="81" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="10:16">
-      <c r="J35" s="74" t="s">
+      <c r="J35" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="79" t="s">
+      <c r="K35" s="80" t="s">
         <v>79</v>
       </c>
-      <c r="L35" s="79" t="s">
+      <c r="L35" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="M35" s="81"/>
-      <c r="N35" s="80" t="s">
+      <c r="M35" s="82"/>
+      <c r="N35" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="O35" s="80" t="s">
+      <c r="O35" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="P35" s="80" t="s">
+      <c r="P35" s="81" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="36" spans="11:16">
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="80" t="s">
+      <c r="K36" s="82"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="82"/>
+      <c r="N36" s="81" t="s">
         <v>84</v>
       </c>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
     </row>
     <row r="37" spans="10:16">
-      <c r="J37" s="74" t="s">
+      <c r="J37" s="75" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="79" t="s">
+      <c r="K37" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="79" t="s">
+      <c r="L37" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="M37" s="79" t="s">
+      <c r="M37" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N37" s="80" t="s">
+      <c r="N37" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O37" s="80" t="s">
+      <c r="O37" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="P37" s="80" t="s">
+      <c r="P37" s="81" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="38" spans="11:16">
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-      <c r="N38" s="80" t="s">
+      <c r="K38" s="82"/>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="81" t="s">
         <v>92</v>
       </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
     </row>
     <row r="39" spans="10:16">
-      <c r="J39" s="74" t="s">
+      <c r="J39" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="K39" s="79" t="s">
+      <c r="K39" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-      <c r="N39" s="80" t="s">
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="81" t="s">
         <v>95</v>
       </c>
-      <c r="O39" s="80" t="s">
+      <c r="O39" s="81" t="s">
         <v>96</v>
       </c>
       <c r="P39" s="32"/>
     </row>
     <row r="40" ht="16.2" spans="9:9">
-      <c r="I40" s="75" t="s">
+      <c r="I40" s="76" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="42" spans="10:11">
-      <c r="J42" s="74" t="s">
+      <c r="J42" s="75" t="s">
         <v>44</v>
       </c>
       <c r="K42" s="34" t="s">
@@ -5604,17 +5607,17 @@
       </c>
     </row>
     <row r="43" spans="10:10">
-      <c r="J43" s="74" t="s">
+      <c r="J43" s="75" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="44" spans="10:10">
-      <c r="J44" s="74" t="s">
+      <c r="J44" s="75" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="45" spans="10:11">
-      <c r="J45" s="74" t="s">
+      <c r="J45" s="75" t="s">
         <v>85</v>
       </c>
       <c r="K45" s="34" t="s">
@@ -5622,37 +5625,37 @@
       </c>
     </row>
     <row r="46" spans="10:10">
-      <c r="J46" s="74" t="s">
+      <c r="J46" s="75" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="48" spans="10:10">
-      <c r="J48" s="74" t="s">
+      <c r="J48" s="75" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="49" spans="10:10">
-      <c r="J49" s="74" t="s">
+      <c r="J49" s="75" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" spans="10:10">
-      <c r="J50" s="74" t="s">
+      <c r="J50" s="75" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" spans="10:10">
-      <c r="J52" s="74" t="s">
+      <c r="J52" s="75" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="55" spans="15:15">
-      <c r="O55" s="74" t="s">
+      <c r="O55" s="75" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="56" spans="15:15">
-      <c r="O56" s="74" t="s">
+      <c r="O56" s="75" t="s">
         <v>105</v>
       </c>
     </row>
@@ -15264,8 +15267,8 @@
   <sheetPr/>
   <dimension ref="B1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -16207,7 +16210,7 @@
       <c r="H72" s="40"/>
     </row>
     <row r="73" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C73" s="52" t="s">
+      <c r="C73" s="64" t="s">
         <v>279</v>
       </c>
       <c r="D73" s="50"/>
@@ -16435,7 +16438,7 @@
       <c r="H90" s="40"/>
     </row>
     <row r="91" s="38" customFormat="1" spans="3:8">
-      <c r="C91" s="52" t="s">
+      <c r="C91" s="64" t="s">
         <v>313</v>
       </c>
       <c r="D91" s="40"/>
@@ -16474,207 +16477,207 @@
     </row>
     <row r="94" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B94" s="38"/>
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="66" t="s">
+      <c r="D94" s="66"/>
+      <c r="E94" s="67" t="s">
         <v>318</v>
       </c>
-      <c r="F94" s="67" t="s">
+      <c r="F94" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="G94" s="65"/>
-      <c r="H94" s="65"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B95" s="38"/>
-      <c r="C95" s="64" t="s">
+      <c r="C95" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="65"/>
-      <c r="E95" s="66" t="s">
+      <c r="D95" s="66"/>
+      <c r="E95" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="F95" s="68" t="s">
+      <c r="F95" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="G95" s="65" t="s">
+      <c r="G95" s="66" t="s">
         <v>322</v>
       </c>
-      <c r="H95" s="65" t="s">
+      <c r="H95" s="66" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="96" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B96" s="38"/>
-      <c r="C96" s="64" t="s">
+      <c r="C96" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="70" t="s">
         <v>316</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="F96" s="65"/>
-      <c r="G96" s="65"/>
-      <c r="H96" s="65"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B97" s="38"/>
-      <c r="C97" s="70" t="s">
+      <c r="C97" s="71" t="s">
         <v>325</v>
       </c>
-      <c r="D97" s="66" t="s">
+      <c r="D97" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="E97" s="69" t="s">
+      <c r="E97" s="70" t="s">
         <v>326</v>
       </c>
-      <c r="F97" s="65"/>
-      <c r="G97" s="68" t="s">
+      <c r="F97" s="66"/>
+      <c r="G97" s="69" t="s">
         <v>327</v>
       </c>
-      <c r="H97" s="65"/>
+      <c r="H97" s="66"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B98" s="38"/>
-      <c r="C98" s="70" t="s">
+      <c r="C98" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66" t="s">
+      <c r="D98" s="67"/>
+      <c r="E98" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="F98" s="68" t="s">
+      <c r="F98" s="69" t="s">
         <v>329</v>
       </c>
-      <c r="G98" s="65" t="s">
+      <c r="G98" s="66" t="s">
         <v>330</v>
       </c>
-      <c r="H98" s="65"/>
+      <c r="H98" s="66"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B99" s="38"/>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="72" t="s">
         <v>207</v>
       </c>
-      <c r="D99" s="65"/>
-      <c r="E99" s="69"/>
-      <c r="F99" s="68" t="s">
+      <c r="D99" s="66"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="69" t="s">
         <v>331</v>
       </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B100" s="38"/>
-      <c r="C100" s="71" t="s">
+      <c r="C100" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="D100" s="66"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="68" t="s">
+      <c r="D100" s="67"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="69" t="s">
         <v>333</v>
       </c>
-      <c r="G100" s="65" t="s">
+      <c r="G100" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="H100" s="65"/>
+      <c r="H100" s="66"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B101" s="38"/>
-      <c r="C101" s="64" t="s">
+      <c r="C101" s="65" t="s">
         <v>143</v>
       </c>
-      <c r="D101" s="65"/>
-      <c r="E101" s="66" t="s">
+      <c r="D101" s="66"/>
+      <c r="E101" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="F101" s="65"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
     </row>
     <row r="102" s="2" customFormat="1" spans="2:8">
       <c r="B102" s="38"/>
-      <c r="C102" s="65" t="s">
+      <c r="C102" s="66" t="s">
         <v>162</v>
       </c>
-      <c r="D102" s="65" t="s">
+      <c r="D102" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B103" s="38"/>
-      <c r="C103" s="72" t="s">
+      <c r="C103" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="D103" s="66" t="s">
+      <c r="D103" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
     </row>
     <row r="104" s="2" customFormat="1" spans="2:8">
       <c r="B104" s="38"/>
-      <c r="C104" s="65" t="s">
+      <c r="C104" s="66" t="s">
         <v>304</v>
       </c>
-      <c r="D104" s="65" t="s">
+      <c r="D104" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
     </row>
     <row r="105" s="2" customFormat="1" spans="2:8">
       <c r="B105" s="38"/>
-      <c r="C105" s="65" t="s">
+      <c r="C105" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65" t="s">
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="G105" s="65"/>
-      <c r="H105" s="65"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="16.2" spans="2:8">
       <c r="B106" s="38"/>
-      <c r="C106" s="65" t="s">
+      <c r="C106" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D106" s="66" t="s">
+      <c r="D106" s="67" t="s">
         <v>220</v>
       </c>
-      <c r="E106" s="65"/>
-      <c r="F106" s="66" t="s">
+      <c r="E106" s="66"/>
+      <c r="F106" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="G106" s="65"/>
-      <c r="H106" s="65"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
     </row>
     <row r="107" s="2" customFormat="1" spans="2:8">
       <c r="B107" s="38"/>
-      <c r="C107" s="73" t="s">
+      <c r="C107" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-      <c r="G107" s="67" t="s">
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="H107" s="65"/>
+      <c r="H107" s="66"/>
     </row>
     <row r="108" s="2" customFormat="1" spans="2:2">
       <c r="B108" s="38"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="1"/>
+    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -3396,10 +3396,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3498,14 +3498,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3521,7 +3521,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3536,14 +3559,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3558,36 +3574,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3595,24 +3581,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3627,14 +3606,35 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3699,7 +3699,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3711,25 +3783,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,31 +3819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3777,13 +3837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3795,25 +3849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3825,25 +3867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3856,30 +3880,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3950,22 +3950,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3981,6 +3976,50 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4003,47 +4042,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4055,10 +4055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4067,133 +4067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4354,9 +4354,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4385,6 +4382,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4514,11 +4514,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="00FF0000"/>
+      <color rgb="00000000"/>
+      <color rgb="00FFFF00"/>
       <color rgb="00FA26DF"/>
       <color rgb="0092D050"/>
-      <color rgb="00000000"/>
-      <color rgb="00FFFF00"/>
-      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4648,7 +4648,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8633460" y="23233380"/>
+          <a:off x="8633460" y="23225760"/>
           <a:ext cx="1493520" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4690,7 +4690,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8221980" y="18501360"/>
+          <a:off x="8221980" y="18493740"/>
           <a:ext cx="6362700" cy="3764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4774,7 +4774,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7787640" y="16413480"/>
+          <a:off x="7787640" y="16405860"/>
           <a:ext cx="5852160" cy="1363980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5082,8 +5082,8 @@
   </sheetPr>
   <dimension ref="B1:R56"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -15267,8 +15267,8 @@
   <sheetPr/>
   <dimension ref="B1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -15450,7 +15450,7 @@
       <c r="H11" s="40"/>
     </row>
     <row r="12" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="40" t="s">
         <v>143</v>
       </c>
       <c r="D12" s="40"/>
@@ -15520,7 +15520,7 @@
       <c r="D17" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="E17" s="53" t="s">
+      <c r="E17" s="52" t="s">
         <v>156</v>
       </c>
       <c r="F17" s="40"/>
@@ -15584,7 +15584,7 @@
         <v>167</v>
       </c>
       <c r="D22" s="40"/>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>168</v>
       </c>
       <c r="F22" s="51" t="s">
@@ -15598,7 +15598,7 @@
         <v>170</v>
       </c>
       <c r="D23" s="40"/>
-      <c r="E23" s="54"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="51" t="s">
         <v>171</v>
       </c>
@@ -15622,7 +15622,7 @@
         <v>175</v>
       </c>
       <c r="D26" s="40"/>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>176</v>
       </c>
       <c r="F26" s="50"/>
@@ -15634,13 +15634,13 @@
         <v>177</v>
       </c>
       <c r="D27" s="40"/>
-      <c r="E27" s="54"/>
+      <c r="E27" s="53"/>
       <c r="F27" s="50"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
     </row>
     <row r="28" s="39" customFormat="1" spans="3:3">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>178</v>
       </c>
     </row>
@@ -15709,7 +15709,7 @@
       <c r="H34" s="40"/>
     </row>
     <row r="35" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="55" t="s">
         <v>188</v>
       </c>
       <c r="E35" s="48" t="s">
@@ -15722,7 +15722,7 @@
       <c r="H35" s="40"/>
     </row>
     <row r="36" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C36" s="57" t="s">
+      <c r="C36" s="56" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="48"/>
@@ -15764,7 +15764,7 @@
       </c>
     </row>
     <row r="39" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="55" t="s">
         <v>199</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -15784,7 +15784,7 @@
       </c>
     </row>
     <row r="40" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="57" t="s">
         <v>205</v>
       </c>
       <c r="D40" s="40"/>
@@ -15796,7 +15796,7 @@
       <c r="H40" s="40"/>
     </row>
     <row r="41" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="57" t="s">
         <v>207</v>
       </c>
       <c r="D41" s="40"/>
@@ -15808,7 +15808,7 @@
       <c r="H41" s="40"/>
     </row>
     <row r="42" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C42" s="57" t="s">
+      <c r="C42" s="55" t="s">
         <v>209</v>
       </c>
       <c r="D42" s="48"/>
@@ -15832,7 +15832,7 @@
       <c r="H43" s="40"/>
     </row>
     <row r="44" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="57" t="s">
         <v>213</v>
       </c>
       <c r="D44" s="48" t="s">
@@ -15882,7 +15882,7 @@
       <c r="H47" s="40"/>
     </row>
     <row r="48" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="55" t="s">
         <v>167</v>
       </c>
       <c r="D48" s="48"/>
@@ -15895,7 +15895,7 @@
       </c>
     </row>
     <row r="49" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C49" s="56" t="s">
+      <c r="C49" s="55" t="s">
         <v>151</v>
       </c>
       <c r="D49" s="47" t="s">
@@ -15925,7 +15925,7 @@
       <c r="H50" s="40"/>
     </row>
     <row r="51" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="55" t="s">
         <v>227</v>
       </c>
       <c r="D51" s="48" t="s">
@@ -15951,7 +15951,7 @@
       <c r="H52" s="40"/>
     </row>
     <row r="53" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="58" t="s">
         <v>232</v>
       </c>
       <c r="D53" s="48" t="s">
@@ -15978,13 +15978,13 @@
       <c r="C55" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="E55" s="60"/>
+      <c r="E55" s="59"/>
     </row>
     <row r="56" s="38" customFormat="1" spans="3:5">
       <c r="C56" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E56" s="60"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="58" s="38" customFormat="1" spans="2:8">
       <c r="B58" s="38" t="s">
@@ -16015,10 +16015,10 @@
       <c r="E59" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="F59" s="61" t="s">
+      <c r="F59" s="60" t="s">
         <v>241</v>
       </c>
-      <c r="G59" s="61" t="s">
+      <c r="G59" s="60" t="s">
         <v>242</v>
       </c>
       <c r="H59" s="40" t="s">
@@ -16026,14 +16026,14 @@
       </c>
     </row>
     <row r="60" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="57" t="s">
         <v>244</v>
       </c>
       <c r="D60" s="40"/>
       <c r="E60" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="F60" s="62" t="s">
+      <c r="F60" s="61" t="s">
         <v>246</v>
       </c>
       <c r="G60" s="40" t="s">
@@ -16042,13 +16042,13 @@
       <c r="H60" s="40"/>
     </row>
     <row r="61" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="57" t="s">
         <v>248</v>
       </c>
       <c r="D61" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="E61" s="54"/>
+      <c r="E61" s="53"/>
       <c r="F61" s="49" t="s">
         <v>250</v>
       </c>
@@ -16056,11 +16056,11 @@
       <c r="H61" s="40"/>
     </row>
     <row r="62" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C62" s="58" t="s">
+      <c r="C62" s="57" t="s">
         <v>251</v>
       </c>
       <c r="D62" s="40"/>
-      <c r="E62" s="54"/>
+      <c r="E62" s="53"/>
       <c r="F62" s="49" t="s">
         <v>252</v>
       </c>
@@ -16136,11 +16136,11 @@
       <c r="G67" s="40"/>
       <c r="H67" s="40"/>
     </row>
-    <row r="68" s="38" customFormat="1" ht="16.2" spans="3:8">
+    <row r="68" s="38" customFormat="1" spans="3:8">
       <c r="C68" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D68" s="48" t="s">
+      <c r="D68" s="62" t="s">
         <v>264</v>
       </c>
       <c r="F68" s="40"/>
@@ -16152,7 +16152,7 @@
         <v>265</v>
       </c>
       <c r="D69" s="48"/>
-      <c r="E69" s="48" t="s">
+      <c r="E69" s="62" t="s">
         <v>266</v>
       </c>
       <c r="F69" s="40"/>
@@ -16890,7 +16890,7 @@
       <c r="H125" s="40"/>
     </row>
     <row r="126" s="38" customFormat="1" ht="16.2" spans="3:8">
-      <c r="C126" s="58" t="s">
+      <c r="C126" s="57" t="s">
         <v>368</v>
       </c>
       <c r="D126" s="40"/>
@@ -16925,7 +16925,7 @@
   <dimension ref="A2:S36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N22"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -17422,11 +17422,11 @@
         <v>10</v>
       </c>
       <c r="P12" s="34" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="Q12" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P12,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,56,5</v>
+        <v>0,14,5</v>
       </c>
       <c r="R12" s="29"/>
       <c r="S12" s="2">
@@ -17458,11 +17458,11 @@
         <v>11</v>
       </c>
       <c r="P13" s="34" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="Q13" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P13,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,0,5</v>
+        <v>0,29,5</v>
       </c>
       <c r="R13" s="29"/>
       <c r="S13" s="2">
@@ -17857,11 +17857,11 @@
         <v>20</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="N22" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(M22,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,0,5</v>
+        <v>0,1,5</v>
       </c>
       <c r="O22" s="27">
         <v>20</v>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3402,9 +3402,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3505,23 +3505,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3532,9 +3526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3548,9 +3541,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3564,11 +3556,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3626,13 +3618,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -3642,7 +3627,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3705,7 +3705,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3717,7 +3747,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3729,7 +3759,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3741,19 +3837,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3765,127 +3873,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,6 +3956,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3967,17 +3976,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4006,15 +4004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4026,15 +4015,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4053,6 +4033,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4061,10 +4061,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4073,31 +4073,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4109,97 +4112,94 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5089,7 +5089,7 @@
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3405,10 +3405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3508,14 +3508,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3524,6 +3538,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3538,7 +3567,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3546,21 +3582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3571,21 +3593,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3606,14 +3613,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3623,14 +3622,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3645,7 +3645,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3708,7 +3708,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3720,25 +3762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3750,7 +3786,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3762,133 +3882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3959,15 +3959,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4001,8 +3992,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4022,6 +4013,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4033,15 +4042,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4064,10 +4064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4076,37 +4076,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4115,94 +4112,97 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5091,8 +5091,8 @@
   </sheetPr>
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O46" sqref="O46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3406,8 +3406,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3507,6 +3507,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3521,8 +3560,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3537,32 +3600,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3581,14 +3621,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -3596,9 +3628,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3613,39 +3644,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3708,13 +3708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3726,7 +3738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,13 +3750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3756,13 +3762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,7 +3780,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3792,7 +3852,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3804,37 +3870,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3846,49 +3888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3959,6 +3959,47 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3970,6 +4011,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3998,61 +4048,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4064,10 +4064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4076,133 +4076,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5092,7 +5092,7 @@
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -15293,8 +15293,8 @@
   <sheetPr/>
   <dimension ref="B1:H127"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -3405,10 +3405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3507,9 +3507,98 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3531,97 +3620,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3636,16 +3636,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3708,19 +3708,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3738,7 +3738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3750,7 +3756,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3762,7 +3798,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3774,43 +3858,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3822,73 +3888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3959,28 +3959,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3996,21 +3994,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4042,17 +4025,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4064,10 +4064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4076,19 +4076,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4097,112 +4097,112 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5092,7 +5092,7 @@
   <dimension ref="B1:R57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" tabRatio="804"/>
+    <workbookView windowWidth="20928" windowHeight="9960" tabRatio="804" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="价值" sheetId="10" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>288元</t>
   </si>
   <si>
-    <t>庞统*20+888玉阙+8888元宝+30体力+50免广告券</t>
+    <t>庞统*30+888玉阙+8888元宝+30体力+50免广告券</t>
   </si>
   <si>
     <t>常规定制</t>
@@ -213,121 +213,121 @@
     <t>刘晔（投石车）</t>
   </si>
   <si>
+    <t>贾诩（说客）</t>
+  </si>
+  <si>
+    <t>荀攸（内政）</t>
+  </si>
+  <si>
+    <t>蔡文姬（倾国）</t>
+  </si>
+  <si>
+    <t>张绣（枪骑）</t>
+  </si>
+  <si>
+    <t>文聘（枪骑）</t>
+  </si>
+  <si>
+    <t>孙权军团</t>
+  </si>
+  <si>
+    <t>太史慈（火弓）</t>
+  </si>
+  <si>
+    <t>鲁肃（内政）</t>
+  </si>
+  <si>
+    <t>孙坚（虎卫）</t>
+  </si>
+  <si>
+    <t>诸葛恪（统帅）</t>
+  </si>
+  <si>
+    <t>大乔（倾城）</t>
+  </si>
+  <si>
+    <t>小乔（倾国）</t>
+  </si>
+  <si>
+    <t>孙尚香（神武）</t>
+  </si>
+  <si>
+    <t>张昭（辩士）</t>
+  </si>
+  <si>
+    <t>张纮（说客）</t>
+  </si>
+  <si>
+    <t>袁绍军团</t>
+  </si>
+  <si>
+    <t>文丑（大斧）</t>
+  </si>
+  <si>
+    <t>麴义（先登）</t>
+  </si>
+  <si>
+    <t>田丰（谋士）</t>
+  </si>
+  <si>
+    <t>沮授（谋士）</t>
+  </si>
+  <si>
+    <t>陈琳（辩士）</t>
+  </si>
+  <si>
+    <t>甄姬（倾国）</t>
+  </si>
+  <si>
+    <t>吕布军团</t>
+  </si>
+  <si>
+    <t>吕布（骠骑）</t>
+  </si>
+  <si>
+    <t>张辽（狼骑）</t>
+  </si>
+  <si>
+    <t>贾诩（毒士）</t>
+  </si>
+  <si>
+    <t>高顺（陷阵）</t>
+  </si>
+  <si>
+    <t>马腾（铁骑）</t>
+  </si>
+  <si>
+    <t>曹性（弓骑）</t>
+  </si>
+  <si>
+    <t>吕玲绮（巾帼）</t>
+  </si>
+  <si>
+    <t>司马军团</t>
+  </si>
+  <si>
+    <t>司马懿（辩士）</t>
+  </si>
+  <si>
+    <t>文鸯（刺客）</t>
+  </si>
+  <si>
+    <t>钟会（说客）</t>
+  </si>
+  <si>
+    <t>特别定制</t>
+  </si>
+  <si>
+    <t>庞统（狂士）</t>
+  </si>
+  <si>
+    <t>程昱（投石车）</t>
+  </si>
+  <si>
+    <t>司马懿（毒士）</t>
+  </si>
+  <si>
     <t>郭嘉（谋士）</t>
-  </si>
-  <si>
-    <t>贾诩（说客）</t>
-  </si>
-  <si>
-    <t>荀攸（内政）</t>
-  </si>
-  <si>
-    <t>蔡文姬（倾国）</t>
-  </si>
-  <si>
-    <t>张绣（枪骑）</t>
-  </si>
-  <si>
-    <t>文聘（枪骑）</t>
-  </si>
-  <si>
-    <t>孙权军团</t>
-  </si>
-  <si>
-    <t>太史慈（火弓）</t>
-  </si>
-  <si>
-    <t>鲁肃（内政）</t>
-  </si>
-  <si>
-    <t>孙坚（虎卫）</t>
-  </si>
-  <si>
-    <t>诸葛恪（统帅）</t>
-  </si>
-  <si>
-    <t>大乔（倾城）</t>
-  </si>
-  <si>
-    <t>小乔（倾国）</t>
-  </si>
-  <si>
-    <t>孙尚香（神武）</t>
-  </si>
-  <si>
-    <t>张昭（辩士）</t>
-  </si>
-  <si>
-    <t>张纮（说客）</t>
-  </si>
-  <si>
-    <t>袁绍军团</t>
-  </si>
-  <si>
-    <t>文丑（大斧）</t>
-  </si>
-  <si>
-    <t>麴义（先登）</t>
-  </si>
-  <si>
-    <t>田丰（谋士）</t>
-  </si>
-  <si>
-    <t>沮授（谋士）</t>
-  </si>
-  <si>
-    <t>陈琳（辩士）</t>
-  </si>
-  <si>
-    <t>甄姬（倾国）</t>
-  </si>
-  <si>
-    <t>吕布军团</t>
-  </si>
-  <si>
-    <t>吕布（骠骑）</t>
-  </si>
-  <si>
-    <t>张辽（狼骑）</t>
-  </si>
-  <si>
-    <t>贾诩（毒士）</t>
-  </si>
-  <si>
-    <t>高顺（陷阵）</t>
-  </si>
-  <si>
-    <t>马腾（铁骑）</t>
-  </si>
-  <si>
-    <t>曹性（弓骑）</t>
-  </si>
-  <si>
-    <t>吕玲绮（巾帼）</t>
-  </si>
-  <si>
-    <t>司马军团</t>
-  </si>
-  <si>
-    <t>司马懿（辩士）</t>
-  </si>
-  <si>
-    <t>文鸯（刺客）</t>
-  </si>
-  <si>
-    <t>钟会（说客）</t>
-  </si>
-  <si>
-    <t>特别定制</t>
-  </si>
-  <si>
-    <t>庞统（狂士）</t>
-  </si>
-  <si>
-    <t>程昱（投石车）</t>
-  </si>
-  <si>
-    <t>司马懿（毒士）</t>
   </si>
   <si>
     <t>周瑜（统帅）</t>
@@ -3405,10 +3405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3508,13 +3508,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3522,37 +3515,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3560,13 +3545,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3580,16 +3558,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3613,7 +3606,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3621,15 +3614,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3638,14 +3646,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3708,7 +3708,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3720,7 +3798,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3732,13 +3828,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3750,25 +3852,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3780,115 +3882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3959,30 +3959,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3994,15 +3970,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4022,6 +3989,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4033,10 +4015,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4056,6 +4036,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4064,10 +4064,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4076,133 +4076,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5091,8 +5091,8 @@
   </sheetPr>
   <dimension ref="B1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -5465,19 +5465,17 @@
       </c>
     </row>
     <row r="32" spans="11:16">
-      <c r="K32" s="80" t="s">
-        <v>62</v>
-      </c>
+      <c r="K32" s="34"/>
       <c r="L32" s="34"/>
       <c r="M32" s="34"/>
       <c r="N32" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="O32" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="O32" s="81" t="s">
+      <c r="P32" s="81" t="s">
         <v>64</v>
-      </c>
-      <c r="P32" s="81" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="33" spans="11:16">
@@ -5485,69 +5483,69 @@
       <c r="L33" s="80"/>
       <c r="M33" s="80"/>
       <c r="N33" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" s="81" t="s">
         <v>66</v>
-      </c>
-      <c r="O33" s="81" t="s">
-        <v>67</v>
       </c>
       <c r="P33" s="81"/>
     </row>
     <row r="34" spans="10:16">
       <c r="J34" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="K34" s="80" t="s">
+      <c r="L34" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="80" t="s">
+      <c r="M34" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="M34" s="80" t="s">
+      <c r="N34" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="N34" s="81" t="s">
+      <c r="O34" s="81" t="s">
         <v>72</v>
-      </c>
-      <c r="O34" s="81" t="s">
-        <v>73</v>
       </c>
       <c r="P34" s="32"/>
     </row>
     <row r="35" spans="11:16">
       <c r="K35" s="80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L35" s="34"/>
       <c r="M35" s="82"/>
       <c r="N35" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="O35" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="O35" s="81" t="s">
+      <c r="P35" s="81" t="s">
         <v>76</v>
-      </c>
-      <c r="P35" s="81" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="10:16">
       <c r="J36" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K36" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="K36" s="80" t="s">
+      <c r="L36" s="80" t="s">
         <v>79</v>
-      </c>
-      <c r="L36" s="80" t="s">
-        <v>80</v>
       </c>
       <c r="M36" s="82"/>
       <c r="N36" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="O36" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="O36" s="81" t="s">
+      <c r="P36" s="81" t="s">
         <v>82</v>
-      </c>
-      <c r="P36" s="81" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="37" spans="11:16">
@@ -5555,32 +5553,32 @@
       <c r="L37" s="82"/>
       <c r="M37" s="82"/>
       <c r="N37" s="81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O37" s="32"/>
       <c r="P37" s="32"/>
     </row>
     <row r="38" spans="10:16">
       <c r="J38" s="75" t="s">
+        <v>84</v>
+      </c>
+      <c r="K38" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="K38" s="80" t="s">
+      <c r="L38" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="L38" s="80" t="s">
+      <c r="M38" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="M38" s="80" t="s">
+      <c r="N38" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="N38" s="81" t="s">
+      <c r="O38" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="O38" s="81" t="s">
+      <c r="P38" s="81" t="s">
         <v>90</v>
-      </c>
-      <c r="P38" s="81" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="11:16">
@@ -5588,31 +5586,31 @@
       <c r="L39" s="82"/>
       <c r="M39" s="82"/>
       <c r="N39" s="81" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O39" s="32"/>
       <c r="P39" s="32"/>
     </row>
     <row r="40" spans="10:16">
       <c r="J40" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40" s="80" t="s">
         <v>93</v>
-      </c>
-      <c r="K40" s="80" t="s">
-        <v>94</v>
       </c>
       <c r="L40" s="82"/>
       <c r="M40" s="82"/>
       <c r="N40" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="O40" s="81" t="s">
         <v>95</v>
-      </c>
-      <c r="O40" s="81" t="s">
-        <v>96</v>
       </c>
       <c r="P40" s="32"/>
     </row>
     <row r="41" ht="16.2" spans="9:9">
       <c r="I41" s="76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="10:11">
@@ -5620,23 +5618,26 @@
         <v>44</v>
       </c>
       <c r="K43" s="80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="44" spans="10:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13">
       <c r="J44" s="75" t="s">
         <v>55</v>
       </c>
       <c r="K44" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="L44" s="80" t="s">
+      <c r="M44" s="80" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="10:11">
       <c r="J45" s="75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45" s="80" t="s">
         <v>101</v>
@@ -5644,7 +5645,7 @@
     </row>
     <row r="46" spans="10:11">
       <c r="J46" s="75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K46" s="80" t="s">
         <v>102</v>
@@ -5652,7 +5653,7 @@
     </row>
     <row r="47" spans="10:10">
       <c r="J47" s="75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="10:10">
@@ -16950,8 +16951,8 @@
   <sheetPr/>
   <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
@@ -17356,11 +17357,11 @@
         <v>8</v>
       </c>
       <c r="P10" s="34" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="29" t="str">
         <f>CONCATENATE("0,",VLOOKUP(P10,武将表!$A:$B,2,FALSE),",5")</f>
-        <v>0,7,5</v>
+        <v>0,45,5</v>
       </c>
       <c r="R10" s="29"/>
       <c r="S10" s="2">

--- a/策划文档/数值_投放.xlsx
+++ b/策划文档/数值_投放.xlsx
@@ -108,7 +108,7 @@
     <t>元宝玉阙套餐</t>
   </si>
   <si>
-    <t>3000玉阙+10万元宝=100元</t>
+    <t>3000玉阙+15万元宝=100元</t>
   </si>
   <si>
     <t>体力套餐</t>
@@ -3414,9 +3414,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3516,22 +3516,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <c